--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>ERJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4371900</v>
+        <v>1936900</v>
       </c>
       <c r="E8" s="3">
-        <v>4384600</v>
+        <v>1459500</v>
       </c>
       <c r="F8" s="3">
-        <v>5005700</v>
+        <v>3474100</v>
       </c>
       <c r="G8" s="3">
-        <v>4740900</v>
+        <v>3966200</v>
       </c>
       <c r="H8" s="3">
-        <v>1468600</v>
+        <v>3756400</v>
       </c>
       <c r="I8" s="3">
-        <v>1456000</v>
+        <v>1163600</v>
       </c>
       <c r="J8" s="3">
+        <v>1153700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1440100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1436600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3716500</v>
+        <v>1672200</v>
       </c>
       <c r="E9" s="3">
-        <v>3564100</v>
+        <v>1327800</v>
       </c>
       <c r="F9" s="3">
-        <v>4008600</v>
+        <v>2824000</v>
       </c>
       <c r="G9" s="3">
-        <v>3863700</v>
+        <v>3176200</v>
       </c>
       <c r="H9" s="3">
-        <v>1177600</v>
+        <v>3061400</v>
       </c>
       <c r="I9" s="3">
-        <v>2251500</v>
+        <v>933100</v>
       </c>
       <c r="J9" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2185300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2228700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>655400</v>
+        <v>264700</v>
       </c>
       <c r="E10" s="3">
-        <v>820500</v>
+        <v>131700</v>
       </c>
       <c r="F10" s="3">
-        <v>997000</v>
+        <v>650100</v>
       </c>
       <c r="G10" s="3">
-        <v>877200</v>
+        <v>790000</v>
       </c>
       <c r="H10" s="3">
-        <v>290900</v>
+        <v>695000</v>
       </c>
       <c r="I10" s="3">
-        <v>-795500</v>
+        <v>230500</v>
       </c>
       <c r="J10" s="3">
+        <v>-630300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-745100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-792100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>39400</v>
+        <v>14500</v>
       </c>
       <c r="E12" s="3">
-        <v>36800</v>
+        <v>13100</v>
       </c>
       <c r="F12" s="3">
-        <v>37800</v>
+        <v>29200</v>
       </c>
       <c r="G12" s="3">
-        <v>33200</v>
+        <v>30000</v>
       </c>
       <c r="H12" s="3">
-        <v>11000</v>
+        <v>26300</v>
       </c>
       <c r="I12" s="3">
-        <v>17400</v>
+        <v>8700</v>
       </c>
       <c r="J12" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K12" s="3">
         <v>18100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21200</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>700</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>-1000</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>-5500</v>
+        <v>-800</v>
       </c>
       <c r="J14" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K14" s="3">
         <v>-4700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -922,18 +944,21 @@
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="3">
-        <v>3500</v>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>7900</v>
+        <v>2700</v>
       </c>
       <c r="K15" s="3">
         <v>7900</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4348500</v>
+        <v>2056000</v>
       </c>
       <c r="E17" s="3">
-        <v>4129100</v>
+        <v>1657400</v>
       </c>
       <c r="F17" s="3">
-        <v>4838000</v>
+        <v>3271700</v>
       </c>
       <c r="G17" s="3">
-        <v>4483300</v>
+        <v>3833400</v>
       </c>
       <c r="H17" s="3">
-        <v>1341700</v>
+        <v>3552300</v>
       </c>
       <c r="I17" s="3">
-        <v>1289400</v>
+        <v>1063100</v>
       </c>
       <c r="J17" s="3">
+        <v>1021700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1297200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1357700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>23400</v>
+        <v>-119100</v>
       </c>
       <c r="E18" s="3">
-        <v>255400</v>
+        <v>-197900</v>
       </c>
       <c r="F18" s="3">
-        <v>167600</v>
+        <v>202400</v>
       </c>
       <c r="G18" s="3">
-        <v>257600</v>
+        <v>132800</v>
       </c>
       <c r="H18" s="3">
-        <v>126900</v>
+        <v>204100</v>
       </c>
       <c r="I18" s="3">
-        <v>166600</v>
+        <v>100500</v>
       </c>
       <c r="J18" s="3">
+        <v>132000</v>
+      </c>
+      <c r="K18" s="3">
         <v>142900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>78900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>46500</v>
+        <v>51100</v>
       </c>
       <c r="E20" s="3">
-        <v>136000</v>
+        <v>27300</v>
       </c>
       <c r="F20" s="3">
-        <v>111200</v>
+        <v>107700</v>
       </c>
       <c r="G20" s="3">
-        <v>131000</v>
+        <v>88100</v>
       </c>
       <c r="H20" s="3">
-        <v>21900</v>
+        <v>103800</v>
       </c>
       <c r="I20" s="3">
-        <v>4000</v>
+        <v>17300</v>
       </c>
       <c r="J20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K20" s="3">
         <v>26900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>304800</v>
+        <v>89600</v>
       </c>
       <c r="E21" s="3">
-        <v>650200</v>
+        <v>18100</v>
       </c>
       <c r="F21" s="3">
-        <v>580000</v>
+        <v>518000</v>
       </c>
       <c r="G21" s="3">
-        <v>642000</v>
+        <v>462900</v>
       </c>
       <c r="H21" s="3">
-        <v>216300</v>
+        <v>511400</v>
       </c>
       <c r="I21" s="3">
-        <v>239200</v>
+        <v>172100</v>
       </c>
       <c r="J21" s="3">
+        <v>190300</v>
+      </c>
+      <c r="K21" s="3">
         <v>235600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>144800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>192900</v>
+        <v>6300</v>
       </c>
       <c r="E22" s="3">
-        <v>160600</v>
+        <v>26300</v>
       </c>
       <c r="F22" s="3">
-        <v>149000</v>
+        <v>127200</v>
       </c>
       <c r="G22" s="3">
-        <v>131300</v>
+        <v>118100</v>
       </c>
       <c r="H22" s="3">
-        <v>31100</v>
+        <v>104000</v>
       </c>
       <c r="I22" s="3">
-        <v>30000</v>
+        <v>24600</v>
       </c>
       <c r="J22" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K22" s="3">
         <v>26500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25000</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-123000</v>
+        <v>-74300</v>
       </c>
       <c r="E23" s="3">
-        <v>230900</v>
+        <v>-196900</v>
       </c>
       <c r="F23" s="3">
-        <v>129800</v>
+        <v>182900</v>
       </c>
       <c r="G23" s="3">
-        <v>257300</v>
+        <v>102800</v>
       </c>
       <c r="H23" s="3">
-        <v>117700</v>
+        <v>203900</v>
       </c>
       <c r="I23" s="3">
-        <v>140700</v>
+        <v>93200</v>
       </c>
       <c r="J23" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K23" s="3">
         <v>143300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>61500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27300</v>
+        <v>82600</v>
       </c>
       <c r="E24" s="3">
-        <v>20200</v>
+        <v>-16300</v>
       </c>
       <c r="F24" s="3">
-        <v>-8400</v>
+        <v>16000</v>
       </c>
       <c r="G24" s="3">
-        <v>191600</v>
+        <v>-6700</v>
       </c>
       <c r="H24" s="3">
-        <v>36500</v>
+        <v>151800</v>
       </c>
       <c r="I24" s="3">
-        <v>59900</v>
+        <v>28900</v>
       </c>
       <c r="J24" s="3">
+        <v>47400</v>
+      </c>
+      <c r="K24" s="3">
         <v>61900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-150300</v>
+        <v>-156800</v>
       </c>
       <c r="E26" s="3">
-        <v>210700</v>
+        <v>-180700</v>
       </c>
       <c r="F26" s="3">
-        <v>138200</v>
+        <v>167000</v>
       </c>
       <c r="G26" s="3">
-        <v>65800</v>
+        <v>109500</v>
       </c>
       <c r="H26" s="3">
-        <v>81200</v>
+        <v>52100</v>
       </c>
       <c r="I26" s="3">
-        <v>80800</v>
+        <v>64300</v>
       </c>
       <c r="J26" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K26" s="3">
         <v>81400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>29900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-156200</v>
+        <v>-161000</v>
       </c>
       <c r="E27" s="3">
-        <v>198700</v>
+        <v>-185400</v>
       </c>
       <c r="F27" s="3">
-        <v>136700</v>
+        <v>157400</v>
       </c>
       <c r="G27" s="3">
-        <v>56400</v>
+        <v>108300</v>
       </c>
       <c r="H27" s="3">
-        <v>78200</v>
+        <v>44700</v>
       </c>
       <c r="I27" s="3">
-        <v>79900</v>
+        <v>61900</v>
       </c>
       <c r="J27" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K27" s="3">
         <v>81200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27700</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-82600</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>61600</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-46500</v>
+        <v>-51100</v>
       </c>
       <c r="E32" s="3">
-        <v>-136000</v>
+        <v>-27300</v>
       </c>
       <c r="F32" s="3">
-        <v>-111200</v>
+        <v>-107700</v>
       </c>
       <c r="G32" s="3">
-        <v>-131000</v>
+        <v>-88100</v>
       </c>
       <c r="H32" s="3">
-        <v>-21900</v>
+        <v>-103800</v>
       </c>
       <c r="I32" s="3">
-        <v>-4000</v>
+        <v>-17300</v>
       </c>
       <c r="J32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-26900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-156200</v>
+        <v>-243600</v>
       </c>
       <c r="E33" s="3">
-        <v>198700</v>
+        <v>-123800</v>
       </c>
       <c r="F33" s="3">
-        <v>136700</v>
+        <v>157400</v>
       </c>
       <c r="G33" s="3">
-        <v>56400</v>
+        <v>108300</v>
       </c>
       <c r="H33" s="3">
-        <v>78200</v>
+        <v>44700</v>
       </c>
       <c r="I33" s="3">
-        <v>79900</v>
+        <v>61900</v>
       </c>
       <c r="J33" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K33" s="3">
         <v>81200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-156200</v>
+        <v>-243600</v>
       </c>
       <c r="E35" s="3">
-        <v>198700</v>
+        <v>-123800</v>
       </c>
       <c r="F35" s="3">
-        <v>136700</v>
+        <v>157400</v>
       </c>
       <c r="G35" s="3">
-        <v>56400</v>
+        <v>108300</v>
       </c>
       <c r="H35" s="3">
-        <v>78200</v>
+        <v>44700</v>
       </c>
       <c r="I35" s="3">
-        <v>79900</v>
+        <v>61900</v>
       </c>
       <c r="J35" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K35" s="3">
         <v>81200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1159000</v>
+        <v>646000</v>
       </c>
       <c r="E41" s="3">
-        <v>981700</v>
+        <v>930100</v>
       </c>
       <c r="F41" s="3">
-        <v>944900</v>
+        <v>787800</v>
       </c>
       <c r="G41" s="3">
-        <v>1974600</v>
+        <v>758300</v>
       </c>
       <c r="H41" s="3">
-        <v>400000</v>
+        <v>1584600</v>
       </c>
       <c r="I41" s="3">
-        <v>393200</v>
+        <v>321000</v>
       </c>
       <c r="J41" s="3">
+        <v>315500</v>
+      </c>
+      <c r="K41" s="3">
         <v>840300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>669300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1577500</v>
+        <v>309600</v>
       </c>
       <c r="E42" s="3">
-        <v>1899300</v>
+        <v>1265900</v>
       </c>
       <c r="F42" s="3">
-        <v>1351300</v>
+        <v>1524200</v>
       </c>
       <c r="G42" s="3">
-        <v>567700</v>
+        <v>1084400</v>
       </c>
       <c r="H42" s="3">
-        <v>169100</v>
+        <v>455600</v>
       </c>
       <c r="I42" s="3">
-        <v>221700</v>
+        <v>135700</v>
       </c>
       <c r="J42" s="3">
+        <v>177900</v>
+      </c>
+      <c r="K42" s="3">
         <v>275300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>376900</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>981500</v>
+        <v>582000</v>
       </c>
       <c r="E43" s="3">
-        <v>872600</v>
+        <v>787600</v>
       </c>
       <c r="F43" s="3">
-        <v>739600</v>
+        <v>700300</v>
       </c>
       <c r="G43" s="3">
-        <v>986400</v>
+        <v>593600</v>
       </c>
       <c r="H43" s="3">
-        <v>185700</v>
+        <v>791600</v>
       </c>
       <c r="I43" s="3">
-        <v>301300</v>
+        <v>149000</v>
       </c>
       <c r="J43" s="3">
+        <v>241800</v>
+      </c>
+      <c r="K43" s="3">
         <v>257700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>260700</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2268500</v>
+        <v>985300</v>
       </c>
       <c r="E44" s="3">
-        <v>1659900</v>
+        <v>1820500</v>
       </c>
       <c r="F44" s="3">
-        <v>1900000</v>
+        <v>1332000</v>
       </c>
       <c r="G44" s="3">
-        <v>2110500</v>
+        <v>1524700</v>
       </c>
       <c r="H44" s="3">
-        <v>561700</v>
+        <v>1693700</v>
       </c>
       <c r="I44" s="3">
-        <v>534100</v>
+        <v>450800</v>
       </c>
       <c r="J44" s="3">
+        <v>428600</v>
+      </c>
+      <c r="K44" s="3">
         <v>604900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1132900</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>411700</v>
+        <v>3951600</v>
       </c>
       <c r="E45" s="3">
-        <v>126900</v>
+        <v>330400</v>
       </c>
       <c r="F45" s="3">
-        <v>225600</v>
+        <v>101800</v>
       </c>
       <c r="G45" s="3">
-        <v>207100</v>
+        <v>181000</v>
       </c>
       <c r="H45" s="3">
-        <v>40400</v>
+        <v>166200</v>
       </c>
       <c r="I45" s="3">
-        <v>99600</v>
+        <v>32400</v>
       </c>
       <c r="J45" s="3">
+        <v>79900</v>
+      </c>
+      <c r="K45" s="3">
         <v>124100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>123600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6398100</v>
+        <v>6474400</v>
       </c>
       <c r="E46" s="3">
-        <v>5468800</v>
+        <v>5134500</v>
       </c>
       <c r="F46" s="3">
-        <v>5161300</v>
+        <v>4388800</v>
       </c>
       <c r="G46" s="3">
-        <v>5846400</v>
+        <v>4141900</v>
       </c>
       <c r="H46" s="3">
-        <v>1356900</v>
+        <v>4691700</v>
       </c>
       <c r="I46" s="3">
-        <v>1346900</v>
+        <v>1088900</v>
       </c>
       <c r="J46" s="3">
+        <v>1080900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1251400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1281100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>228600</v>
+        <v>45000</v>
       </c>
       <c r="E47" s="3">
-        <v>519300</v>
+        <v>183500</v>
       </c>
       <c r="F47" s="3">
-        <v>355100</v>
+        <v>416700</v>
       </c>
       <c r="G47" s="3">
-        <v>1068200</v>
+        <v>285000</v>
       </c>
       <c r="H47" s="3">
-        <v>122500</v>
+        <v>857200</v>
       </c>
       <c r="I47" s="3">
-        <v>124100</v>
+        <v>98300</v>
       </c>
       <c r="J47" s="3">
+        <v>99600</v>
+      </c>
+      <c r="K47" s="3">
         <v>262900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>308400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1777700</v>
+        <v>760400</v>
       </c>
       <c r="E48" s="3">
-        <v>1626000</v>
+        <v>1426600</v>
       </c>
       <c r="F48" s="3">
-        <v>1639500</v>
+        <v>1304900</v>
       </c>
       <c r="G48" s="3">
-        <v>1848700</v>
+        <v>1315700</v>
       </c>
       <c r="H48" s="3">
-        <v>473100</v>
+        <v>1483600</v>
       </c>
       <c r="I48" s="3">
-        <v>465500</v>
+        <v>379600</v>
       </c>
       <c r="J48" s="3">
+        <v>373500</v>
+      </c>
+      <c r="K48" s="3">
         <v>325200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>271600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1718100</v>
+        <v>675400</v>
       </c>
       <c r="E49" s="3">
-        <v>1454200</v>
+        <v>1378800</v>
       </c>
       <c r="F49" s="3">
-        <v>1266900</v>
+        <v>1167000</v>
       </c>
       <c r="G49" s="3">
-        <v>1281500</v>
+        <v>1016700</v>
       </c>
       <c r="H49" s="3">
-        <v>294400</v>
+        <v>1028400</v>
       </c>
       <c r="I49" s="3">
-        <v>259000</v>
+        <v>236300</v>
       </c>
       <c r="J49" s="3">
+        <v>207800</v>
+      </c>
+      <c r="K49" s="3">
         <v>447800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>401000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>96000</v>
+        <v>30700</v>
       </c>
       <c r="E52" s="3">
-        <v>376000</v>
+        <v>77100</v>
       </c>
       <c r="F52" s="3">
-        <v>454800</v>
+        <v>301800</v>
       </c>
       <c r="G52" s="3">
-        <v>596100</v>
+        <v>365000</v>
       </c>
       <c r="H52" s="3">
-        <v>184200</v>
+        <v>478300</v>
       </c>
       <c r="I52" s="3">
-        <v>173000</v>
+        <v>147800</v>
       </c>
       <c r="J52" s="3">
+        <v>138800</v>
+      </c>
+      <c r="K52" s="3">
         <v>400100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>382800</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10218500</v>
+        <v>7986000</v>
       </c>
       <c r="E54" s="3">
-        <v>9250200</v>
+        <v>8200400</v>
       </c>
       <c r="F54" s="3">
-        <v>8877700</v>
+        <v>7423300</v>
       </c>
       <c r="G54" s="3">
-        <v>10640800</v>
+        <v>7124300</v>
       </c>
       <c r="H54" s="3">
-        <v>2431200</v>
+        <v>8539200</v>
       </c>
       <c r="I54" s="3">
-        <v>2368500</v>
+        <v>1951000</v>
       </c>
       <c r="J54" s="3">
+        <v>1900700</v>
+      </c>
+      <c r="K54" s="3">
         <v>2214000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2195200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>807200</v>
+        <v>270400</v>
       </c>
       <c r="E57" s="3">
-        <v>637000</v>
+        <v>647800</v>
       </c>
       <c r="F57" s="3">
-        <v>724600</v>
+        <v>511200</v>
       </c>
       <c r="G57" s="3">
-        <v>943700</v>
+        <v>581500</v>
       </c>
       <c r="H57" s="3">
-        <v>229000</v>
+        <v>757300</v>
       </c>
       <c r="I57" s="3">
-        <v>236700</v>
+        <v>183800</v>
       </c>
       <c r="J57" s="3">
+        <v>189900</v>
+      </c>
+      <c r="K57" s="3">
         <v>354400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>411600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>162200</v>
+        <v>15000</v>
       </c>
       <c r="E58" s="3">
-        <v>300400</v>
+        <v>130200</v>
       </c>
       <c r="F58" s="3">
-        <v>388400</v>
+        <v>241100</v>
       </c>
       <c r="G58" s="3">
-        <v>200000</v>
+        <v>311700</v>
       </c>
       <c r="H58" s="3">
-        <v>23400</v>
+        <v>160500</v>
       </c>
       <c r="I58" s="3">
-        <v>21300</v>
+        <v>18700</v>
       </c>
       <c r="J58" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K58" s="3">
         <v>162600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>280100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1770900</v>
+        <v>4538300</v>
       </c>
       <c r="E59" s="3">
-        <v>1878500</v>
+        <v>1421100</v>
       </c>
       <c r="F59" s="3">
-        <v>1308000</v>
+        <v>1507500</v>
       </c>
       <c r="G59" s="3">
-        <v>1665300</v>
+        <v>1049600</v>
       </c>
       <c r="H59" s="3">
-        <v>343800</v>
+        <v>1336400</v>
       </c>
       <c r="I59" s="3">
-        <v>417500</v>
+        <v>275900</v>
       </c>
       <c r="J59" s="3">
+        <v>335000</v>
+      </c>
+      <c r="K59" s="3">
         <v>786300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>717400</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2740300</v>
+        <v>4823700</v>
       </c>
       <c r="E60" s="3">
-        <v>2165400</v>
+        <v>2199100</v>
       </c>
       <c r="F60" s="3">
-        <v>2421000</v>
+        <v>1737700</v>
       </c>
       <c r="G60" s="3">
-        <v>2809000</v>
+        <v>1942800</v>
       </c>
       <c r="H60" s="3">
-        <v>596200</v>
+        <v>2254200</v>
       </c>
       <c r="I60" s="3">
-        <v>675500</v>
+        <v>478400</v>
       </c>
       <c r="J60" s="3">
+        <v>542100</v>
+      </c>
+      <c r="K60" s="3">
         <v>651200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>704200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3138400</v>
+        <v>82800</v>
       </c>
       <c r="E61" s="3">
-        <v>2942900</v>
+        <v>2518500</v>
       </c>
       <c r="F61" s="3">
-        <v>2473200</v>
+        <v>2361700</v>
       </c>
       <c r="G61" s="3">
-        <v>3019200</v>
+        <v>1984700</v>
       </c>
       <c r="H61" s="3">
-        <v>655700</v>
+        <v>2422900</v>
       </c>
       <c r="I61" s="3">
-        <v>584500</v>
+        <v>526200</v>
       </c>
       <c r="J61" s="3">
+        <v>469100</v>
+      </c>
+      <c r="K61" s="3">
         <v>494700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>386000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>774700</v>
+        <v>349200</v>
       </c>
       <c r="E62" s="3">
-        <v>995100</v>
+        <v>621700</v>
       </c>
       <c r="F62" s="3">
-        <v>984000</v>
+        <v>798600</v>
       </c>
       <c r="G62" s="3">
-        <v>1307700</v>
+        <v>789700</v>
       </c>
       <c r="H62" s="3">
-        <v>276800</v>
+        <v>1049400</v>
       </c>
       <c r="I62" s="3">
-        <v>260300</v>
+        <v>222100</v>
       </c>
       <c r="J62" s="3">
+        <v>208900</v>
+      </c>
+      <c r="K62" s="3">
         <v>572700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>678900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6738800</v>
+        <v>5328800</v>
       </c>
       <c r="E66" s="3">
-        <v>6110700</v>
+        <v>5407900</v>
       </c>
       <c r="F66" s="3">
-        <v>5948500</v>
+        <v>4903800</v>
       </c>
       <c r="G66" s="3">
-        <v>7228800</v>
+        <v>4773700</v>
       </c>
       <c r="H66" s="3">
-        <v>1552000</v>
+        <v>5801100</v>
       </c>
       <c r="I66" s="3">
-        <v>1543300</v>
+        <v>1245500</v>
       </c>
       <c r="J66" s="3">
+        <v>1238500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1453100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1449100</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>890800</v>
+        <v>466900</v>
       </c>
       <c r="E72" s="3">
-        <v>1146800</v>
+        <v>714800</v>
       </c>
       <c r="F72" s="3">
-        <v>1014200</v>
+        <v>920300</v>
       </c>
       <c r="G72" s="3">
-        <v>919900</v>
+        <v>813900</v>
       </c>
       <c r="H72" s="3">
-        <v>567300</v>
+        <v>738200</v>
       </c>
       <c r="I72" s="3">
-        <v>515000</v>
+        <v>455300</v>
       </c>
       <c r="J72" s="3">
+        <v>413300</v>
+      </c>
+      <c r="K72" s="3">
         <v>924900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>862000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3479700</v>
+        <v>2657100</v>
       </c>
       <c r="E76" s="3">
-        <v>3139500</v>
+        <v>2792500</v>
       </c>
       <c r="F76" s="3">
-        <v>2929200</v>
+        <v>2519500</v>
       </c>
       <c r="G76" s="3">
-        <v>3412000</v>
+        <v>2350700</v>
       </c>
       <c r="H76" s="3">
-        <v>879200</v>
+        <v>2738100</v>
       </c>
       <c r="I76" s="3">
-        <v>825200</v>
+        <v>705500</v>
       </c>
       <c r="J76" s="3">
+        <v>662200</v>
+      </c>
+      <c r="K76" s="3">
         <v>760900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>746100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-156200</v>
+        <v>-243600</v>
       </c>
       <c r="E81" s="3">
-        <v>198700</v>
+        <v>-123800</v>
       </c>
       <c r="F81" s="3">
-        <v>136700</v>
+        <v>157400</v>
       </c>
       <c r="G81" s="3">
-        <v>56400</v>
+        <v>108300</v>
       </c>
       <c r="H81" s="3">
-        <v>78200</v>
+        <v>44700</v>
       </c>
       <c r="I81" s="3">
-        <v>79900</v>
+        <v>61900</v>
       </c>
       <c r="J81" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K81" s="3">
         <v>81200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>232300</v>
+        <v>153800</v>
       </c>
       <c r="E83" s="3">
-        <v>256000</v>
+        <v>184100</v>
       </c>
       <c r="F83" s="3">
-        <v>298000</v>
+        <v>202800</v>
       </c>
       <c r="G83" s="3">
-        <v>250600</v>
+        <v>236100</v>
       </c>
       <c r="H83" s="3">
-        <v>66900</v>
+        <v>198600</v>
       </c>
       <c r="I83" s="3">
-        <v>67900</v>
+        <v>53000</v>
       </c>
       <c r="J83" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K83" s="3">
         <v>65100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>59200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>937100</v>
+        <v>693800</v>
       </c>
       <c r="E89" s="3">
-        <v>583100</v>
+        <v>742500</v>
       </c>
       <c r="F89" s="3">
-        <v>-72200</v>
+        <v>462000</v>
       </c>
       <c r="G89" s="3">
-        <v>848300</v>
+        <v>-57200</v>
       </c>
       <c r="H89" s="3">
-        <v>112600</v>
+        <v>672200</v>
       </c>
       <c r="I89" s="3">
-        <v>131800</v>
+        <v>89200</v>
       </c>
       <c r="J89" s="3">
+        <v>104500</v>
+      </c>
+      <c r="K89" s="3">
         <v>161800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>119100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-132000</v>
+        <v>-209000</v>
       </c>
       <c r="E91" s="3">
-        <v>-178100</v>
+        <v>-104600</v>
       </c>
       <c r="F91" s="3">
-        <v>-315800</v>
+        <v>-141100</v>
       </c>
       <c r="G91" s="3">
-        <v>-266500</v>
+        <v>-250200</v>
       </c>
       <c r="H91" s="3">
-        <v>-66200</v>
+        <v>-211200</v>
       </c>
       <c r="I91" s="3">
-        <v>-102200</v>
+        <v>-52500</v>
       </c>
       <c r="J91" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-76600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-136900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-447300</v>
+        <v>293900</v>
       </c>
       <c r="E94" s="3">
-        <v>-808800</v>
+        <v>-354400</v>
       </c>
       <c r="F94" s="3">
-        <v>-789800</v>
+        <v>-640900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1204300</v>
+        <v>-625800</v>
       </c>
       <c r="H94" s="3">
-        <v>-156800</v>
+        <v>-954200</v>
       </c>
       <c r="I94" s="3">
-        <v>-178400</v>
+        <v>-124200</v>
       </c>
       <c r="J94" s="3">
+        <v>-141400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-144200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-149300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-32600</v>
+        <v>-1400</v>
       </c>
       <c r="E96" s="3">
-        <v>-40400</v>
+        <v>-25800</v>
       </c>
       <c r="F96" s="3">
-        <v>-23300</v>
+        <v>-32000</v>
       </c>
       <c r="G96" s="3">
-        <v>-42600</v>
+        <v>-18500</v>
       </c>
       <c r="H96" s="3">
-        <v>-23200</v>
+        <v>-33700</v>
       </c>
       <c r="I96" s="3">
-        <v>-16700</v>
+        <v>-18400</v>
       </c>
       <c r="J96" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-13900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-45500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-440400</v>
+        <v>-189900</v>
       </c>
       <c r="E100" s="3">
-        <v>257800</v>
+        <v>-348900</v>
       </c>
       <c r="F100" s="3">
-        <v>3400</v>
+        <v>204300</v>
       </c>
       <c r="G100" s="3">
-        <v>907700</v>
+        <v>2700</v>
       </c>
       <c r="H100" s="3">
-        <v>77800</v>
+        <v>719200</v>
       </c>
       <c r="I100" s="3">
-        <v>45000</v>
+        <v>61700</v>
       </c>
       <c r="J100" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K100" s="3">
         <v>98600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>23900</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>127900</v>
+        <v>5000</v>
       </c>
       <c r="E101" s="3">
-        <v>4700</v>
+        <v>101400</v>
       </c>
       <c r="F101" s="3">
-        <v>-171200</v>
+        <v>3700</v>
       </c>
       <c r="G101" s="3">
-        <v>360300</v>
+        <v>-135600</v>
       </c>
       <c r="H101" s="3">
-        <v>-26800</v>
+        <v>285500</v>
       </c>
       <c r="I101" s="3">
-        <v>-24800</v>
+        <v>-21200</v>
       </c>
       <c r="J101" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-11400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4900</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>177300</v>
+        <v>802800</v>
       </c>
       <c r="E102" s="3">
-        <v>36800</v>
+        <v>140500</v>
       </c>
       <c r="F102" s="3">
-        <v>-1029700</v>
+        <v>29100</v>
       </c>
       <c r="G102" s="3">
-        <v>912000</v>
+        <v>-815900</v>
       </c>
       <c r="H102" s="3">
-        <v>6800</v>
+        <v>722600</v>
       </c>
       <c r="I102" s="3">
-        <v>-26500</v>
+        <v>5400</v>
       </c>
       <c r="J102" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="K102" s="3">
         <v>104900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11200</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>ERJ</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1936900</v>
+        <v>1867500</v>
       </c>
       <c r="E8" s="3">
-        <v>1459500</v>
+        <v>1407200</v>
       </c>
       <c r="F8" s="3">
-        <v>3474100</v>
+        <v>3349700</v>
       </c>
       <c r="G8" s="3">
-        <v>3966200</v>
+        <v>3824100</v>
       </c>
       <c r="H8" s="3">
-        <v>3756400</v>
+        <v>3621800</v>
       </c>
       <c r="I8" s="3">
-        <v>1163600</v>
+        <v>1121900</v>
       </c>
       <c r="J8" s="3">
-        <v>1153700</v>
+        <v>1112300</v>
       </c>
       <c r="K8" s="3">
         <v>1440100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1672200</v>
+        <v>1613500</v>
       </c>
       <c r="E9" s="3">
-        <v>1327800</v>
+        <v>1280200</v>
       </c>
       <c r="F9" s="3">
-        <v>2824000</v>
+        <v>2722800</v>
       </c>
       <c r="G9" s="3">
-        <v>3176200</v>
+        <v>3062400</v>
       </c>
       <c r="H9" s="3">
-        <v>3061400</v>
+        <v>2951700</v>
       </c>
       <c r="I9" s="3">
-        <v>933100</v>
+        <v>899700</v>
       </c>
       <c r="J9" s="3">
-        <v>1784000</v>
+        <v>1720100</v>
       </c>
       <c r="K9" s="3">
         <v>2185300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>264700</v>
+        <v>254000</v>
       </c>
       <c r="E10" s="3">
-        <v>131700</v>
+        <v>127000</v>
       </c>
       <c r="F10" s="3">
-        <v>650100</v>
+        <v>626800</v>
       </c>
       <c r="G10" s="3">
-        <v>790000</v>
+        <v>761700</v>
       </c>
       <c r="H10" s="3">
-        <v>695000</v>
+        <v>670100</v>
       </c>
       <c r="I10" s="3">
-        <v>230500</v>
+        <v>222300</v>
       </c>
       <c r="J10" s="3">
-        <v>-630300</v>
+        <v>-607800</v>
       </c>
       <c r="K10" s="3">
         <v>-745100</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="E12" s="3">
-        <v>13100</v>
+        <v>12600</v>
       </c>
       <c r="F12" s="3">
-        <v>29200</v>
+        <v>28100</v>
       </c>
       <c r="G12" s="3">
-        <v>30000</v>
+        <v>28900</v>
       </c>
       <c r="H12" s="3">
-        <v>26300</v>
+        <v>25400</v>
       </c>
       <c r="I12" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="J12" s="3">
-        <v>13800</v>
+        <v>13300</v>
       </c>
       <c r="K12" s="3">
         <v>18100</v>
@@ -896,14 +896,14 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>3200</v>
       </c>
       <c r="E14" s="3">
         <v>500</v>
       </c>
       <c r="F14" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -912,10 +912,10 @@
         <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J14" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="K14" s="3">
         <v>-4700</v>
@@ -948,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K15" s="3">
         <v>7900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2056000</v>
+        <v>1982300</v>
       </c>
       <c r="E17" s="3">
-        <v>1657400</v>
+        <v>1598000</v>
       </c>
       <c r="F17" s="3">
-        <v>3271700</v>
+        <v>3154500</v>
       </c>
       <c r="G17" s="3">
-        <v>3833400</v>
+        <v>3696100</v>
       </c>
       <c r="H17" s="3">
-        <v>3552300</v>
+        <v>3425000</v>
       </c>
       <c r="I17" s="3">
-        <v>1063100</v>
+        <v>1025000</v>
       </c>
       <c r="J17" s="3">
-        <v>1021700</v>
+        <v>985100</v>
       </c>
       <c r="K17" s="3">
         <v>1297200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-119100</v>
+        <v>-114800</v>
       </c>
       <c r="E18" s="3">
-        <v>-197900</v>
+        <v>-190800</v>
       </c>
       <c r="F18" s="3">
-        <v>202400</v>
+        <v>195100</v>
       </c>
       <c r="G18" s="3">
-        <v>132800</v>
+        <v>128100</v>
       </c>
       <c r="H18" s="3">
-        <v>204100</v>
+        <v>196800</v>
       </c>
       <c r="I18" s="3">
-        <v>100500</v>
+        <v>96900</v>
       </c>
       <c r="J18" s="3">
-        <v>132000</v>
+        <v>127300</v>
       </c>
       <c r="K18" s="3">
         <v>142900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>51100</v>
+        <v>49300</v>
       </c>
       <c r="E20" s="3">
-        <v>27300</v>
+        <v>26300</v>
       </c>
       <c r="F20" s="3">
-        <v>107700</v>
+        <v>103900</v>
       </c>
       <c r="G20" s="3">
-        <v>88100</v>
+        <v>84900</v>
       </c>
       <c r="H20" s="3">
-        <v>103800</v>
+        <v>100100</v>
       </c>
       <c r="I20" s="3">
-        <v>17300</v>
+        <v>16700</v>
       </c>
       <c r="J20" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K20" s="3">
         <v>26900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>89600</v>
+        <v>85300</v>
       </c>
       <c r="E21" s="3">
-        <v>18100</v>
+        <v>16100</v>
       </c>
       <c r="F21" s="3">
-        <v>518000</v>
+        <v>498100</v>
       </c>
       <c r="G21" s="3">
-        <v>462900</v>
+        <v>444700</v>
       </c>
       <c r="H21" s="3">
-        <v>511400</v>
+        <v>491700</v>
       </c>
       <c r="I21" s="3">
-        <v>172100</v>
+        <v>165600</v>
       </c>
       <c r="J21" s="3">
-        <v>190300</v>
+        <v>183100</v>
       </c>
       <c r="K21" s="3">
         <v>235600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="E22" s="3">
-        <v>26300</v>
+        <v>25400</v>
       </c>
       <c r="F22" s="3">
-        <v>127200</v>
+        <v>122700</v>
       </c>
       <c r="G22" s="3">
-        <v>118100</v>
+        <v>113800</v>
       </c>
       <c r="H22" s="3">
-        <v>104000</v>
+        <v>100300</v>
       </c>
       <c r="I22" s="3">
-        <v>24600</v>
+        <v>23700</v>
       </c>
       <c r="J22" s="3">
-        <v>23700</v>
+        <v>22900</v>
       </c>
       <c r="K22" s="3">
         <v>26500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-74300</v>
+        <v>-71600</v>
       </c>
       <c r="E23" s="3">
-        <v>-196900</v>
+        <v>-189900</v>
       </c>
       <c r="F23" s="3">
-        <v>182900</v>
+        <v>176400</v>
       </c>
       <c r="G23" s="3">
-        <v>102800</v>
+        <v>99200</v>
       </c>
       <c r="H23" s="3">
-        <v>203900</v>
+        <v>196600</v>
       </c>
       <c r="I23" s="3">
-        <v>93200</v>
+        <v>89900</v>
       </c>
       <c r="J23" s="3">
-        <v>111500</v>
+        <v>107500</v>
       </c>
       <c r="K23" s="3">
         <v>143300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>82600</v>
+        <v>79600</v>
       </c>
       <c r="E24" s="3">
-        <v>-16300</v>
+        <v>-15700</v>
       </c>
       <c r="F24" s="3">
-        <v>16000</v>
+        <v>15400</v>
       </c>
       <c r="G24" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="H24" s="3">
-        <v>151800</v>
+        <v>146300</v>
       </c>
       <c r="I24" s="3">
-        <v>28900</v>
+        <v>27900</v>
       </c>
       <c r="J24" s="3">
-        <v>47400</v>
+        <v>45700</v>
       </c>
       <c r="K24" s="3">
         <v>61900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-156800</v>
+        <v>-151200</v>
       </c>
       <c r="E26" s="3">
-        <v>-180700</v>
+        <v>-174200</v>
       </c>
       <c r="F26" s="3">
-        <v>167000</v>
+        <v>161000</v>
       </c>
       <c r="G26" s="3">
-        <v>109500</v>
+        <v>105600</v>
       </c>
       <c r="H26" s="3">
-        <v>52100</v>
+        <v>50200</v>
       </c>
       <c r="I26" s="3">
-        <v>64300</v>
+        <v>62000</v>
       </c>
       <c r="J26" s="3">
-        <v>64000</v>
+        <v>61700</v>
       </c>
       <c r="K26" s="3">
         <v>81400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-161000</v>
+        <v>-155300</v>
       </c>
       <c r="E27" s="3">
-        <v>-185400</v>
+        <v>-178700</v>
       </c>
       <c r="F27" s="3">
-        <v>157400</v>
+        <v>151800</v>
       </c>
       <c r="G27" s="3">
-        <v>108300</v>
+        <v>104400</v>
       </c>
       <c r="H27" s="3">
-        <v>44700</v>
+        <v>43100</v>
       </c>
       <c r="I27" s="3">
-        <v>61900</v>
+        <v>59700</v>
       </c>
       <c r="J27" s="3">
-        <v>63300</v>
+        <v>61000</v>
       </c>
       <c r="K27" s="3">
         <v>81200</v>
@@ -1353,10 +1353,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-82600</v>
+        <v>-79600</v>
       </c>
       <c r="E29" s="3">
-        <v>61600</v>
+        <v>59400</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-51100</v>
+        <v>-49300</v>
       </c>
       <c r="E32" s="3">
-        <v>-27300</v>
+        <v>-26300</v>
       </c>
       <c r="F32" s="3">
-        <v>-107700</v>
+        <v>-103900</v>
       </c>
       <c r="G32" s="3">
-        <v>-88100</v>
+        <v>-84900</v>
       </c>
       <c r="H32" s="3">
-        <v>-103800</v>
+        <v>-100100</v>
       </c>
       <c r="I32" s="3">
-        <v>-17300</v>
+        <v>-16700</v>
       </c>
       <c r="J32" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="K32" s="3">
         <v>-26900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-243600</v>
+        <v>-234900</v>
       </c>
       <c r="E33" s="3">
-        <v>-123800</v>
+        <v>-119400</v>
       </c>
       <c r="F33" s="3">
-        <v>157400</v>
+        <v>151800</v>
       </c>
       <c r="G33" s="3">
-        <v>108300</v>
+        <v>104400</v>
       </c>
       <c r="H33" s="3">
-        <v>44700</v>
+        <v>43100</v>
       </c>
       <c r="I33" s="3">
-        <v>61900</v>
+        <v>59700</v>
       </c>
       <c r="J33" s="3">
-        <v>63300</v>
+        <v>61000</v>
       </c>
       <c r="K33" s="3">
         <v>81200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-243600</v>
+        <v>-234900</v>
       </c>
       <c r="E35" s="3">
-        <v>-123800</v>
+        <v>-119400</v>
       </c>
       <c r="F35" s="3">
-        <v>157400</v>
+        <v>151800</v>
       </c>
       <c r="G35" s="3">
-        <v>108300</v>
+        <v>104400</v>
       </c>
       <c r="H35" s="3">
-        <v>44700</v>
+        <v>43100</v>
       </c>
       <c r="I35" s="3">
-        <v>61900</v>
+        <v>59700</v>
       </c>
       <c r="J35" s="3">
-        <v>63300</v>
+        <v>61000</v>
       </c>
       <c r="K35" s="3">
         <v>81200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>646000</v>
+        <v>614900</v>
       </c>
       <c r="E41" s="3">
-        <v>930100</v>
+        <v>885400</v>
       </c>
       <c r="F41" s="3">
-        <v>787800</v>
+        <v>749900</v>
       </c>
       <c r="G41" s="3">
-        <v>758300</v>
+        <v>721800</v>
       </c>
       <c r="H41" s="3">
-        <v>1584600</v>
+        <v>1508500</v>
       </c>
       <c r="I41" s="3">
-        <v>321000</v>
+        <v>305600</v>
       </c>
       <c r="J41" s="3">
-        <v>315500</v>
+        <v>300400</v>
       </c>
       <c r="K41" s="3">
         <v>840300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>309600</v>
+        <v>294700</v>
       </c>
       <c r="E42" s="3">
-        <v>1265900</v>
+        <v>1205100</v>
       </c>
       <c r="F42" s="3">
-        <v>1524200</v>
+        <v>1451000</v>
       </c>
       <c r="G42" s="3">
-        <v>1084400</v>
+        <v>1032300</v>
       </c>
       <c r="H42" s="3">
-        <v>455600</v>
+        <v>433700</v>
       </c>
       <c r="I42" s="3">
-        <v>135700</v>
+        <v>129200</v>
       </c>
       <c r="J42" s="3">
-        <v>177900</v>
+        <v>169400</v>
       </c>
       <c r="K42" s="3">
         <v>275300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>582000</v>
+        <v>554000</v>
       </c>
       <c r="E43" s="3">
-        <v>787600</v>
+        <v>749800</v>
       </c>
       <c r="F43" s="3">
-        <v>700300</v>
+        <v>666700</v>
       </c>
       <c r="G43" s="3">
-        <v>593600</v>
+        <v>565100</v>
       </c>
       <c r="H43" s="3">
-        <v>791600</v>
+        <v>753600</v>
       </c>
       <c r="I43" s="3">
-        <v>149000</v>
+        <v>141800</v>
       </c>
       <c r="J43" s="3">
-        <v>241800</v>
+        <v>230200</v>
       </c>
       <c r="K43" s="3">
         <v>257700</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>985300</v>
+        <v>938000</v>
       </c>
       <c r="E44" s="3">
-        <v>1820500</v>
+        <v>1733000</v>
       </c>
       <c r="F44" s="3">
-        <v>1332000</v>
+        <v>1268100</v>
       </c>
       <c r="G44" s="3">
-        <v>1524700</v>
+        <v>1451500</v>
       </c>
       <c r="H44" s="3">
-        <v>1693700</v>
+        <v>1612400</v>
       </c>
       <c r="I44" s="3">
-        <v>450800</v>
+        <v>429100</v>
       </c>
       <c r="J44" s="3">
-        <v>428600</v>
+        <v>408100</v>
       </c>
       <c r="K44" s="3">
         <v>604900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3951600</v>
+        <v>3761800</v>
       </c>
       <c r="E45" s="3">
-        <v>330400</v>
+        <v>314500</v>
       </c>
       <c r="F45" s="3">
-        <v>101800</v>
+        <v>97000</v>
       </c>
       <c r="G45" s="3">
-        <v>181000</v>
+        <v>172300</v>
       </c>
       <c r="H45" s="3">
-        <v>166200</v>
+        <v>158200</v>
       </c>
       <c r="I45" s="3">
-        <v>32400</v>
+        <v>30900</v>
       </c>
       <c r="J45" s="3">
-        <v>79900</v>
+        <v>76100</v>
       </c>
       <c r="K45" s="3">
         <v>124100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6474400</v>
+        <v>6163500</v>
       </c>
       <c r="E46" s="3">
-        <v>5134500</v>
+        <v>4887900</v>
       </c>
       <c r="F46" s="3">
-        <v>4388800</v>
+        <v>4178000</v>
       </c>
       <c r="G46" s="3">
-        <v>4141900</v>
+        <v>3943000</v>
       </c>
       <c r="H46" s="3">
-        <v>4691700</v>
+        <v>4466400</v>
       </c>
       <c r="I46" s="3">
-        <v>1088900</v>
+        <v>1036600</v>
       </c>
       <c r="J46" s="3">
-        <v>1080900</v>
+        <v>1029000</v>
       </c>
       <c r="K46" s="3">
         <v>1251400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>45000</v>
+        <v>42400</v>
       </c>
       <c r="E47" s="3">
-        <v>183500</v>
+        <v>171800</v>
       </c>
       <c r="F47" s="3">
-        <v>416700</v>
+        <v>393800</v>
       </c>
       <c r="G47" s="3">
-        <v>285000</v>
+        <v>264800</v>
       </c>
       <c r="H47" s="3">
-        <v>857200</v>
+        <v>809600</v>
       </c>
       <c r="I47" s="3">
-        <v>98300</v>
+        <v>93600</v>
       </c>
       <c r="J47" s="3">
-        <v>99600</v>
+        <v>94800</v>
       </c>
       <c r="K47" s="3">
         <v>262900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>760400</v>
+        <v>723900</v>
       </c>
       <c r="E48" s="3">
-        <v>1426600</v>
+        <v>1358100</v>
       </c>
       <c r="F48" s="3">
-        <v>1304900</v>
+        <v>1242200</v>
       </c>
       <c r="G48" s="3">
-        <v>1315700</v>
+        <v>1252500</v>
       </c>
       <c r="H48" s="3">
-        <v>1483600</v>
+        <v>1412300</v>
       </c>
       <c r="I48" s="3">
-        <v>379600</v>
+        <v>361400</v>
       </c>
       <c r="J48" s="3">
-        <v>373500</v>
+        <v>355600</v>
       </c>
       <c r="K48" s="3">
         <v>325200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>675400</v>
+        <v>642900</v>
       </c>
       <c r="E49" s="3">
-        <v>1378800</v>
+        <v>1312600</v>
       </c>
       <c r="F49" s="3">
-        <v>1167000</v>
+        <v>1110900</v>
       </c>
       <c r="G49" s="3">
-        <v>1016700</v>
+        <v>967900</v>
       </c>
       <c r="H49" s="3">
-        <v>1028400</v>
+        <v>979000</v>
       </c>
       <c r="I49" s="3">
-        <v>236300</v>
+        <v>224900</v>
       </c>
       <c r="J49" s="3">
-        <v>207800</v>
+        <v>197900</v>
       </c>
       <c r="K49" s="3">
         <v>447800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>30700</v>
+        <v>29700</v>
       </c>
       <c r="E52" s="3">
-        <v>77100</v>
+        <v>76200</v>
       </c>
       <c r="F52" s="3">
-        <v>301800</v>
+        <v>290100</v>
       </c>
       <c r="G52" s="3">
-        <v>365000</v>
+        <v>354000</v>
       </c>
       <c r="H52" s="3">
-        <v>478300</v>
+        <v>461800</v>
       </c>
       <c r="I52" s="3">
-        <v>147800</v>
+        <v>140700</v>
       </c>
       <c r="J52" s="3">
-        <v>138800</v>
+        <v>132200</v>
       </c>
       <c r="K52" s="3">
         <v>400100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7986000</v>
+        <v>7602500</v>
       </c>
       <c r="E54" s="3">
-        <v>8200400</v>
+        <v>7806600</v>
       </c>
       <c r="F54" s="3">
-        <v>7423300</v>
+        <v>7066700</v>
       </c>
       <c r="G54" s="3">
-        <v>7124300</v>
+        <v>6782200</v>
       </c>
       <c r="H54" s="3">
-        <v>8539200</v>
+        <v>8129100</v>
       </c>
       <c r="I54" s="3">
-        <v>1951000</v>
+        <v>1857300</v>
       </c>
       <c r="J54" s="3">
-        <v>1900700</v>
+        <v>1809400</v>
       </c>
       <c r="K54" s="3">
         <v>2214000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>270400</v>
+        <v>257400</v>
       </c>
       <c r="E57" s="3">
-        <v>647800</v>
+        <v>616700</v>
       </c>
       <c r="F57" s="3">
-        <v>511200</v>
+        <v>486700</v>
       </c>
       <c r="G57" s="3">
-        <v>581500</v>
+        <v>553600</v>
       </c>
       <c r="H57" s="3">
-        <v>757300</v>
+        <v>720900</v>
       </c>
       <c r="I57" s="3">
-        <v>183800</v>
+        <v>174900</v>
       </c>
       <c r="J57" s="3">
-        <v>189900</v>
+        <v>180800</v>
       </c>
       <c r="K57" s="3">
         <v>354400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15000</v>
+        <v>14300</v>
       </c>
       <c r="E58" s="3">
-        <v>130200</v>
+        <v>123900</v>
       </c>
       <c r="F58" s="3">
-        <v>241100</v>
+        <v>229500</v>
       </c>
       <c r="G58" s="3">
-        <v>311700</v>
+        <v>296700</v>
       </c>
       <c r="H58" s="3">
-        <v>160500</v>
+        <v>152800</v>
       </c>
       <c r="I58" s="3">
-        <v>18700</v>
+        <v>17800</v>
       </c>
       <c r="J58" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="K58" s="3">
         <v>162600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4538300</v>
+        <v>4320300</v>
       </c>
       <c r="E59" s="3">
-        <v>1421100</v>
+        <v>1352900</v>
       </c>
       <c r="F59" s="3">
-        <v>1507500</v>
+        <v>1435100</v>
       </c>
       <c r="G59" s="3">
-        <v>1049600</v>
+        <v>999200</v>
       </c>
       <c r="H59" s="3">
-        <v>1336400</v>
+        <v>1272200</v>
       </c>
       <c r="I59" s="3">
-        <v>275900</v>
+        <v>262700</v>
       </c>
       <c r="J59" s="3">
-        <v>335000</v>
+        <v>318900</v>
       </c>
       <c r="K59" s="3">
         <v>786300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4823700</v>
+        <v>4592000</v>
       </c>
       <c r="E60" s="3">
-        <v>2199100</v>
+        <v>2093500</v>
       </c>
       <c r="F60" s="3">
-        <v>1737700</v>
+        <v>1654300</v>
       </c>
       <c r="G60" s="3">
-        <v>1942800</v>
+        <v>1849500</v>
       </c>
       <c r="H60" s="3">
-        <v>2254200</v>
+        <v>2146000</v>
       </c>
       <c r="I60" s="3">
-        <v>478400</v>
+        <v>455400</v>
       </c>
       <c r="J60" s="3">
-        <v>542100</v>
+        <v>516100</v>
       </c>
       <c r="K60" s="3">
         <v>651200</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>82800</v>
+        <v>78900</v>
       </c>
       <c r="E61" s="3">
-        <v>2518500</v>
+        <v>2397600</v>
       </c>
       <c r="F61" s="3">
-        <v>2361700</v>
+        <v>2248200</v>
       </c>
       <c r="G61" s="3">
-        <v>1984700</v>
+        <v>1889400</v>
       </c>
       <c r="H61" s="3">
-        <v>2422900</v>
+        <v>2306600</v>
       </c>
       <c r="I61" s="3">
-        <v>526200</v>
+        <v>501000</v>
       </c>
       <c r="J61" s="3">
-        <v>469100</v>
+        <v>446600</v>
       </c>
       <c r="K61" s="3">
         <v>494700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>349200</v>
+        <v>332400</v>
       </c>
       <c r="E62" s="3">
-        <v>621700</v>
+        <v>591900</v>
       </c>
       <c r="F62" s="3">
-        <v>798600</v>
+        <v>760200</v>
       </c>
       <c r="G62" s="3">
-        <v>789700</v>
+        <v>751700</v>
       </c>
       <c r="H62" s="3">
-        <v>1049400</v>
+        <v>999000</v>
       </c>
       <c r="I62" s="3">
-        <v>222100</v>
+        <v>211400</v>
       </c>
       <c r="J62" s="3">
-        <v>208900</v>
+        <v>198800</v>
       </c>
       <c r="K62" s="3">
         <v>572700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5328800</v>
+        <v>5072900</v>
       </c>
       <c r="E66" s="3">
-        <v>5407900</v>
+        <v>5148200</v>
       </c>
       <c r="F66" s="3">
-        <v>4903800</v>
+        <v>4668300</v>
       </c>
       <c r="G66" s="3">
-        <v>4773700</v>
+        <v>4544400</v>
       </c>
       <c r="H66" s="3">
-        <v>5801100</v>
+        <v>5522500</v>
       </c>
       <c r="I66" s="3">
-        <v>1245500</v>
+        <v>1185700</v>
       </c>
       <c r="J66" s="3">
-        <v>1238500</v>
+        <v>1179000</v>
       </c>
       <c r="K66" s="3">
         <v>1453100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>466900</v>
+        <v>444500</v>
       </c>
       <c r="E72" s="3">
-        <v>714800</v>
+        <v>680500</v>
       </c>
       <c r="F72" s="3">
-        <v>920300</v>
+        <v>876100</v>
       </c>
       <c r="G72" s="3">
-        <v>813900</v>
+        <v>774800</v>
       </c>
       <c r="H72" s="3">
-        <v>738200</v>
+        <v>702700</v>
       </c>
       <c r="I72" s="3">
-        <v>455300</v>
+        <v>433400</v>
       </c>
       <c r="J72" s="3">
-        <v>413300</v>
+        <v>393500</v>
       </c>
       <c r="K72" s="3">
         <v>924900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2657100</v>
+        <v>2529500</v>
       </c>
       <c r="E76" s="3">
-        <v>2792500</v>
+        <v>2658400</v>
       </c>
       <c r="F76" s="3">
-        <v>2519500</v>
+        <v>2398500</v>
       </c>
       <c r="G76" s="3">
-        <v>2350700</v>
+        <v>2237800</v>
       </c>
       <c r="H76" s="3">
-        <v>2738100</v>
+        <v>2606600</v>
       </c>
       <c r="I76" s="3">
-        <v>705500</v>
+        <v>671600</v>
       </c>
       <c r="J76" s="3">
-        <v>662200</v>
+        <v>630400</v>
       </c>
       <c r="K76" s="3">
         <v>760900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-243600</v>
+        <v>-234900</v>
       </c>
       <c r="E81" s="3">
-        <v>-123800</v>
+        <v>-119400</v>
       </c>
       <c r="F81" s="3">
-        <v>157400</v>
+        <v>151800</v>
       </c>
       <c r="G81" s="3">
-        <v>108300</v>
+        <v>104400</v>
       </c>
       <c r="H81" s="3">
-        <v>44700</v>
+        <v>43100</v>
       </c>
       <c r="I81" s="3">
-        <v>61900</v>
+        <v>59700</v>
       </c>
       <c r="J81" s="3">
-        <v>63300</v>
+        <v>61000</v>
       </c>
       <c r="K81" s="3">
         <v>81200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>153800</v>
+        <v>148300</v>
       </c>
       <c r="E83" s="3">
-        <v>184100</v>
+        <v>177500</v>
       </c>
       <c r="F83" s="3">
-        <v>202800</v>
+        <v>195600</v>
       </c>
       <c r="G83" s="3">
-        <v>236100</v>
+        <v>227600</v>
       </c>
       <c r="H83" s="3">
-        <v>198600</v>
+        <v>191500</v>
       </c>
       <c r="I83" s="3">
-        <v>53000</v>
+        <v>51100</v>
       </c>
       <c r="J83" s="3">
-        <v>53800</v>
+        <v>51800</v>
       </c>
       <c r="K83" s="3">
         <v>65100</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>693800</v>
+        <v>668900</v>
       </c>
       <c r="E89" s="3">
-        <v>742500</v>
+        <v>715900</v>
       </c>
       <c r="F89" s="3">
-        <v>462000</v>
+        <v>445500</v>
       </c>
       <c r="G89" s="3">
-        <v>-57200</v>
+        <v>-55100</v>
       </c>
       <c r="H89" s="3">
-        <v>672200</v>
+        <v>648100</v>
       </c>
       <c r="I89" s="3">
-        <v>89200</v>
+        <v>86000</v>
       </c>
       <c r="J89" s="3">
-        <v>104500</v>
+        <v>100700</v>
       </c>
       <c r="K89" s="3">
         <v>161800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-209000</v>
+        <v>-201600</v>
       </c>
       <c r="E91" s="3">
-        <v>-104600</v>
+        <v>-100800</v>
       </c>
       <c r="F91" s="3">
-        <v>-141100</v>
+        <v>-136100</v>
       </c>
       <c r="G91" s="3">
-        <v>-250200</v>
+        <v>-241200</v>
       </c>
       <c r="H91" s="3">
-        <v>-211200</v>
+        <v>-203600</v>
       </c>
       <c r="I91" s="3">
-        <v>-52500</v>
+        <v>-50600</v>
       </c>
       <c r="J91" s="3">
-        <v>-81000</v>
+        <v>-78100</v>
       </c>
       <c r="K91" s="3">
         <v>-76600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>293900</v>
+        <v>283400</v>
       </c>
       <c r="E94" s="3">
-        <v>-354400</v>
+        <v>-341700</v>
       </c>
       <c r="F94" s="3">
-        <v>-640900</v>
+        <v>-617900</v>
       </c>
       <c r="G94" s="3">
-        <v>-625800</v>
+        <v>-603400</v>
       </c>
       <c r="H94" s="3">
-        <v>-954200</v>
+        <v>-920000</v>
       </c>
       <c r="I94" s="3">
-        <v>-124200</v>
+        <v>-119800</v>
       </c>
       <c r="J94" s="3">
-        <v>-141400</v>
+        <v>-136300</v>
       </c>
       <c r="K94" s="3">
         <v>-144200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="E96" s="3">
-        <v>-25800</v>
+        <v>-24900</v>
       </c>
       <c r="F96" s="3">
-        <v>-32000</v>
+        <v>-30900</v>
       </c>
       <c r="G96" s="3">
-        <v>-18500</v>
+        <v>-17800</v>
       </c>
       <c r="H96" s="3">
-        <v>-33700</v>
+        <v>-32500</v>
       </c>
       <c r="I96" s="3">
-        <v>-18400</v>
+        <v>-17700</v>
       </c>
       <c r="J96" s="3">
-        <v>-13200</v>
+        <v>-12700</v>
       </c>
       <c r="K96" s="3">
         <v>-13900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-189900</v>
+        <v>-183100</v>
       </c>
       <c r="E100" s="3">
-        <v>-348900</v>
+        <v>-336400</v>
       </c>
       <c r="F100" s="3">
-        <v>204300</v>
+        <v>196900</v>
       </c>
       <c r="G100" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H100" s="3">
-        <v>719200</v>
+        <v>693500</v>
       </c>
       <c r="I100" s="3">
-        <v>61700</v>
+        <v>59500</v>
       </c>
       <c r="J100" s="3">
-        <v>35600</v>
+        <v>34300</v>
       </c>
       <c r="K100" s="3">
         <v>98600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E101" s="3">
-        <v>101400</v>
+        <v>97700</v>
       </c>
       <c r="F101" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G101" s="3">
-        <v>-135600</v>
+        <v>-130800</v>
       </c>
       <c r="H101" s="3">
-        <v>285500</v>
+        <v>275200</v>
       </c>
       <c r="I101" s="3">
-        <v>-21200</v>
+        <v>-20500</v>
       </c>
       <c r="J101" s="3">
-        <v>-19700</v>
+        <v>-19000</v>
       </c>
       <c r="K101" s="3">
         <v>-11400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>802800</v>
+        <v>774000</v>
       </c>
       <c r="E102" s="3">
-        <v>140500</v>
+        <v>135500</v>
       </c>
       <c r="F102" s="3">
-        <v>29100</v>
+        <v>28100</v>
       </c>
       <c r="G102" s="3">
-        <v>-815900</v>
+        <v>-786700</v>
       </c>
       <c r="H102" s="3">
-        <v>722600</v>
+        <v>696800</v>
       </c>
       <c r="I102" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="J102" s="3">
-        <v>-21000</v>
+        <v>-20200</v>
       </c>
       <c r="K102" s="3">
         <v>104900</v>

--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1867500</v>
+        <v>1958900</v>
       </c>
       <c r="E8" s="3">
-        <v>1407200</v>
+        <v>1476100</v>
       </c>
       <c r="F8" s="3">
-        <v>3349700</v>
+        <v>3513600</v>
       </c>
       <c r="G8" s="3">
-        <v>3824100</v>
+        <v>4011300</v>
       </c>
       <c r="H8" s="3">
-        <v>3621800</v>
+        <v>3799100</v>
       </c>
       <c r="I8" s="3">
-        <v>1121900</v>
+        <v>1176800</v>
       </c>
       <c r="J8" s="3">
-        <v>1112300</v>
+        <v>1166800</v>
       </c>
       <c r="K8" s="3">
         <v>1440100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1613500</v>
+        <v>1692400</v>
       </c>
       <c r="E9" s="3">
-        <v>1280200</v>
+        <v>1342900</v>
       </c>
       <c r="F9" s="3">
-        <v>2722800</v>
+        <v>2856100</v>
       </c>
       <c r="G9" s="3">
-        <v>3062400</v>
+        <v>3212300</v>
       </c>
       <c r="H9" s="3">
-        <v>2951700</v>
+        <v>3096100</v>
       </c>
       <c r="I9" s="3">
-        <v>899700</v>
+        <v>943700</v>
       </c>
       <c r="J9" s="3">
-        <v>1720100</v>
+        <v>1804300</v>
       </c>
       <c r="K9" s="3">
         <v>2185300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>254000</v>
+        <v>266400</v>
       </c>
       <c r="E10" s="3">
-        <v>127000</v>
+        <v>133200</v>
       </c>
       <c r="F10" s="3">
-        <v>626800</v>
+        <v>657500</v>
       </c>
       <c r="G10" s="3">
-        <v>761700</v>
+        <v>799000</v>
       </c>
       <c r="H10" s="3">
-        <v>670100</v>
+        <v>702900</v>
       </c>
       <c r="I10" s="3">
-        <v>222300</v>
+        <v>233100</v>
       </c>
       <c r="J10" s="3">
-        <v>-607800</v>
+        <v>-637500</v>
       </c>
       <c r="K10" s="3">
         <v>-745100</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>29500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>30300</v>
+      </c>
+      <c r="H12" s="3">
+        <v>26600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J12" s="3">
         <v>14000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>12600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>28100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>28900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>25400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>8400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>13300</v>
       </c>
       <c r="K12" s="3">
         <v>18100</v>
@@ -897,13 +897,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="E14" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F14" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -912,10 +912,10 @@
         <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J14" s="3">
-        <v>-4200</v>
+        <v>-4400</v>
       </c>
       <c r="K14" s="3">
         <v>-4700</v>
@@ -948,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="K15" s="3">
         <v>7900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1982300</v>
+        <v>2079300</v>
       </c>
       <c r="E17" s="3">
-        <v>1598000</v>
+        <v>1676200</v>
       </c>
       <c r="F17" s="3">
-        <v>3154500</v>
+        <v>3308900</v>
       </c>
       <c r="G17" s="3">
-        <v>3696100</v>
+        <v>3876900</v>
       </c>
       <c r="H17" s="3">
-        <v>3425000</v>
+        <v>3592700</v>
       </c>
       <c r="I17" s="3">
-        <v>1025000</v>
+        <v>1075200</v>
       </c>
       <c r="J17" s="3">
-        <v>985100</v>
+        <v>1033300</v>
       </c>
       <c r="K17" s="3">
         <v>1297200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-114800</v>
+        <v>-120400</v>
       </c>
       <c r="E18" s="3">
-        <v>-190800</v>
+        <v>-200100</v>
       </c>
       <c r="F18" s="3">
-        <v>195100</v>
+        <v>204700</v>
       </c>
       <c r="G18" s="3">
-        <v>128100</v>
+        <v>134300</v>
       </c>
       <c r="H18" s="3">
-        <v>196800</v>
+        <v>206400</v>
       </c>
       <c r="I18" s="3">
-        <v>96900</v>
+        <v>101700</v>
       </c>
       <c r="J18" s="3">
-        <v>127300</v>
+        <v>133500</v>
       </c>
       <c r="K18" s="3">
         <v>142900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>49300</v>
+        <v>51700</v>
       </c>
       <c r="E20" s="3">
-        <v>26300</v>
+        <v>27600</v>
       </c>
       <c r="F20" s="3">
-        <v>103900</v>
+        <v>109000</v>
       </c>
       <c r="G20" s="3">
-        <v>84900</v>
+        <v>89100</v>
       </c>
       <c r="H20" s="3">
-        <v>100100</v>
+        <v>105000</v>
       </c>
       <c r="I20" s="3">
-        <v>16700</v>
+        <v>17500</v>
       </c>
       <c r="J20" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K20" s="3">
         <v>26900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>85300</v>
+        <v>87000</v>
       </c>
       <c r="E21" s="3">
-        <v>16100</v>
+        <v>13900</v>
       </c>
       <c r="F21" s="3">
-        <v>498100</v>
+        <v>519100</v>
       </c>
       <c r="G21" s="3">
-        <v>444700</v>
+        <v>462500</v>
       </c>
       <c r="H21" s="3">
-        <v>491700</v>
+        <v>512500</v>
       </c>
       <c r="I21" s="3">
-        <v>165600</v>
+        <v>172800</v>
       </c>
       <c r="J21" s="3">
-        <v>183100</v>
+        <v>191200</v>
       </c>
       <c r="K21" s="3">
         <v>235600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="E22" s="3">
-        <v>25400</v>
+        <v>26600</v>
       </c>
       <c r="F22" s="3">
-        <v>122700</v>
+        <v>128700</v>
       </c>
       <c r="G22" s="3">
-        <v>113800</v>
+        <v>119400</v>
       </c>
       <c r="H22" s="3">
-        <v>100300</v>
+        <v>105200</v>
       </c>
       <c r="I22" s="3">
-        <v>23700</v>
+        <v>24900</v>
       </c>
       <c r="J22" s="3">
-        <v>22900</v>
+        <v>24000</v>
       </c>
       <c r="K22" s="3">
         <v>26500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-71600</v>
+        <v>-75100</v>
       </c>
       <c r="E23" s="3">
-        <v>-189900</v>
+        <v>-199200</v>
       </c>
       <c r="F23" s="3">
-        <v>176400</v>
+        <v>185000</v>
       </c>
       <c r="G23" s="3">
-        <v>99200</v>
+        <v>104000</v>
       </c>
       <c r="H23" s="3">
-        <v>196600</v>
+        <v>206200</v>
       </c>
       <c r="I23" s="3">
-        <v>89900</v>
+        <v>94300</v>
       </c>
       <c r="J23" s="3">
-        <v>107500</v>
+        <v>112700</v>
       </c>
       <c r="K23" s="3">
         <v>143300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>79600</v>
+        <v>83500</v>
       </c>
       <c r="E24" s="3">
-        <v>-15700</v>
+        <v>-16500</v>
       </c>
       <c r="F24" s="3">
-        <v>15400</v>
+        <v>16100</v>
       </c>
       <c r="G24" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="H24" s="3">
-        <v>146300</v>
+        <v>153500</v>
       </c>
       <c r="I24" s="3">
-        <v>27900</v>
+        <v>29200</v>
       </c>
       <c r="J24" s="3">
-        <v>45700</v>
+        <v>48000</v>
       </c>
       <c r="K24" s="3">
         <v>61900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-151200</v>
+        <v>-158600</v>
       </c>
       <c r="E26" s="3">
-        <v>-174200</v>
+        <v>-182700</v>
       </c>
       <c r="F26" s="3">
-        <v>161000</v>
+        <v>168800</v>
       </c>
       <c r="G26" s="3">
-        <v>105600</v>
+        <v>110700</v>
       </c>
       <c r="H26" s="3">
-        <v>50200</v>
+        <v>52700</v>
       </c>
       <c r="I26" s="3">
-        <v>62000</v>
+        <v>65100</v>
       </c>
       <c r="J26" s="3">
-        <v>61700</v>
+        <v>64700</v>
       </c>
       <c r="K26" s="3">
         <v>81400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-155300</v>
+        <v>-162900</v>
       </c>
       <c r="E27" s="3">
-        <v>-178700</v>
+        <v>-187500</v>
       </c>
       <c r="F27" s="3">
-        <v>151800</v>
+        <v>159200</v>
       </c>
       <c r="G27" s="3">
-        <v>104400</v>
+        <v>109600</v>
       </c>
       <c r="H27" s="3">
-        <v>43100</v>
+        <v>45200</v>
       </c>
       <c r="I27" s="3">
-        <v>59700</v>
+        <v>62600</v>
       </c>
       <c r="J27" s="3">
-        <v>61000</v>
+        <v>64000</v>
       </c>
       <c r="K27" s="3">
         <v>81200</v>
@@ -1353,10 +1353,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-79600</v>
+        <v>-83500</v>
       </c>
       <c r="E29" s="3">
-        <v>59400</v>
+        <v>62300</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-49300</v>
+        <v>-51700</v>
       </c>
       <c r="E32" s="3">
-        <v>-26300</v>
+        <v>-27600</v>
       </c>
       <c r="F32" s="3">
-        <v>-103900</v>
+        <v>-109000</v>
       </c>
       <c r="G32" s="3">
-        <v>-84900</v>
+        <v>-89100</v>
       </c>
       <c r="H32" s="3">
-        <v>-100100</v>
+        <v>-105000</v>
       </c>
       <c r="I32" s="3">
-        <v>-16700</v>
+        <v>-17500</v>
       </c>
       <c r="J32" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="K32" s="3">
         <v>-26900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-234900</v>
+        <v>-246400</v>
       </c>
       <c r="E33" s="3">
-        <v>-119400</v>
+        <v>-125200</v>
       </c>
       <c r="F33" s="3">
-        <v>151800</v>
+        <v>159200</v>
       </c>
       <c r="G33" s="3">
-        <v>104400</v>
+        <v>109600</v>
       </c>
       <c r="H33" s="3">
-        <v>43100</v>
+        <v>45200</v>
       </c>
       <c r="I33" s="3">
-        <v>59700</v>
+        <v>62600</v>
       </c>
       <c r="J33" s="3">
-        <v>61000</v>
+        <v>64000</v>
       </c>
       <c r="K33" s="3">
         <v>81200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-234900</v>
+        <v>-246400</v>
       </c>
       <c r="E35" s="3">
-        <v>-119400</v>
+        <v>-125200</v>
       </c>
       <c r="F35" s="3">
-        <v>151800</v>
+        <v>159200</v>
       </c>
       <c r="G35" s="3">
-        <v>104400</v>
+        <v>109600</v>
       </c>
       <c r="H35" s="3">
-        <v>43100</v>
+        <v>45200</v>
       </c>
       <c r="I35" s="3">
-        <v>59700</v>
+        <v>62600</v>
       </c>
       <c r="J35" s="3">
-        <v>61000</v>
+        <v>64000</v>
       </c>
       <c r="K35" s="3">
         <v>81200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>614900</v>
+        <v>645000</v>
       </c>
       <c r="E41" s="3">
-        <v>885400</v>
+        <v>928700</v>
       </c>
       <c r="F41" s="3">
-        <v>749900</v>
+        <v>786600</v>
       </c>
       <c r="G41" s="3">
-        <v>721800</v>
+        <v>757200</v>
       </c>
       <c r="H41" s="3">
-        <v>1508500</v>
+        <v>1582300</v>
       </c>
       <c r="I41" s="3">
-        <v>305600</v>
+        <v>320600</v>
       </c>
       <c r="J41" s="3">
-        <v>300400</v>
+        <v>315100</v>
       </c>
       <c r="K41" s="3">
         <v>840300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>294700</v>
+        <v>309100</v>
       </c>
       <c r="E42" s="3">
-        <v>1205100</v>
+        <v>1264100</v>
       </c>
       <c r="F42" s="3">
-        <v>1451000</v>
+        <v>1522000</v>
       </c>
       <c r="G42" s="3">
-        <v>1032300</v>
+        <v>1082800</v>
       </c>
       <c r="H42" s="3">
-        <v>433700</v>
+        <v>455000</v>
       </c>
       <c r="I42" s="3">
-        <v>129200</v>
+        <v>135500</v>
       </c>
       <c r="J42" s="3">
-        <v>169400</v>
+        <v>177700</v>
       </c>
       <c r="K42" s="3">
         <v>275300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>554000</v>
+        <v>581100</v>
       </c>
       <c r="E43" s="3">
-        <v>749800</v>
+        <v>786500</v>
       </c>
       <c r="F43" s="3">
-        <v>666700</v>
+        <v>699300</v>
       </c>
       <c r="G43" s="3">
-        <v>565100</v>
+        <v>592700</v>
       </c>
       <c r="H43" s="3">
-        <v>753600</v>
+        <v>790500</v>
       </c>
       <c r="I43" s="3">
-        <v>141800</v>
+        <v>148800</v>
       </c>
       <c r="J43" s="3">
-        <v>230200</v>
+        <v>241400</v>
       </c>
       <c r="K43" s="3">
         <v>257700</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>938000</v>
+        <v>983900</v>
       </c>
       <c r="E44" s="3">
-        <v>1733000</v>
+        <v>1817800</v>
       </c>
       <c r="F44" s="3">
-        <v>1268100</v>
+        <v>1330100</v>
       </c>
       <c r="G44" s="3">
-        <v>1451500</v>
+        <v>1522500</v>
       </c>
       <c r="H44" s="3">
-        <v>1612400</v>
+        <v>1691300</v>
       </c>
       <c r="I44" s="3">
-        <v>429100</v>
+        <v>450100</v>
       </c>
       <c r="J44" s="3">
-        <v>408100</v>
+        <v>428000</v>
       </c>
       <c r="K44" s="3">
         <v>604900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3761800</v>
+        <v>3945900</v>
       </c>
       <c r="E45" s="3">
-        <v>314500</v>
+        <v>329900</v>
       </c>
       <c r="F45" s="3">
-        <v>97000</v>
+        <v>101700</v>
       </c>
       <c r="G45" s="3">
-        <v>172300</v>
+        <v>180700</v>
       </c>
       <c r="H45" s="3">
-        <v>158200</v>
+        <v>165900</v>
       </c>
       <c r="I45" s="3">
-        <v>30900</v>
+        <v>32400</v>
       </c>
       <c r="J45" s="3">
-        <v>76100</v>
+        <v>79800</v>
       </c>
       <c r="K45" s="3">
         <v>124100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6163500</v>
+        <v>6465100</v>
       </c>
       <c r="E46" s="3">
-        <v>4887900</v>
+        <v>5127100</v>
       </c>
       <c r="F46" s="3">
-        <v>4178000</v>
+        <v>4382400</v>
       </c>
       <c r="G46" s="3">
-        <v>3943000</v>
+        <v>4136000</v>
       </c>
       <c r="H46" s="3">
-        <v>4466400</v>
+        <v>4685000</v>
       </c>
       <c r="I46" s="3">
-        <v>1036600</v>
+        <v>1087400</v>
       </c>
       <c r="J46" s="3">
-        <v>1029000</v>
+        <v>1079300</v>
       </c>
       <c r="K46" s="3">
         <v>1251400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>42400</v>
+        <v>44500</v>
       </c>
       <c r="E47" s="3">
-        <v>171800</v>
+        <v>180200</v>
       </c>
       <c r="F47" s="3">
-        <v>393800</v>
+        <v>413100</v>
       </c>
       <c r="G47" s="3">
-        <v>264800</v>
+        <v>277800</v>
       </c>
       <c r="H47" s="3">
-        <v>809600</v>
+        <v>849300</v>
       </c>
       <c r="I47" s="3">
-        <v>93600</v>
+        <v>98200</v>
       </c>
       <c r="J47" s="3">
-        <v>94800</v>
+        <v>99400</v>
       </c>
       <c r="K47" s="3">
         <v>262900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>723900</v>
+        <v>759300</v>
       </c>
       <c r="E48" s="3">
-        <v>1358100</v>
+        <v>1424600</v>
       </c>
       <c r="F48" s="3">
-        <v>1242200</v>
+        <v>1303000</v>
       </c>
       <c r="G48" s="3">
-        <v>1252500</v>
+        <v>1313800</v>
       </c>
       <c r="H48" s="3">
-        <v>1412300</v>
+        <v>1481400</v>
       </c>
       <c r="I48" s="3">
-        <v>361400</v>
+        <v>379100</v>
       </c>
       <c r="J48" s="3">
-        <v>355600</v>
+        <v>373000</v>
       </c>
       <c r="K48" s="3">
         <v>325200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>642900</v>
+        <v>674400</v>
       </c>
       <c r="E49" s="3">
-        <v>1312600</v>
+        <v>1376800</v>
       </c>
       <c r="F49" s="3">
-        <v>1110900</v>
+        <v>1165300</v>
       </c>
       <c r="G49" s="3">
-        <v>967900</v>
+        <v>1015200</v>
       </c>
       <c r="H49" s="3">
-        <v>979000</v>
+        <v>1026900</v>
       </c>
       <c r="I49" s="3">
-        <v>224900</v>
+        <v>236000</v>
       </c>
       <c r="J49" s="3">
-        <v>197900</v>
+        <v>207500</v>
       </c>
       <c r="K49" s="3">
         <v>447800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29700</v>
+        <v>31200</v>
       </c>
       <c r="E52" s="3">
-        <v>76200</v>
+        <v>80000</v>
       </c>
       <c r="F52" s="3">
-        <v>290100</v>
+        <v>304300</v>
       </c>
       <c r="G52" s="3">
-        <v>354000</v>
+        <v>371300</v>
       </c>
       <c r="H52" s="3">
-        <v>461800</v>
+        <v>484400</v>
       </c>
       <c r="I52" s="3">
-        <v>140700</v>
+        <v>147600</v>
       </c>
       <c r="J52" s="3">
-        <v>132200</v>
+        <v>138600</v>
       </c>
       <c r="K52" s="3">
         <v>400100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7602500</v>
+        <v>7974500</v>
       </c>
       <c r="E54" s="3">
-        <v>7806600</v>
+        <v>8188600</v>
       </c>
       <c r="F54" s="3">
-        <v>7066700</v>
+        <v>7412600</v>
       </c>
       <c r="G54" s="3">
-        <v>6782200</v>
+        <v>7114100</v>
       </c>
       <c r="H54" s="3">
-        <v>8129100</v>
+        <v>8526900</v>
       </c>
       <c r="I54" s="3">
-        <v>1857300</v>
+        <v>1948200</v>
       </c>
       <c r="J54" s="3">
-        <v>1809400</v>
+        <v>1898000</v>
       </c>
       <c r="K54" s="3">
         <v>2214000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>257400</v>
+        <v>270000</v>
       </c>
       <c r="E57" s="3">
-        <v>616700</v>
+        <v>646900</v>
       </c>
       <c r="F57" s="3">
-        <v>486700</v>
+        <v>510500</v>
       </c>
       <c r="G57" s="3">
-        <v>553600</v>
+        <v>580700</v>
       </c>
       <c r="H57" s="3">
-        <v>720900</v>
+        <v>756200</v>
       </c>
       <c r="I57" s="3">
-        <v>174900</v>
+        <v>183500</v>
       </c>
       <c r="J57" s="3">
-        <v>180800</v>
+        <v>189700</v>
       </c>
       <c r="K57" s="3">
         <v>354400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14300</v>
+        <v>15000</v>
       </c>
       <c r="E58" s="3">
-        <v>123900</v>
+        <v>130000</v>
       </c>
       <c r="F58" s="3">
-        <v>229500</v>
+        <v>240800</v>
       </c>
       <c r="G58" s="3">
-        <v>296700</v>
+        <v>311200</v>
       </c>
       <c r="H58" s="3">
-        <v>152800</v>
+        <v>160300</v>
       </c>
       <c r="I58" s="3">
-        <v>17800</v>
+        <v>18700</v>
       </c>
       <c r="J58" s="3">
-        <v>16300</v>
+        <v>17100</v>
       </c>
       <c r="K58" s="3">
         <v>162600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4320300</v>
+        <v>4531700</v>
       </c>
       <c r="E59" s="3">
-        <v>1352900</v>
+        <v>1419100</v>
       </c>
       <c r="F59" s="3">
-        <v>1435100</v>
+        <v>1505400</v>
       </c>
       <c r="G59" s="3">
-        <v>999200</v>
+        <v>1048100</v>
       </c>
       <c r="H59" s="3">
-        <v>1272200</v>
+        <v>1334500</v>
       </c>
       <c r="I59" s="3">
-        <v>262700</v>
+        <v>275500</v>
       </c>
       <c r="J59" s="3">
-        <v>318900</v>
+        <v>334500</v>
       </c>
       <c r="K59" s="3">
         <v>786300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4592000</v>
+        <v>4816700</v>
       </c>
       <c r="E60" s="3">
-        <v>2093500</v>
+        <v>2195900</v>
       </c>
       <c r="F60" s="3">
-        <v>1654300</v>
+        <v>1735200</v>
       </c>
       <c r="G60" s="3">
-        <v>1849500</v>
+        <v>1940000</v>
       </c>
       <c r="H60" s="3">
-        <v>2146000</v>
+        <v>2251000</v>
       </c>
       <c r="I60" s="3">
-        <v>455400</v>
+        <v>477700</v>
       </c>
       <c r="J60" s="3">
-        <v>516100</v>
+        <v>541300</v>
       </c>
       <c r="K60" s="3">
         <v>651200</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>78900</v>
+        <v>82700</v>
       </c>
       <c r="E61" s="3">
-        <v>2397600</v>
+        <v>2514900</v>
       </c>
       <c r="F61" s="3">
-        <v>2248200</v>
+        <v>2358200</v>
       </c>
       <c r="G61" s="3">
-        <v>1889400</v>
+        <v>1981900</v>
       </c>
       <c r="H61" s="3">
-        <v>2306600</v>
+        <v>2419500</v>
       </c>
       <c r="I61" s="3">
-        <v>501000</v>
+        <v>525500</v>
       </c>
       <c r="J61" s="3">
-        <v>446600</v>
+        <v>468400</v>
       </c>
       <c r="K61" s="3">
         <v>494700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>332400</v>
+        <v>348600</v>
       </c>
       <c r="E62" s="3">
-        <v>591900</v>
+        <v>620800</v>
       </c>
       <c r="F62" s="3">
-        <v>760200</v>
+        <v>797400</v>
       </c>
       <c r="G62" s="3">
-        <v>751700</v>
+        <v>788500</v>
       </c>
       <c r="H62" s="3">
-        <v>999000</v>
+        <v>1047900</v>
       </c>
       <c r="I62" s="3">
-        <v>211400</v>
+        <v>221800</v>
       </c>
       <c r="J62" s="3">
-        <v>198800</v>
+        <v>208600</v>
       </c>
       <c r="K62" s="3">
         <v>572700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5072900</v>
+        <v>5321200</v>
       </c>
       <c r="E66" s="3">
-        <v>5148200</v>
+        <v>5400100</v>
       </c>
       <c r="F66" s="3">
-        <v>4668300</v>
+        <v>4896700</v>
       </c>
       <c r="G66" s="3">
-        <v>4544400</v>
+        <v>4766800</v>
       </c>
       <c r="H66" s="3">
-        <v>5522500</v>
+        <v>5792800</v>
       </c>
       <c r="I66" s="3">
-        <v>1185700</v>
+        <v>1243700</v>
       </c>
       <c r="J66" s="3">
-        <v>1179000</v>
+        <v>1236700</v>
       </c>
       <c r="K66" s="3">
         <v>1453100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>444500</v>
+        <v>466300</v>
       </c>
       <c r="E72" s="3">
-        <v>680500</v>
+        <v>713800</v>
       </c>
       <c r="F72" s="3">
-        <v>876100</v>
+        <v>919000</v>
       </c>
       <c r="G72" s="3">
-        <v>774800</v>
+        <v>812700</v>
       </c>
       <c r="H72" s="3">
-        <v>702700</v>
+        <v>737100</v>
       </c>
       <c r="I72" s="3">
-        <v>433400</v>
+        <v>454600</v>
       </c>
       <c r="J72" s="3">
-        <v>393500</v>
+        <v>412700</v>
       </c>
       <c r="K72" s="3">
         <v>924900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2529500</v>
+        <v>2653300</v>
       </c>
       <c r="E76" s="3">
-        <v>2658400</v>
+        <v>2788500</v>
       </c>
       <c r="F76" s="3">
-        <v>2398500</v>
+        <v>2515800</v>
       </c>
       <c r="G76" s="3">
-        <v>2237800</v>
+        <v>2347300</v>
       </c>
       <c r="H76" s="3">
-        <v>2606600</v>
+        <v>2734100</v>
       </c>
       <c r="I76" s="3">
-        <v>671600</v>
+        <v>704500</v>
       </c>
       <c r="J76" s="3">
-        <v>630400</v>
+        <v>661200</v>
       </c>
       <c r="K76" s="3">
         <v>760900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-234900</v>
+        <v>-246400</v>
       </c>
       <c r="E81" s="3">
-        <v>-119400</v>
+        <v>-125200</v>
       </c>
       <c r="F81" s="3">
-        <v>151800</v>
+        <v>159200</v>
       </c>
       <c r="G81" s="3">
-        <v>104400</v>
+        <v>109600</v>
       </c>
       <c r="H81" s="3">
-        <v>43100</v>
+        <v>45200</v>
       </c>
       <c r="I81" s="3">
-        <v>59700</v>
+        <v>62600</v>
       </c>
       <c r="J81" s="3">
-        <v>61000</v>
+        <v>64000</v>
       </c>
       <c r="K81" s="3">
         <v>81200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>148300</v>
+        <v>155500</v>
       </c>
       <c r="E83" s="3">
-        <v>177500</v>
+        <v>186200</v>
       </c>
       <c r="F83" s="3">
-        <v>195600</v>
+        <v>205100</v>
       </c>
       <c r="G83" s="3">
-        <v>227600</v>
+        <v>238800</v>
       </c>
       <c r="H83" s="3">
-        <v>191500</v>
+        <v>200800</v>
       </c>
       <c r="I83" s="3">
-        <v>51100</v>
+        <v>53600</v>
       </c>
       <c r="J83" s="3">
-        <v>51800</v>
+        <v>54400</v>
       </c>
       <c r="K83" s="3">
         <v>65100</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>668900</v>
+        <v>701600</v>
       </c>
       <c r="E89" s="3">
-        <v>715900</v>
+        <v>750900</v>
       </c>
       <c r="F89" s="3">
-        <v>445500</v>
+        <v>467300</v>
       </c>
       <c r="G89" s="3">
-        <v>-55100</v>
+        <v>-57800</v>
       </c>
       <c r="H89" s="3">
-        <v>648100</v>
+        <v>679800</v>
       </c>
       <c r="I89" s="3">
-        <v>86000</v>
+        <v>90300</v>
       </c>
       <c r="J89" s="3">
-        <v>100700</v>
+        <v>105700</v>
       </c>
       <c r="K89" s="3">
         <v>161800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-201600</v>
+        <v>-211400</v>
       </c>
       <c r="E91" s="3">
-        <v>-100800</v>
+        <v>-105800</v>
       </c>
       <c r="F91" s="3">
-        <v>-136100</v>
+        <v>-142700</v>
       </c>
       <c r="G91" s="3">
-        <v>-241200</v>
+        <v>-253000</v>
       </c>
       <c r="H91" s="3">
-        <v>-203600</v>
+        <v>-213600</v>
       </c>
       <c r="I91" s="3">
-        <v>-50600</v>
+        <v>-53100</v>
       </c>
       <c r="J91" s="3">
-        <v>-78100</v>
+        <v>-81900</v>
       </c>
       <c r="K91" s="3">
         <v>-76600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>283400</v>
+        <v>297300</v>
       </c>
       <c r="E94" s="3">
-        <v>-341700</v>
+        <v>-358400</v>
       </c>
       <c r="F94" s="3">
-        <v>-617900</v>
+        <v>-648100</v>
       </c>
       <c r="G94" s="3">
-        <v>-603400</v>
+        <v>-632900</v>
       </c>
       <c r="H94" s="3">
-        <v>-920000</v>
+        <v>-965100</v>
       </c>
       <c r="I94" s="3">
-        <v>-119800</v>
+        <v>-125700</v>
       </c>
       <c r="J94" s="3">
-        <v>-136300</v>
+        <v>-143000</v>
       </c>
       <c r="K94" s="3">
         <v>-144200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="E96" s="3">
-        <v>-24900</v>
+        <v>-26100</v>
       </c>
       <c r="F96" s="3">
-        <v>-30900</v>
+        <v>-32400</v>
       </c>
       <c r="G96" s="3">
-        <v>-17800</v>
+        <v>-18700</v>
       </c>
       <c r="H96" s="3">
-        <v>-32500</v>
+        <v>-34100</v>
       </c>
       <c r="I96" s="3">
-        <v>-17700</v>
+        <v>-18600</v>
       </c>
       <c r="J96" s="3">
-        <v>-12700</v>
+        <v>-13400</v>
       </c>
       <c r="K96" s="3">
         <v>-13900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-183100</v>
+        <v>-192100</v>
       </c>
       <c r="E100" s="3">
-        <v>-336400</v>
+        <v>-352900</v>
       </c>
       <c r="F100" s="3">
-        <v>196900</v>
+        <v>206600</v>
       </c>
       <c r="G100" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H100" s="3">
-        <v>693500</v>
+        <v>727400</v>
       </c>
       <c r="I100" s="3">
-        <v>59500</v>
+        <v>62400</v>
       </c>
       <c r="J100" s="3">
-        <v>34300</v>
+        <v>36000</v>
       </c>
       <c r="K100" s="3">
         <v>98600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E101" s="3">
-        <v>97700</v>
+        <v>102500</v>
       </c>
       <c r="F101" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G101" s="3">
-        <v>-130800</v>
+        <v>-137200</v>
       </c>
       <c r="H101" s="3">
-        <v>275200</v>
+        <v>288700</v>
       </c>
       <c r="I101" s="3">
-        <v>-20500</v>
+        <v>-21500</v>
       </c>
       <c r="J101" s="3">
-        <v>-19000</v>
+        <v>-19900</v>
       </c>
       <c r="K101" s="3">
         <v>-11400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>774000</v>
+        <v>811900</v>
       </c>
       <c r="E102" s="3">
-        <v>135500</v>
+        <v>142100</v>
       </c>
       <c r="F102" s="3">
-        <v>28100</v>
+        <v>29500</v>
       </c>
       <c r="G102" s="3">
-        <v>-786700</v>
+        <v>-825200</v>
       </c>
       <c r="H102" s="3">
-        <v>696800</v>
+        <v>730800</v>
       </c>
       <c r="I102" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="J102" s="3">
-        <v>-20200</v>
+        <v>-21200</v>
       </c>
       <c r="K102" s="3">
         <v>104900</v>

--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1958900</v>
+        <v>1853600</v>
       </c>
       <c r="E8" s="3">
-        <v>1476100</v>
+        <v>1396700</v>
       </c>
       <c r="F8" s="3">
-        <v>3513600</v>
+        <v>3324700</v>
       </c>
       <c r="G8" s="3">
-        <v>4011300</v>
+        <v>3795600</v>
       </c>
       <c r="H8" s="3">
-        <v>3799100</v>
+        <v>3594800</v>
       </c>
       <c r="I8" s="3">
-        <v>1176800</v>
+        <v>1113600</v>
       </c>
       <c r="J8" s="3">
-        <v>1166800</v>
+        <v>1104000</v>
       </c>
       <c r="K8" s="3">
         <v>1440100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1692400</v>
+        <v>1601400</v>
       </c>
       <c r="E9" s="3">
-        <v>1342900</v>
+        <v>1270700</v>
       </c>
       <c r="F9" s="3">
-        <v>2856100</v>
+        <v>2702500</v>
       </c>
       <c r="G9" s="3">
-        <v>3212300</v>
+        <v>3039600</v>
       </c>
       <c r="H9" s="3">
-        <v>3096100</v>
+        <v>2929700</v>
       </c>
       <c r="I9" s="3">
-        <v>943700</v>
+        <v>892900</v>
       </c>
       <c r="J9" s="3">
-        <v>1804300</v>
+        <v>1707300</v>
       </c>
       <c r="K9" s="3">
         <v>2185300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>266400</v>
+        <v>252100</v>
       </c>
       <c r="E10" s="3">
-        <v>133200</v>
+        <v>126100</v>
       </c>
       <c r="F10" s="3">
-        <v>657500</v>
+        <v>622200</v>
       </c>
       <c r="G10" s="3">
-        <v>799000</v>
+        <v>756000</v>
       </c>
       <c r="H10" s="3">
-        <v>702900</v>
+        <v>665100</v>
       </c>
       <c r="I10" s="3">
-        <v>233100</v>
+        <v>220600</v>
       </c>
       <c r="J10" s="3">
-        <v>-637500</v>
+        <v>-603200</v>
       </c>
       <c r="K10" s="3">
         <v>-745100</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14700</v>
+        <v>13900</v>
       </c>
       <c r="E12" s="3">
-        <v>13300</v>
+        <v>12500</v>
       </c>
       <c r="F12" s="3">
-        <v>29500</v>
+        <v>27900</v>
       </c>
       <c r="G12" s="3">
-        <v>30300</v>
+        <v>28700</v>
       </c>
       <c r="H12" s="3">
-        <v>26600</v>
+        <v>25200</v>
       </c>
       <c r="I12" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="J12" s="3">
-        <v>14000</v>
+        <v>13200</v>
       </c>
       <c r="K12" s="3">
         <v>18100</v>
@@ -897,13 +897,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="E14" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F14" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -912,10 +912,10 @@
         <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J14" s="3">
-        <v>-4400</v>
+        <v>-4100</v>
       </c>
       <c r="K14" s="3">
         <v>-4700</v>
@@ -948,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="K15" s="3">
         <v>7900</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2079300</v>
+        <v>1967500</v>
       </c>
       <c r="E17" s="3">
-        <v>1676200</v>
+        <v>1586100</v>
       </c>
       <c r="F17" s="3">
-        <v>3308900</v>
+        <v>3131000</v>
       </c>
       <c r="G17" s="3">
-        <v>3876900</v>
+        <v>3668500</v>
       </c>
       <c r="H17" s="3">
-        <v>3592700</v>
+        <v>3399500</v>
       </c>
       <c r="I17" s="3">
-        <v>1075200</v>
+        <v>1017400</v>
       </c>
       <c r="J17" s="3">
-        <v>1033300</v>
+        <v>977700</v>
       </c>
       <c r="K17" s="3">
         <v>1297200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-120400</v>
+        <v>-114000</v>
       </c>
       <c r="E18" s="3">
-        <v>-200100</v>
+        <v>-189400</v>
       </c>
       <c r="F18" s="3">
-        <v>204700</v>
+        <v>193700</v>
       </c>
       <c r="G18" s="3">
-        <v>134300</v>
+        <v>127100</v>
       </c>
       <c r="H18" s="3">
-        <v>206400</v>
+        <v>195300</v>
       </c>
       <c r="I18" s="3">
-        <v>101700</v>
+        <v>96200</v>
       </c>
       <c r="J18" s="3">
-        <v>133500</v>
+        <v>126300</v>
       </c>
       <c r="K18" s="3">
         <v>142900</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>51700</v>
+        <v>48900</v>
       </c>
       <c r="E20" s="3">
-        <v>27600</v>
+        <v>26100</v>
       </c>
       <c r="F20" s="3">
-        <v>109000</v>
+        <v>103100</v>
       </c>
       <c r="G20" s="3">
-        <v>89100</v>
+        <v>84300</v>
       </c>
       <c r="H20" s="3">
-        <v>105000</v>
+        <v>99300</v>
       </c>
       <c r="I20" s="3">
-        <v>17500</v>
+        <v>16600</v>
       </c>
       <c r="J20" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K20" s="3">
         <v>26900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>87000</v>
+        <v>82800</v>
       </c>
       <c r="E21" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="F21" s="3">
-        <v>519100</v>
+        <v>491800</v>
       </c>
       <c r="G21" s="3">
-        <v>462500</v>
+        <v>438400</v>
       </c>
       <c r="H21" s="3">
-        <v>512500</v>
+        <v>485600</v>
       </c>
       <c r="I21" s="3">
-        <v>172800</v>
+        <v>163700</v>
       </c>
       <c r="J21" s="3">
-        <v>191200</v>
+        <v>181100</v>
       </c>
       <c r="K21" s="3">
         <v>235600</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="E22" s="3">
-        <v>26600</v>
+        <v>25200</v>
       </c>
       <c r="F22" s="3">
-        <v>128700</v>
+        <v>121700</v>
       </c>
       <c r="G22" s="3">
-        <v>119400</v>
+        <v>113000</v>
       </c>
       <c r="H22" s="3">
-        <v>105200</v>
+        <v>99500</v>
       </c>
       <c r="I22" s="3">
-        <v>24900</v>
+        <v>23600</v>
       </c>
       <c r="J22" s="3">
-        <v>24000</v>
+        <v>22700</v>
       </c>
       <c r="K22" s="3">
         <v>26500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-75100</v>
+        <v>-71100</v>
       </c>
       <c r="E23" s="3">
-        <v>-199200</v>
+        <v>-188500</v>
       </c>
       <c r="F23" s="3">
-        <v>185000</v>
+        <v>175000</v>
       </c>
       <c r="G23" s="3">
-        <v>104000</v>
+        <v>98400</v>
       </c>
       <c r="H23" s="3">
-        <v>206200</v>
+        <v>195100</v>
       </c>
       <c r="I23" s="3">
-        <v>94300</v>
+        <v>89200</v>
       </c>
       <c r="J23" s="3">
-        <v>112700</v>
+        <v>106700</v>
       </c>
       <c r="K23" s="3">
         <v>143300</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>83500</v>
+        <v>79000</v>
       </c>
       <c r="E24" s="3">
-        <v>-16500</v>
+        <v>-15600</v>
       </c>
       <c r="F24" s="3">
-        <v>16100</v>
+        <v>15300</v>
       </c>
       <c r="G24" s="3">
-        <v>-6700</v>
+        <v>-6400</v>
       </c>
       <c r="H24" s="3">
-        <v>153500</v>
+        <v>145200</v>
       </c>
       <c r="I24" s="3">
-        <v>29200</v>
+        <v>27700</v>
       </c>
       <c r="J24" s="3">
-        <v>48000</v>
+        <v>45400</v>
       </c>
       <c r="K24" s="3">
         <v>61900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-158600</v>
+        <v>-150100</v>
       </c>
       <c r="E26" s="3">
-        <v>-182700</v>
+        <v>-172900</v>
       </c>
       <c r="F26" s="3">
-        <v>168800</v>
+        <v>159800</v>
       </c>
       <c r="G26" s="3">
-        <v>110700</v>
+        <v>104800</v>
       </c>
       <c r="H26" s="3">
-        <v>52700</v>
+        <v>49900</v>
       </c>
       <c r="I26" s="3">
-        <v>65100</v>
+        <v>61600</v>
       </c>
       <c r="J26" s="3">
-        <v>64700</v>
+        <v>61300</v>
       </c>
       <c r="K26" s="3">
         <v>81400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-162900</v>
+        <v>-154100</v>
       </c>
       <c r="E27" s="3">
-        <v>-187500</v>
+        <v>-177400</v>
       </c>
       <c r="F27" s="3">
-        <v>159200</v>
+        <v>150600</v>
       </c>
       <c r="G27" s="3">
-        <v>109600</v>
+        <v>103700</v>
       </c>
       <c r="H27" s="3">
-        <v>45200</v>
+        <v>42800</v>
       </c>
       <c r="I27" s="3">
-        <v>62600</v>
+        <v>59300</v>
       </c>
       <c r="J27" s="3">
-        <v>64000</v>
+        <v>60600</v>
       </c>
       <c r="K27" s="3">
         <v>81200</v>
@@ -1353,10 +1353,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-83500</v>
+        <v>-79000</v>
       </c>
       <c r="E29" s="3">
-        <v>62300</v>
+        <v>58900</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-51700</v>
+        <v>-48900</v>
       </c>
       <c r="E32" s="3">
-        <v>-27600</v>
+        <v>-26100</v>
       </c>
       <c r="F32" s="3">
-        <v>-109000</v>
+        <v>-103100</v>
       </c>
       <c r="G32" s="3">
-        <v>-89100</v>
+        <v>-84300</v>
       </c>
       <c r="H32" s="3">
-        <v>-105000</v>
+        <v>-99300</v>
       </c>
       <c r="I32" s="3">
-        <v>-17500</v>
+        <v>-16600</v>
       </c>
       <c r="J32" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="K32" s="3">
         <v>-26900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-246400</v>
+        <v>-233200</v>
       </c>
       <c r="E33" s="3">
-        <v>-125200</v>
+        <v>-118500</v>
       </c>
       <c r="F33" s="3">
-        <v>159200</v>
+        <v>150600</v>
       </c>
       <c r="G33" s="3">
-        <v>109600</v>
+        <v>103700</v>
       </c>
       <c r="H33" s="3">
-        <v>45200</v>
+        <v>42800</v>
       </c>
       <c r="I33" s="3">
-        <v>62600</v>
+        <v>59300</v>
       </c>
       <c r="J33" s="3">
-        <v>64000</v>
+        <v>60600</v>
       </c>
       <c r="K33" s="3">
         <v>81200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-246400</v>
+        <v>-233200</v>
       </c>
       <c r="E35" s="3">
-        <v>-125200</v>
+        <v>-118500</v>
       </c>
       <c r="F35" s="3">
-        <v>159200</v>
+        <v>150600</v>
       </c>
       <c r="G35" s="3">
-        <v>109600</v>
+        <v>103700</v>
       </c>
       <c r="H35" s="3">
-        <v>45200</v>
+        <v>42800</v>
       </c>
       <c r="I35" s="3">
-        <v>62600</v>
+        <v>59300</v>
       </c>
       <c r="J35" s="3">
-        <v>64000</v>
+        <v>60600</v>
       </c>
       <c r="K35" s="3">
         <v>81200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>645000</v>
+        <v>610400</v>
       </c>
       <c r="E41" s="3">
-        <v>928700</v>
+        <v>878800</v>
       </c>
       <c r="F41" s="3">
-        <v>786600</v>
+        <v>744400</v>
       </c>
       <c r="G41" s="3">
-        <v>757200</v>
+        <v>716500</v>
       </c>
       <c r="H41" s="3">
-        <v>1582300</v>
+        <v>1497300</v>
       </c>
       <c r="I41" s="3">
-        <v>320600</v>
+        <v>303300</v>
       </c>
       <c r="J41" s="3">
-        <v>315100</v>
+        <v>298100</v>
       </c>
       <c r="K41" s="3">
         <v>840300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>309100</v>
+        <v>292500</v>
       </c>
       <c r="E42" s="3">
-        <v>1264100</v>
+        <v>1196200</v>
       </c>
       <c r="F42" s="3">
-        <v>1522000</v>
+        <v>1440200</v>
       </c>
       <c r="G42" s="3">
-        <v>1082800</v>
+        <v>1024600</v>
       </c>
       <c r="H42" s="3">
-        <v>455000</v>
+        <v>430500</v>
       </c>
       <c r="I42" s="3">
-        <v>135500</v>
+        <v>128200</v>
       </c>
       <c r="J42" s="3">
-        <v>177700</v>
+        <v>168100</v>
       </c>
       <c r="K42" s="3">
         <v>275300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>581100</v>
+        <v>549900</v>
       </c>
       <c r="E43" s="3">
-        <v>786500</v>
+        <v>744200</v>
       </c>
       <c r="F43" s="3">
-        <v>699300</v>
+        <v>661700</v>
       </c>
       <c r="G43" s="3">
-        <v>592700</v>
+        <v>560800</v>
       </c>
       <c r="H43" s="3">
-        <v>790500</v>
+        <v>748000</v>
       </c>
       <c r="I43" s="3">
-        <v>148800</v>
+        <v>140800</v>
       </c>
       <c r="J43" s="3">
-        <v>241400</v>
+        <v>228500</v>
       </c>
       <c r="K43" s="3">
         <v>257700</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>983900</v>
+        <v>931000</v>
       </c>
       <c r="E44" s="3">
-        <v>1817800</v>
+        <v>1720100</v>
       </c>
       <c r="F44" s="3">
-        <v>1330100</v>
+        <v>1258600</v>
       </c>
       <c r="G44" s="3">
-        <v>1522500</v>
+        <v>1440700</v>
       </c>
       <c r="H44" s="3">
-        <v>1691300</v>
+        <v>1600300</v>
       </c>
       <c r="I44" s="3">
-        <v>450100</v>
+        <v>425900</v>
       </c>
       <c r="J44" s="3">
-        <v>428000</v>
+        <v>405000</v>
       </c>
       <c r="K44" s="3">
         <v>604900</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3945900</v>
+        <v>3733800</v>
       </c>
       <c r="E45" s="3">
-        <v>329900</v>
+        <v>312200</v>
       </c>
       <c r="F45" s="3">
-        <v>101700</v>
+        <v>96200</v>
       </c>
       <c r="G45" s="3">
-        <v>180700</v>
+        <v>171000</v>
       </c>
       <c r="H45" s="3">
-        <v>165900</v>
+        <v>157000</v>
       </c>
       <c r="I45" s="3">
-        <v>32400</v>
+        <v>30700</v>
       </c>
       <c r="J45" s="3">
-        <v>79800</v>
+        <v>75500</v>
       </c>
       <c r="K45" s="3">
         <v>124100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6465100</v>
+        <v>6117500</v>
       </c>
       <c r="E46" s="3">
-        <v>5127100</v>
+        <v>4851400</v>
       </c>
       <c r="F46" s="3">
-        <v>4382400</v>
+        <v>4146800</v>
       </c>
       <c r="G46" s="3">
-        <v>4136000</v>
+        <v>3913600</v>
       </c>
       <c r="H46" s="3">
-        <v>4685000</v>
+        <v>4433100</v>
       </c>
       <c r="I46" s="3">
-        <v>1087400</v>
+        <v>1028900</v>
       </c>
       <c r="J46" s="3">
-        <v>1079300</v>
+        <v>1021300</v>
       </c>
       <c r="K46" s="3">
         <v>1251400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>44500</v>
+        <v>42100</v>
       </c>
       <c r="E47" s="3">
-        <v>180200</v>
+        <v>170500</v>
       </c>
       <c r="F47" s="3">
-        <v>413100</v>
+        <v>390900</v>
       </c>
       <c r="G47" s="3">
-        <v>277800</v>
+        <v>262800</v>
       </c>
       <c r="H47" s="3">
-        <v>849300</v>
+        <v>803600</v>
       </c>
       <c r="I47" s="3">
-        <v>98200</v>
+        <v>92900</v>
       </c>
       <c r="J47" s="3">
-        <v>99400</v>
+        <v>94100</v>
       </c>
       <c r="K47" s="3">
         <v>262900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>759300</v>
+        <v>718500</v>
       </c>
       <c r="E48" s="3">
-        <v>1424600</v>
+        <v>1348000</v>
       </c>
       <c r="F48" s="3">
-        <v>1303000</v>
+        <v>1232900</v>
       </c>
       <c r="G48" s="3">
-        <v>1313800</v>
+        <v>1243200</v>
       </c>
       <c r="H48" s="3">
-        <v>1481400</v>
+        <v>1401800</v>
       </c>
       <c r="I48" s="3">
-        <v>379100</v>
+        <v>358700</v>
       </c>
       <c r="J48" s="3">
-        <v>373000</v>
+        <v>353000</v>
       </c>
       <c r="K48" s="3">
         <v>325200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>674400</v>
+        <v>638100</v>
       </c>
       <c r="E49" s="3">
-        <v>1376800</v>
+        <v>1302800</v>
       </c>
       <c r="F49" s="3">
-        <v>1165300</v>
+        <v>1102600</v>
       </c>
       <c r="G49" s="3">
-        <v>1015200</v>
+        <v>960700</v>
       </c>
       <c r="H49" s="3">
-        <v>1026900</v>
+        <v>971700</v>
       </c>
       <c r="I49" s="3">
-        <v>236000</v>
+        <v>223300</v>
       </c>
       <c r="J49" s="3">
-        <v>207500</v>
+        <v>196400</v>
       </c>
       <c r="K49" s="3">
         <v>447800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31200</v>
+        <v>29500</v>
       </c>
       <c r="E52" s="3">
-        <v>80000</v>
+        <v>75700</v>
       </c>
       <c r="F52" s="3">
-        <v>304300</v>
+        <v>288000</v>
       </c>
       <c r="G52" s="3">
-        <v>371300</v>
+        <v>351300</v>
       </c>
       <c r="H52" s="3">
-        <v>484400</v>
+        <v>458300</v>
       </c>
       <c r="I52" s="3">
-        <v>147600</v>
+        <v>139700</v>
       </c>
       <c r="J52" s="3">
-        <v>138600</v>
+        <v>131200</v>
       </c>
       <c r="K52" s="3">
         <v>400100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7974500</v>
+        <v>7545800</v>
       </c>
       <c r="E54" s="3">
-        <v>8188600</v>
+        <v>7748400</v>
       </c>
       <c r="F54" s="3">
-        <v>7412600</v>
+        <v>7014100</v>
       </c>
       <c r="G54" s="3">
-        <v>7114100</v>
+        <v>6731600</v>
       </c>
       <c r="H54" s="3">
-        <v>8526900</v>
+        <v>8068500</v>
       </c>
       <c r="I54" s="3">
-        <v>1948200</v>
+        <v>1843500</v>
       </c>
       <c r="J54" s="3">
-        <v>1898000</v>
+        <v>1795900</v>
       </c>
       <c r="K54" s="3">
         <v>2214000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>270000</v>
+        <v>255500</v>
       </c>
       <c r="E57" s="3">
-        <v>646900</v>
+        <v>612100</v>
       </c>
       <c r="F57" s="3">
-        <v>510500</v>
+        <v>483100</v>
       </c>
       <c r="G57" s="3">
-        <v>580700</v>
+        <v>549400</v>
       </c>
       <c r="H57" s="3">
-        <v>756200</v>
+        <v>715600</v>
       </c>
       <c r="I57" s="3">
-        <v>183500</v>
+        <v>173600</v>
       </c>
       <c r="J57" s="3">
-        <v>189700</v>
+        <v>179500</v>
       </c>
       <c r="K57" s="3">
         <v>354400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>15000</v>
+        <v>14200</v>
       </c>
       <c r="E58" s="3">
-        <v>130000</v>
+        <v>123000</v>
       </c>
       <c r="F58" s="3">
-        <v>240800</v>
+        <v>227800</v>
       </c>
       <c r="G58" s="3">
-        <v>311200</v>
+        <v>294500</v>
       </c>
       <c r="H58" s="3">
-        <v>160300</v>
+        <v>151700</v>
       </c>
       <c r="I58" s="3">
-        <v>18700</v>
+        <v>17700</v>
       </c>
       <c r="J58" s="3">
-        <v>17100</v>
+        <v>16200</v>
       </c>
       <c r="K58" s="3">
         <v>162600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4531700</v>
+        <v>4288100</v>
       </c>
       <c r="E59" s="3">
-        <v>1419100</v>
+        <v>1342800</v>
       </c>
       <c r="F59" s="3">
-        <v>1505400</v>
+        <v>1424400</v>
       </c>
       <c r="G59" s="3">
-        <v>1048100</v>
+        <v>991800</v>
       </c>
       <c r="H59" s="3">
-        <v>1334500</v>
+        <v>1262700</v>
       </c>
       <c r="I59" s="3">
-        <v>275500</v>
+        <v>260700</v>
       </c>
       <c r="J59" s="3">
-        <v>334500</v>
+        <v>316500</v>
       </c>
       <c r="K59" s="3">
         <v>786300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4816700</v>
+        <v>4557800</v>
       </c>
       <c r="E60" s="3">
-        <v>2195900</v>
+        <v>2077900</v>
       </c>
       <c r="F60" s="3">
-        <v>1735200</v>
+        <v>1642000</v>
       </c>
       <c r="G60" s="3">
-        <v>1940000</v>
+        <v>1835700</v>
       </c>
       <c r="H60" s="3">
-        <v>2251000</v>
+        <v>2130000</v>
       </c>
       <c r="I60" s="3">
-        <v>477700</v>
+        <v>452000</v>
       </c>
       <c r="J60" s="3">
-        <v>541300</v>
+        <v>512200</v>
       </c>
       <c r="K60" s="3">
         <v>651200</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>82700</v>
+        <v>78300</v>
       </c>
       <c r="E61" s="3">
-        <v>2514900</v>
+        <v>2379700</v>
       </c>
       <c r="F61" s="3">
-        <v>2358200</v>
+        <v>2231500</v>
       </c>
       <c r="G61" s="3">
-        <v>1981900</v>
+        <v>1875300</v>
       </c>
       <c r="H61" s="3">
-        <v>2419500</v>
+        <v>2289400</v>
       </c>
       <c r="I61" s="3">
-        <v>525500</v>
+        <v>497200</v>
       </c>
       <c r="J61" s="3">
-        <v>468400</v>
+        <v>443200</v>
       </c>
       <c r="K61" s="3">
         <v>494700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>348600</v>
+        <v>329900</v>
       </c>
       <c r="E62" s="3">
-        <v>620800</v>
+        <v>587400</v>
       </c>
       <c r="F62" s="3">
-        <v>797400</v>
+        <v>754600</v>
       </c>
       <c r="G62" s="3">
-        <v>788500</v>
+        <v>746100</v>
       </c>
       <c r="H62" s="3">
-        <v>1047900</v>
+        <v>991600</v>
       </c>
       <c r="I62" s="3">
-        <v>221800</v>
+        <v>209900</v>
       </c>
       <c r="J62" s="3">
-        <v>208600</v>
+        <v>197300</v>
       </c>
       <c r="K62" s="3">
         <v>572700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5321200</v>
+        <v>5035100</v>
       </c>
       <c r="E66" s="3">
-        <v>5400100</v>
+        <v>5109800</v>
       </c>
       <c r="F66" s="3">
-        <v>4896700</v>
+        <v>4633500</v>
       </c>
       <c r="G66" s="3">
-        <v>4766800</v>
+        <v>4510500</v>
       </c>
       <c r="H66" s="3">
-        <v>5792800</v>
+        <v>5481400</v>
       </c>
       <c r="I66" s="3">
-        <v>1243700</v>
+        <v>1176800</v>
       </c>
       <c r="J66" s="3">
-        <v>1236700</v>
+        <v>1170200</v>
       </c>
       <c r="K66" s="3">
         <v>1453100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>466300</v>
+        <v>441200</v>
       </c>
       <c r="E72" s="3">
-        <v>713800</v>
+        <v>675400</v>
       </c>
       <c r="F72" s="3">
-        <v>919000</v>
+        <v>869600</v>
       </c>
       <c r="G72" s="3">
-        <v>812700</v>
+        <v>769000</v>
       </c>
       <c r="H72" s="3">
-        <v>737100</v>
+        <v>697500</v>
       </c>
       <c r="I72" s="3">
-        <v>454600</v>
+        <v>430200</v>
       </c>
       <c r="J72" s="3">
-        <v>412700</v>
+        <v>390500</v>
       </c>
       <c r="K72" s="3">
         <v>924900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2653300</v>
+        <v>2510700</v>
       </c>
       <c r="E76" s="3">
-        <v>2788500</v>
+        <v>2638600</v>
       </c>
       <c r="F76" s="3">
-        <v>2515800</v>
+        <v>2380600</v>
       </c>
       <c r="G76" s="3">
-        <v>2347300</v>
+        <v>2221100</v>
       </c>
       <c r="H76" s="3">
-        <v>2734100</v>
+        <v>2587200</v>
       </c>
       <c r="I76" s="3">
-        <v>704500</v>
+        <v>666600</v>
       </c>
       <c r="J76" s="3">
-        <v>661200</v>
+        <v>625700</v>
       </c>
       <c r="K76" s="3">
         <v>760900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-246400</v>
+        <v>-233200</v>
       </c>
       <c r="E81" s="3">
-        <v>-125200</v>
+        <v>-118500</v>
       </c>
       <c r="F81" s="3">
-        <v>159200</v>
+        <v>150600</v>
       </c>
       <c r="G81" s="3">
-        <v>109600</v>
+        <v>103700</v>
       </c>
       <c r="H81" s="3">
-        <v>45200</v>
+        <v>42800</v>
       </c>
       <c r="I81" s="3">
-        <v>62600</v>
+        <v>59300</v>
       </c>
       <c r="J81" s="3">
-        <v>64000</v>
+        <v>60600</v>
       </c>
       <c r="K81" s="3">
         <v>81200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>155500</v>
+        <v>147100</v>
       </c>
       <c r="E83" s="3">
-        <v>186200</v>
+        <v>176200</v>
       </c>
       <c r="F83" s="3">
-        <v>205100</v>
+        <v>194100</v>
       </c>
       <c r="G83" s="3">
-        <v>238800</v>
+        <v>225900</v>
       </c>
       <c r="H83" s="3">
-        <v>200800</v>
+        <v>190100</v>
       </c>
       <c r="I83" s="3">
-        <v>53600</v>
+        <v>50700</v>
       </c>
       <c r="J83" s="3">
-        <v>54400</v>
+        <v>51500</v>
       </c>
       <c r="K83" s="3">
         <v>65100</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>701600</v>
+        <v>663900</v>
       </c>
       <c r="E89" s="3">
-        <v>750900</v>
+        <v>710500</v>
       </c>
       <c r="F89" s="3">
-        <v>467300</v>
+        <v>442200</v>
       </c>
       <c r="G89" s="3">
-        <v>-57800</v>
+        <v>-54700</v>
       </c>
       <c r="H89" s="3">
-        <v>679800</v>
+        <v>643300</v>
       </c>
       <c r="I89" s="3">
-        <v>90300</v>
+        <v>85400</v>
       </c>
       <c r="J89" s="3">
-        <v>105700</v>
+        <v>100000</v>
       </c>
       <c r="K89" s="3">
         <v>161800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-211400</v>
+        <v>-200000</v>
       </c>
       <c r="E91" s="3">
-        <v>-105800</v>
+        <v>-100100</v>
       </c>
       <c r="F91" s="3">
-        <v>-142700</v>
+        <v>-135100</v>
       </c>
       <c r="G91" s="3">
-        <v>-253000</v>
+        <v>-239400</v>
       </c>
       <c r="H91" s="3">
-        <v>-213600</v>
+        <v>-202100</v>
       </c>
       <c r="I91" s="3">
-        <v>-53100</v>
+        <v>-50200</v>
       </c>
       <c r="J91" s="3">
-        <v>-81900</v>
+        <v>-77500</v>
       </c>
       <c r="K91" s="3">
         <v>-76600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>297300</v>
+        <v>281300</v>
       </c>
       <c r="E94" s="3">
-        <v>-358400</v>
+        <v>-339200</v>
       </c>
       <c r="F94" s="3">
-        <v>-648100</v>
+        <v>-613300</v>
       </c>
       <c r="G94" s="3">
-        <v>-632900</v>
+        <v>-598900</v>
       </c>
       <c r="H94" s="3">
-        <v>-965100</v>
+        <v>-913200</v>
       </c>
       <c r="I94" s="3">
-        <v>-125700</v>
+        <v>-118900</v>
       </c>
       <c r="J94" s="3">
-        <v>-143000</v>
+        <v>-135300</v>
       </c>
       <c r="K94" s="3">
         <v>-144200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="E96" s="3">
-        <v>-26100</v>
+        <v>-24700</v>
       </c>
       <c r="F96" s="3">
-        <v>-32400</v>
+        <v>-30600</v>
       </c>
       <c r="G96" s="3">
-        <v>-18700</v>
+        <v>-17700</v>
       </c>
       <c r="H96" s="3">
-        <v>-34100</v>
+        <v>-32300</v>
       </c>
       <c r="I96" s="3">
-        <v>-18600</v>
+        <v>-17600</v>
       </c>
       <c r="J96" s="3">
-        <v>-13400</v>
+        <v>-12600</v>
       </c>
       <c r="K96" s="3">
         <v>-13900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-192100</v>
+        <v>-181700</v>
       </c>
       <c r="E100" s="3">
-        <v>-352900</v>
+        <v>-333900</v>
       </c>
       <c r="F100" s="3">
-        <v>206600</v>
+        <v>195500</v>
       </c>
       <c r="G100" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H100" s="3">
-        <v>727400</v>
+        <v>688300</v>
       </c>
       <c r="I100" s="3">
-        <v>62400</v>
+        <v>59000</v>
       </c>
       <c r="J100" s="3">
-        <v>36000</v>
+        <v>34100</v>
       </c>
       <c r="K100" s="3">
         <v>98600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E101" s="3">
-        <v>102500</v>
+        <v>97000</v>
       </c>
       <c r="F101" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="G101" s="3">
-        <v>-137200</v>
+        <v>-129800</v>
       </c>
       <c r="H101" s="3">
-        <v>288700</v>
+        <v>273200</v>
       </c>
       <c r="I101" s="3">
-        <v>-21500</v>
+        <v>-20300</v>
       </c>
       <c r="J101" s="3">
-        <v>-19900</v>
+        <v>-18800</v>
       </c>
       <c r="K101" s="3">
         <v>-11400</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>811900</v>
+        <v>768200</v>
       </c>
       <c r="E102" s="3">
-        <v>142100</v>
+        <v>134500</v>
       </c>
       <c r="F102" s="3">
-        <v>29500</v>
+        <v>27900</v>
       </c>
       <c r="G102" s="3">
-        <v>-825200</v>
+        <v>-780800</v>
       </c>
       <c r="H102" s="3">
-        <v>730800</v>
+        <v>691600</v>
       </c>
       <c r="I102" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="J102" s="3">
-        <v>-21200</v>
+        <v>-20100</v>
       </c>
       <c r="K102" s="3">
         <v>104900</v>

--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>ERJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1853600</v>
+        <v>3684400</v>
       </c>
       <c r="E8" s="3">
-        <v>1396700</v>
+        <v>4089600</v>
       </c>
       <c r="F8" s="3">
-        <v>3324700</v>
+        <v>1479600</v>
       </c>
       <c r="G8" s="3">
-        <v>3795600</v>
+        <v>3522000</v>
       </c>
       <c r="H8" s="3">
-        <v>3594800</v>
+        <v>4020900</v>
       </c>
       <c r="I8" s="3">
-        <v>1113600</v>
+        <v>3808200</v>
       </c>
       <c r="J8" s="3">
+        <v>1179700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1104000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1440100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1436600</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1601400</v>
+        <v>3236500</v>
       </c>
       <c r="E9" s="3">
-        <v>1270700</v>
+        <v>3497400</v>
       </c>
       <c r="F9" s="3">
-        <v>2702500</v>
+        <v>1346100</v>
       </c>
       <c r="G9" s="3">
-        <v>3039600</v>
+        <v>2862900</v>
       </c>
       <c r="H9" s="3">
-        <v>2929700</v>
+        <v>3220000</v>
       </c>
       <c r="I9" s="3">
-        <v>892900</v>
+        <v>3103600</v>
       </c>
       <c r="J9" s="3">
+        <v>945900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1707300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2185300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2228700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>252100</v>
+        <v>447900</v>
       </c>
       <c r="E10" s="3">
-        <v>126100</v>
+        <v>592200</v>
       </c>
       <c r="F10" s="3">
-        <v>622200</v>
+        <v>133600</v>
       </c>
       <c r="G10" s="3">
-        <v>756000</v>
+        <v>659100</v>
       </c>
       <c r="H10" s="3">
-        <v>665100</v>
+        <v>800900</v>
       </c>
       <c r="I10" s="3">
-        <v>220600</v>
+        <v>704600</v>
       </c>
       <c r="J10" s="3">
+        <v>233700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-603200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-745100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-792100</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13900</v>
+        <v>29100</v>
       </c>
       <c r="E12" s="3">
-        <v>12500</v>
+        <v>36800</v>
       </c>
       <c r="F12" s="3">
-        <v>27900</v>
+        <v>13300</v>
       </c>
       <c r="G12" s="3">
-        <v>28700</v>
+        <v>29600</v>
       </c>
       <c r="H12" s="3">
-        <v>25200</v>
+        <v>30400</v>
       </c>
       <c r="I12" s="3">
-        <v>8300</v>
+        <v>26700</v>
       </c>
       <c r="J12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K12" s="3">
         <v>13200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21200</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,47 +906,53 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3200</v>
+        <v>47300</v>
       </c>
       <c r="E14" s="3">
-        <v>500</v>
+        <v>9500</v>
       </c>
       <c r="F14" s="3">
-        <v>800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
+        <v>600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>900</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>-700</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K14" s="3">
         <v>-4100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-4700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>101800</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -947,18 +969,21 @@
       <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="3">
         <v>2600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>7900</v>
       </c>
       <c r="L15" s="3">
         <v>7900</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1967500</v>
+        <v>3999700</v>
       </c>
       <c r="E17" s="3">
-        <v>1586100</v>
+        <v>4147700</v>
       </c>
       <c r="F17" s="3">
-        <v>3131000</v>
+        <v>1680300</v>
       </c>
       <c r="G17" s="3">
-        <v>3668500</v>
+        <v>3316800</v>
       </c>
       <c r="H17" s="3">
-        <v>3399500</v>
+        <v>3886300</v>
       </c>
       <c r="I17" s="3">
-        <v>1017400</v>
+        <v>3601300</v>
       </c>
       <c r="J17" s="3">
+        <v>1077700</v>
+      </c>
+      <c r="K17" s="3">
         <v>977700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1297200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1357700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-114000</v>
+        <v>-315300</v>
       </c>
       <c r="E18" s="3">
-        <v>-189400</v>
+        <v>-58100</v>
       </c>
       <c r="F18" s="3">
-        <v>193700</v>
+        <v>-200600</v>
       </c>
       <c r="G18" s="3">
-        <v>127100</v>
+        <v>205200</v>
       </c>
       <c r="H18" s="3">
-        <v>195300</v>
+        <v>134600</v>
       </c>
       <c r="I18" s="3">
-        <v>96200</v>
+        <v>206900</v>
       </c>
       <c r="J18" s="3">
+        <v>101900</v>
+      </c>
+      <c r="K18" s="3">
         <v>126300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>142900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>78900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>48900</v>
+        <v>-96600</v>
       </c>
       <c r="E20" s="3">
-        <v>26100</v>
+        <v>68200</v>
       </c>
       <c r="F20" s="3">
-        <v>103100</v>
+        <v>27700</v>
       </c>
       <c r="G20" s="3">
-        <v>84300</v>
+        <v>109200</v>
       </c>
       <c r="H20" s="3">
-        <v>99300</v>
+        <v>89300</v>
       </c>
       <c r="I20" s="3">
-        <v>16600</v>
+        <v>105200</v>
       </c>
       <c r="J20" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K20" s="3">
         <v>3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>26900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>82800</v>
+        <v>-120800</v>
       </c>
       <c r="E21" s="3">
-        <v>13700</v>
+        <v>166400</v>
       </c>
       <c r="F21" s="3">
-        <v>491800</v>
+        <v>14100</v>
       </c>
       <c r="G21" s="3">
-        <v>438400</v>
+        <v>520600</v>
       </c>
       <c r="H21" s="3">
-        <v>485600</v>
+        <v>463900</v>
       </c>
       <c r="I21" s="3">
-        <v>163700</v>
+        <v>514000</v>
       </c>
       <c r="J21" s="3">
+        <v>173300</v>
+      </c>
+      <c r="K21" s="3">
         <v>181100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>235600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>144800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6000</v>
+        <v>209400</v>
       </c>
       <c r="E22" s="3">
-        <v>25200</v>
+        <v>149100</v>
       </c>
       <c r="F22" s="3">
-        <v>121700</v>
+        <v>26700</v>
       </c>
       <c r="G22" s="3">
-        <v>113000</v>
+        <v>129000</v>
       </c>
       <c r="H22" s="3">
-        <v>99500</v>
+        <v>119700</v>
       </c>
       <c r="I22" s="3">
-        <v>23600</v>
+        <v>105400</v>
       </c>
       <c r="J22" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K22" s="3">
         <v>22700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>26500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-71100</v>
+        <v>-621300</v>
       </c>
       <c r="E23" s="3">
-        <v>-188500</v>
+        <v>-139000</v>
       </c>
       <c r="F23" s="3">
-        <v>175000</v>
+        <v>-199700</v>
       </c>
       <c r="G23" s="3">
-        <v>98400</v>
+        <v>185400</v>
       </c>
       <c r="H23" s="3">
-        <v>195100</v>
+        <v>104300</v>
       </c>
       <c r="I23" s="3">
-        <v>89200</v>
+        <v>206700</v>
       </c>
       <c r="J23" s="3">
+        <v>94500</v>
+      </c>
+      <c r="K23" s="3">
         <v>106700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>143300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>61500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>79000</v>
+        <v>53300</v>
       </c>
       <c r="E24" s="3">
-        <v>-15600</v>
+        <v>103800</v>
       </c>
       <c r="F24" s="3">
-        <v>15300</v>
+        <v>-16500</v>
       </c>
       <c r="G24" s="3">
-        <v>-6400</v>
+        <v>16200</v>
       </c>
       <c r="H24" s="3">
-        <v>145200</v>
+        <v>-6800</v>
       </c>
       <c r="I24" s="3">
-        <v>27700</v>
+        <v>153900</v>
       </c>
       <c r="J24" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K24" s="3">
         <v>45400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>61900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31600</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-150100</v>
+        <v>-674600</v>
       </c>
       <c r="E26" s="3">
-        <v>-172900</v>
+        <v>-242700</v>
       </c>
       <c r="F26" s="3">
-        <v>159800</v>
+        <v>-183200</v>
       </c>
       <c r="G26" s="3">
-        <v>104800</v>
+        <v>169300</v>
       </c>
       <c r="H26" s="3">
-        <v>49900</v>
+        <v>111000</v>
       </c>
       <c r="I26" s="3">
-        <v>61600</v>
+        <v>52800</v>
       </c>
       <c r="J26" s="3">
+        <v>65200</v>
+      </c>
+      <c r="K26" s="3">
         <v>61300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>81400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>29900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-154100</v>
+        <v>-678300</v>
       </c>
       <c r="E27" s="3">
-        <v>-177400</v>
+        <v>-247000</v>
       </c>
       <c r="F27" s="3">
-        <v>150600</v>
+        <v>-187900</v>
       </c>
       <c r="G27" s="3">
-        <v>103700</v>
+        <v>159600</v>
       </c>
       <c r="H27" s="3">
-        <v>42800</v>
+        <v>109800</v>
       </c>
       <c r="I27" s="3">
-        <v>59300</v>
+        <v>45300</v>
       </c>
       <c r="J27" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K27" s="3">
         <v>60600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>81200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27700</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,20 +1403,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>-79000</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
-        <v>58900</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
+        <v>-83700</v>
+      </c>
+      <c r="F29" s="3">
+        <v>62400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1373,15 +1433,18 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-48900</v>
+        <v>96600</v>
       </c>
       <c r="E32" s="3">
-        <v>-26100</v>
+        <v>-68200</v>
       </c>
       <c r="F32" s="3">
-        <v>-103100</v>
+        <v>-27700</v>
       </c>
       <c r="G32" s="3">
-        <v>-84300</v>
+        <v>-109200</v>
       </c>
       <c r="H32" s="3">
-        <v>-99300</v>
+        <v>-89300</v>
       </c>
       <c r="I32" s="3">
-        <v>-16600</v>
+        <v>-105200</v>
       </c>
       <c r="J32" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-26900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-233200</v>
+        <v>-678300</v>
       </c>
       <c r="E33" s="3">
-        <v>-118500</v>
+        <v>-330700</v>
       </c>
       <c r="F33" s="3">
-        <v>150600</v>
+        <v>-125500</v>
       </c>
       <c r="G33" s="3">
-        <v>103700</v>
+        <v>159600</v>
       </c>
       <c r="H33" s="3">
-        <v>42800</v>
+        <v>109800</v>
       </c>
       <c r="I33" s="3">
-        <v>59300</v>
+        <v>45300</v>
       </c>
       <c r="J33" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K33" s="3">
         <v>60600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>81200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-233200</v>
+        <v>-678300</v>
       </c>
       <c r="E35" s="3">
-        <v>-118500</v>
+        <v>-330700</v>
       </c>
       <c r="F35" s="3">
-        <v>150600</v>
+        <v>-125500</v>
       </c>
       <c r="G35" s="3">
-        <v>103700</v>
+        <v>159600</v>
       </c>
       <c r="H35" s="3">
-        <v>42800</v>
+        <v>109800</v>
       </c>
       <c r="I35" s="3">
-        <v>59300</v>
+        <v>45300</v>
       </c>
       <c r="J35" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K35" s="3">
         <v>60600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>81200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>610400</v>
+        <v>1835700</v>
       </c>
       <c r="E41" s="3">
-        <v>878800</v>
+        <v>646600</v>
       </c>
       <c r="F41" s="3">
-        <v>744400</v>
+        <v>931000</v>
       </c>
       <c r="G41" s="3">
-        <v>716500</v>
+        <v>788500</v>
       </c>
       <c r="H41" s="3">
-        <v>1497300</v>
+        <v>759000</v>
       </c>
       <c r="I41" s="3">
-        <v>303300</v>
+        <v>1586100</v>
       </c>
       <c r="J41" s="3">
+        <v>321300</v>
+      </c>
+      <c r="K41" s="3">
         <v>298100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>840300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>669300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>292500</v>
+        <v>796900</v>
       </c>
       <c r="E42" s="3">
-        <v>1196200</v>
+        <v>309800</v>
       </c>
       <c r="F42" s="3">
-        <v>1440200</v>
+        <v>1267200</v>
       </c>
       <c r="G42" s="3">
-        <v>1024600</v>
+        <v>1525700</v>
       </c>
       <c r="H42" s="3">
-        <v>430500</v>
+        <v>1085400</v>
       </c>
       <c r="I42" s="3">
-        <v>128200</v>
+        <v>456000</v>
       </c>
       <c r="J42" s="3">
+        <v>135800</v>
+      </c>
+      <c r="K42" s="3">
         <v>168100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>275300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>376900</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>549900</v>
+        <v>820700</v>
       </c>
       <c r="E43" s="3">
-        <v>744200</v>
+        <v>582500</v>
       </c>
       <c r="F43" s="3">
-        <v>661700</v>
+        <v>788400</v>
       </c>
       <c r="G43" s="3">
-        <v>560800</v>
+        <v>701000</v>
       </c>
       <c r="H43" s="3">
-        <v>748000</v>
+        <v>594100</v>
       </c>
       <c r="I43" s="3">
-        <v>140800</v>
+        <v>792400</v>
       </c>
       <c r="J43" s="3">
+        <v>149100</v>
+      </c>
+      <c r="K43" s="3">
         <v>228500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>257700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>260700</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>931000</v>
+        <v>2407300</v>
       </c>
       <c r="E44" s="3">
-        <v>1720100</v>
+        <v>986200</v>
       </c>
       <c r="F44" s="3">
-        <v>1258600</v>
+        <v>1822200</v>
       </c>
       <c r="G44" s="3">
-        <v>1440700</v>
+        <v>1333300</v>
       </c>
       <c r="H44" s="3">
-        <v>1600300</v>
+        <v>1526200</v>
       </c>
       <c r="I44" s="3">
-        <v>425900</v>
+        <v>1695300</v>
       </c>
       <c r="J44" s="3">
+        <v>451200</v>
+      </c>
+      <c r="K44" s="3">
         <v>405000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>604900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1132900</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3733800</v>
+        <v>131900</v>
       </c>
       <c r="E45" s="3">
-        <v>312200</v>
+        <v>3955400</v>
       </c>
       <c r="F45" s="3">
-        <v>96200</v>
+        <v>330700</v>
       </c>
       <c r="G45" s="3">
-        <v>171000</v>
+        <v>101900</v>
       </c>
       <c r="H45" s="3">
-        <v>157000</v>
+        <v>181200</v>
       </c>
       <c r="I45" s="3">
-        <v>30700</v>
+        <v>166300</v>
       </c>
       <c r="J45" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K45" s="3">
         <v>75500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>124100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>123600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6117500</v>
+        <v>5992400</v>
       </c>
       <c r="E46" s="3">
-        <v>4851400</v>
+        <v>6480600</v>
       </c>
       <c r="F46" s="3">
-        <v>4146800</v>
+        <v>5139400</v>
       </c>
       <c r="G46" s="3">
-        <v>3913600</v>
+        <v>4393000</v>
       </c>
       <c r="H46" s="3">
-        <v>4433100</v>
+        <v>4145900</v>
       </c>
       <c r="I46" s="3">
-        <v>1028900</v>
+        <v>4696200</v>
       </c>
       <c r="J46" s="3">
+        <v>1090000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1021300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1251400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1281100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>42100</v>
+        <v>132600</v>
       </c>
       <c r="E47" s="3">
-        <v>170500</v>
+        <v>44600</v>
       </c>
       <c r="F47" s="3">
-        <v>390900</v>
+        <v>180600</v>
       </c>
       <c r="G47" s="3">
-        <v>262800</v>
+        <v>414100</v>
       </c>
       <c r="H47" s="3">
-        <v>803600</v>
+        <v>278400</v>
       </c>
       <c r="I47" s="3">
-        <v>92900</v>
+        <v>851300</v>
       </c>
       <c r="J47" s="3">
+        <v>98400</v>
+      </c>
+      <c r="K47" s="3">
         <v>94100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>262900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>308400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>718500</v>
+        <v>1967400</v>
       </c>
       <c r="E48" s="3">
-        <v>1348000</v>
+        <v>761200</v>
       </c>
       <c r="F48" s="3">
-        <v>1232900</v>
+        <v>1428000</v>
       </c>
       <c r="G48" s="3">
-        <v>1243200</v>
+        <v>1306100</v>
       </c>
       <c r="H48" s="3">
-        <v>1401800</v>
+        <v>1317000</v>
       </c>
       <c r="I48" s="3">
-        <v>358700</v>
+        <v>1485000</v>
       </c>
       <c r="J48" s="3">
+        <v>380000</v>
+      </c>
+      <c r="K48" s="3">
         <v>353000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>325200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>271600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>638100</v>
+        <v>2023300</v>
       </c>
       <c r="E49" s="3">
-        <v>1302800</v>
+        <v>676000</v>
       </c>
       <c r="F49" s="3">
-        <v>1102600</v>
+        <v>1380100</v>
       </c>
       <c r="G49" s="3">
-        <v>960700</v>
+        <v>1168100</v>
       </c>
       <c r="H49" s="3">
-        <v>971700</v>
+        <v>1017700</v>
       </c>
       <c r="I49" s="3">
-        <v>223300</v>
+        <v>1029400</v>
       </c>
       <c r="J49" s="3">
+        <v>236500</v>
+      </c>
+      <c r="K49" s="3">
         <v>196400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>447800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>401000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>29500</v>
+        <v>166100</v>
       </c>
       <c r="E52" s="3">
-        <v>75700</v>
+        <v>31300</v>
       </c>
       <c r="F52" s="3">
-        <v>288000</v>
+        <v>80100</v>
       </c>
       <c r="G52" s="3">
-        <v>351300</v>
+        <v>305100</v>
       </c>
       <c r="H52" s="3">
-        <v>458300</v>
+        <v>372200</v>
       </c>
       <c r="I52" s="3">
-        <v>139700</v>
+        <v>485500</v>
       </c>
       <c r="J52" s="3">
+        <v>148000</v>
+      </c>
+      <c r="K52" s="3">
         <v>131200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>382800</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7545800</v>
+        <v>10281800</v>
       </c>
       <c r="E54" s="3">
-        <v>7748400</v>
+        <v>7993700</v>
       </c>
       <c r="F54" s="3">
-        <v>7014100</v>
+        <v>8208300</v>
       </c>
       <c r="G54" s="3">
-        <v>6731600</v>
+        <v>7430400</v>
       </c>
       <c r="H54" s="3">
-        <v>8068500</v>
+        <v>7131200</v>
       </c>
       <c r="I54" s="3">
-        <v>1843500</v>
+        <v>8547400</v>
       </c>
       <c r="J54" s="3">
+        <v>1952900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1795900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2214000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2195200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>255500</v>
+        <v>489600</v>
       </c>
       <c r="E57" s="3">
-        <v>612100</v>
+        <v>270700</v>
       </c>
       <c r="F57" s="3">
-        <v>483100</v>
+        <v>648400</v>
       </c>
       <c r="G57" s="3">
-        <v>549400</v>
+        <v>511700</v>
       </c>
       <c r="H57" s="3">
-        <v>715600</v>
+        <v>582100</v>
       </c>
       <c r="I57" s="3">
-        <v>173600</v>
+        <v>758000</v>
       </c>
       <c r="J57" s="3">
+        <v>183900</v>
+      </c>
+      <c r="K57" s="3">
         <v>179500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>354400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>411600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>14200</v>
+        <v>377200</v>
       </c>
       <c r="E58" s="3">
-        <v>123000</v>
+        <v>15000</v>
       </c>
       <c r="F58" s="3">
-        <v>227800</v>
+        <v>130300</v>
       </c>
       <c r="G58" s="3">
-        <v>294500</v>
+        <v>241300</v>
       </c>
       <c r="H58" s="3">
-        <v>151700</v>
+        <v>312000</v>
       </c>
       <c r="I58" s="3">
-        <v>17700</v>
+        <v>160700</v>
       </c>
       <c r="J58" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K58" s="3">
         <v>16200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>162600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>280100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4288100</v>
+        <v>1500800</v>
       </c>
       <c r="E59" s="3">
-        <v>1342800</v>
+        <v>4542600</v>
       </c>
       <c r="F59" s="3">
-        <v>1424400</v>
+        <v>1422500</v>
       </c>
       <c r="G59" s="3">
-        <v>991800</v>
+        <v>1509000</v>
       </c>
       <c r="H59" s="3">
-        <v>1262700</v>
+        <v>1050600</v>
       </c>
       <c r="I59" s="3">
-        <v>260700</v>
+        <v>1337700</v>
       </c>
       <c r="J59" s="3">
+        <v>276200</v>
+      </c>
+      <c r="K59" s="3">
         <v>316500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>786300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>717400</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4557800</v>
+        <v>2367500</v>
       </c>
       <c r="E60" s="3">
-        <v>2077900</v>
+        <v>4828300</v>
       </c>
       <c r="F60" s="3">
-        <v>1642000</v>
+        <v>2201200</v>
       </c>
       <c r="G60" s="3">
-        <v>1835700</v>
+        <v>1739400</v>
       </c>
       <c r="H60" s="3">
-        <v>2130000</v>
+        <v>1944700</v>
       </c>
       <c r="I60" s="3">
-        <v>452000</v>
+        <v>2256400</v>
       </c>
       <c r="J60" s="3">
+        <v>478900</v>
+      </c>
+      <c r="K60" s="3">
         <v>512200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>651200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>704200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>78300</v>
+        <v>4021800</v>
       </c>
       <c r="E61" s="3">
-        <v>2379700</v>
+        <v>82900</v>
       </c>
       <c r="F61" s="3">
-        <v>2231500</v>
+        <v>2521000</v>
       </c>
       <c r="G61" s="3">
-        <v>1875300</v>
+        <v>2363900</v>
       </c>
       <c r="H61" s="3">
-        <v>2289400</v>
+        <v>1986600</v>
       </c>
       <c r="I61" s="3">
-        <v>497200</v>
+        <v>2425300</v>
       </c>
       <c r="J61" s="3">
+        <v>526700</v>
+      </c>
+      <c r="K61" s="3">
         <v>443200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>494700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>386000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>329900</v>
+        <v>1027600</v>
       </c>
       <c r="E62" s="3">
-        <v>587400</v>
+        <v>349500</v>
       </c>
       <c r="F62" s="3">
-        <v>754600</v>
+        <v>622300</v>
       </c>
       <c r="G62" s="3">
-        <v>746100</v>
+        <v>799400</v>
       </c>
       <c r="H62" s="3">
-        <v>991600</v>
+        <v>790400</v>
       </c>
       <c r="I62" s="3">
-        <v>209900</v>
+        <v>1050400</v>
       </c>
       <c r="J62" s="3">
+        <v>222300</v>
+      </c>
+      <c r="K62" s="3">
         <v>197300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>572700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>678900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5035100</v>
+        <v>7526700</v>
       </c>
       <c r="E66" s="3">
-        <v>5109800</v>
+        <v>5334000</v>
       </c>
       <c r="F66" s="3">
-        <v>4633500</v>
+        <v>5413100</v>
       </c>
       <c r="G66" s="3">
-        <v>4510500</v>
+        <v>4908500</v>
       </c>
       <c r="H66" s="3">
-        <v>5481400</v>
+        <v>4778200</v>
       </c>
       <c r="I66" s="3">
-        <v>1176800</v>
+        <v>5806700</v>
       </c>
       <c r="J66" s="3">
+        <v>1246700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1170200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1453100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1449100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>441200</v>
+        <v>-191500</v>
       </c>
       <c r="E72" s="3">
-        <v>675400</v>
+        <v>467400</v>
       </c>
       <c r="F72" s="3">
-        <v>869600</v>
+        <v>715500</v>
       </c>
       <c r="G72" s="3">
-        <v>769000</v>
+        <v>921200</v>
       </c>
       <c r="H72" s="3">
-        <v>697500</v>
+        <v>814700</v>
       </c>
       <c r="I72" s="3">
-        <v>430200</v>
+        <v>738900</v>
       </c>
       <c r="J72" s="3">
+        <v>455700</v>
+      </c>
+      <c r="K72" s="3">
         <v>390500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>924900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>862000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2510700</v>
+        <v>2755100</v>
       </c>
       <c r="E76" s="3">
-        <v>2638600</v>
+        <v>2659700</v>
       </c>
       <c r="F76" s="3">
-        <v>2380600</v>
+        <v>2795200</v>
       </c>
       <c r="G76" s="3">
-        <v>2221100</v>
+        <v>2521900</v>
       </c>
       <c r="H76" s="3">
-        <v>2587200</v>
+        <v>2352900</v>
       </c>
       <c r="I76" s="3">
-        <v>666600</v>
+        <v>2740700</v>
       </c>
       <c r="J76" s="3">
+        <v>706200</v>
+      </c>
+      <c r="K76" s="3">
         <v>625700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>760900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>746100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-233200</v>
+        <v>-678300</v>
       </c>
       <c r="E81" s="3">
-        <v>-118500</v>
+        <v>-330700</v>
       </c>
       <c r="F81" s="3">
-        <v>150600</v>
+        <v>-125500</v>
       </c>
       <c r="G81" s="3">
-        <v>103700</v>
+        <v>159600</v>
       </c>
       <c r="H81" s="3">
-        <v>42800</v>
+        <v>109800</v>
       </c>
       <c r="I81" s="3">
-        <v>59300</v>
+        <v>45300</v>
       </c>
       <c r="J81" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K81" s="3">
         <v>60600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>81200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>147100</v>
+        <v>290400</v>
       </c>
       <c r="E83" s="3">
-        <v>176200</v>
+        <v>155900</v>
       </c>
       <c r="F83" s="3">
-        <v>194100</v>
+        <v>186600</v>
       </c>
       <c r="G83" s="3">
-        <v>225900</v>
+        <v>205600</v>
       </c>
       <c r="H83" s="3">
-        <v>190100</v>
+        <v>239300</v>
       </c>
       <c r="I83" s="3">
-        <v>50700</v>
+        <v>201300</v>
       </c>
       <c r="J83" s="3">
+        <v>53700</v>
+      </c>
+      <c r="K83" s="3">
         <v>51500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>65100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>59200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>663900</v>
+        <v>-1221600</v>
       </c>
       <c r="E89" s="3">
-        <v>710500</v>
+        <v>703300</v>
       </c>
       <c r="F89" s="3">
-        <v>442200</v>
+        <v>752700</v>
       </c>
       <c r="G89" s="3">
-        <v>-54700</v>
+        <v>468400</v>
       </c>
       <c r="H89" s="3">
-        <v>643300</v>
+        <v>-58000</v>
       </c>
       <c r="I89" s="3">
-        <v>85400</v>
+        <v>681400</v>
       </c>
       <c r="J89" s="3">
+        <v>90500</v>
+      </c>
+      <c r="K89" s="3">
         <v>100000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>161800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>119100</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200000</v>
+        <v>-98200</v>
       </c>
       <c r="E91" s="3">
-        <v>-100100</v>
+        <v>-211900</v>
       </c>
       <c r="F91" s="3">
-        <v>-135100</v>
+        <v>-106000</v>
       </c>
       <c r="G91" s="3">
-        <v>-239400</v>
+        <v>-143100</v>
       </c>
       <c r="H91" s="3">
-        <v>-202100</v>
+        <v>-253700</v>
       </c>
       <c r="I91" s="3">
-        <v>-50200</v>
+        <v>-214100</v>
       </c>
       <c r="J91" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-77500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-76600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-136900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>281300</v>
+        <v>-176900</v>
       </c>
       <c r="E94" s="3">
-        <v>-339200</v>
+        <v>298000</v>
       </c>
       <c r="F94" s="3">
-        <v>-613300</v>
+        <v>-359300</v>
       </c>
       <c r="G94" s="3">
-        <v>-598900</v>
+        <v>-649700</v>
       </c>
       <c r="H94" s="3">
-        <v>-913200</v>
+        <v>-634400</v>
       </c>
       <c r="I94" s="3">
-        <v>-118900</v>
+        <v>-967400</v>
       </c>
       <c r="J94" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-135300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-144200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-149300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-24700</v>
+        <v>-1400</v>
       </c>
       <c r="F96" s="3">
-        <v>-30600</v>
+        <v>-26200</v>
       </c>
       <c r="G96" s="3">
-        <v>-17700</v>
+        <v>-32500</v>
       </c>
       <c r="H96" s="3">
-        <v>-32300</v>
+        <v>-18700</v>
       </c>
       <c r="I96" s="3">
-        <v>-17600</v>
+        <v>-34200</v>
       </c>
       <c r="J96" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-12600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-13900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-45500</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-181700</v>
+        <v>983300</v>
       </c>
       <c r="E100" s="3">
-        <v>-333900</v>
+        <v>-192500</v>
       </c>
       <c r="F100" s="3">
-        <v>195500</v>
+        <v>-353700</v>
       </c>
       <c r="G100" s="3">
-        <v>2600</v>
+        <v>207100</v>
       </c>
       <c r="H100" s="3">
-        <v>688300</v>
+        <v>2700</v>
       </c>
       <c r="I100" s="3">
-        <v>59000</v>
+        <v>729200</v>
       </c>
       <c r="J100" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K100" s="3">
         <v>34100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>98600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>23900</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4800</v>
+        <v>506200</v>
       </c>
       <c r="E101" s="3">
-        <v>97000</v>
+        <v>5100</v>
       </c>
       <c r="F101" s="3">
-        <v>3500</v>
+        <v>102800</v>
       </c>
       <c r="G101" s="3">
-        <v>-129800</v>
+        <v>3700</v>
       </c>
       <c r="H101" s="3">
-        <v>273200</v>
+        <v>-137500</v>
       </c>
       <c r="I101" s="3">
-        <v>-20300</v>
+        <v>289400</v>
       </c>
       <c r="J101" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-18800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4900</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>768200</v>
+        <v>90900</v>
       </c>
       <c r="E102" s="3">
-        <v>134500</v>
+        <v>813800</v>
       </c>
       <c r="F102" s="3">
-        <v>27900</v>
+        <v>142400</v>
       </c>
       <c r="G102" s="3">
-        <v>-780800</v>
+        <v>29600</v>
       </c>
       <c r="H102" s="3">
-        <v>691600</v>
+        <v>-827200</v>
       </c>
       <c r="I102" s="3">
-        <v>5200</v>
+        <v>732600</v>
       </c>
       <c r="J102" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-20100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>104900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11200</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3684400</v>
+        <v>3627800</v>
       </c>
       <c r="E8" s="3">
-        <v>4089600</v>
+        <v>4026800</v>
       </c>
       <c r="F8" s="3">
-        <v>1479600</v>
+        <v>1456900</v>
       </c>
       <c r="G8" s="3">
-        <v>3522000</v>
+        <v>3467900</v>
       </c>
       <c r="H8" s="3">
-        <v>4020900</v>
+        <v>3959200</v>
       </c>
       <c r="I8" s="3">
-        <v>3808200</v>
+        <v>3749700</v>
       </c>
       <c r="J8" s="3">
-        <v>1179700</v>
+        <v>1161500</v>
       </c>
       <c r="K8" s="3">
         <v>1104000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3236500</v>
+        <v>3186800</v>
       </c>
       <c r="E9" s="3">
-        <v>3497400</v>
+        <v>3443700</v>
       </c>
       <c r="F9" s="3">
-        <v>1346100</v>
+        <v>1325400</v>
       </c>
       <c r="G9" s="3">
-        <v>2862900</v>
+        <v>2819000</v>
       </c>
       <c r="H9" s="3">
-        <v>3220000</v>
+        <v>3170600</v>
       </c>
       <c r="I9" s="3">
-        <v>3103600</v>
+        <v>3055900</v>
       </c>
       <c r="J9" s="3">
-        <v>945900</v>
+        <v>931400</v>
       </c>
       <c r="K9" s="3">
         <v>1707300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>447900</v>
+        <v>441000</v>
       </c>
       <c r="E10" s="3">
-        <v>592200</v>
+        <v>583100</v>
       </c>
       <c r="F10" s="3">
-        <v>133600</v>
+        <v>131500</v>
       </c>
       <c r="G10" s="3">
-        <v>659100</v>
+        <v>649000</v>
       </c>
       <c r="H10" s="3">
-        <v>800900</v>
+        <v>788600</v>
       </c>
       <c r="I10" s="3">
-        <v>704600</v>
+        <v>693800</v>
       </c>
       <c r="J10" s="3">
-        <v>233700</v>
+        <v>230100</v>
       </c>
       <c r="K10" s="3">
         <v>-603200</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>36300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>13100</v>
+      </c>
+      <c r="G12" s="3">
         <v>29100</v>
       </c>
-      <c r="E12" s="3">
-        <v>36800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>13300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>29600</v>
-      </c>
       <c r="H12" s="3">
-        <v>30400</v>
+        <v>29900</v>
       </c>
       <c r="I12" s="3">
-        <v>26700</v>
+        <v>26300</v>
       </c>
       <c r="J12" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="K12" s="3">
         <v>13200</v>
@@ -916,13 +916,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>47300</v>
+        <v>46600</v>
       </c>
       <c r="E14" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="F14" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G14" s="3">
         <v>900</v>
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>101800</v>
+        <v>100200</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3999700</v>
+        <v>3938300</v>
       </c>
       <c r="E17" s="3">
-        <v>4147700</v>
+        <v>4084100</v>
       </c>
       <c r="F17" s="3">
-        <v>1680300</v>
+        <v>1654500</v>
       </c>
       <c r="G17" s="3">
-        <v>3316800</v>
+        <v>3265900</v>
       </c>
       <c r="H17" s="3">
-        <v>3886300</v>
+        <v>3826600</v>
       </c>
       <c r="I17" s="3">
-        <v>3601300</v>
+        <v>3546000</v>
       </c>
       <c r="J17" s="3">
-        <v>1077700</v>
+        <v>1061200</v>
       </c>
       <c r="K17" s="3">
         <v>977700</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-315300</v>
+        <v>-310500</v>
       </c>
       <c r="E18" s="3">
-        <v>-58100</v>
+        <v>-57200</v>
       </c>
       <c r="F18" s="3">
-        <v>-200600</v>
+        <v>-197500</v>
       </c>
       <c r="G18" s="3">
-        <v>205200</v>
+        <v>202000</v>
       </c>
       <c r="H18" s="3">
-        <v>134600</v>
+        <v>132600</v>
       </c>
       <c r="I18" s="3">
-        <v>206900</v>
+        <v>203700</v>
       </c>
       <c r="J18" s="3">
-        <v>101900</v>
+        <v>100300</v>
       </c>
       <c r="K18" s="3">
         <v>126300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-96600</v>
+        <v>-95100</v>
       </c>
       <c r="E20" s="3">
-        <v>68200</v>
+        <v>67200</v>
       </c>
       <c r="F20" s="3">
-        <v>27700</v>
+        <v>27200</v>
       </c>
       <c r="G20" s="3">
-        <v>109200</v>
+        <v>107500</v>
       </c>
       <c r="H20" s="3">
-        <v>89300</v>
+        <v>87900</v>
       </c>
       <c r="I20" s="3">
-        <v>105200</v>
+        <v>103600</v>
       </c>
       <c r="J20" s="3">
-        <v>17600</v>
+        <v>17300</v>
       </c>
       <c r="K20" s="3">
         <v>3100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-120800</v>
+        <v>-117800</v>
       </c>
       <c r="E21" s="3">
-        <v>166400</v>
+        <v>164400</v>
       </c>
       <c r="F21" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="G21" s="3">
-        <v>520600</v>
+        <v>513400</v>
       </c>
       <c r="H21" s="3">
-        <v>463900</v>
+        <v>457700</v>
       </c>
       <c r="I21" s="3">
-        <v>514000</v>
+        <v>506800</v>
       </c>
       <c r="J21" s="3">
-        <v>173300</v>
+        <v>170900</v>
       </c>
       <c r="K21" s="3">
         <v>181100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>209400</v>
+        <v>206100</v>
       </c>
       <c r="E22" s="3">
-        <v>149100</v>
+        <v>146800</v>
       </c>
       <c r="F22" s="3">
-        <v>26700</v>
+        <v>26300</v>
       </c>
       <c r="G22" s="3">
-        <v>129000</v>
+        <v>127000</v>
       </c>
       <c r="H22" s="3">
-        <v>119700</v>
+        <v>117800</v>
       </c>
       <c r="I22" s="3">
-        <v>105400</v>
+        <v>103800</v>
       </c>
       <c r="J22" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="K22" s="3">
         <v>22700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-621300</v>
+        <v>-611800</v>
       </c>
       <c r="E23" s="3">
-        <v>-139000</v>
+        <v>-136800</v>
       </c>
       <c r="F23" s="3">
-        <v>-199700</v>
+        <v>-196600</v>
       </c>
       <c r="G23" s="3">
-        <v>185400</v>
+        <v>182600</v>
       </c>
       <c r="H23" s="3">
-        <v>104300</v>
+        <v>102700</v>
       </c>
       <c r="I23" s="3">
-        <v>206700</v>
+        <v>203500</v>
       </c>
       <c r="J23" s="3">
-        <v>94500</v>
+        <v>93100</v>
       </c>
       <c r="K23" s="3">
         <v>106700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>53300</v>
+        <v>52500</v>
       </c>
       <c r="E24" s="3">
-        <v>103800</v>
+        <v>102200</v>
       </c>
       <c r="F24" s="3">
-        <v>-16500</v>
+        <v>-16200</v>
       </c>
       <c r="G24" s="3">
-        <v>16200</v>
+        <v>15900</v>
       </c>
       <c r="H24" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="I24" s="3">
-        <v>153900</v>
+        <v>151500</v>
       </c>
       <c r="J24" s="3">
-        <v>29300</v>
+        <v>28900</v>
       </c>
       <c r="K24" s="3">
         <v>45400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-674600</v>
+        <v>-664200</v>
       </c>
       <c r="E26" s="3">
-        <v>-242700</v>
+        <v>-239000</v>
       </c>
       <c r="F26" s="3">
-        <v>-183200</v>
+        <v>-180300</v>
       </c>
       <c r="G26" s="3">
-        <v>169300</v>
+        <v>166700</v>
       </c>
       <c r="H26" s="3">
-        <v>111000</v>
+        <v>109300</v>
       </c>
       <c r="I26" s="3">
-        <v>52800</v>
+        <v>52000</v>
       </c>
       <c r="J26" s="3">
-        <v>65200</v>
+        <v>64200</v>
       </c>
       <c r="K26" s="3">
         <v>61300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-678300</v>
+        <v>-667900</v>
       </c>
       <c r="E27" s="3">
-        <v>-247000</v>
+        <v>-243200</v>
       </c>
       <c r="F27" s="3">
-        <v>-187900</v>
+        <v>-185000</v>
       </c>
       <c r="G27" s="3">
-        <v>159600</v>
+        <v>157100</v>
       </c>
       <c r="H27" s="3">
-        <v>109800</v>
+        <v>108100</v>
       </c>
       <c r="I27" s="3">
-        <v>45300</v>
+        <v>44600</v>
       </c>
       <c r="J27" s="3">
-        <v>62800</v>
+        <v>61800</v>
       </c>
       <c r="K27" s="3">
         <v>60600</v>
@@ -1416,10 +1416,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="3">
-        <v>-83700</v>
+        <v>-82500</v>
       </c>
       <c r="F29" s="3">
-        <v>62400</v>
+        <v>61500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>96600</v>
+        <v>95100</v>
       </c>
       <c r="E32" s="3">
-        <v>-68200</v>
+        <v>-67200</v>
       </c>
       <c r="F32" s="3">
-        <v>-27700</v>
+        <v>-27200</v>
       </c>
       <c r="G32" s="3">
-        <v>-109200</v>
+        <v>-107500</v>
       </c>
       <c r="H32" s="3">
-        <v>-89300</v>
+        <v>-87900</v>
       </c>
       <c r="I32" s="3">
-        <v>-105200</v>
+        <v>-103600</v>
       </c>
       <c r="J32" s="3">
-        <v>-17600</v>
+        <v>-17300</v>
       </c>
       <c r="K32" s="3">
         <v>-3100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-678300</v>
+        <v>-667900</v>
       </c>
       <c r="E33" s="3">
-        <v>-330700</v>
+        <v>-325700</v>
       </c>
       <c r="F33" s="3">
-        <v>-125500</v>
+        <v>-123600</v>
       </c>
       <c r="G33" s="3">
-        <v>159600</v>
+        <v>157100</v>
       </c>
       <c r="H33" s="3">
-        <v>109800</v>
+        <v>108100</v>
       </c>
       <c r="I33" s="3">
-        <v>45300</v>
+        <v>44600</v>
       </c>
       <c r="J33" s="3">
-        <v>62800</v>
+        <v>61800</v>
       </c>
       <c r="K33" s="3">
         <v>60600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-678300</v>
+        <v>-667900</v>
       </c>
       <c r="E35" s="3">
-        <v>-330700</v>
+        <v>-325700</v>
       </c>
       <c r="F35" s="3">
-        <v>-125500</v>
+        <v>-123600</v>
       </c>
       <c r="G35" s="3">
-        <v>159600</v>
+        <v>157100</v>
       </c>
       <c r="H35" s="3">
-        <v>109800</v>
+        <v>108100</v>
       </c>
       <c r="I35" s="3">
-        <v>45300</v>
+        <v>44600</v>
       </c>
       <c r="J35" s="3">
-        <v>62800</v>
+        <v>61800</v>
       </c>
       <c r="K35" s="3">
         <v>60600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1835700</v>
+        <v>1807500</v>
       </c>
       <c r="E41" s="3">
-        <v>646600</v>
+        <v>636700</v>
       </c>
       <c r="F41" s="3">
-        <v>931000</v>
+        <v>916700</v>
       </c>
       <c r="G41" s="3">
-        <v>788500</v>
+        <v>776400</v>
       </c>
       <c r="H41" s="3">
-        <v>759000</v>
+        <v>747300</v>
       </c>
       <c r="I41" s="3">
-        <v>1586100</v>
+        <v>1561800</v>
       </c>
       <c r="J41" s="3">
-        <v>321300</v>
+        <v>316400</v>
       </c>
       <c r="K41" s="3">
         <v>298100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>796900</v>
+        <v>784700</v>
       </c>
       <c r="E42" s="3">
-        <v>309800</v>
+        <v>305100</v>
       </c>
       <c r="F42" s="3">
-        <v>1267200</v>
+        <v>1247700</v>
       </c>
       <c r="G42" s="3">
-        <v>1525700</v>
+        <v>1502300</v>
       </c>
       <c r="H42" s="3">
-        <v>1085400</v>
+        <v>1068800</v>
       </c>
       <c r="I42" s="3">
-        <v>456000</v>
+        <v>449000</v>
       </c>
       <c r="J42" s="3">
-        <v>135800</v>
+        <v>133800</v>
       </c>
       <c r="K42" s="3">
         <v>168100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>820700</v>
+        <v>808100</v>
       </c>
       <c r="E43" s="3">
-        <v>582500</v>
+        <v>573600</v>
       </c>
       <c r="F43" s="3">
-        <v>788400</v>
+        <v>776300</v>
       </c>
       <c r="G43" s="3">
-        <v>701000</v>
+        <v>690200</v>
       </c>
       <c r="H43" s="3">
-        <v>594100</v>
+        <v>585000</v>
       </c>
       <c r="I43" s="3">
-        <v>792400</v>
+        <v>780200</v>
       </c>
       <c r="J43" s="3">
-        <v>149100</v>
+        <v>146900</v>
       </c>
       <c r="K43" s="3">
         <v>228500</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2407300</v>
+        <v>2370300</v>
       </c>
       <c r="E44" s="3">
-        <v>986200</v>
+        <v>971100</v>
       </c>
       <c r="F44" s="3">
-        <v>1822200</v>
+        <v>1794200</v>
       </c>
       <c r="G44" s="3">
-        <v>1333300</v>
+        <v>1312800</v>
       </c>
       <c r="H44" s="3">
-        <v>1526200</v>
+        <v>1502700</v>
       </c>
       <c r="I44" s="3">
-        <v>1695300</v>
+        <v>1669300</v>
       </c>
       <c r="J44" s="3">
-        <v>451200</v>
+        <v>444300</v>
       </c>
       <c r="K44" s="3">
         <v>405000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131900</v>
+        <v>129900</v>
       </c>
       <c r="E45" s="3">
-        <v>3955400</v>
+        <v>3894700</v>
       </c>
       <c r="F45" s="3">
-        <v>330700</v>
+        <v>325600</v>
       </c>
       <c r="G45" s="3">
-        <v>101900</v>
+        <v>100400</v>
       </c>
       <c r="H45" s="3">
-        <v>181200</v>
+        <v>178400</v>
       </c>
       <c r="I45" s="3">
-        <v>166300</v>
+        <v>163800</v>
       </c>
       <c r="J45" s="3">
-        <v>32500</v>
+        <v>32000</v>
       </c>
       <c r="K45" s="3">
         <v>75500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5992400</v>
+        <v>5900400</v>
       </c>
       <c r="E46" s="3">
-        <v>6480600</v>
+        <v>6381100</v>
       </c>
       <c r="F46" s="3">
-        <v>5139400</v>
+        <v>5060500</v>
       </c>
       <c r="G46" s="3">
-        <v>4393000</v>
+        <v>4325500</v>
       </c>
       <c r="H46" s="3">
-        <v>4145900</v>
+        <v>4082300</v>
       </c>
       <c r="I46" s="3">
-        <v>4696200</v>
+        <v>4624100</v>
       </c>
       <c r="J46" s="3">
-        <v>1090000</v>
+        <v>1073200</v>
       </c>
       <c r="K46" s="3">
         <v>1021300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>132600</v>
+        <v>130600</v>
       </c>
       <c r="E47" s="3">
-        <v>44600</v>
+        <v>43900</v>
       </c>
       <c r="F47" s="3">
-        <v>180600</v>
+        <v>177900</v>
       </c>
       <c r="G47" s="3">
-        <v>414100</v>
+        <v>407800</v>
       </c>
       <c r="H47" s="3">
-        <v>278400</v>
+        <v>274200</v>
       </c>
       <c r="I47" s="3">
-        <v>851300</v>
+        <v>838200</v>
       </c>
       <c r="J47" s="3">
-        <v>98400</v>
+        <v>96900</v>
       </c>
       <c r="K47" s="3">
         <v>94100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1967400</v>
+        <v>1937200</v>
       </c>
       <c r="E48" s="3">
-        <v>761200</v>
+        <v>749500</v>
       </c>
       <c r="F48" s="3">
-        <v>1428000</v>
+        <v>1406100</v>
       </c>
       <c r="G48" s="3">
-        <v>1306100</v>
+        <v>1286100</v>
       </c>
       <c r="H48" s="3">
-        <v>1317000</v>
+        <v>1296700</v>
       </c>
       <c r="I48" s="3">
-        <v>1485000</v>
+        <v>1462200</v>
       </c>
       <c r="J48" s="3">
-        <v>380000</v>
+        <v>374200</v>
       </c>
       <c r="K48" s="3">
         <v>353000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2023300</v>
+        <v>1992200</v>
       </c>
       <c r="E49" s="3">
-        <v>676000</v>
+        <v>665600</v>
       </c>
       <c r="F49" s="3">
-        <v>1380100</v>
+        <v>1358900</v>
       </c>
       <c r="G49" s="3">
-        <v>1168100</v>
+        <v>1150200</v>
       </c>
       <c r="H49" s="3">
-        <v>1017700</v>
+        <v>1002000</v>
       </c>
       <c r="I49" s="3">
-        <v>1029400</v>
+        <v>1013600</v>
       </c>
       <c r="J49" s="3">
-        <v>236500</v>
+        <v>232900</v>
       </c>
       <c r="K49" s="3">
         <v>196400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>166100</v>
+        <v>163500</v>
       </c>
       <c r="E52" s="3">
-        <v>31300</v>
+        <v>30800</v>
       </c>
       <c r="F52" s="3">
-        <v>80100</v>
+        <v>78900</v>
       </c>
       <c r="G52" s="3">
-        <v>305100</v>
+        <v>300400</v>
       </c>
       <c r="H52" s="3">
-        <v>372200</v>
+        <v>366500</v>
       </c>
       <c r="I52" s="3">
-        <v>485500</v>
+        <v>478100</v>
       </c>
       <c r="J52" s="3">
-        <v>148000</v>
+        <v>145700</v>
       </c>
       <c r="K52" s="3">
         <v>131200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10281800</v>
+        <v>10123900</v>
       </c>
       <c r="E54" s="3">
-        <v>7993700</v>
+        <v>7870900</v>
       </c>
       <c r="F54" s="3">
-        <v>8208300</v>
+        <v>8082200</v>
       </c>
       <c r="G54" s="3">
-        <v>7430400</v>
+        <v>7316300</v>
       </c>
       <c r="H54" s="3">
-        <v>7131200</v>
+        <v>7021700</v>
       </c>
       <c r="I54" s="3">
-        <v>8547400</v>
+        <v>8416200</v>
       </c>
       <c r="J54" s="3">
-        <v>1952900</v>
+        <v>1922900</v>
       </c>
       <c r="K54" s="3">
         <v>1795900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>489600</v>
+        <v>482100</v>
       </c>
       <c r="E57" s="3">
-        <v>270700</v>
+        <v>266500</v>
       </c>
       <c r="F57" s="3">
-        <v>648400</v>
+        <v>638500</v>
       </c>
       <c r="G57" s="3">
-        <v>511700</v>
+        <v>503900</v>
       </c>
       <c r="H57" s="3">
-        <v>582100</v>
+        <v>573100</v>
       </c>
       <c r="I57" s="3">
-        <v>758000</v>
+        <v>746400</v>
       </c>
       <c r="J57" s="3">
-        <v>183900</v>
+        <v>181100</v>
       </c>
       <c r="K57" s="3">
         <v>179500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>377200</v>
+        <v>371400</v>
       </c>
       <c r="E58" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="F58" s="3">
-        <v>130300</v>
+        <v>128300</v>
       </c>
       <c r="G58" s="3">
-        <v>241300</v>
+        <v>237600</v>
       </c>
       <c r="H58" s="3">
-        <v>312000</v>
+        <v>307200</v>
       </c>
       <c r="I58" s="3">
-        <v>160700</v>
+        <v>158200</v>
       </c>
       <c r="J58" s="3">
-        <v>18800</v>
+        <v>18500</v>
       </c>
       <c r="K58" s="3">
         <v>16200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1500800</v>
+        <v>1477700</v>
       </c>
       <c r="E59" s="3">
-        <v>4542600</v>
+        <v>4472900</v>
       </c>
       <c r="F59" s="3">
-        <v>1422500</v>
+        <v>1400600</v>
       </c>
       <c r="G59" s="3">
-        <v>1509000</v>
+        <v>1485800</v>
       </c>
       <c r="H59" s="3">
-        <v>1050600</v>
+        <v>1034500</v>
       </c>
       <c r="I59" s="3">
-        <v>1337700</v>
+        <v>1317200</v>
       </c>
       <c r="J59" s="3">
-        <v>276200</v>
+        <v>271900</v>
       </c>
       <c r="K59" s="3">
         <v>316500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2367500</v>
+        <v>2331200</v>
       </c>
       <c r="E60" s="3">
-        <v>4828300</v>
+        <v>4754200</v>
       </c>
       <c r="F60" s="3">
-        <v>2201200</v>
+        <v>2167400</v>
       </c>
       <c r="G60" s="3">
-        <v>1739400</v>
+        <v>1712700</v>
       </c>
       <c r="H60" s="3">
-        <v>1944700</v>
+        <v>1914800</v>
       </c>
       <c r="I60" s="3">
-        <v>2256400</v>
+        <v>2221800</v>
       </c>
       <c r="J60" s="3">
-        <v>478900</v>
+        <v>471500</v>
       </c>
       <c r="K60" s="3">
         <v>512200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4021800</v>
+        <v>3960100</v>
       </c>
       <c r="E61" s="3">
-        <v>82900</v>
+        <v>81600</v>
       </c>
       <c r="F61" s="3">
-        <v>2521000</v>
+        <v>2482300</v>
       </c>
       <c r="G61" s="3">
-        <v>2363900</v>
+        <v>2327600</v>
       </c>
       <c r="H61" s="3">
-        <v>1986600</v>
+        <v>1956100</v>
       </c>
       <c r="I61" s="3">
-        <v>2425300</v>
+        <v>2388000</v>
       </c>
       <c r="J61" s="3">
-        <v>526700</v>
+        <v>518700</v>
       </c>
       <c r="K61" s="3">
         <v>443200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1027600</v>
+        <v>1011800</v>
       </c>
       <c r="E62" s="3">
-        <v>349500</v>
+        <v>344100</v>
       </c>
       <c r="F62" s="3">
-        <v>622300</v>
+        <v>612800</v>
       </c>
       <c r="G62" s="3">
-        <v>799400</v>
+        <v>787100</v>
       </c>
       <c r="H62" s="3">
-        <v>790400</v>
+        <v>778300</v>
       </c>
       <c r="I62" s="3">
-        <v>1050400</v>
+        <v>1034300</v>
       </c>
       <c r="J62" s="3">
-        <v>222300</v>
+        <v>218900</v>
       </c>
       <c r="K62" s="3">
         <v>197300</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7526700</v>
+        <v>7411100</v>
       </c>
       <c r="E66" s="3">
-        <v>5334000</v>
+        <v>5252100</v>
       </c>
       <c r="F66" s="3">
-        <v>5413100</v>
+        <v>5330000</v>
       </c>
       <c r="G66" s="3">
-        <v>4908500</v>
+        <v>4833200</v>
       </c>
       <c r="H66" s="3">
-        <v>4778200</v>
+        <v>4704900</v>
       </c>
       <c r="I66" s="3">
-        <v>5806700</v>
+        <v>5717600</v>
       </c>
       <c r="J66" s="3">
-        <v>1246700</v>
+        <v>1227600</v>
       </c>
       <c r="K66" s="3">
         <v>1170200</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-191500</v>
+        <v>-188600</v>
       </c>
       <c r="E72" s="3">
-        <v>467400</v>
+        <v>460200</v>
       </c>
       <c r="F72" s="3">
-        <v>715500</v>
+        <v>704500</v>
       </c>
       <c r="G72" s="3">
-        <v>921200</v>
+        <v>907100</v>
       </c>
       <c r="H72" s="3">
-        <v>814700</v>
+        <v>802100</v>
       </c>
       <c r="I72" s="3">
-        <v>738900</v>
+        <v>727600</v>
       </c>
       <c r="J72" s="3">
-        <v>455700</v>
+        <v>448700</v>
       </c>
       <c r="K72" s="3">
         <v>390500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2755100</v>
+        <v>2712800</v>
       </c>
       <c r="E76" s="3">
-        <v>2659700</v>
+        <v>2618900</v>
       </c>
       <c r="F76" s="3">
-        <v>2795200</v>
+        <v>2752300</v>
       </c>
       <c r="G76" s="3">
-        <v>2521900</v>
+        <v>2483200</v>
       </c>
       <c r="H76" s="3">
-        <v>2352900</v>
+        <v>2316800</v>
       </c>
       <c r="I76" s="3">
-        <v>2740700</v>
+        <v>2698600</v>
       </c>
       <c r="J76" s="3">
-        <v>706200</v>
+        <v>695400</v>
       </c>
       <c r="K76" s="3">
         <v>625700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-678300</v>
+        <v>-667900</v>
       </c>
       <c r="E81" s="3">
-        <v>-330700</v>
+        <v>-325700</v>
       </c>
       <c r="F81" s="3">
-        <v>-125500</v>
+        <v>-123600</v>
       </c>
       <c r="G81" s="3">
-        <v>159600</v>
+        <v>157100</v>
       </c>
       <c r="H81" s="3">
-        <v>109800</v>
+        <v>108100</v>
       </c>
       <c r="I81" s="3">
-        <v>45300</v>
+        <v>44600</v>
       </c>
       <c r="J81" s="3">
-        <v>62800</v>
+        <v>61800</v>
       </c>
       <c r="K81" s="3">
         <v>60600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>290400</v>
+        <v>285900</v>
       </c>
       <c r="E83" s="3">
-        <v>155900</v>
+        <v>153500</v>
       </c>
       <c r="F83" s="3">
-        <v>186600</v>
+        <v>183700</v>
       </c>
       <c r="G83" s="3">
-        <v>205600</v>
+        <v>202500</v>
       </c>
       <c r="H83" s="3">
-        <v>239300</v>
+        <v>235700</v>
       </c>
       <c r="I83" s="3">
-        <v>201300</v>
+        <v>198200</v>
       </c>
       <c r="J83" s="3">
-        <v>53700</v>
+        <v>52900</v>
       </c>
       <c r="K83" s="3">
         <v>51500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1221600</v>
+        <v>-1202800</v>
       </c>
       <c r="E89" s="3">
-        <v>703300</v>
+        <v>692500</v>
       </c>
       <c r="F89" s="3">
-        <v>752700</v>
+        <v>741200</v>
       </c>
       <c r="G89" s="3">
-        <v>468400</v>
+        <v>461200</v>
       </c>
       <c r="H89" s="3">
-        <v>-58000</v>
+        <v>-57100</v>
       </c>
       <c r="I89" s="3">
-        <v>681400</v>
+        <v>671000</v>
       </c>
       <c r="J89" s="3">
-        <v>90500</v>
+        <v>89100</v>
       </c>
       <c r="K89" s="3">
         <v>100000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-98200</v>
+        <v>-96700</v>
       </c>
       <c r="E91" s="3">
-        <v>-211900</v>
+        <v>-208700</v>
       </c>
       <c r="F91" s="3">
-        <v>-106000</v>
+        <v>-104400</v>
       </c>
       <c r="G91" s="3">
-        <v>-143100</v>
+        <v>-140900</v>
       </c>
       <c r="H91" s="3">
-        <v>-253700</v>
+        <v>-249800</v>
       </c>
       <c r="I91" s="3">
-        <v>-214100</v>
+        <v>-210800</v>
       </c>
       <c r="J91" s="3">
-        <v>-53200</v>
+        <v>-52400</v>
       </c>
       <c r="K91" s="3">
         <v>-77500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-176900</v>
+        <v>-174200</v>
       </c>
       <c r="E94" s="3">
-        <v>298000</v>
+        <v>293400</v>
       </c>
       <c r="F94" s="3">
-        <v>-359300</v>
+        <v>-353800</v>
       </c>
       <c r="G94" s="3">
-        <v>-649700</v>
+        <v>-639700</v>
       </c>
       <c r="H94" s="3">
-        <v>-634400</v>
+        <v>-624700</v>
       </c>
       <c r="I94" s="3">
-        <v>-967400</v>
+        <v>-952500</v>
       </c>
       <c r="J94" s="3">
-        <v>-126000</v>
+        <v>-124000</v>
       </c>
       <c r="K94" s="3">
         <v>-135300</v>
@@ -3534,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F96" s="3">
-        <v>-26200</v>
+        <v>-25800</v>
       </c>
       <c r="G96" s="3">
-        <v>-32500</v>
+        <v>-32000</v>
       </c>
       <c r="H96" s="3">
-        <v>-18700</v>
+        <v>-18400</v>
       </c>
       <c r="I96" s="3">
-        <v>-34200</v>
+        <v>-33700</v>
       </c>
       <c r="J96" s="3">
-        <v>-18600</v>
+        <v>-18300</v>
       </c>
       <c r="K96" s="3">
         <v>-12600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>983300</v>
+        <v>968200</v>
       </c>
       <c r="E100" s="3">
-        <v>-192500</v>
+        <v>-189600</v>
       </c>
       <c r="F100" s="3">
-        <v>-353700</v>
+        <v>-348300</v>
       </c>
       <c r="G100" s="3">
-        <v>207100</v>
+        <v>203900</v>
       </c>
       <c r="H100" s="3">
         <v>2700</v>
       </c>
       <c r="I100" s="3">
-        <v>729200</v>
+        <v>718000</v>
       </c>
       <c r="J100" s="3">
-        <v>62500</v>
+        <v>61600</v>
       </c>
       <c r="K100" s="3">
         <v>34100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>506200</v>
+        <v>498400</v>
       </c>
       <c r="E101" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="F101" s="3">
-        <v>102800</v>
+        <v>101200</v>
       </c>
       <c r="G101" s="3">
         <v>3700</v>
       </c>
       <c r="H101" s="3">
-        <v>-137500</v>
+        <v>-135400</v>
       </c>
       <c r="I101" s="3">
-        <v>289400</v>
+        <v>285000</v>
       </c>
       <c r="J101" s="3">
-        <v>-21500</v>
+        <v>-21200</v>
       </c>
       <c r="K101" s="3">
         <v>-18800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>90900</v>
+        <v>89500</v>
       </c>
       <c r="E102" s="3">
-        <v>813800</v>
+        <v>801300</v>
       </c>
       <c r="F102" s="3">
-        <v>142400</v>
+        <v>140200</v>
       </c>
       <c r="G102" s="3">
-        <v>29600</v>
+        <v>29100</v>
       </c>
       <c r="H102" s="3">
-        <v>-827200</v>
+        <v>-814500</v>
       </c>
       <c r="I102" s="3">
-        <v>732600</v>
+        <v>721400</v>
       </c>
       <c r="J102" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="K102" s="3">
         <v>-20100</v>

--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3627800</v>
+        <v>3506400</v>
       </c>
       <c r="E8" s="3">
-        <v>4026800</v>
+        <v>3892100</v>
       </c>
       <c r="F8" s="3">
-        <v>1456900</v>
+        <v>1408200</v>
       </c>
       <c r="G8" s="3">
-        <v>3467900</v>
+        <v>3351900</v>
       </c>
       <c r="H8" s="3">
-        <v>3959200</v>
+        <v>3826700</v>
       </c>
       <c r="I8" s="3">
-        <v>3749700</v>
+        <v>3624300</v>
       </c>
       <c r="J8" s="3">
-        <v>1161500</v>
+        <v>1122700</v>
       </c>
       <c r="K8" s="3">
         <v>1104000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3186800</v>
+        <v>3080200</v>
       </c>
       <c r="E9" s="3">
-        <v>3443700</v>
+        <v>3328500</v>
       </c>
       <c r="F9" s="3">
-        <v>1325400</v>
+        <v>1281100</v>
       </c>
       <c r="G9" s="3">
-        <v>2819000</v>
+        <v>2724700</v>
       </c>
       <c r="H9" s="3">
-        <v>3170600</v>
+        <v>3064500</v>
       </c>
       <c r="I9" s="3">
-        <v>3055900</v>
+        <v>2953700</v>
       </c>
       <c r="J9" s="3">
-        <v>931400</v>
+        <v>900300</v>
       </c>
       <c r="K9" s="3">
         <v>1707300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>441000</v>
+        <v>426300</v>
       </c>
       <c r="E10" s="3">
-        <v>583100</v>
+        <v>563600</v>
       </c>
       <c r="F10" s="3">
-        <v>131500</v>
+        <v>127100</v>
       </c>
       <c r="G10" s="3">
-        <v>649000</v>
+        <v>627200</v>
       </c>
       <c r="H10" s="3">
-        <v>788600</v>
+        <v>762200</v>
       </c>
       <c r="I10" s="3">
-        <v>693800</v>
+        <v>670600</v>
       </c>
       <c r="J10" s="3">
-        <v>230100</v>
+        <v>222400</v>
       </c>
       <c r="K10" s="3">
         <v>-603200</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>28600</v>
+        <v>27700</v>
       </c>
       <c r="E12" s="3">
-        <v>36300</v>
+        <v>35100</v>
       </c>
       <c r="F12" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="G12" s="3">
-        <v>29100</v>
+        <v>28100</v>
       </c>
       <c r="H12" s="3">
-        <v>29900</v>
+        <v>28900</v>
       </c>
       <c r="I12" s="3">
-        <v>26300</v>
+        <v>25400</v>
       </c>
       <c r="J12" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="K12" s="3">
         <v>13200</v>
@@ -916,16 +916,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>46600</v>
+        <v>45100</v>
       </c>
       <c r="E14" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="F14" s="3">
         <v>500</v>
       </c>
       <c r="G14" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -934,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K14" s="3">
         <v>-4100</v>
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100200</v>
+        <v>96900</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3938300</v>
+        <v>3806600</v>
       </c>
       <c r="E17" s="3">
-        <v>4084100</v>
+        <v>3947400</v>
       </c>
       <c r="F17" s="3">
-        <v>1654500</v>
+        <v>1599100</v>
       </c>
       <c r="G17" s="3">
-        <v>3265900</v>
+        <v>3156600</v>
       </c>
       <c r="H17" s="3">
-        <v>3826600</v>
+        <v>3698600</v>
       </c>
       <c r="I17" s="3">
-        <v>3546000</v>
+        <v>3427400</v>
       </c>
       <c r="J17" s="3">
-        <v>1061200</v>
+        <v>1025700</v>
       </c>
       <c r="K17" s="3">
         <v>977700</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-310500</v>
+        <v>-300100</v>
       </c>
       <c r="E18" s="3">
-        <v>-57200</v>
+        <v>-55300</v>
       </c>
       <c r="F18" s="3">
-        <v>-197500</v>
+        <v>-190900</v>
       </c>
       <c r="G18" s="3">
-        <v>202000</v>
+        <v>195300</v>
       </c>
       <c r="H18" s="3">
-        <v>132600</v>
+        <v>128100</v>
       </c>
       <c r="I18" s="3">
-        <v>203700</v>
+        <v>196900</v>
       </c>
       <c r="J18" s="3">
-        <v>100300</v>
+        <v>97000</v>
       </c>
       <c r="K18" s="3">
         <v>126300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-95100</v>
+        <v>-91900</v>
       </c>
       <c r="E20" s="3">
-        <v>67200</v>
+        <v>64900</v>
       </c>
       <c r="F20" s="3">
-        <v>27200</v>
+        <v>26300</v>
       </c>
       <c r="G20" s="3">
-        <v>107500</v>
+        <v>103900</v>
       </c>
       <c r="H20" s="3">
-        <v>87900</v>
+        <v>85000</v>
       </c>
       <c r="I20" s="3">
-        <v>103600</v>
+        <v>100100</v>
       </c>
       <c r="J20" s="3">
-        <v>17300</v>
+        <v>16700</v>
       </c>
       <c r="K20" s="3">
         <v>3100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-117800</v>
+        <v>-116000</v>
       </c>
       <c r="E21" s="3">
-        <v>164400</v>
+        <v>157800</v>
       </c>
       <c r="F21" s="3">
-        <v>14600</v>
+        <v>12800</v>
       </c>
       <c r="G21" s="3">
-        <v>513400</v>
+        <v>494700</v>
       </c>
       <c r="H21" s="3">
-        <v>457700</v>
+        <v>440600</v>
       </c>
       <c r="I21" s="3">
-        <v>506800</v>
+        <v>488400</v>
       </c>
       <c r="J21" s="3">
-        <v>170900</v>
+        <v>164700</v>
       </c>
       <c r="K21" s="3">
         <v>181100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>206100</v>
+        <v>199300</v>
       </c>
       <c r="E22" s="3">
-        <v>146800</v>
+        <v>141900</v>
       </c>
       <c r="F22" s="3">
-        <v>26300</v>
+        <v>25400</v>
       </c>
       <c r="G22" s="3">
-        <v>127000</v>
+        <v>122700</v>
       </c>
       <c r="H22" s="3">
-        <v>117800</v>
+        <v>113900</v>
       </c>
       <c r="I22" s="3">
-        <v>103800</v>
+        <v>100300</v>
       </c>
       <c r="J22" s="3">
-        <v>24600</v>
+        <v>23700</v>
       </c>
       <c r="K22" s="3">
         <v>22700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-611800</v>
+        <v>-591300</v>
       </c>
       <c r="E23" s="3">
-        <v>-136800</v>
+        <v>-132200</v>
       </c>
       <c r="F23" s="3">
-        <v>-196600</v>
+        <v>-190000</v>
       </c>
       <c r="G23" s="3">
-        <v>182600</v>
+        <v>176500</v>
       </c>
       <c r="H23" s="3">
-        <v>102700</v>
+        <v>99200</v>
       </c>
       <c r="I23" s="3">
-        <v>203500</v>
+        <v>196700</v>
       </c>
       <c r="J23" s="3">
-        <v>93100</v>
+        <v>90000</v>
       </c>
       <c r="K23" s="3">
         <v>106700</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52500</v>
+        <v>50700</v>
       </c>
       <c r="E24" s="3">
-        <v>102200</v>
+        <v>98800</v>
       </c>
       <c r="F24" s="3">
-        <v>-16200</v>
+        <v>-15700</v>
       </c>
       <c r="G24" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="H24" s="3">
-        <v>-6600</v>
+        <v>-6400</v>
       </c>
       <c r="I24" s="3">
-        <v>151500</v>
+        <v>146400</v>
       </c>
       <c r="J24" s="3">
-        <v>28900</v>
+        <v>27900</v>
       </c>
       <c r="K24" s="3">
         <v>45400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-664200</v>
+        <v>-642000</v>
       </c>
       <c r="E26" s="3">
-        <v>-239000</v>
+        <v>-231000</v>
       </c>
       <c r="F26" s="3">
-        <v>-180300</v>
+        <v>-174300</v>
       </c>
       <c r="G26" s="3">
-        <v>166700</v>
+        <v>161100</v>
       </c>
       <c r="H26" s="3">
-        <v>109300</v>
+        <v>105700</v>
       </c>
       <c r="I26" s="3">
-        <v>52000</v>
+        <v>50300</v>
       </c>
       <c r="J26" s="3">
-        <v>64200</v>
+        <v>62100</v>
       </c>
       <c r="K26" s="3">
         <v>61300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-667900</v>
+        <v>-645500</v>
       </c>
       <c r="E27" s="3">
-        <v>-243200</v>
+        <v>-235100</v>
       </c>
       <c r="F27" s="3">
-        <v>-185000</v>
+        <v>-178900</v>
       </c>
       <c r="G27" s="3">
-        <v>157100</v>
+        <v>151900</v>
       </c>
       <c r="H27" s="3">
-        <v>108100</v>
+        <v>104500</v>
       </c>
       <c r="I27" s="3">
-        <v>44600</v>
+        <v>43100</v>
       </c>
       <c r="J27" s="3">
-        <v>61800</v>
+        <v>59800</v>
       </c>
       <c r="K27" s="3">
         <v>60600</v>
@@ -1416,10 +1416,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="3">
-        <v>-82500</v>
+        <v>-79700</v>
       </c>
       <c r="F29" s="3">
-        <v>61500</v>
+        <v>59400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>95100</v>
+        <v>91900</v>
       </c>
       <c r="E32" s="3">
-        <v>-67200</v>
+        <v>-64900</v>
       </c>
       <c r="F32" s="3">
-        <v>-27200</v>
+        <v>-26300</v>
       </c>
       <c r="G32" s="3">
-        <v>-107500</v>
+        <v>-103900</v>
       </c>
       <c r="H32" s="3">
-        <v>-87900</v>
+        <v>-85000</v>
       </c>
       <c r="I32" s="3">
-        <v>-103600</v>
+        <v>-100100</v>
       </c>
       <c r="J32" s="3">
-        <v>-17300</v>
+        <v>-16700</v>
       </c>
       <c r="K32" s="3">
         <v>-3100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-667900</v>
+        <v>-645500</v>
       </c>
       <c r="E33" s="3">
-        <v>-325700</v>
+        <v>-314800</v>
       </c>
       <c r="F33" s="3">
-        <v>-123600</v>
+        <v>-119400</v>
       </c>
       <c r="G33" s="3">
-        <v>157100</v>
+        <v>151900</v>
       </c>
       <c r="H33" s="3">
-        <v>108100</v>
+        <v>104500</v>
       </c>
       <c r="I33" s="3">
-        <v>44600</v>
+        <v>43100</v>
       </c>
       <c r="J33" s="3">
-        <v>61800</v>
+        <v>59800</v>
       </c>
       <c r="K33" s="3">
         <v>60600</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-667900</v>
+        <v>-645500</v>
       </c>
       <c r="E35" s="3">
-        <v>-325700</v>
+        <v>-314800</v>
       </c>
       <c r="F35" s="3">
-        <v>-123600</v>
+        <v>-119400</v>
       </c>
       <c r="G35" s="3">
-        <v>157100</v>
+        <v>151900</v>
       </c>
       <c r="H35" s="3">
-        <v>108100</v>
+        <v>104500</v>
       </c>
       <c r="I35" s="3">
-        <v>44600</v>
+        <v>43100</v>
       </c>
       <c r="J35" s="3">
-        <v>61800</v>
+        <v>59800</v>
       </c>
       <c r="K35" s="3">
         <v>60600</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1807500</v>
+        <v>1747000</v>
       </c>
       <c r="E41" s="3">
-        <v>636700</v>
+        <v>615400</v>
       </c>
       <c r="F41" s="3">
-        <v>916700</v>
+        <v>886000</v>
       </c>
       <c r="G41" s="3">
-        <v>776400</v>
+        <v>750400</v>
       </c>
       <c r="H41" s="3">
-        <v>747300</v>
+        <v>722300</v>
       </c>
       <c r="I41" s="3">
-        <v>1561800</v>
+        <v>1509500</v>
       </c>
       <c r="J41" s="3">
-        <v>316400</v>
+        <v>305800</v>
       </c>
       <c r="K41" s="3">
         <v>298100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>784700</v>
+        <v>758400</v>
       </c>
       <c r="E42" s="3">
-        <v>305100</v>
+        <v>294900</v>
       </c>
       <c r="F42" s="3">
-        <v>1247700</v>
+        <v>1206000</v>
       </c>
       <c r="G42" s="3">
-        <v>1502300</v>
+        <v>1452000</v>
       </c>
       <c r="H42" s="3">
-        <v>1068800</v>
+        <v>1033000</v>
       </c>
       <c r="I42" s="3">
-        <v>449000</v>
+        <v>434000</v>
       </c>
       <c r="J42" s="3">
-        <v>133800</v>
+        <v>129300</v>
       </c>
       <c r="K42" s="3">
         <v>168100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>808100</v>
+        <v>781000</v>
       </c>
       <c r="E43" s="3">
-        <v>573600</v>
+        <v>554400</v>
       </c>
       <c r="F43" s="3">
-        <v>776300</v>
+        <v>750300</v>
       </c>
       <c r="G43" s="3">
-        <v>690200</v>
+        <v>667100</v>
       </c>
       <c r="H43" s="3">
-        <v>585000</v>
+        <v>565400</v>
       </c>
       <c r="I43" s="3">
-        <v>780200</v>
+        <v>754100</v>
       </c>
       <c r="J43" s="3">
-        <v>146900</v>
+        <v>141900</v>
       </c>
       <c r="K43" s="3">
         <v>228500</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2370300</v>
+        <v>2268300</v>
       </c>
       <c r="E44" s="3">
-        <v>971100</v>
+        <v>938600</v>
       </c>
       <c r="F44" s="3">
-        <v>1794200</v>
+        <v>1734200</v>
       </c>
       <c r="G44" s="3">
-        <v>1312800</v>
+        <v>1268900</v>
       </c>
       <c r="H44" s="3">
-        <v>1502700</v>
+        <v>1452500</v>
       </c>
       <c r="I44" s="3">
-        <v>1669300</v>
+        <v>1613500</v>
       </c>
       <c r="J44" s="3">
-        <v>444300</v>
+        <v>429400</v>
       </c>
       <c r="K44" s="3">
         <v>405000</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>129900</v>
+        <v>125500</v>
       </c>
       <c r="E45" s="3">
-        <v>3894700</v>
+        <v>3764400</v>
       </c>
       <c r="F45" s="3">
-        <v>325600</v>
+        <v>314700</v>
       </c>
       <c r="G45" s="3">
-        <v>100400</v>
+        <v>97000</v>
       </c>
       <c r="H45" s="3">
-        <v>178400</v>
+        <v>172400</v>
       </c>
       <c r="I45" s="3">
-        <v>163800</v>
+        <v>158300</v>
       </c>
       <c r="J45" s="3">
-        <v>32000</v>
+        <v>30900</v>
       </c>
       <c r="K45" s="3">
         <v>75500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5900400</v>
+        <v>5680300</v>
       </c>
       <c r="E46" s="3">
-        <v>6381100</v>
+        <v>6167600</v>
       </c>
       <c r="F46" s="3">
-        <v>5060500</v>
+        <v>4891200</v>
       </c>
       <c r="G46" s="3">
-        <v>4325500</v>
+        <v>4180800</v>
       </c>
       <c r="H46" s="3">
-        <v>4082300</v>
+        <v>3945700</v>
       </c>
       <c r="I46" s="3">
-        <v>4624100</v>
+        <v>4469400</v>
       </c>
       <c r="J46" s="3">
-        <v>1073200</v>
+        <v>1037300</v>
       </c>
       <c r="K46" s="3">
         <v>1021300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>130600</v>
+        <v>126200</v>
       </c>
       <c r="E47" s="3">
-        <v>43900</v>
+        <v>42400</v>
       </c>
       <c r="F47" s="3">
-        <v>177900</v>
+        <v>171900</v>
       </c>
       <c r="G47" s="3">
-        <v>407800</v>
+        <v>394100</v>
       </c>
       <c r="H47" s="3">
-        <v>274200</v>
+        <v>265000</v>
       </c>
       <c r="I47" s="3">
-        <v>838200</v>
+        <v>810200</v>
       </c>
       <c r="J47" s="3">
-        <v>96900</v>
+        <v>93700</v>
       </c>
       <c r="K47" s="3">
         <v>94100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1937200</v>
+        <v>1872400</v>
       </c>
       <c r="E48" s="3">
-        <v>749500</v>
+        <v>724400</v>
       </c>
       <c r="F48" s="3">
-        <v>1406100</v>
+        <v>1359000</v>
       </c>
       <c r="G48" s="3">
-        <v>1286100</v>
+        <v>1243000</v>
       </c>
       <c r="H48" s="3">
-        <v>1296700</v>
+        <v>1253400</v>
       </c>
       <c r="I48" s="3">
-        <v>1462200</v>
+        <v>1413300</v>
       </c>
       <c r="J48" s="3">
-        <v>374200</v>
+        <v>361600</v>
       </c>
       <c r="K48" s="3">
         <v>353000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1992200</v>
+        <v>1925600</v>
       </c>
       <c r="E49" s="3">
-        <v>665600</v>
+        <v>643400</v>
       </c>
       <c r="F49" s="3">
-        <v>1358900</v>
+        <v>1313500</v>
       </c>
       <c r="G49" s="3">
-        <v>1150200</v>
+        <v>1111700</v>
       </c>
       <c r="H49" s="3">
-        <v>1002000</v>
+        <v>968500</v>
       </c>
       <c r="I49" s="3">
-        <v>1013600</v>
+        <v>979700</v>
       </c>
       <c r="J49" s="3">
-        <v>232900</v>
+        <v>225100</v>
       </c>
       <c r="K49" s="3">
         <v>196400</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>163500</v>
+        <v>158000</v>
       </c>
       <c r="E52" s="3">
-        <v>30800</v>
+        <v>29800</v>
       </c>
       <c r="F52" s="3">
-        <v>78900</v>
+        <v>76300</v>
       </c>
       <c r="G52" s="3">
-        <v>300400</v>
+        <v>290300</v>
       </c>
       <c r="H52" s="3">
-        <v>366500</v>
+        <v>354200</v>
       </c>
       <c r="I52" s="3">
-        <v>478100</v>
+        <v>462100</v>
       </c>
       <c r="J52" s="3">
-        <v>145700</v>
+        <v>140800</v>
       </c>
       <c r="K52" s="3">
         <v>131200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10123900</v>
+        <v>9762500</v>
       </c>
       <c r="E54" s="3">
-        <v>7870900</v>
+        <v>7607600</v>
       </c>
       <c r="F54" s="3">
-        <v>8082200</v>
+        <v>7811800</v>
       </c>
       <c r="G54" s="3">
-        <v>7316300</v>
+        <v>7071500</v>
       </c>
       <c r="H54" s="3">
-        <v>7021700</v>
+        <v>6786700</v>
       </c>
       <c r="I54" s="3">
-        <v>8416200</v>
+        <v>8134600</v>
       </c>
       <c r="J54" s="3">
-        <v>1922900</v>
+        <v>1858600</v>
       </c>
       <c r="K54" s="3">
         <v>1795900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>482100</v>
+        <v>465900</v>
       </c>
       <c r="E57" s="3">
-        <v>266500</v>
+        <v>257600</v>
       </c>
       <c r="F57" s="3">
-        <v>638500</v>
+        <v>617100</v>
       </c>
       <c r="G57" s="3">
-        <v>503900</v>
+        <v>487000</v>
       </c>
       <c r="H57" s="3">
-        <v>573100</v>
+        <v>553900</v>
       </c>
       <c r="I57" s="3">
-        <v>746400</v>
+        <v>721400</v>
       </c>
       <c r="J57" s="3">
-        <v>181100</v>
+        <v>175100</v>
       </c>
       <c r="K57" s="3">
         <v>179500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>371400</v>
+        <v>358900</v>
       </c>
       <c r="E58" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="F58" s="3">
-        <v>128300</v>
+        <v>124000</v>
       </c>
       <c r="G58" s="3">
-        <v>237600</v>
+        <v>229700</v>
       </c>
       <c r="H58" s="3">
-        <v>307200</v>
+        <v>296900</v>
       </c>
       <c r="I58" s="3">
-        <v>158200</v>
+        <v>152900</v>
       </c>
       <c r="J58" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="K58" s="3">
         <v>16200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1477700</v>
+        <v>1428300</v>
       </c>
       <c r="E59" s="3">
-        <v>4472900</v>
+        <v>4323200</v>
       </c>
       <c r="F59" s="3">
-        <v>1400600</v>
+        <v>1353800</v>
       </c>
       <c r="G59" s="3">
-        <v>1485800</v>
+        <v>1436100</v>
       </c>
       <c r="H59" s="3">
-        <v>1034500</v>
+        <v>999900</v>
       </c>
       <c r="I59" s="3">
-        <v>1317200</v>
+        <v>1273100</v>
       </c>
       <c r="J59" s="3">
-        <v>271900</v>
+        <v>262800</v>
       </c>
       <c r="K59" s="3">
         <v>316500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2331200</v>
+        <v>2253200</v>
       </c>
       <c r="E60" s="3">
-        <v>4754200</v>
+        <v>4595100</v>
       </c>
       <c r="F60" s="3">
-        <v>2167400</v>
+        <v>2094900</v>
       </c>
       <c r="G60" s="3">
-        <v>1712700</v>
+        <v>1655400</v>
       </c>
       <c r="H60" s="3">
-        <v>1914800</v>
+        <v>1850800</v>
       </c>
       <c r="I60" s="3">
-        <v>2221800</v>
+        <v>2147400</v>
       </c>
       <c r="J60" s="3">
-        <v>471500</v>
+        <v>455700</v>
       </c>
       <c r="K60" s="3">
         <v>512200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3960100</v>
+        <v>3827600</v>
       </c>
       <c r="E61" s="3">
-        <v>81600</v>
+        <v>78900</v>
       </c>
       <c r="F61" s="3">
-        <v>2482300</v>
+        <v>2399200</v>
       </c>
       <c r="G61" s="3">
-        <v>2327600</v>
+        <v>2249700</v>
       </c>
       <c r="H61" s="3">
-        <v>1956100</v>
+        <v>1890700</v>
       </c>
       <c r="I61" s="3">
-        <v>2388000</v>
+        <v>2308100</v>
       </c>
       <c r="J61" s="3">
-        <v>518700</v>
+        <v>501300</v>
       </c>
       <c r="K61" s="3">
         <v>443200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1011800</v>
+        <v>978000</v>
       </c>
       <c r="E62" s="3">
-        <v>344100</v>
+        <v>332600</v>
       </c>
       <c r="F62" s="3">
-        <v>612800</v>
+        <v>592300</v>
       </c>
       <c r="G62" s="3">
-        <v>787100</v>
+        <v>760700</v>
       </c>
       <c r="H62" s="3">
-        <v>778300</v>
+        <v>752200</v>
       </c>
       <c r="I62" s="3">
-        <v>1034300</v>
+        <v>999700</v>
       </c>
       <c r="J62" s="3">
-        <v>218900</v>
+        <v>211600</v>
       </c>
       <c r="K62" s="3">
         <v>197300</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7411100</v>
+        <v>7163200</v>
       </c>
       <c r="E66" s="3">
-        <v>5252100</v>
+        <v>5076300</v>
       </c>
       <c r="F66" s="3">
-        <v>5330000</v>
+        <v>5151600</v>
       </c>
       <c r="G66" s="3">
-        <v>4833200</v>
+        <v>4671400</v>
       </c>
       <c r="H66" s="3">
-        <v>4704900</v>
+        <v>4547500</v>
       </c>
       <c r="I66" s="3">
-        <v>5717600</v>
+        <v>5526300</v>
       </c>
       <c r="J66" s="3">
-        <v>1227600</v>
+        <v>1186500</v>
       </c>
       <c r="K66" s="3">
         <v>1170200</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-188600</v>
+        <v>-205000</v>
       </c>
       <c r="E72" s="3">
-        <v>460200</v>
+        <v>444800</v>
       </c>
       <c r="F72" s="3">
-        <v>704500</v>
+        <v>681000</v>
       </c>
       <c r="G72" s="3">
-        <v>907100</v>
+        <v>876700</v>
       </c>
       <c r="H72" s="3">
-        <v>802100</v>
+        <v>775300</v>
       </c>
       <c r="I72" s="3">
-        <v>727600</v>
+        <v>703200</v>
       </c>
       <c r="J72" s="3">
-        <v>448700</v>
+        <v>433700</v>
       </c>
       <c r="K72" s="3">
         <v>390500</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2712800</v>
+        <v>2599300</v>
       </c>
       <c r="E76" s="3">
-        <v>2618900</v>
+        <v>2531200</v>
       </c>
       <c r="F76" s="3">
-        <v>2752300</v>
+        <v>2660200</v>
       </c>
       <c r="G76" s="3">
-        <v>2483200</v>
+        <v>2400100</v>
       </c>
       <c r="H76" s="3">
-        <v>2316800</v>
+        <v>2239300</v>
       </c>
       <c r="I76" s="3">
-        <v>2698600</v>
+        <v>2608300</v>
       </c>
       <c r="J76" s="3">
-        <v>695400</v>
+        <v>672100</v>
       </c>
       <c r="K76" s="3">
         <v>625700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-667900</v>
+        <v>-645500</v>
       </c>
       <c r="E81" s="3">
-        <v>-325700</v>
+        <v>-314800</v>
       </c>
       <c r="F81" s="3">
-        <v>-123600</v>
+        <v>-119400</v>
       </c>
       <c r="G81" s="3">
-        <v>157100</v>
+        <v>151900</v>
       </c>
       <c r="H81" s="3">
-        <v>108100</v>
+        <v>104500</v>
       </c>
       <c r="I81" s="3">
-        <v>44600</v>
+        <v>43100</v>
       </c>
       <c r="J81" s="3">
-        <v>61800</v>
+        <v>59800</v>
       </c>
       <c r="K81" s="3">
         <v>60600</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>285900</v>
+        <v>276400</v>
       </c>
       <c r="E83" s="3">
-        <v>153500</v>
+        <v>148400</v>
       </c>
       <c r="F83" s="3">
-        <v>183700</v>
+        <v>177600</v>
       </c>
       <c r="G83" s="3">
-        <v>202500</v>
+        <v>195700</v>
       </c>
       <c r="H83" s="3">
-        <v>235700</v>
+        <v>227800</v>
       </c>
       <c r="I83" s="3">
-        <v>198200</v>
+        <v>191600</v>
       </c>
       <c r="J83" s="3">
-        <v>52900</v>
+        <v>51100</v>
       </c>
       <c r="K83" s="3">
         <v>51500</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1202800</v>
+        <v>-1162600</v>
       </c>
       <c r="E89" s="3">
-        <v>692500</v>
+        <v>669300</v>
       </c>
       <c r="F89" s="3">
-        <v>741200</v>
+        <v>716400</v>
       </c>
       <c r="G89" s="3">
-        <v>461200</v>
+        <v>445800</v>
       </c>
       <c r="H89" s="3">
-        <v>-57100</v>
+        <v>-55200</v>
       </c>
       <c r="I89" s="3">
-        <v>671000</v>
+        <v>648500</v>
       </c>
       <c r="J89" s="3">
-        <v>89100</v>
+        <v>86100</v>
       </c>
       <c r="K89" s="3">
         <v>100000</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-96700</v>
+        <v>-93500</v>
       </c>
       <c r="E91" s="3">
-        <v>-208700</v>
+        <v>-201700</v>
       </c>
       <c r="F91" s="3">
-        <v>-104400</v>
+        <v>-100900</v>
       </c>
       <c r="G91" s="3">
-        <v>-140900</v>
+        <v>-136200</v>
       </c>
       <c r="H91" s="3">
-        <v>-249800</v>
+        <v>-241400</v>
       </c>
       <c r="I91" s="3">
-        <v>-210800</v>
+        <v>-203700</v>
       </c>
       <c r="J91" s="3">
-        <v>-52400</v>
+        <v>-50600</v>
       </c>
       <c r="K91" s="3">
         <v>-77500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-174200</v>
+        <v>-168400</v>
       </c>
       <c r="E94" s="3">
-        <v>293400</v>
+        <v>283600</v>
       </c>
       <c r="F94" s="3">
-        <v>-353800</v>
+        <v>-341900</v>
       </c>
       <c r="G94" s="3">
-        <v>-639700</v>
+        <v>-618300</v>
       </c>
       <c r="H94" s="3">
-        <v>-624700</v>
+        <v>-603800</v>
       </c>
       <c r="I94" s="3">
-        <v>-952500</v>
+        <v>-920700</v>
       </c>
       <c r="J94" s="3">
-        <v>-124000</v>
+        <v>-119900</v>
       </c>
       <c r="K94" s="3">
         <v>-135300</v>
@@ -3537,19 +3537,19 @@
         <v>-1300</v>
       </c>
       <c r="F96" s="3">
-        <v>-25800</v>
+        <v>-24900</v>
       </c>
       <c r="G96" s="3">
-        <v>-32000</v>
+        <v>-30900</v>
       </c>
       <c r="H96" s="3">
-        <v>-18400</v>
+        <v>-17800</v>
       </c>
       <c r="I96" s="3">
-        <v>-33700</v>
+        <v>-32600</v>
       </c>
       <c r="J96" s="3">
-        <v>-18300</v>
+        <v>-17700</v>
       </c>
       <c r="K96" s="3">
         <v>-12600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>968200</v>
+        <v>935800</v>
       </c>
       <c r="E100" s="3">
-        <v>-189600</v>
+        <v>-183200</v>
       </c>
       <c r="F100" s="3">
-        <v>-348300</v>
+        <v>-336700</v>
       </c>
       <c r="G100" s="3">
-        <v>203900</v>
+        <v>197100</v>
       </c>
       <c r="H100" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I100" s="3">
-        <v>718000</v>
+        <v>693900</v>
       </c>
       <c r="J100" s="3">
-        <v>61600</v>
+        <v>59500</v>
       </c>
       <c r="K100" s="3">
         <v>34100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>498400</v>
+        <v>481700</v>
       </c>
       <c r="E101" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="F101" s="3">
-        <v>101200</v>
+        <v>97800</v>
       </c>
       <c r="G101" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H101" s="3">
-        <v>-135400</v>
+        <v>-130900</v>
       </c>
       <c r="I101" s="3">
-        <v>285000</v>
+        <v>275400</v>
       </c>
       <c r="J101" s="3">
-        <v>-21200</v>
+        <v>-20500</v>
       </c>
       <c r="K101" s="3">
         <v>-18800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>89500</v>
+        <v>86500</v>
       </c>
       <c r="E102" s="3">
-        <v>801300</v>
+        <v>774500</v>
       </c>
       <c r="F102" s="3">
-        <v>140200</v>
+        <v>135600</v>
       </c>
       <c r="G102" s="3">
-        <v>29100</v>
+        <v>28100</v>
       </c>
       <c r="H102" s="3">
-        <v>-814500</v>
+        <v>-787200</v>
       </c>
       <c r="I102" s="3">
-        <v>721400</v>
+        <v>697200</v>
       </c>
       <c r="J102" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="K102" s="3">
         <v>-20100</v>

--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>ERJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3506400</v>
+        <v>4467300</v>
       </c>
       <c r="E8" s="3">
-        <v>3892100</v>
+        <v>3870600</v>
       </c>
       <c r="F8" s="3">
-        <v>1408200</v>
+        <v>4296300</v>
       </c>
       <c r="G8" s="3">
-        <v>3351900</v>
+        <v>1554400</v>
       </c>
       <c r="H8" s="3">
-        <v>3826700</v>
+        <v>3700000</v>
       </c>
       <c r="I8" s="3">
-        <v>3624300</v>
+        <v>4224100</v>
       </c>
       <c r="J8" s="3">
+        <v>4000700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1122700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1104000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1440100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1436600</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3080200</v>
+        <v>3778000</v>
       </c>
       <c r="E9" s="3">
-        <v>3328500</v>
+        <v>3400100</v>
       </c>
       <c r="F9" s="3">
-        <v>1281100</v>
+        <v>3674200</v>
       </c>
       <c r="G9" s="3">
-        <v>2724700</v>
+        <v>1414100</v>
       </c>
       <c r="H9" s="3">
-        <v>3064500</v>
+        <v>3007600</v>
       </c>
       <c r="I9" s="3">
-        <v>2953700</v>
+        <v>3382800</v>
       </c>
       <c r="J9" s="3">
+        <v>3260400</v>
+      </c>
+      <c r="K9" s="3">
         <v>900300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1707300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2185300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2228700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>426300</v>
+        <v>689300</v>
       </c>
       <c r="E10" s="3">
-        <v>563600</v>
+        <v>470500</v>
       </c>
       <c r="F10" s="3">
-        <v>127100</v>
+        <v>622100</v>
       </c>
       <c r="G10" s="3">
-        <v>627200</v>
+        <v>140300</v>
       </c>
       <c r="H10" s="3">
-        <v>762200</v>
+        <v>692400</v>
       </c>
       <c r="I10" s="3">
-        <v>670600</v>
+        <v>841400</v>
       </c>
       <c r="J10" s="3">
+        <v>740200</v>
+      </c>
+      <c r="K10" s="3">
         <v>222400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-603200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-745100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-792100</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>27700</v>
+        <v>46000</v>
       </c>
       <c r="E12" s="3">
-        <v>35100</v>
+        <v>30600</v>
       </c>
       <c r="F12" s="3">
-        <v>12700</v>
+        <v>38700</v>
       </c>
       <c r="G12" s="3">
-        <v>28100</v>
+        <v>14000</v>
       </c>
       <c r="H12" s="3">
-        <v>28900</v>
+        <v>31000</v>
       </c>
       <c r="I12" s="3">
-        <v>25400</v>
+        <v>31900</v>
       </c>
       <c r="J12" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K12" s="3">
         <v>8400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>13200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>18100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21200</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,53 +925,59 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>45100</v>
+        <v>3000</v>
       </c>
       <c r="E14" s="3">
-        <v>9100</v>
+        <v>49700</v>
       </c>
       <c r="F14" s="3">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="G14" s="3">
-        <v>800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>600</v>
+      </c>
+      <c r="H14" s="3">
+        <v>900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>-700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-4100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-4700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>96900</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>106900</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -972,18 +994,21 @@
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3">
         <v>2600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>7900</v>
       </c>
       <c r="M15" s="3">
         <v>7900</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3806600</v>
+        <v>4259400</v>
       </c>
       <c r="E17" s="3">
-        <v>3947400</v>
+        <v>4201900</v>
       </c>
       <c r="F17" s="3">
-        <v>1599100</v>
+        <v>4357400</v>
       </c>
       <c r="G17" s="3">
-        <v>3156600</v>
+        <v>1765200</v>
       </c>
       <c r="H17" s="3">
-        <v>3698600</v>
+        <v>3484500</v>
       </c>
       <c r="I17" s="3">
-        <v>3427400</v>
+        <v>4082700</v>
       </c>
       <c r="J17" s="3">
+        <v>3783300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1025700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>977700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1297200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1357700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-300100</v>
+        <v>207800</v>
       </c>
       <c r="E18" s="3">
-        <v>-55300</v>
+        <v>-331300</v>
       </c>
       <c r="F18" s="3">
-        <v>-190900</v>
+        <v>-61000</v>
       </c>
       <c r="G18" s="3">
-        <v>195300</v>
+        <v>-210800</v>
       </c>
       <c r="H18" s="3">
-        <v>128100</v>
+        <v>215600</v>
       </c>
       <c r="I18" s="3">
-        <v>196900</v>
+        <v>141400</v>
       </c>
       <c r="J18" s="3">
+        <v>217400</v>
+      </c>
+      <c r="K18" s="3">
         <v>97000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>126300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>142900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>78900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-91900</v>
+        <v>72100</v>
       </c>
       <c r="E20" s="3">
-        <v>64900</v>
+        <v>-101500</v>
       </c>
       <c r="F20" s="3">
-        <v>26300</v>
+        <v>71700</v>
       </c>
       <c r="G20" s="3">
-        <v>103900</v>
+        <v>29100</v>
       </c>
       <c r="H20" s="3">
-        <v>85000</v>
+        <v>114700</v>
       </c>
       <c r="I20" s="3">
-        <v>100100</v>
+        <v>93800</v>
       </c>
       <c r="J20" s="3">
+        <v>110500</v>
+      </c>
+      <c r="K20" s="3">
         <v>16700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>26900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-116000</v>
+        <v>504700</v>
       </c>
       <c r="E21" s="3">
-        <v>157800</v>
+        <v>-123900</v>
       </c>
       <c r="F21" s="3">
-        <v>12800</v>
+        <v>176400</v>
       </c>
       <c r="G21" s="3">
-        <v>494700</v>
+        <v>16800</v>
       </c>
       <c r="H21" s="3">
-        <v>440600</v>
+        <v>549000</v>
       </c>
       <c r="I21" s="3">
-        <v>488400</v>
+        <v>489800</v>
       </c>
       <c r="J21" s="3">
+        <v>542000</v>
+      </c>
+      <c r="K21" s="3">
         <v>164700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>181100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>235600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>144800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>199300</v>
+        <v>256000</v>
       </c>
       <c r="E22" s="3">
-        <v>141900</v>
+        <v>219900</v>
       </c>
       <c r="F22" s="3">
-        <v>25400</v>
+        <v>156600</v>
       </c>
       <c r="G22" s="3">
-        <v>122700</v>
+        <v>28100</v>
       </c>
       <c r="H22" s="3">
-        <v>113900</v>
+        <v>135500</v>
       </c>
       <c r="I22" s="3">
-        <v>100300</v>
+        <v>125700</v>
       </c>
       <c r="J22" s="3">
+        <v>110800</v>
+      </c>
+      <c r="K22" s="3">
         <v>23700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>22700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>26500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-591300</v>
+        <v>23900</v>
       </c>
       <c r="E23" s="3">
-        <v>-132200</v>
+        <v>-652700</v>
       </c>
       <c r="F23" s="3">
-        <v>-190000</v>
+        <v>-146000</v>
       </c>
       <c r="G23" s="3">
-        <v>176500</v>
+        <v>-209700</v>
       </c>
       <c r="H23" s="3">
-        <v>99200</v>
+        <v>194800</v>
       </c>
       <c r="I23" s="3">
-        <v>196700</v>
+        <v>109500</v>
       </c>
       <c r="J23" s="3">
+        <v>217100</v>
+      </c>
+      <c r="K23" s="3">
         <v>90000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>106700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>143300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>61500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>50700</v>
+        <v>76700</v>
       </c>
       <c r="E24" s="3">
-        <v>98800</v>
+        <v>56000</v>
       </c>
       <c r="F24" s="3">
-        <v>-15700</v>
+        <v>109000</v>
       </c>
       <c r="G24" s="3">
-        <v>15400</v>
+        <v>-17300</v>
       </c>
       <c r="H24" s="3">
-        <v>-6400</v>
+        <v>17000</v>
       </c>
       <c r="I24" s="3">
-        <v>146400</v>
+        <v>-7100</v>
       </c>
       <c r="J24" s="3">
+        <v>161600</v>
+      </c>
+      <c r="K24" s="3">
         <v>27900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>61900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>31600</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-642000</v>
+        <v>-52700</v>
       </c>
       <c r="E26" s="3">
-        <v>-231000</v>
+        <v>-708700</v>
       </c>
       <c r="F26" s="3">
-        <v>-174300</v>
+        <v>-255000</v>
       </c>
       <c r="G26" s="3">
-        <v>161100</v>
+        <v>-192400</v>
       </c>
       <c r="H26" s="3">
-        <v>105700</v>
+        <v>177800</v>
       </c>
       <c r="I26" s="3">
-        <v>50300</v>
+        <v>116600</v>
       </c>
       <c r="J26" s="3">
+        <v>55500</v>
+      </c>
+      <c r="K26" s="3">
         <v>62100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>61300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>81400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>29900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-645500</v>
+        <v>-54200</v>
       </c>
       <c r="E27" s="3">
-        <v>-235100</v>
+        <v>-712600</v>
       </c>
       <c r="F27" s="3">
-        <v>-178900</v>
+        <v>-259500</v>
       </c>
       <c r="G27" s="3">
-        <v>151900</v>
+        <v>-197400</v>
       </c>
       <c r="H27" s="3">
-        <v>104500</v>
+        <v>167600</v>
       </c>
       <c r="I27" s="3">
-        <v>43100</v>
+        <v>115400</v>
       </c>
       <c r="J27" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K27" s="3">
         <v>59800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>60600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>81200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27700</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,23 +1463,26 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>-79700</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
-        <v>59400</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
+        <v>-88000</v>
+      </c>
+      <c r="G29" s="3">
+        <v>65600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1436,15 +1496,18 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>91900</v>
+        <v>-72100</v>
       </c>
       <c r="E32" s="3">
-        <v>-64900</v>
+        <v>101500</v>
       </c>
       <c r="F32" s="3">
-        <v>-26300</v>
+        <v>-71700</v>
       </c>
       <c r="G32" s="3">
-        <v>-103900</v>
+        <v>-29100</v>
       </c>
       <c r="H32" s="3">
-        <v>-85000</v>
+        <v>-114700</v>
       </c>
       <c r="I32" s="3">
-        <v>-100100</v>
+        <v>-93800</v>
       </c>
       <c r="J32" s="3">
+        <v>-110500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-16700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-26900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-645500</v>
+        <v>-54200</v>
       </c>
       <c r="E33" s="3">
-        <v>-314800</v>
+        <v>-712600</v>
       </c>
       <c r="F33" s="3">
-        <v>-119400</v>
+        <v>-347500</v>
       </c>
       <c r="G33" s="3">
-        <v>151900</v>
+        <v>-131800</v>
       </c>
       <c r="H33" s="3">
-        <v>104500</v>
+        <v>167600</v>
       </c>
       <c r="I33" s="3">
-        <v>43100</v>
+        <v>115400</v>
       </c>
       <c r="J33" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K33" s="3">
         <v>59800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>60600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>81200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27700</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-645500</v>
+        <v>-54200</v>
       </c>
       <c r="E35" s="3">
-        <v>-314800</v>
+        <v>-712600</v>
       </c>
       <c r="F35" s="3">
-        <v>-119400</v>
+        <v>-347500</v>
       </c>
       <c r="G35" s="3">
-        <v>151900</v>
+        <v>-131800</v>
       </c>
       <c r="H35" s="3">
-        <v>104500</v>
+        <v>167600</v>
       </c>
       <c r="I35" s="3">
-        <v>43100</v>
+        <v>115400</v>
       </c>
       <c r="J35" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K35" s="3">
         <v>59800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>60600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>81200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27700</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1747000</v>
+        <v>1999600</v>
       </c>
       <c r="E41" s="3">
-        <v>615400</v>
+        <v>1928500</v>
       </c>
       <c r="F41" s="3">
-        <v>886000</v>
+        <v>679300</v>
       </c>
       <c r="G41" s="3">
-        <v>750400</v>
+        <v>978000</v>
       </c>
       <c r="H41" s="3">
-        <v>722300</v>
+        <v>828400</v>
       </c>
       <c r="I41" s="3">
-        <v>1509500</v>
+        <v>797300</v>
       </c>
       <c r="J41" s="3">
+        <v>1666300</v>
+      </c>
+      <c r="K41" s="3">
         <v>305800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>298100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>840300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>669300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>758400</v>
+        <v>825700</v>
       </c>
       <c r="E42" s="3">
-        <v>294900</v>
+        <v>837200</v>
       </c>
       <c r="F42" s="3">
-        <v>1206000</v>
+        <v>325500</v>
       </c>
       <c r="G42" s="3">
-        <v>1452000</v>
+        <v>1331200</v>
       </c>
       <c r="H42" s="3">
-        <v>1033000</v>
+        <v>1602800</v>
       </c>
       <c r="I42" s="3">
-        <v>434000</v>
+        <v>1140300</v>
       </c>
       <c r="J42" s="3">
+        <v>479100</v>
+      </c>
+      <c r="K42" s="3">
         <v>129300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>168100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>275300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>376900</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>781000</v>
+        <v>1025900</v>
       </c>
       <c r="E43" s="3">
-        <v>554400</v>
+        <v>862100</v>
       </c>
       <c r="F43" s="3">
-        <v>750300</v>
+        <v>612000</v>
       </c>
       <c r="G43" s="3">
-        <v>667100</v>
+        <v>828200</v>
       </c>
       <c r="H43" s="3">
-        <v>565400</v>
+        <v>736400</v>
       </c>
       <c r="I43" s="3">
-        <v>754100</v>
+        <v>624200</v>
       </c>
       <c r="J43" s="3">
+        <v>832400</v>
+      </c>
+      <c r="K43" s="3">
         <v>141900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>228500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>257700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>260700</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2268300</v>
+        <v>2184000</v>
       </c>
       <c r="E44" s="3">
-        <v>938600</v>
+        <v>2503900</v>
       </c>
       <c r="F44" s="3">
-        <v>1734200</v>
+        <v>1036100</v>
       </c>
       <c r="G44" s="3">
-        <v>1268900</v>
+        <v>1914300</v>
       </c>
       <c r="H44" s="3">
-        <v>1452500</v>
+        <v>1400700</v>
       </c>
       <c r="I44" s="3">
-        <v>1613500</v>
+        <v>1603300</v>
       </c>
       <c r="J44" s="3">
+        <v>1781000</v>
+      </c>
+      <c r="K44" s="3">
         <v>429400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>405000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>604900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1132900</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>125500</v>
+        <v>426500</v>
       </c>
       <c r="E45" s="3">
-        <v>3764400</v>
+        <v>138600</v>
       </c>
       <c r="F45" s="3">
-        <v>314700</v>
+        <v>4155300</v>
       </c>
       <c r="G45" s="3">
-        <v>97000</v>
+        <v>347400</v>
       </c>
       <c r="H45" s="3">
-        <v>172400</v>
+        <v>107100</v>
       </c>
       <c r="I45" s="3">
-        <v>158300</v>
+        <v>190300</v>
       </c>
       <c r="J45" s="3">
+        <v>174700</v>
+      </c>
+      <c r="K45" s="3">
         <v>30900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>75500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>124100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>123600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5680300</v>
+        <v>6461600</v>
       </c>
       <c r="E46" s="3">
-        <v>6167600</v>
+        <v>6270200</v>
       </c>
       <c r="F46" s="3">
-        <v>4891200</v>
+        <v>6808200</v>
       </c>
       <c r="G46" s="3">
-        <v>4180800</v>
+        <v>5399100</v>
       </c>
       <c r="H46" s="3">
-        <v>3945700</v>
+        <v>4615000</v>
       </c>
       <c r="I46" s="3">
-        <v>4469400</v>
+        <v>4355400</v>
       </c>
       <c r="J46" s="3">
+        <v>4933600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1037300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1021300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1251400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1281100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>126200</v>
+        <v>169800</v>
       </c>
       <c r="E47" s="3">
-        <v>42400</v>
+        <v>139300</v>
       </c>
       <c r="F47" s="3">
-        <v>171900</v>
+        <v>46800</v>
       </c>
       <c r="G47" s="3">
-        <v>394100</v>
+        <v>189800</v>
       </c>
       <c r="H47" s="3">
-        <v>265000</v>
+        <v>435000</v>
       </c>
       <c r="I47" s="3">
-        <v>810200</v>
+        <v>292500</v>
       </c>
       <c r="J47" s="3">
+        <v>894300</v>
+      </c>
+      <c r="K47" s="3">
         <v>93700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>94100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>262900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>308400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1872400</v>
+        <v>1922100</v>
       </c>
       <c r="E48" s="3">
-        <v>724400</v>
+        <v>2066800</v>
       </c>
       <c r="F48" s="3">
-        <v>1359000</v>
+        <v>799600</v>
       </c>
       <c r="G48" s="3">
-        <v>1243000</v>
+        <v>1500200</v>
       </c>
       <c r="H48" s="3">
-        <v>1253400</v>
+        <v>1372100</v>
       </c>
       <c r="I48" s="3">
-        <v>1413300</v>
+        <v>1383500</v>
       </c>
       <c r="J48" s="3">
+        <v>1560000</v>
+      </c>
+      <c r="K48" s="3">
         <v>361600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>353000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>325200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>271600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1925600</v>
+        <v>2434100</v>
       </c>
       <c r="E49" s="3">
-        <v>643400</v>
+        <v>2125500</v>
       </c>
       <c r="F49" s="3">
-        <v>1313500</v>
+        <v>710200</v>
       </c>
       <c r="G49" s="3">
-        <v>1111700</v>
+        <v>1449900</v>
       </c>
       <c r="H49" s="3">
-        <v>968500</v>
+        <v>1227100</v>
       </c>
       <c r="I49" s="3">
-        <v>979700</v>
+        <v>1069100</v>
       </c>
       <c r="J49" s="3">
+        <v>1081400</v>
+      </c>
+      <c r="K49" s="3">
         <v>225100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>196400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>447800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>401000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>158000</v>
+        <v>179900</v>
       </c>
       <c r="E52" s="3">
-        <v>29800</v>
+        <v>174500</v>
       </c>
       <c r="F52" s="3">
-        <v>76300</v>
+        <v>32800</v>
       </c>
       <c r="G52" s="3">
-        <v>290300</v>
+        <v>84200</v>
       </c>
       <c r="H52" s="3">
-        <v>354200</v>
+        <v>320500</v>
       </c>
       <c r="I52" s="3">
-        <v>462100</v>
+        <v>391000</v>
       </c>
       <c r="J52" s="3">
+        <v>510100</v>
+      </c>
+      <c r="K52" s="3">
         <v>140800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>131200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>382800</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9762500</v>
+        <v>11167400</v>
       </c>
       <c r="E54" s="3">
-        <v>7607600</v>
+        <v>10776400</v>
       </c>
       <c r="F54" s="3">
-        <v>7811800</v>
+        <v>8397600</v>
       </c>
       <c r="G54" s="3">
-        <v>7071500</v>
+        <v>8623100</v>
       </c>
       <c r="H54" s="3">
-        <v>6786700</v>
+        <v>7805900</v>
       </c>
       <c r="I54" s="3">
-        <v>8134600</v>
+        <v>7491600</v>
       </c>
       <c r="J54" s="3">
+        <v>8979400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1858600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1795900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2214000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2195200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>465900</v>
+        <v>560900</v>
       </c>
       <c r="E57" s="3">
-        <v>257600</v>
+        <v>514300</v>
       </c>
       <c r="F57" s="3">
-        <v>617100</v>
+        <v>284300</v>
       </c>
       <c r="G57" s="3">
-        <v>487000</v>
+        <v>681200</v>
       </c>
       <c r="H57" s="3">
-        <v>553900</v>
+        <v>537600</v>
       </c>
       <c r="I57" s="3">
-        <v>721400</v>
+        <v>611500</v>
       </c>
       <c r="J57" s="3">
+        <v>796400</v>
+      </c>
+      <c r="K57" s="3">
         <v>175100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>179500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>354400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>411600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>358900</v>
+        <v>644100</v>
       </c>
       <c r="E58" s="3">
-        <v>14300</v>
+        <v>396200</v>
       </c>
       <c r="F58" s="3">
-        <v>124000</v>
+        <v>15800</v>
       </c>
       <c r="G58" s="3">
-        <v>229700</v>
+        <v>136900</v>
       </c>
       <c r="H58" s="3">
-        <v>296900</v>
+        <v>253500</v>
       </c>
       <c r="I58" s="3">
-        <v>152900</v>
+        <v>327800</v>
       </c>
       <c r="J58" s="3">
+        <v>168800</v>
+      </c>
+      <c r="K58" s="3">
         <v>17900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>162600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>280100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1428300</v>
+        <v>1905900</v>
       </c>
       <c r="E59" s="3">
-        <v>4323200</v>
+        <v>1576600</v>
       </c>
       <c r="F59" s="3">
-        <v>1353800</v>
+        <v>4772200</v>
       </c>
       <c r="G59" s="3">
-        <v>1436100</v>
+        <v>1494400</v>
       </c>
       <c r="H59" s="3">
-        <v>999900</v>
+        <v>1585200</v>
       </c>
       <c r="I59" s="3">
-        <v>1273100</v>
+        <v>1103700</v>
       </c>
       <c r="J59" s="3">
+        <v>1405300</v>
+      </c>
+      <c r="K59" s="3">
         <v>262800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>316500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>786300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>717400</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2253200</v>
+        <v>3110900</v>
       </c>
       <c r="E60" s="3">
-        <v>4595100</v>
+        <v>2487200</v>
       </c>
       <c r="F60" s="3">
-        <v>2094900</v>
+        <v>5072300</v>
       </c>
       <c r="G60" s="3">
-        <v>1655400</v>
+        <v>2312500</v>
       </c>
       <c r="H60" s="3">
-        <v>1850800</v>
+        <v>1827300</v>
       </c>
       <c r="I60" s="3">
-        <v>2147400</v>
+        <v>2043000</v>
       </c>
       <c r="J60" s="3">
+        <v>2370400</v>
+      </c>
+      <c r="K60" s="3">
         <v>455700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>512200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>651200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>704200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3827600</v>
+        <v>3854400</v>
       </c>
       <c r="E61" s="3">
-        <v>78900</v>
+        <v>4225100</v>
       </c>
       <c r="F61" s="3">
-        <v>2399200</v>
+        <v>87100</v>
       </c>
       <c r="G61" s="3">
-        <v>2249700</v>
+        <v>2648400</v>
       </c>
       <c r="H61" s="3">
-        <v>1890700</v>
+        <v>2483400</v>
       </c>
       <c r="I61" s="3">
-        <v>2308100</v>
+        <v>2087000</v>
       </c>
       <c r="J61" s="3">
+        <v>2547800</v>
+      </c>
+      <c r="K61" s="3">
         <v>501300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>443200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>494700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>386000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>978000</v>
+        <v>1150700</v>
       </c>
       <c r="E62" s="3">
-        <v>332600</v>
+        <v>1079500</v>
       </c>
       <c r="F62" s="3">
-        <v>592300</v>
+        <v>367100</v>
       </c>
       <c r="G62" s="3">
-        <v>760700</v>
+        <v>653800</v>
       </c>
       <c r="H62" s="3">
-        <v>752200</v>
+        <v>839800</v>
       </c>
       <c r="I62" s="3">
-        <v>999700</v>
+        <v>830400</v>
       </c>
       <c r="J62" s="3">
+        <v>1103500</v>
+      </c>
+      <c r="K62" s="3">
         <v>211600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>197300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>572700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>678900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7163200</v>
+        <v>8233800</v>
       </c>
       <c r="E66" s="3">
-        <v>5076300</v>
+        <v>7907100</v>
       </c>
       <c r="F66" s="3">
-        <v>5151600</v>
+        <v>5603500</v>
       </c>
       <c r="G66" s="3">
-        <v>4671400</v>
+        <v>5686700</v>
       </c>
       <c r="H66" s="3">
-        <v>4547500</v>
+        <v>5156600</v>
       </c>
       <c r="I66" s="3">
-        <v>5526300</v>
+        <v>5019700</v>
       </c>
       <c r="J66" s="3">
+        <v>6100200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1186500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1170200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1453100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1449100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-205000</v>
+        <v>-280400</v>
       </c>
       <c r="E72" s="3">
-        <v>444800</v>
+        <v>-226300</v>
       </c>
       <c r="F72" s="3">
-        <v>681000</v>
+        <v>491000</v>
       </c>
       <c r="G72" s="3">
-        <v>876700</v>
+        <v>751700</v>
       </c>
       <c r="H72" s="3">
-        <v>775300</v>
+        <v>967800</v>
       </c>
       <c r="I72" s="3">
-        <v>703200</v>
+        <v>855800</v>
       </c>
       <c r="J72" s="3">
+        <v>776300</v>
+      </c>
+      <c r="K72" s="3">
         <v>433700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>390500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>924900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>862000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2599300</v>
+        <v>2933700</v>
       </c>
       <c r="E76" s="3">
-        <v>2531200</v>
+        <v>2869300</v>
       </c>
       <c r="F76" s="3">
-        <v>2660200</v>
+        <v>2794100</v>
       </c>
       <c r="G76" s="3">
-        <v>2400100</v>
+        <v>2936400</v>
       </c>
       <c r="H76" s="3">
-        <v>2239300</v>
+        <v>2649300</v>
       </c>
       <c r="I76" s="3">
-        <v>2608300</v>
+        <v>2471800</v>
       </c>
       <c r="J76" s="3">
+        <v>2879200</v>
+      </c>
+      <c r="K76" s="3">
         <v>672100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>625700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>760900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>746100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-645500</v>
+        <v>-54200</v>
       </c>
       <c r="E81" s="3">
-        <v>-314800</v>
+        <v>-712600</v>
       </c>
       <c r="F81" s="3">
-        <v>-119400</v>
+        <v>-347500</v>
       </c>
       <c r="G81" s="3">
-        <v>151900</v>
+        <v>-131800</v>
       </c>
       <c r="H81" s="3">
-        <v>104500</v>
+        <v>167600</v>
       </c>
       <c r="I81" s="3">
-        <v>43100</v>
+        <v>115400</v>
       </c>
       <c r="J81" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K81" s="3">
         <v>59800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>60600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>81200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27700</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>276400</v>
+        <v>222000</v>
       </c>
       <c r="E83" s="3">
-        <v>148400</v>
+        <v>305100</v>
       </c>
       <c r="F83" s="3">
-        <v>177600</v>
+        <v>163800</v>
       </c>
       <c r="G83" s="3">
-        <v>195700</v>
+        <v>196000</v>
       </c>
       <c r="H83" s="3">
-        <v>227800</v>
+        <v>216000</v>
       </c>
       <c r="I83" s="3">
-        <v>191600</v>
+        <v>251400</v>
       </c>
       <c r="J83" s="3">
+        <v>211500</v>
+      </c>
+      <c r="K83" s="3">
         <v>51100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>51500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>65100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>59200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1162600</v>
+        <v>562300</v>
       </c>
       <c r="E89" s="3">
-        <v>669300</v>
+        <v>-1283300</v>
       </c>
       <c r="F89" s="3">
-        <v>716400</v>
+        <v>738900</v>
       </c>
       <c r="G89" s="3">
-        <v>445800</v>
+        <v>790800</v>
       </c>
       <c r="H89" s="3">
-        <v>-55200</v>
+        <v>492100</v>
       </c>
       <c r="I89" s="3">
-        <v>648500</v>
+        <v>-60900</v>
       </c>
       <c r="J89" s="3">
+        <v>715900</v>
+      </c>
+      <c r="K89" s="3">
         <v>86100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>161800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>119100</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-93500</v>
+        <v>-108400</v>
       </c>
       <c r="E91" s="3">
-        <v>-201700</v>
+        <v>-103200</v>
       </c>
       <c r="F91" s="3">
-        <v>-100900</v>
+        <v>-222600</v>
       </c>
       <c r="G91" s="3">
-        <v>-136200</v>
+        <v>-111400</v>
       </c>
       <c r="H91" s="3">
-        <v>-241400</v>
+        <v>-150300</v>
       </c>
       <c r="I91" s="3">
-        <v>-203700</v>
+        <v>-266500</v>
       </c>
       <c r="J91" s="3">
+        <v>-224900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-50600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-76600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-136900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-168400</v>
+        <v>-155700</v>
       </c>
       <c r="E94" s="3">
-        <v>283600</v>
+        <v>-185900</v>
       </c>
       <c r="F94" s="3">
-        <v>-341900</v>
+        <v>313100</v>
       </c>
       <c r="G94" s="3">
-        <v>-618300</v>
+        <v>-377400</v>
       </c>
       <c r="H94" s="3">
-        <v>-603800</v>
+        <v>-682500</v>
       </c>
       <c r="I94" s="3">
-        <v>-920700</v>
+        <v>-666500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1016300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-119900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-135300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-144200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-149300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3534,35 +3767,38 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-24900</v>
+        <v>-1400</v>
       </c>
       <c r="G96" s="3">
-        <v>-30900</v>
+        <v>-27500</v>
       </c>
       <c r="H96" s="3">
-        <v>-17800</v>
+        <v>-34100</v>
       </c>
       <c r="I96" s="3">
-        <v>-32600</v>
+        <v>-19700</v>
       </c>
       <c r="J96" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-17700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-12600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-13900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-45500</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>935800</v>
+        <v>-469000</v>
       </c>
       <c r="E100" s="3">
-        <v>-183200</v>
+        <v>1033000</v>
       </c>
       <c r="F100" s="3">
-        <v>-336700</v>
+        <v>-202300</v>
       </c>
       <c r="G100" s="3">
-        <v>197100</v>
+        <v>-371600</v>
       </c>
       <c r="H100" s="3">
-        <v>2600</v>
+        <v>217500</v>
       </c>
       <c r="I100" s="3">
-        <v>693900</v>
+        <v>2900</v>
       </c>
       <c r="J100" s="3">
+        <v>766000</v>
+      </c>
+      <c r="K100" s="3">
         <v>59500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>34100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>98600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>23900</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>481700</v>
+        <v>155900</v>
       </c>
       <c r="E101" s="3">
-        <v>4800</v>
+        <v>531700</v>
       </c>
       <c r="F101" s="3">
-        <v>97800</v>
+        <v>5300</v>
       </c>
       <c r="G101" s="3">
-        <v>3600</v>
+        <v>107900</v>
       </c>
       <c r="H101" s="3">
-        <v>-130900</v>
+        <v>3900</v>
       </c>
       <c r="I101" s="3">
-        <v>275400</v>
+        <v>-144500</v>
       </c>
       <c r="J101" s="3">
+        <v>304000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-20500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-18800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4900</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>86500</v>
+        <v>93500</v>
       </c>
       <c r="E102" s="3">
-        <v>774500</v>
+        <v>95500</v>
       </c>
       <c r="F102" s="3">
-        <v>135600</v>
+        <v>855000</v>
       </c>
       <c r="G102" s="3">
-        <v>28100</v>
+        <v>149600</v>
       </c>
       <c r="H102" s="3">
-        <v>-787200</v>
+        <v>31000</v>
       </c>
       <c r="I102" s="3">
-        <v>697200</v>
+        <v>-869000</v>
       </c>
       <c r="J102" s="3">
+        <v>769600</v>
+      </c>
+      <c r="K102" s="3">
         <v>5200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>104900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11200</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4467300</v>
+        <v>4415600</v>
       </c>
       <c r="E8" s="3">
-        <v>3870600</v>
+        <v>3825800</v>
       </c>
       <c r="F8" s="3">
-        <v>4296300</v>
+        <v>4246600</v>
       </c>
       <c r="G8" s="3">
-        <v>1554400</v>
+        <v>1536400</v>
       </c>
       <c r="H8" s="3">
-        <v>3700000</v>
+        <v>3657200</v>
       </c>
       <c r="I8" s="3">
-        <v>4224100</v>
+        <v>4175200</v>
       </c>
       <c r="J8" s="3">
-        <v>4000700</v>
+        <v>3954400</v>
       </c>
       <c r="K8" s="3">
         <v>1122700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3778000</v>
+        <v>3734300</v>
       </c>
       <c r="E9" s="3">
-        <v>3400100</v>
+        <v>3360700</v>
       </c>
       <c r="F9" s="3">
-        <v>3674200</v>
+        <v>3631700</v>
       </c>
       <c r="G9" s="3">
-        <v>1414100</v>
+        <v>1397800</v>
       </c>
       <c r="H9" s="3">
-        <v>3007600</v>
+        <v>2972800</v>
       </c>
       <c r="I9" s="3">
-        <v>3382800</v>
+        <v>3343600</v>
       </c>
       <c r="J9" s="3">
-        <v>3260400</v>
+        <v>3222700</v>
       </c>
       <c r="K9" s="3">
         <v>900300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>689300</v>
+        <v>681300</v>
       </c>
       <c r="E10" s="3">
-        <v>470500</v>
+        <v>465100</v>
       </c>
       <c r="F10" s="3">
-        <v>622100</v>
+        <v>614900</v>
       </c>
       <c r="G10" s="3">
-        <v>140300</v>
+        <v>138700</v>
       </c>
       <c r="H10" s="3">
-        <v>692400</v>
+        <v>684400</v>
       </c>
       <c r="I10" s="3">
-        <v>841400</v>
+        <v>831600</v>
       </c>
       <c r="J10" s="3">
-        <v>740200</v>
+        <v>731700</v>
       </c>
       <c r="K10" s="3">
         <v>222400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>46000</v>
+        <v>45500</v>
       </c>
       <c r="E12" s="3">
-        <v>30600</v>
+        <v>30200</v>
       </c>
       <c r="F12" s="3">
-        <v>38700</v>
+        <v>38300</v>
       </c>
       <c r="G12" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="H12" s="3">
-        <v>31000</v>
+        <v>30700</v>
       </c>
       <c r="I12" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="J12" s="3">
-        <v>28000</v>
+        <v>27700</v>
       </c>
       <c r="K12" s="3">
         <v>8400</v>
@@ -938,10 +938,10 @@
         <v>3000</v>
       </c>
       <c r="E14" s="3">
-        <v>49700</v>
+        <v>49200</v>
       </c>
       <c r="F14" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="G14" s="3">
         <v>600</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>106900</v>
+        <v>105700</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4259400</v>
+        <v>4210200</v>
       </c>
       <c r="E17" s="3">
-        <v>4201900</v>
+        <v>4153300</v>
       </c>
       <c r="F17" s="3">
-        <v>4357400</v>
+        <v>4306900</v>
       </c>
       <c r="G17" s="3">
-        <v>1765200</v>
+        <v>1744800</v>
       </c>
       <c r="H17" s="3">
-        <v>3484500</v>
+        <v>3444100</v>
       </c>
       <c r="I17" s="3">
-        <v>4082700</v>
+        <v>4035400</v>
       </c>
       <c r="J17" s="3">
-        <v>3783300</v>
+        <v>3739500</v>
       </c>
       <c r="K17" s="3">
         <v>1025700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>207800</v>
+        <v>205400</v>
       </c>
       <c r="E18" s="3">
-        <v>-331300</v>
+        <v>-327400</v>
       </c>
       <c r="F18" s="3">
-        <v>-61000</v>
+        <v>-60300</v>
       </c>
       <c r="G18" s="3">
-        <v>-210800</v>
+        <v>-208300</v>
       </c>
       <c r="H18" s="3">
-        <v>215600</v>
+        <v>213100</v>
       </c>
       <c r="I18" s="3">
-        <v>141400</v>
+        <v>139800</v>
       </c>
       <c r="J18" s="3">
-        <v>217400</v>
+        <v>214900</v>
       </c>
       <c r="K18" s="3">
         <v>97000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>72100</v>
+        <v>71300</v>
       </c>
       <c r="E20" s="3">
-        <v>-101500</v>
+        <v>-100300</v>
       </c>
       <c r="F20" s="3">
-        <v>71700</v>
+        <v>70800</v>
       </c>
       <c r="G20" s="3">
-        <v>29100</v>
+        <v>28700</v>
       </c>
       <c r="H20" s="3">
-        <v>114700</v>
+        <v>113400</v>
       </c>
       <c r="I20" s="3">
-        <v>93800</v>
+        <v>92700</v>
       </c>
       <c r="J20" s="3">
-        <v>110500</v>
+        <v>109200</v>
       </c>
       <c r="K20" s="3">
         <v>16700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>504700</v>
+        <v>496000</v>
       </c>
       <c r="E21" s="3">
-        <v>-123900</v>
+        <v>-126400</v>
       </c>
       <c r="F21" s="3">
-        <v>176400</v>
+        <v>172200</v>
       </c>
       <c r="G21" s="3">
-        <v>16800</v>
+        <v>14100</v>
       </c>
       <c r="H21" s="3">
-        <v>549000</v>
+        <v>539900</v>
       </c>
       <c r="I21" s="3">
-        <v>489800</v>
+        <v>480900</v>
       </c>
       <c r="J21" s="3">
-        <v>542000</v>
+        <v>533000</v>
       </c>
       <c r="K21" s="3">
         <v>164700</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>256000</v>
+        <v>253100</v>
       </c>
       <c r="E22" s="3">
-        <v>219900</v>
+        <v>217400</v>
       </c>
       <c r="F22" s="3">
-        <v>156600</v>
+        <v>154800</v>
       </c>
       <c r="G22" s="3">
-        <v>28100</v>
+        <v>27700</v>
       </c>
       <c r="H22" s="3">
-        <v>135500</v>
+        <v>133900</v>
       </c>
       <c r="I22" s="3">
-        <v>125700</v>
+        <v>124300</v>
       </c>
       <c r="J22" s="3">
-        <v>110800</v>
+        <v>109500</v>
       </c>
       <c r="K22" s="3">
         <v>23700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="E23" s="3">
-        <v>-652700</v>
+        <v>-645100</v>
       </c>
       <c r="F23" s="3">
-        <v>-146000</v>
+        <v>-144300</v>
       </c>
       <c r="G23" s="3">
-        <v>-209700</v>
+        <v>-207300</v>
       </c>
       <c r="H23" s="3">
-        <v>194800</v>
+        <v>192600</v>
       </c>
       <c r="I23" s="3">
-        <v>109500</v>
+        <v>108300</v>
       </c>
       <c r="J23" s="3">
-        <v>217100</v>
+        <v>214600</v>
       </c>
       <c r="K23" s="3">
         <v>90000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>76700</v>
+        <v>75800</v>
       </c>
       <c r="E24" s="3">
-        <v>56000</v>
+        <v>55300</v>
       </c>
       <c r="F24" s="3">
-        <v>109000</v>
+        <v>107800</v>
       </c>
       <c r="G24" s="3">
-        <v>-17300</v>
+        <v>-17100</v>
       </c>
       <c r="H24" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="I24" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="J24" s="3">
-        <v>161600</v>
+        <v>159800</v>
       </c>
       <c r="K24" s="3">
         <v>27900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-52700</v>
+        <v>-52100</v>
       </c>
       <c r="E26" s="3">
-        <v>-708700</v>
+        <v>-700500</v>
       </c>
       <c r="F26" s="3">
-        <v>-255000</v>
+        <v>-252100</v>
       </c>
       <c r="G26" s="3">
-        <v>-192400</v>
+        <v>-190200</v>
       </c>
       <c r="H26" s="3">
-        <v>177800</v>
+        <v>175700</v>
       </c>
       <c r="I26" s="3">
-        <v>116600</v>
+        <v>115300</v>
       </c>
       <c r="J26" s="3">
-        <v>55500</v>
+        <v>54900</v>
       </c>
       <c r="K26" s="3">
         <v>62100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-54200</v>
+        <v>-53500</v>
       </c>
       <c r="E27" s="3">
-        <v>-712600</v>
+        <v>-704300</v>
       </c>
       <c r="F27" s="3">
-        <v>-259500</v>
+        <v>-256500</v>
       </c>
       <c r="G27" s="3">
-        <v>-197400</v>
+        <v>-195100</v>
       </c>
       <c r="H27" s="3">
-        <v>167600</v>
+        <v>165700</v>
       </c>
       <c r="I27" s="3">
-        <v>115400</v>
+        <v>114000</v>
       </c>
       <c r="J27" s="3">
-        <v>47600</v>
+        <v>47100</v>
       </c>
       <c r="K27" s="3">
         <v>59800</v>
@@ -1479,10 +1479,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="3">
-        <v>-88000</v>
+        <v>-87000</v>
       </c>
       <c r="G29" s="3">
-        <v>65600</v>
+        <v>64800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-72100</v>
+        <v>-71300</v>
       </c>
       <c r="E32" s="3">
-        <v>101500</v>
+        <v>100300</v>
       </c>
       <c r="F32" s="3">
-        <v>-71700</v>
+        <v>-70800</v>
       </c>
       <c r="G32" s="3">
-        <v>-29100</v>
+        <v>-28700</v>
       </c>
       <c r="H32" s="3">
-        <v>-114700</v>
+        <v>-113400</v>
       </c>
       <c r="I32" s="3">
-        <v>-93800</v>
+        <v>-92700</v>
       </c>
       <c r="J32" s="3">
-        <v>-110500</v>
+        <v>-109200</v>
       </c>
       <c r="K32" s="3">
         <v>-16700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-54200</v>
+        <v>-53500</v>
       </c>
       <c r="E33" s="3">
-        <v>-712600</v>
+        <v>-704300</v>
       </c>
       <c r="F33" s="3">
-        <v>-347500</v>
+        <v>-343400</v>
       </c>
       <c r="G33" s="3">
-        <v>-131800</v>
+        <v>-130300</v>
       </c>
       <c r="H33" s="3">
-        <v>167600</v>
+        <v>165700</v>
       </c>
       <c r="I33" s="3">
-        <v>115400</v>
+        <v>114000</v>
       </c>
       <c r="J33" s="3">
-        <v>47600</v>
+        <v>47100</v>
       </c>
       <c r="K33" s="3">
         <v>59800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-54200</v>
+        <v>-53500</v>
       </c>
       <c r="E35" s="3">
-        <v>-712600</v>
+        <v>-704300</v>
       </c>
       <c r="F35" s="3">
-        <v>-347500</v>
+        <v>-343400</v>
       </c>
       <c r="G35" s="3">
-        <v>-131800</v>
+        <v>-130300</v>
       </c>
       <c r="H35" s="3">
-        <v>167600</v>
+        <v>165700</v>
       </c>
       <c r="I35" s="3">
-        <v>115400</v>
+        <v>114000</v>
       </c>
       <c r="J35" s="3">
-        <v>47600</v>
+        <v>47100</v>
       </c>
       <c r="K35" s="3">
         <v>59800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1999600</v>
+        <v>1976500</v>
       </c>
       <c r="E41" s="3">
-        <v>1928500</v>
+        <v>1906100</v>
       </c>
       <c r="F41" s="3">
-        <v>679300</v>
+        <v>671400</v>
       </c>
       <c r="G41" s="3">
-        <v>978000</v>
+        <v>966700</v>
       </c>
       <c r="H41" s="3">
-        <v>828400</v>
+        <v>818800</v>
       </c>
       <c r="I41" s="3">
-        <v>797300</v>
+        <v>788100</v>
       </c>
       <c r="J41" s="3">
-        <v>1666300</v>
+        <v>1647000</v>
       </c>
       <c r="K41" s="3">
         <v>305800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>825700</v>
+        <v>816100</v>
       </c>
       <c r="E42" s="3">
-        <v>837200</v>
+        <v>827500</v>
       </c>
       <c r="F42" s="3">
-        <v>325500</v>
+        <v>321700</v>
       </c>
       <c r="G42" s="3">
-        <v>1331200</v>
+        <v>1315800</v>
       </c>
       <c r="H42" s="3">
-        <v>1602800</v>
+        <v>1584200</v>
       </c>
       <c r="I42" s="3">
-        <v>1140300</v>
+        <v>1127100</v>
       </c>
       <c r="J42" s="3">
-        <v>479100</v>
+        <v>473600</v>
       </c>
       <c r="K42" s="3">
         <v>129300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1025900</v>
+        <v>1014000</v>
       </c>
       <c r="E43" s="3">
-        <v>862100</v>
+        <v>852200</v>
       </c>
       <c r="F43" s="3">
-        <v>612000</v>
+        <v>604900</v>
       </c>
       <c r="G43" s="3">
-        <v>828200</v>
+        <v>818600</v>
       </c>
       <c r="H43" s="3">
-        <v>736400</v>
+        <v>727900</v>
       </c>
       <c r="I43" s="3">
-        <v>624200</v>
+        <v>616900</v>
       </c>
       <c r="J43" s="3">
-        <v>832400</v>
+        <v>822800</v>
       </c>
       <c r="K43" s="3">
         <v>141900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2184000</v>
+        <v>2158700</v>
       </c>
       <c r="E44" s="3">
-        <v>2503900</v>
+        <v>2474900</v>
       </c>
       <c r="F44" s="3">
-        <v>1036100</v>
+        <v>1024100</v>
       </c>
       <c r="G44" s="3">
-        <v>1914300</v>
+        <v>1892100</v>
       </c>
       <c r="H44" s="3">
-        <v>1400700</v>
+        <v>1384500</v>
       </c>
       <c r="I44" s="3">
-        <v>1603300</v>
+        <v>1584800</v>
       </c>
       <c r="J44" s="3">
-        <v>1781000</v>
+        <v>1760400</v>
       </c>
       <c r="K44" s="3">
         <v>429400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>426500</v>
+        <v>421600</v>
       </c>
       <c r="E45" s="3">
-        <v>138600</v>
+        <v>137000</v>
       </c>
       <c r="F45" s="3">
-        <v>4155300</v>
+        <v>4107200</v>
       </c>
       <c r="G45" s="3">
-        <v>347400</v>
+        <v>343400</v>
       </c>
       <c r="H45" s="3">
-        <v>107100</v>
+        <v>105900</v>
       </c>
       <c r="I45" s="3">
-        <v>190300</v>
+        <v>188100</v>
       </c>
       <c r="J45" s="3">
-        <v>174700</v>
+        <v>172700</v>
       </c>
       <c r="K45" s="3">
         <v>30900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6461600</v>
+        <v>6386900</v>
       </c>
       <c r="E46" s="3">
-        <v>6270200</v>
+        <v>6197700</v>
       </c>
       <c r="F46" s="3">
-        <v>6808200</v>
+        <v>6729400</v>
       </c>
       <c r="G46" s="3">
-        <v>5399100</v>
+        <v>5336700</v>
       </c>
       <c r="H46" s="3">
-        <v>4615000</v>
+        <v>4561600</v>
       </c>
       <c r="I46" s="3">
-        <v>4355400</v>
+        <v>4305100</v>
       </c>
       <c r="J46" s="3">
-        <v>4933600</v>
+        <v>4876500</v>
       </c>
       <c r="K46" s="3">
         <v>1037300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>169800</v>
+        <v>167800</v>
       </c>
       <c r="E47" s="3">
-        <v>139300</v>
+        <v>137700</v>
       </c>
       <c r="F47" s="3">
-        <v>46800</v>
+        <v>46300</v>
       </c>
       <c r="G47" s="3">
-        <v>189800</v>
+        <v>187600</v>
       </c>
       <c r="H47" s="3">
-        <v>435000</v>
+        <v>430000</v>
       </c>
       <c r="I47" s="3">
-        <v>292500</v>
+        <v>289100</v>
       </c>
       <c r="J47" s="3">
-        <v>894300</v>
+        <v>884000</v>
       </c>
       <c r="K47" s="3">
         <v>93700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1922100</v>
+        <v>1899800</v>
       </c>
       <c r="E48" s="3">
-        <v>2066800</v>
+        <v>2042900</v>
       </c>
       <c r="F48" s="3">
-        <v>799600</v>
+        <v>790400</v>
       </c>
       <c r="G48" s="3">
-        <v>1500200</v>
+        <v>1482800</v>
       </c>
       <c r="H48" s="3">
-        <v>1372100</v>
+        <v>1356200</v>
       </c>
       <c r="I48" s="3">
-        <v>1383500</v>
+        <v>1367500</v>
       </c>
       <c r="J48" s="3">
-        <v>1560000</v>
+        <v>1542000</v>
       </c>
       <c r="K48" s="3">
         <v>361600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2434100</v>
+        <v>2405900</v>
       </c>
       <c r="E49" s="3">
-        <v>2125500</v>
+        <v>2100900</v>
       </c>
       <c r="F49" s="3">
-        <v>710200</v>
+        <v>702000</v>
       </c>
       <c r="G49" s="3">
-        <v>1449900</v>
+        <v>1433100</v>
       </c>
       <c r="H49" s="3">
-        <v>1227100</v>
+        <v>1212900</v>
       </c>
       <c r="I49" s="3">
-        <v>1069100</v>
+        <v>1056700</v>
       </c>
       <c r="J49" s="3">
-        <v>1081400</v>
+        <v>1068900</v>
       </c>
       <c r="K49" s="3">
         <v>225100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>179900</v>
+        <v>177800</v>
       </c>
       <c r="E52" s="3">
-        <v>174500</v>
+        <v>172400</v>
       </c>
       <c r="F52" s="3">
-        <v>32800</v>
+        <v>32500</v>
       </c>
       <c r="G52" s="3">
-        <v>84200</v>
+        <v>83200</v>
       </c>
       <c r="H52" s="3">
-        <v>320500</v>
+        <v>316800</v>
       </c>
       <c r="I52" s="3">
-        <v>391000</v>
+        <v>386400</v>
       </c>
       <c r="J52" s="3">
-        <v>510100</v>
+        <v>504200</v>
       </c>
       <c r="K52" s="3">
         <v>140800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11167400</v>
+        <v>11038200</v>
       </c>
       <c r="E54" s="3">
-        <v>10776400</v>
+        <v>10651700</v>
       </c>
       <c r="F54" s="3">
-        <v>8397600</v>
+        <v>8300500</v>
       </c>
       <c r="G54" s="3">
-        <v>8623100</v>
+        <v>8523300</v>
       </c>
       <c r="H54" s="3">
-        <v>7805900</v>
+        <v>7715600</v>
       </c>
       <c r="I54" s="3">
-        <v>7491600</v>
+        <v>7404900</v>
       </c>
       <c r="J54" s="3">
-        <v>8979400</v>
+        <v>8875500</v>
       </c>
       <c r="K54" s="3">
         <v>1858600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>560900</v>
+        <v>554400</v>
       </c>
       <c r="E57" s="3">
-        <v>514300</v>
+        <v>508400</v>
       </c>
       <c r="F57" s="3">
-        <v>284300</v>
+        <v>281100</v>
       </c>
       <c r="G57" s="3">
-        <v>681200</v>
+        <v>673300</v>
       </c>
       <c r="H57" s="3">
-        <v>537600</v>
+        <v>531400</v>
       </c>
       <c r="I57" s="3">
-        <v>611500</v>
+        <v>604400</v>
       </c>
       <c r="J57" s="3">
-        <v>796400</v>
+        <v>787100</v>
       </c>
       <c r="K57" s="3">
         <v>175100</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>644100</v>
+        <v>636700</v>
       </c>
       <c r="E58" s="3">
-        <v>396200</v>
+        <v>391600</v>
       </c>
       <c r="F58" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="G58" s="3">
-        <v>136900</v>
+        <v>135300</v>
       </c>
       <c r="H58" s="3">
-        <v>253500</v>
+        <v>250600</v>
       </c>
       <c r="I58" s="3">
-        <v>327800</v>
+        <v>324000</v>
       </c>
       <c r="J58" s="3">
-        <v>168800</v>
+        <v>166800</v>
       </c>
       <c r="K58" s="3">
         <v>17900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1905900</v>
+        <v>1883900</v>
       </c>
       <c r="E59" s="3">
-        <v>1576600</v>
+        <v>1558400</v>
       </c>
       <c r="F59" s="3">
-        <v>4772200</v>
+        <v>4717000</v>
       </c>
       <c r="G59" s="3">
-        <v>1494400</v>
+        <v>1477100</v>
       </c>
       <c r="H59" s="3">
-        <v>1585200</v>
+        <v>1566900</v>
       </c>
       <c r="I59" s="3">
-        <v>1103700</v>
+        <v>1091000</v>
       </c>
       <c r="J59" s="3">
-        <v>1405300</v>
+        <v>1389000</v>
       </c>
       <c r="K59" s="3">
         <v>262800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3110900</v>
+        <v>3074900</v>
       </c>
       <c r="E60" s="3">
-        <v>2487200</v>
+        <v>2458400</v>
       </c>
       <c r="F60" s="3">
-        <v>5072300</v>
+        <v>5013600</v>
       </c>
       <c r="G60" s="3">
-        <v>2312500</v>
+        <v>2285700</v>
       </c>
       <c r="H60" s="3">
-        <v>1827300</v>
+        <v>1806200</v>
       </c>
       <c r="I60" s="3">
-        <v>2043000</v>
+        <v>2019300</v>
       </c>
       <c r="J60" s="3">
-        <v>2370400</v>
+        <v>2343000</v>
       </c>
       <c r="K60" s="3">
         <v>455700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3854400</v>
+        <v>3809800</v>
       </c>
       <c r="E61" s="3">
-        <v>4225100</v>
+        <v>4176200</v>
       </c>
       <c r="F61" s="3">
-        <v>87100</v>
+        <v>86100</v>
       </c>
       <c r="G61" s="3">
-        <v>2648400</v>
+        <v>2617700</v>
       </c>
       <c r="H61" s="3">
-        <v>2483400</v>
+        <v>2454700</v>
       </c>
       <c r="I61" s="3">
-        <v>2087000</v>
+        <v>2062900</v>
       </c>
       <c r="J61" s="3">
-        <v>2547800</v>
+        <v>2518400</v>
       </c>
       <c r="K61" s="3">
         <v>501300</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1150700</v>
+        <v>1137400</v>
       </c>
       <c r="E62" s="3">
-        <v>1079500</v>
+        <v>1067100</v>
       </c>
       <c r="F62" s="3">
-        <v>367100</v>
+        <v>362900</v>
       </c>
       <c r="G62" s="3">
-        <v>653800</v>
+        <v>646200</v>
       </c>
       <c r="H62" s="3">
-        <v>839800</v>
+        <v>830000</v>
       </c>
       <c r="I62" s="3">
-        <v>830400</v>
+        <v>820800</v>
       </c>
       <c r="J62" s="3">
-        <v>1103500</v>
+        <v>1090800</v>
       </c>
       <c r="K62" s="3">
         <v>211600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8233800</v>
+        <v>8138500</v>
       </c>
       <c r="E66" s="3">
-        <v>7907100</v>
+        <v>7815600</v>
       </c>
       <c r="F66" s="3">
-        <v>5603500</v>
+        <v>5538700</v>
       </c>
       <c r="G66" s="3">
-        <v>5686700</v>
+        <v>5620900</v>
       </c>
       <c r="H66" s="3">
-        <v>5156600</v>
+        <v>5096900</v>
       </c>
       <c r="I66" s="3">
-        <v>5019700</v>
+        <v>4961600</v>
       </c>
       <c r="J66" s="3">
-        <v>6100200</v>
+        <v>6029600</v>
       </c>
       <c r="K66" s="3">
         <v>1186500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-280400</v>
+        <v>-277200</v>
       </c>
       <c r="E72" s="3">
-        <v>-226300</v>
+        <v>-223600</v>
       </c>
       <c r="F72" s="3">
-        <v>491000</v>
+        <v>485300</v>
       </c>
       <c r="G72" s="3">
-        <v>751700</v>
+        <v>743000</v>
       </c>
       <c r="H72" s="3">
-        <v>967800</v>
+        <v>956600</v>
       </c>
       <c r="I72" s="3">
-        <v>855800</v>
+        <v>845900</v>
       </c>
       <c r="J72" s="3">
-        <v>776300</v>
+        <v>767300</v>
       </c>
       <c r="K72" s="3">
         <v>433700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2933700</v>
+        <v>2899700</v>
       </c>
       <c r="E76" s="3">
-        <v>2869300</v>
+        <v>2836100</v>
       </c>
       <c r="F76" s="3">
-        <v>2794100</v>
+        <v>2761800</v>
       </c>
       <c r="G76" s="3">
-        <v>2936400</v>
+        <v>2902500</v>
       </c>
       <c r="H76" s="3">
-        <v>2649300</v>
+        <v>2618700</v>
       </c>
       <c r="I76" s="3">
-        <v>2471800</v>
+        <v>2443200</v>
       </c>
       <c r="J76" s="3">
-        <v>2879200</v>
+        <v>2845900</v>
       </c>
       <c r="K76" s="3">
         <v>672100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-54200</v>
+        <v>-53500</v>
       </c>
       <c r="E81" s="3">
-        <v>-712600</v>
+        <v>-704300</v>
       </c>
       <c r="F81" s="3">
-        <v>-347500</v>
+        <v>-343400</v>
       </c>
       <c r="G81" s="3">
-        <v>-131800</v>
+        <v>-130300</v>
       </c>
       <c r="H81" s="3">
-        <v>167600</v>
+        <v>165700</v>
       </c>
       <c r="I81" s="3">
-        <v>115400</v>
+        <v>114000</v>
       </c>
       <c r="J81" s="3">
-        <v>47600</v>
+        <v>47100</v>
       </c>
       <c r="K81" s="3">
         <v>59800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>222000</v>
+        <v>219400</v>
       </c>
       <c r="E83" s="3">
-        <v>305100</v>
+        <v>301500</v>
       </c>
       <c r="F83" s="3">
-        <v>163800</v>
+        <v>161900</v>
       </c>
       <c r="G83" s="3">
-        <v>196000</v>
+        <v>193800</v>
       </c>
       <c r="H83" s="3">
-        <v>216000</v>
+        <v>213500</v>
       </c>
       <c r="I83" s="3">
-        <v>251400</v>
+        <v>248500</v>
       </c>
       <c r="J83" s="3">
-        <v>211500</v>
+        <v>209100</v>
       </c>
       <c r="K83" s="3">
         <v>51100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>562300</v>
+        <v>555700</v>
       </c>
       <c r="E89" s="3">
-        <v>-1283300</v>
+        <v>-1268500</v>
       </c>
       <c r="F89" s="3">
-        <v>738900</v>
+        <v>730300</v>
       </c>
       <c r="G89" s="3">
-        <v>790800</v>
+        <v>781600</v>
       </c>
       <c r="H89" s="3">
-        <v>492100</v>
+        <v>486400</v>
       </c>
       <c r="I89" s="3">
-        <v>-60900</v>
+        <v>-60200</v>
       </c>
       <c r="J89" s="3">
-        <v>715900</v>
+        <v>707600</v>
       </c>
       <c r="K89" s="3">
         <v>86100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-108400</v>
+        <v>-107100</v>
       </c>
       <c r="E91" s="3">
-        <v>-103200</v>
+        <v>-102000</v>
       </c>
       <c r="F91" s="3">
-        <v>-222600</v>
+        <v>-220100</v>
       </c>
       <c r="G91" s="3">
-        <v>-111400</v>
+        <v>-110100</v>
       </c>
       <c r="H91" s="3">
-        <v>-150300</v>
+        <v>-148600</v>
       </c>
       <c r="I91" s="3">
-        <v>-266500</v>
+        <v>-263400</v>
       </c>
       <c r="J91" s="3">
-        <v>-224900</v>
+        <v>-222300</v>
       </c>
       <c r="K91" s="3">
         <v>-50600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-155700</v>
+        <v>-153900</v>
       </c>
       <c r="E94" s="3">
-        <v>-185900</v>
+        <v>-183700</v>
       </c>
       <c r="F94" s="3">
-        <v>313100</v>
+        <v>309400</v>
       </c>
       <c r="G94" s="3">
-        <v>-377400</v>
+        <v>-373100</v>
       </c>
       <c r="H94" s="3">
-        <v>-682500</v>
+        <v>-674600</v>
       </c>
       <c r="I94" s="3">
-        <v>-666500</v>
+        <v>-658800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1016300</v>
+        <v>-1004500</v>
       </c>
       <c r="K94" s="3">
         <v>-119900</v>
@@ -3773,16 +3773,16 @@
         <v>-1400</v>
       </c>
       <c r="G96" s="3">
-        <v>-27500</v>
+        <v>-27200</v>
       </c>
       <c r="H96" s="3">
-        <v>-34100</v>
+        <v>-33700</v>
       </c>
       <c r="I96" s="3">
-        <v>-19700</v>
+        <v>-19400</v>
       </c>
       <c r="J96" s="3">
-        <v>-35900</v>
+        <v>-35500</v>
       </c>
       <c r="K96" s="3">
         <v>-17700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-469000</v>
+        <v>-463600</v>
       </c>
       <c r="E100" s="3">
-        <v>1033000</v>
+        <v>1021000</v>
       </c>
       <c r="F100" s="3">
-        <v>-202300</v>
+        <v>-199900</v>
       </c>
       <c r="G100" s="3">
-        <v>-371600</v>
+        <v>-367300</v>
       </c>
       <c r="H100" s="3">
-        <v>217500</v>
+        <v>215000</v>
       </c>
       <c r="I100" s="3">
         <v>2900</v>
       </c>
       <c r="J100" s="3">
-        <v>766000</v>
+        <v>757100</v>
       </c>
       <c r="K100" s="3">
         <v>59500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>155900</v>
+        <v>154100</v>
       </c>
       <c r="E101" s="3">
-        <v>531700</v>
+        <v>525600</v>
       </c>
       <c r="F101" s="3">
         <v>5300</v>
       </c>
       <c r="G101" s="3">
-        <v>107900</v>
+        <v>106700</v>
       </c>
       <c r="H101" s="3">
         <v>3900</v>
       </c>
       <c r="I101" s="3">
-        <v>-144500</v>
+        <v>-142800</v>
       </c>
       <c r="J101" s="3">
-        <v>304000</v>
+        <v>300500</v>
       </c>
       <c r="K101" s="3">
         <v>-20500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>93500</v>
+        <v>92400</v>
       </c>
       <c r="E102" s="3">
-        <v>95500</v>
+        <v>94400</v>
       </c>
       <c r="F102" s="3">
-        <v>855000</v>
+        <v>845100</v>
       </c>
       <c r="G102" s="3">
-        <v>149600</v>
+        <v>147900</v>
       </c>
       <c r="H102" s="3">
-        <v>31000</v>
+        <v>30700</v>
       </c>
       <c r="I102" s="3">
-        <v>-869000</v>
+        <v>-858900</v>
       </c>
       <c r="J102" s="3">
-        <v>769600</v>
+        <v>760700</v>
       </c>
       <c r="K102" s="3">
         <v>5200</v>

--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4415600</v>
+        <v>4436500</v>
       </c>
       <c r="E8" s="3">
-        <v>3825800</v>
+        <v>3843900</v>
       </c>
       <c r="F8" s="3">
-        <v>4246600</v>
+        <v>4266700</v>
       </c>
       <c r="G8" s="3">
-        <v>1536400</v>
+        <v>1543700</v>
       </c>
       <c r="H8" s="3">
-        <v>3657200</v>
+        <v>3674500</v>
       </c>
       <c r="I8" s="3">
-        <v>4175200</v>
+        <v>4195000</v>
       </c>
       <c r="J8" s="3">
-        <v>3954400</v>
+        <v>3973100</v>
       </c>
       <c r="K8" s="3">
         <v>1122700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3734300</v>
+        <v>3751900</v>
       </c>
       <c r="E9" s="3">
-        <v>3360700</v>
+        <v>3376600</v>
       </c>
       <c r="F9" s="3">
-        <v>3631700</v>
+        <v>3648800</v>
       </c>
       <c r="G9" s="3">
-        <v>1397800</v>
+        <v>1404400</v>
       </c>
       <c r="H9" s="3">
-        <v>2972800</v>
+        <v>2986900</v>
       </c>
       <c r="I9" s="3">
-        <v>3343600</v>
+        <v>3359400</v>
       </c>
       <c r="J9" s="3">
-        <v>3222700</v>
+        <v>3237900</v>
       </c>
       <c r="K9" s="3">
         <v>900300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>681300</v>
+        <v>684600</v>
       </c>
       <c r="E10" s="3">
-        <v>465100</v>
+        <v>467300</v>
       </c>
       <c r="F10" s="3">
-        <v>614900</v>
+        <v>617900</v>
       </c>
       <c r="G10" s="3">
-        <v>138700</v>
+        <v>139300</v>
       </c>
       <c r="H10" s="3">
-        <v>684400</v>
+        <v>687600</v>
       </c>
       <c r="I10" s="3">
-        <v>831600</v>
+        <v>835600</v>
       </c>
       <c r="J10" s="3">
-        <v>731700</v>
+        <v>735100</v>
       </c>
       <c r="K10" s="3">
         <v>222400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>45500</v>
+        <v>45700</v>
       </c>
       <c r="E12" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="F12" s="3">
-        <v>38300</v>
+        <v>38400</v>
       </c>
       <c r="G12" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="H12" s="3">
-        <v>30700</v>
+        <v>30800</v>
       </c>
       <c r="I12" s="3">
-        <v>31600</v>
+        <v>31700</v>
       </c>
       <c r="J12" s="3">
-        <v>27700</v>
+        <v>27800</v>
       </c>
       <c r="K12" s="3">
         <v>8400</v>
@@ -938,10 +938,10 @@
         <v>3000</v>
       </c>
       <c r="E14" s="3">
-        <v>49200</v>
+        <v>49400</v>
       </c>
       <c r="F14" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="G14" s="3">
         <v>600</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>105700</v>
+        <v>106200</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4210200</v>
+        <v>4230100</v>
       </c>
       <c r="E17" s="3">
-        <v>4153300</v>
+        <v>4172900</v>
       </c>
       <c r="F17" s="3">
-        <v>4306900</v>
+        <v>4327300</v>
       </c>
       <c r="G17" s="3">
-        <v>1744800</v>
+        <v>1753000</v>
       </c>
       <c r="H17" s="3">
-        <v>3444100</v>
+        <v>3460400</v>
       </c>
       <c r="I17" s="3">
-        <v>4035400</v>
+        <v>4054500</v>
       </c>
       <c r="J17" s="3">
-        <v>3739500</v>
+        <v>3757200</v>
       </c>
       <c r="K17" s="3">
         <v>1025700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>205400</v>
+        <v>206400</v>
       </c>
       <c r="E18" s="3">
-        <v>-327400</v>
+        <v>-329000</v>
       </c>
       <c r="F18" s="3">
-        <v>-60300</v>
+        <v>-60600</v>
       </c>
       <c r="G18" s="3">
-        <v>-208300</v>
+        <v>-209300</v>
       </c>
       <c r="H18" s="3">
-        <v>213100</v>
+        <v>214100</v>
       </c>
       <c r="I18" s="3">
-        <v>139800</v>
+        <v>140500</v>
       </c>
       <c r="J18" s="3">
-        <v>214900</v>
+        <v>215900</v>
       </c>
       <c r="K18" s="3">
         <v>97000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>71300</v>
+        <v>71600</v>
       </c>
       <c r="E20" s="3">
-        <v>-100300</v>
+        <v>-100800</v>
       </c>
       <c r="F20" s="3">
-        <v>70800</v>
+        <v>71200</v>
       </c>
       <c r="G20" s="3">
-        <v>28700</v>
+        <v>28900</v>
       </c>
       <c r="H20" s="3">
-        <v>113400</v>
+        <v>113900</v>
       </c>
       <c r="I20" s="3">
-        <v>92700</v>
+        <v>93200</v>
       </c>
       <c r="J20" s="3">
-        <v>109200</v>
+        <v>109800</v>
       </c>
       <c r="K20" s="3">
         <v>16700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>496000</v>
+        <v>498400</v>
       </c>
       <c r="E21" s="3">
-        <v>-126400</v>
+        <v>-126900</v>
       </c>
       <c r="F21" s="3">
-        <v>172200</v>
+        <v>173100</v>
       </c>
       <c r="G21" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="H21" s="3">
-        <v>539900</v>
+        <v>542500</v>
       </c>
       <c r="I21" s="3">
-        <v>480900</v>
+        <v>483300</v>
       </c>
       <c r="J21" s="3">
-        <v>533000</v>
+        <v>535600</v>
       </c>
       <c r="K21" s="3">
         <v>164700</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>253100</v>
+        <v>254300</v>
       </c>
       <c r="E22" s="3">
-        <v>217400</v>
+        <v>218400</v>
       </c>
       <c r="F22" s="3">
-        <v>154800</v>
+        <v>155500</v>
       </c>
       <c r="G22" s="3">
-        <v>27700</v>
+        <v>27900</v>
       </c>
       <c r="H22" s="3">
-        <v>133900</v>
+        <v>134500</v>
       </c>
       <c r="I22" s="3">
-        <v>124300</v>
+        <v>124900</v>
       </c>
       <c r="J22" s="3">
-        <v>109500</v>
+        <v>110000</v>
       </c>
       <c r="K22" s="3">
         <v>23700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="E23" s="3">
-        <v>-645100</v>
+        <v>-648200</v>
       </c>
       <c r="F23" s="3">
-        <v>-144300</v>
+        <v>-145000</v>
       </c>
       <c r="G23" s="3">
-        <v>-207300</v>
+        <v>-208300</v>
       </c>
       <c r="H23" s="3">
-        <v>192600</v>
+        <v>193500</v>
       </c>
       <c r="I23" s="3">
-        <v>108300</v>
+        <v>108800</v>
       </c>
       <c r="J23" s="3">
-        <v>214600</v>
+        <v>215600</v>
       </c>
       <c r="K23" s="3">
         <v>90000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>75800</v>
+        <v>76100</v>
       </c>
       <c r="E24" s="3">
-        <v>55300</v>
+        <v>55600</v>
       </c>
       <c r="F24" s="3">
-        <v>107800</v>
+        <v>108300</v>
       </c>
       <c r="G24" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="H24" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="I24" s="3">
         <v>-7000</v>
       </c>
       <c r="J24" s="3">
-        <v>159800</v>
+        <v>160500</v>
       </c>
       <c r="K24" s="3">
         <v>27900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-52100</v>
+        <v>-52400</v>
       </c>
       <c r="E26" s="3">
-        <v>-700500</v>
+        <v>-703800</v>
       </c>
       <c r="F26" s="3">
-        <v>-252100</v>
+        <v>-253300</v>
       </c>
       <c r="G26" s="3">
-        <v>-190200</v>
+        <v>-191100</v>
       </c>
       <c r="H26" s="3">
-        <v>175700</v>
+        <v>176600</v>
       </c>
       <c r="I26" s="3">
-        <v>115300</v>
+        <v>115800</v>
       </c>
       <c r="J26" s="3">
-        <v>54900</v>
+        <v>55100</v>
       </c>
       <c r="K26" s="3">
         <v>62100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-53500</v>
+        <v>-53800</v>
       </c>
       <c r="E27" s="3">
-        <v>-704300</v>
+        <v>-707700</v>
       </c>
       <c r="F27" s="3">
-        <v>-256500</v>
+        <v>-257700</v>
       </c>
       <c r="G27" s="3">
-        <v>-195100</v>
+        <v>-196100</v>
       </c>
       <c r="H27" s="3">
-        <v>165700</v>
+        <v>166500</v>
       </c>
       <c r="I27" s="3">
-        <v>114000</v>
+        <v>114600</v>
       </c>
       <c r="J27" s="3">
-        <v>47100</v>
+        <v>47300</v>
       </c>
       <c r="K27" s="3">
         <v>59800</v>
@@ -1479,10 +1479,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="3">
-        <v>-87000</v>
+        <v>-87400</v>
       </c>
       <c r="G29" s="3">
-        <v>64800</v>
+        <v>65100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-71300</v>
+        <v>-71600</v>
       </c>
       <c r="E32" s="3">
-        <v>100300</v>
+        <v>100800</v>
       </c>
       <c r="F32" s="3">
-        <v>-70800</v>
+        <v>-71200</v>
       </c>
       <c r="G32" s="3">
-        <v>-28700</v>
+        <v>-28900</v>
       </c>
       <c r="H32" s="3">
-        <v>-113400</v>
+        <v>-113900</v>
       </c>
       <c r="I32" s="3">
-        <v>-92700</v>
+        <v>-93200</v>
       </c>
       <c r="J32" s="3">
-        <v>-109200</v>
+        <v>-109800</v>
       </c>
       <c r="K32" s="3">
         <v>-16700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-53500</v>
+        <v>-53800</v>
       </c>
       <c r="E33" s="3">
-        <v>-704300</v>
+        <v>-707700</v>
       </c>
       <c r="F33" s="3">
-        <v>-343400</v>
+        <v>-345100</v>
       </c>
       <c r="G33" s="3">
-        <v>-130300</v>
+        <v>-130900</v>
       </c>
       <c r="H33" s="3">
-        <v>165700</v>
+        <v>166500</v>
       </c>
       <c r="I33" s="3">
-        <v>114000</v>
+        <v>114600</v>
       </c>
       <c r="J33" s="3">
-        <v>47100</v>
+        <v>47300</v>
       </c>
       <c r="K33" s="3">
         <v>59800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-53500</v>
+        <v>-53800</v>
       </c>
       <c r="E35" s="3">
-        <v>-704300</v>
+        <v>-707700</v>
       </c>
       <c r="F35" s="3">
-        <v>-343400</v>
+        <v>-345100</v>
       </c>
       <c r="G35" s="3">
-        <v>-130300</v>
+        <v>-130900</v>
       </c>
       <c r="H35" s="3">
-        <v>165700</v>
+        <v>166500</v>
       </c>
       <c r="I35" s="3">
-        <v>114000</v>
+        <v>114600</v>
       </c>
       <c r="J35" s="3">
-        <v>47100</v>
+        <v>47300</v>
       </c>
       <c r="K35" s="3">
         <v>59800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1976500</v>
+        <v>1985800</v>
       </c>
       <c r="E41" s="3">
-        <v>1906100</v>
+        <v>1915100</v>
       </c>
       <c r="F41" s="3">
-        <v>671400</v>
+        <v>674600</v>
       </c>
       <c r="G41" s="3">
-        <v>966700</v>
+        <v>971300</v>
       </c>
       <c r="H41" s="3">
-        <v>818800</v>
+        <v>822700</v>
       </c>
       <c r="I41" s="3">
-        <v>788100</v>
+        <v>791800</v>
       </c>
       <c r="J41" s="3">
-        <v>1647000</v>
+        <v>1654800</v>
       </c>
       <c r="K41" s="3">
         <v>305800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>816100</v>
+        <v>820000</v>
       </c>
       <c r="E42" s="3">
-        <v>827500</v>
+        <v>831400</v>
       </c>
       <c r="F42" s="3">
-        <v>321700</v>
+        <v>323300</v>
       </c>
       <c r="G42" s="3">
-        <v>1315800</v>
+        <v>1322000</v>
       </c>
       <c r="H42" s="3">
-        <v>1584200</v>
+        <v>1591700</v>
       </c>
       <c r="I42" s="3">
-        <v>1127100</v>
+        <v>1132400</v>
       </c>
       <c r="J42" s="3">
-        <v>473600</v>
+        <v>475800</v>
       </c>
       <c r="K42" s="3">
         <v>129300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1014000</v>
+        <v>1018800</v>
       </c>
       <c r="E43" s="3">
-        <v>852200</v>
+        <v>856200</v>
       </c>
       <c r="F43" s="3">
-        <v>604900</v>
+        <v>607800</v>
       </c>
       <c r="G43" s="3">
-        <v>818600</v>
+        <v>822500</v>
       </c>
       <c r="H43" s="3">
-        <v>727900</v>
+        <v>731300</v>
       </c>
       <c r="I43" s="3">
-        <v>616900</v>
+        <v>619800</v>
       </c>
       <c r="J43" s="3">
-        <v>822800</v>
+        <v>826700</v>
       </c>
       <c r="K43" s="3">
         <v>141900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2158700</v>
+        <v>2168900</v>
       </c>
       <c r="E44" s="3">
-        <v>2474900</v>
+        <v>2486600</v>
       </c>
       <c r="F44" s="3">
-        <v>1024100</v>
+        <v>1028900</v>
       </c>
       <c r="G44" s="3">
-        <v>1892100</v>
+        <v>1901100</v>
       </c>
       <c r="H44" s="3">
-        <v>1384500</v>
+        <v>1391000</v>
       </c>
       <c r="I44" s="3">
-        <v>1584800</v>
+        <v>1592200</v>
       </c>
       <c r="J44" s="3">
-        <v>1760400</v>
+        <v>1768700</v>
       </c>
       <c r="K44" s="3">
         <v>429400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>421600</v>
+        <v>423600</v>
       </c>
       <c r="E45" s="3">
-        <v>137000</v>
+        <v>137600</v>
       </c>
       <c r="F45" s="3">
-        <v>4107200</v>
+        <v>4126600</v>
       </c>
       <c r="G45" s="3">
-        <v>343400</v>
+        <v>345000</v>
       </c>
       <c r="H45" s="3">
-        <v>105900</v>
+        <v>106400</v>
       </c>
       <c r="I45" s="3">
-        <v>188100</v>
+        <v>189000</v>
       </c>
       <c r="J45" s="3">
-        <v>172700</v>
+        <v>173500</v>
       </c>
       <c r="K45" s="3">
         <v>30900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6386900</v>
+        <v>6417000</v>
       </c>
       <c r="E46" s="3">
-        <v>6197700</v>
+        <v>6227000</v>
       </c>
       <c r="F46" s="3">
-        <v>6729400</v>
+        <v>6761200</v>
       </c>
       <c r="G46" s="3">
-        <v>5336700</v>
+        <v>5361900</v>
       </c>
       <c r="H46" s="3">
-        <v>4561600</v>
+        <v>4583100</v>
       </c>
       <c r="I46" s="3">
-        <v>4305100</v>
+        <v>4325400</v>
       </c>
       <c r="J46" s="3">
-        <v>4876500</v>
+        <v>4899500</v>
       </c>
       <c r="K46" s="3">
         <v>1037300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>167800</v>
+        <v>168600</v>
       </c>
       <c r="E47" s="3">
-        <v>137700</v>
+        <v>138400</v>
       </c>
       <c r="F47" s="3">
-        <v>46300</v>
+        <v>46500</v>
       </c>
       <c r="G47" s="3">
-        <v>187600</v>
+        <v>188500</v>
       </c>
       <c r="H47" s="3">
-        <v>430000</v>
+        <v>432000</v>
       </c>
       <c r="I47" s="3">
-        <v>289100</v>
+        <v>290500</v>
       </c>
       <c r="J47" s="3">
-        <v>884000</v>
+        <v>888200</v>
       </c>
       <c r="K47" s="3">
         <v>93700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1899800</v>
+        <v>1908800</v>
       </c>
       <c r="E48" s="3">
-        <v>2042900</v>
+        <v>2052500</v>
       </c>
       <c r="F48" s="3">
-        <v>790400</v>
+        <v>794100</v>
       </c>
       <c r="G48" s="3">
-        <v>1482800</v>
+        <v>1489800</v>
       </c>
       <c r="H48" s="3">
-        <v>1356200</v>
+        <v>1362600</v>
       </c>
       <c r="I48" s="3">
-        <v>1367500</v>
+        <v>1374000</v>
       </c>
       <c r="J48" s="3">
-        <v>1542000</v>
+        <v>1549300</v>
       </c>
       <c r="K48" s="3">
         <v>361600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2405900</v>
+        <v>2417300</v>
       </c>
       <c r="E49" s="3">
-        <v>2100900</v>
+        <v>2110900</v>
       </c>
       <c r="F49" s="3">
-        <v>702000</v>
+        <v>705300</v>
       </c>
       <c r="G49" s="3">
-        <v>1433100</v>
+        <v>1439900</v>
       </c>
       <c r="H49" s="3">
-        <v>1212900</v>
+        <v>1218700</v>
       </c>
       <c r="I49" s="3">
-        <v>1056700</v>
+        <v>1061700</v>
       </c>
       <c r="J49" s="3">
-        <v>1068900</v>
+        <v>1073900</v>
       </c>
       <c r="K49" s="3">
         <v>225100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>177800</v>
+        <v>178600</v>
       </c>
       <c r="E52" s="3">
-        <v>172400</v>
+        <v>173200</v>
       </c>
       <c r="F52" s="3">
-        <v>32500</v>
+        <v>32600</v>
       </c>
       <c r="G52" s="3">
-        <v>83200</v>
+        <v>83600</v>
       </c>
       <c r="H52" s="3">
-        <v>316800</v>
+        <v>318300</v>
       </c>
       <c r="I52" s="3">
-        <v>386400</v>
+        <v>388300</v>
       </c>
       <c r="J52" s="3">
-        <v>504200</v>
+        <v>506600</v>
       </c>
       <c r="K52" s="3">
         <v>140800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11038200</v>
+        <v>11090400</v>
       </c>
       <c r="E54" s="3">
-        <v>10651700</v>
+        <v>10702000</v>
       </c>
       <c r="F54" s="3">
-        <v>8300500</v>
+        <v>8339700</v>
       </c>
       <c r="G54" s="3">
-        <v>8523300</v>
+        <v>8563600</v>
       </c>
       <c r="H54" s="3">
-        <v>7715600</v>
+        <v>7752000</v>
       </c>
       <c r="I54" s="3">
-        <v>7404900</v>
+        <v>7439900</v>
       </c>
       <c r="J54" s="3">
-        <v>8875500</v>
+        <v>8917400</v>
       </c>
       <c r="K54" s="3">
         <v>1858600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>554400</v>
+        <v>557000</v>
       </c>
       <c r="E57" s="3">
-        <v>508400</v>
+        <v>510800</v>
       </c>
       <c r="F57" s="3">
-        <v>281100</v>
+        <v>282400</v>
       </c>
       <c r="G57" s="3">
-        <v>673300</v>
+        <v>676500</v>
       </c>
       <c r="H57" s="3">
-        <v>531400</v>
+        <v>533900</v>
       </c>
       <c r="I57" s="3">
-        <v>604400</v>
+        <v>607300</v>
       </c>
       <c r="J57" s="3">
-        <v>787100</v>
+        <v>790900</v>
       </c>
       <c r="K57" s="3">
         <v>175100</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>636700</v>
+        <v>639700</v>
       </c>
       <c r="E58" s="3">
-        <v>391600</v>
+        <v>393500</v>
       </c>
       <c r="F58" s="3">
         <v>15600</v>
       </c>
       <c r="G58" s="3">
-        <v>135300</v>
+        <v>136000</v>
       </c>
       <c r="H58" s="3">
-        <v>250600</v>
+        <v>251800</v>
       </c>
       <c r="I58" s="3">
-        <v>324000</v>
+        <v>325500</v>
       </c>
       <c r="J58" s="3">
-        <v>166800</v>
+        <v>167600</v>
       </c>
       <c r="K58" s="3">
         <v>17900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1883900</v>
+        <v>1892800</v>
       </c>
       <c r="E59" s="3">
-        <v>1558400</v>
+        <v>1565700</v>
       </c>
       <c r="F59" s="3">
-        <v>4717000</v>
+        <v>4739300</v>
       </c>
       <c r="G59" s="3">
-        <v>1477100</v>
+        <v>1484100</v>
       </c>
       <c r="H59" s="3">
-        <v>1566900</v>
+        <v>1574300</v>
       </c>
       <c r="I59" s="3">
-        <v>1091000</v>
+        <v>1096100</v>
       </c>
       <c r="J59" s="3">
-        <v>1389000</v>
+        <v>1395600</v>
       </c>
       <c r="K59" s="3">
         <v>262800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3074900</v>
+        <v>3089500</v>
       </c>
       <c r="E60" s="3">
-        <v>2458400</v>
+        <v>2470000</v>
       </c>
       <c r="F60" s="3">
-        <v>5013600</v>
+        <v>5037300</v>
       </c>
       <c r="G60" s="3">
-        <v>2285700</v>
+        <v>2296500</v>
       </c>
       <c r="H60" s="3">
-        <v>1806200</v>
+        <v>1814700</v>
       </c>
       <c r="I60" s="3">
-        <v>2019300</v>
+        <v>2028900</v>
       </c>
       <c r="J60" s="3">
-        <v>2343000</v>
+        <v>2354100</v>
       </c>
       <c r="K60" s="3">
         <v>455700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3809800</v>
+        <v>3827800</v>
       </c>
       <c r="E61" s="3">
-        <v>4176200</v>
+        <v>4195900</v>
       </c>
       <c r="F61" s="3">
-        <v>86100</v>
+        <v>86500</v>
       </c>
       <c r="G61" s="3">
-        <v>2617700</v>
+        <v>2630100</v>
       </c>
       <c r="H61" s="3">
-        <v>2454700</v>
+        <v>2466300</v>
       </c>
       <c r="I61" s="3">
-        <v>2062900</v>
+        <v>2072600</v>
       </c>
       <c r="J61" s="3">
-        <v>2518400</v>
+        <v>2530300</v>
       </c>
       <c r="K61" s="3">
         <v>501300</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1137400</v>
+        <v>1142700</v>
       </c>
       <c r="E62" s="3">
-        <v>1067100</v>
+        <v>1072100</v>
       </c>
       <c r="F62" s="3">
-        <v>362900</v>
+        <v>364600</v>
       </c>
       <c r="G62" s="3">
-        <v>646200</v>
+        <v>649300</v>
       </c>
       <c r="H62" s="3">
-        <v>830000</v>
+        <v>834000</v>
       </c>
       <c r="I62" s="3">
-        <v>820800</v>
+        <v>824600</v>
       </c>
       <c r="J62" s="3">
-        <v>1090800</v>
+        <v>1095900</v>
       </c>
       <c r="K62" s="3">
         <v>211600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8138500</v>
+        <v>8176900</v>
       </c>
       <c r="E66" s="3">
-        <v>7815600</v>
+        <v>7852500</v>
       </c>
       <c r="F66" s="3">
-        <v>5538700</v>
+        <v>5564900</v>
       </c>
       <c r="G66" s="3">
-        <v>5620900</v>
+        <v>5647400</v>
       </c>
       <c r="H66" s="3">
-        <v>5096900</v>
+        <v>5121000</v>
       </c>
       <c r="I66" s="3">
-        <v>4961600</v>
+        <v>4985100</v>
       </c>
       <c r="J66" s="3">
-        <v>6029600</v>
+        <v>6058100</v>
       </c>
       <c r="K66" s="3">
         <v>1186500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-277200</v>
+        <v>-278500</v>
       </c>
       <c r="E72" s="3">
-        <v>-223600</v>
+        <v>-224700</v>
       </c>
       <c r="F72" s="3">
-        <v>485300</v>
+        <v>487600</v>
       </c>
       <c r="G72" s="3">
-        <v>743000</v>
+        <v>746500</v>
       </c>
       <c r="H72" s="3">
-        <v>956600</v>
+        <v>961100</v>
       </c>
       <c r="I72" s="3">
-        <v>845900</v>
+        <v>849900</v>
       </c>
       <c r="J72" s="3">
-        <v>767300</v>
+        <v>770900</v>
       </c>
       <c r="K72" s="3">
         <v>433700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2899700</v>
+        <v>2913400</v>
       </c>
       <c r="E76" s="3">
-        <v>2836100</v>
+        <v>2849500</v>
       </c>
       <c r="F76" s="3">
-        <v>2761800</v>
+        <v>2774800</v>
       </c>
       <c r="G76" s="3">
-        <v>2902500</v>
+        <v>2916200</v>
       </c>
       <c r="H76" s="3">
-        <v>2618700</v>
+        <v>2631000</v>
       </c>
       <c r="I76" s="3">
-        <v>2443200</v>
+        <v>2454800</v>
       </c>
       <c r="J76" s="3">
-        <v>2845900</v>
+        <v>2859400</v>
       </c>
       <c r="K76" s="3">
         <v>672100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-53500</v>
+        <v>-53800</v>
       </c>
       <c r="E81" s="3">
-        <v>-704300</v>
+        <v>-707700</v>
       </c>
       <c r="F81" s="3">
-        <v>-343400</v>
+        <v>-345100</v>
       </c>
       <c r="G81" s="3">
-        <v>-130300</v>
+        <v>-130900</v>
       </c>
       <c r="H81" s="3">
-        <v>165700</v>
+        <v>166500</v>
       </c>
       <c r="I81" s="3">
-        <v>114000</v>
+        <v>114600</v>
       </c>
       <c r="J81" s="3">
-        <v>47100</v>
+        <v>47300</v>
       </c>
       <c r="K81" s="3">
         <v>59800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>219400</v>
+        <v>220400</v>
       </c>
       <c r="E83" s="3">
-        <v>301500</v>
+        <v>303000</v>
       </c>
       <c r="F83" s="3">
-        <v>161900</v>
+        <v>162600</v>
       </c>
       <c r="G83" s="3">
-        <v>193800</v>
+        <v>194700</v>
       </c>
       <c r="H83" s="3">
-        <v>213500</v>
+        <v>214500</v>
       </c>
       <c r="I83" s="3">
-        <v>248500</v>
+        <v>249700</v>
       </c>
       <c r="J83" s="3">
-        <v>209100</v>
+        <v>210000</v>
       </c>
       <c r="K83" s="3">
         <v>51100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>555700</v>
+        <v>558400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1268500</v>
+        <v>-1274500</v>
       </c>
       <c r="F89" s="3">
-        <v>730300</v>
+        <v>733800</v>
       </c>
       <c r="G89" s="3">
-        <v>781600</v>
+        <v>785300</v>
       </c>
       <c r="H89" s="3">
-        <v>486400</v>
+        <v>488700</v>
       </c>
       <c r="I89" s="3">
-        <v>-60200</v>
+        <v>-60500</v>
       </c>
       <c r="J89" s="3">
-        <v>707600</v>
+        <v>710900</v>
       </c>
       <c r="K89" s="3">
         <v>86100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-107100</v>
+        <v>-107600</v>
       </c>
       <c r="E91" s="3">
-        <v>-102000</v>
+        <v>-102400</v>
       </c>
       <c r="F91" s="3">
-        <v>-220100</v>
+        <v>-221100</v>
       </c>
       <c r="G91" s="3">
-        <v>-110100</v>
+        <v>-110600</v>
       </c>
       <c r="H91" s="3">
-        <v>-148600</v>
+        <v>-149300</v>
       </c>
       <c r="I91" s="3">
-        <v>-263400</v>
+        <v>-264600</v>
       </c>
       <c r="J91" s="3">
-        <v>-222300</v>
+        <v>-223300</v>
       </c>
       <c r="K91" s="3">
         <v>-50600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-153900</v>
+        <v>-154600</v>
       </c>
       <c r="E94" s="3">
-        <v>-183700</v>
+        <v>-184600</v>
       </c>
       <c r="F94" s="3">
-        <v>309400</v>
+        <v>310900</v>
       </c>
       <c r="G94" s="3">
-        <v>-373100</v>
+        <v>-374800</v>
       </c>
       <c r="H94" s="3">
-        <v>-674600</v>
+        <v>-677800</v>
       </c>
       <c r="I94" s="3">
-        <v>-658800</v>
+        <v>-661900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1004500</v>
+        <v>-1009300</v>
       </c>
       <c r="K94" s="3">
         <v>-119900</v>
@@ -3773,16 +3773,16 @@
         <v>-1400</v>
       </c>
       <c r="G96" s="3">
-        <v>-27200</v>
+        <v>-27300</v>
       </c>
       <c r="H96" s="3">
-        <v>-33700</v>
+        <v>-33900</v>
       </c>
       <c r="I96" s="3">
-        <v>-19400</v>
+        <v>-19500</v>
       </c>
       <c r="J96" s="3">
-        <v>-35500</v>
+        <v>-35700</v>
       </c>
       <c r="K96" s="3">
         <v>-17700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-463600</v>
+        <v>-465800</v>
       </c>
       <c r="E100" s="3">
-        <v>1021000</v>
+        <v>1025800</v>
       </c>
       <c r="F100" s="3">
-        <v>-199900</v>
+        <v>-200900</v>
       </c>
       <c r="G100" s="3">
-        <v>-367300</v>
+        <v>-369100</v>
       </c>
       <c r="H100" s="3">
-        <v>215000</v>
+        <v>216000</v>
       </c>
       <c r="I100" s="3">
         <v>2900</v>
       </c>
       <c r="J100" s="3">
-        <v>757100</v>
+        <v>760700</v>
       </c>
       <c r="K100" s="3">
         <v>59500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>154100</v>
+        <v>154800</v>
       </c>
       <c r="E101" s="3">
-        <v>525600</v>
+        <v>528100</v>
       </c>
       <c r="F101" s="3">
         <v>5300</v>
       </c>
       <c r="G101" s="3">
-        <v>106700</v>
+        <v>107200</v>
       </c>
       <c r="H101" s="3">
         <v>3900</v>
       </c>
       <c r="I101" s="3">
-        <v>-142800</v>
+        <v>-143500</v>
       </c>
       <c r="J101" s="3">
-        <v>300500</v>
+        <v>301900</v>
       </c>
       <c r="K101" s="3">
         <v>-20500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>92400</v>
+        <v>92800</v>
       </c>
       <c r="E102" s="3">
-        <v>94400</v>
+        <v>94800</v>
       </c>
       <c r="F102" s="3">
-        <v>845100</v>
+        <v>849100</v>
       </c>
       <c r="G102" s="3">
-        <v>147900</v>
+        <v>148600</v>
       </c>
       <c r="H102" s="3">
-        <v>30700</v>
+        <v>30800</v>
       </c>
       <c r="I102" s="3">
-        <v>-858900</v>
+        <v>-863000</v>
       </c>
       <c r="J102" s="3">
-        <v>760700</v>
+        <v>764300</v>
       </c>
       <c r="K102" s="3">
         <v>5200</v>

--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4436500</v>
+        <v>4241300</v>
       </c>
       <c r="E8" s="3">
-        <v>3843900</v>
+        <v>3674800</v>
       </c>
       <c r="F8" s="3">
-        <v>4266700</v>
+        <v>4079000</v>
       </c>
       <c r="G8" s="3">
-        <v>1543700</v>
+        <v>1475800</v>
       </c>
       <c r="H8" s="3">
-        <v>3674500</v>
+        <v>3512800</v>
       </c>
       <c r="I8" s="3">
-        <v>4195000</v>
+        <v>4010400</v>
       </c>
       <c r="J8" s="3">
-        <v>3973100</v>
+        <v>3798300</v>
       </c>
       <c r="K8" s="3">
         <v>1122700</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3751900</v>
+        <v>3586800</v>
       </c>
       <c r="E9" s="3">
-        <v>3376600</v>
+        <v>3228000</v>
       </c>
       <c r="F9" s="3">
-        <v>3648800</v>
+        <v>3488300</v>
       </c>
       <c r="G9" s="3">
-        <v>1404400</v>
+        <v>1342600</v>
       </c>
       <c r="H9" s="3">
-        <v>2986900</v>
+        <v>2855500</v>
       </c>
       <c r="I9" s="3">
-        <v>3359400</v>
+        <v>3211600</v>
       </c>
       <c r="J9" s="3">
-        <v>3237900</v>
+        <v>3095500</v>
       </c>
       <c r="K9" s="3">
         <v>900300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>684600</v>
+        <v>654400</v>
       </c>
       <c r="E10" s="3">
-        <v>467300</v>
+        <v>446700</v>
       </c>
       <c r="F10" s="3">
-        <v>617900</v>
+        <v>590700</v>
       </c>
       <c r="G10" s="3">
-        <v>139300</v>
+        <v>133200</v>
       </c>
       <c r="H10" s="3">
-        <v>687600</v>
+        <v>657400</v>
       </c>
       <c r="I10" s="3">
-        <v>835600</v>
+        <v>798800</v>
       </c>
       <c r="J10" s="3">
-        <v>735100</v>
+        <v>702800</v>
       </c>
       <c r="K10" s="3">
         <v>222400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>45700</v>
+        <v>43700</v>
       </c>
       <c r="E12" s="3">
-        <v>30400</v>
+        <v>29000</v>
       </c>
       <c r="F12" s="3">
-        <v>38400</v>
+        <v>36700</v>
       </c>
       <c r="G12" s="3">
-        <v>13900</v>
+        <v>13300</v>
       </c>
       <c r="H12" s="3">
-        <v>30800</v>
+        <v>29500</v>
       </c>
       <c r="I12" s="3">
-        <v>31700</v>
+        <v>30300</v>
       </c>
       <c r="J12" s="3">
-        <v>27800</v>
+        <v>26600</v>
       </c>
       <c r="K12" s="3">
         <v>8400</v>
@@ -935,13 +935,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E14" s="3">
-        <v>49400</v>
+        <v>47200</v>
       </c>
       <c r="F14" s="3">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="G14" s="3">
         <v>600</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>106200</v>
+        <v>101500</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4230100</v>
+        <v>4043900</v>
       </c>
       <c r="E17" s="3">
-        <v>4172900</v>
+        <v>3989300</v>
       </c>
       <c r="F17" s="3">
-        <v>4327300</v>
+        <v>4136900</v>
       </c>
       <c r="G17" s="3">
-        <v>1753000</v>
+        <v>1675900</v>
       </c>
       <c r="H17" s="3">
-        <v>3460400</v>
+        <v>3308200</v>
       </c>
       <c r="I17" s="3">
-        <v>4054500</v>
+        <v>3876100</v>
       </c>
       <c r="J17" s="3">
-        <v>3757200</v>
+        <v>3591900</v>
       </c>
       <c r="K17" s="3">
         <v>1025700</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>197300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-314500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-200100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>204700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>134300</v>
+      </c>
+      <c r="J18" s="3">
         <v>206400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-329000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-60600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-209300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>214100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>140500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>215900</v>
       </c>
       <c r="K18" s="3">
         <v>97000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>71600</v>
+        <v>68500</v>
       </c>
       <c r="E20" s="3">
-        <v>-100800</v>
+        <v>-96300</v>
       </c>
       <c r="F20" s="3">
-        <v>71200</v>
+        <v>68000</v>
       </c>
       <c r="G20" s="3">
-        <v>28900</v>
+        <v>27600</v>
       </c>
       <c r="H20" s="3">
-        <v>113900</v>
+        <v>108900</v>
       </c>
       <c r="I20" s="3">
-        <v>93200</v>
+        <v>89100</v>
       </c>
       <c r="J20" s="3">
-        <v>109800</v>
+        <v>104900</v>
       </c>
       <c r="K20" s="3">
         <v>16700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>498400</v>
+        <v>483000</v>
       </c>
       <c r="E21" s="3">
-        <v>-126900</v>
+        <v>-112400</v>
       </c>
       <c r="F21" s="3">
-        <v>173100</v>
+        <v>170300</v>
       </c>
       <c r="G21" s="3">
-        <v>14200</v>
+        <v>19300</v>
       </c>
       <c r="H21" s="3">
-        <v>542500</v>
+        <v>525000</v>
       </c>
       <c r="I21" s="3">
-        <v>483300</v>
+        <v>469400</v>
       </c>
       <c r="J21" s="3">
-        <v>535600</v>
+        <v>518300</v>
       </c>
       <c r="K21" s="3">
         <v>164700</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>254300</v>
+        <v>243100</v>
       </c>
       <c r="E22" s="3">
-        <v>218400</v>
+        <v>208800</v>
       </c>
       <c r="F22" s="3">
-        <v>155500</v>
+        <v>148700</v>
       </c>
       <c r="G22" s="3">
-        <v>27900</v>
+        <v>26600</v>
       </c>
       <c r="H22" s="3">
-        <v>134500</v>
+        <v>128600</v>
       </c>
       <c r="I22" s="3">
-        <v>124900</v>
+        <v>119400</v>
       </c>
       <c r="J22" s="3">
-        <v>110000</v>
+        <v>105200</v>
       </c>
       <c r="K22" s="3">
         <v>23700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>23800</v>
+        <v>22700</v>
       </c>
       <c r="E23" s="3">
-        <v>-648200</v>
+        <v>-619700</v>
       </c>
       <c r="F23" s="3">
-        <v>-145000</v>
+        <v>-138600</v>
       </c>
       <c r="G23" s="3">
-        <v>-208300</v>
+        <v>-199100</v>
       </c>
       <c r="H23" s="3">
-        <v>193500</v>
+        <v>185000</v>
       </c>
       <c r="I23" s="3">
-        <v>108800</v>
+        <v>104000</v>
       </c>
       <c r="J23" s="3">
-        <v>215600</v>
+        <v>206200</v>
       </c>
       <c r="K23" s="3">
         <v>90000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>76100</v>
+        <v>72800</v>
       </c>
       <c r="E24" s="3">
-        <v>55600</v>
+        <v>53100</v>
       </c>
       <c r="F24" s="3">
-        <v>108300</v>
+        <v>103500</v>
       </c>
       <c r="G24" s="3">
-        <v>-17200</v>
+        <v>-16500</v>
       </c>
       <c r="H24" s="3">
-        <v>16900</v>
+        <v>16100</v>
       </c>
       <c r="I24" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="J24" s="3">
-        <v>160500</v>
+        <v>153500</v>
       </c>
       <c r="K24" s="3">
         <v>27900</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-52400</v>
+        <v>-50100</v>
       </c>
       <c r="E26" s="3">
-        <v>-703800</v>
+        <v>-672800</v>
       </c>
       <c r="F26" s="3">
-        <v>-253300</v>
+        <v>-242100</v>
       </c>
       <c r="G26" s="3">
-        <v>-191100</v>
+        <v>-182700</v>
       </c>
       <c r="H26" s="3">
-        <v>176600</v>
+        <v>168800</v>
       </c>
       <c r="I26" s="3">
-        <v>115800</v>
+        <v>110700</v>
       </c>
       <c r="J26" s="3">
-        <v>55100</v>
+        <v>52700</v>
       </c>
       <c r="K26" s="3">
         <v>62100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-53800</v>
+        <v>-51400</v>
       </c>
       <c r="E27" s="3">
-        <v>-707700</v>
+        <v>-676500</v>
       </c>
       <c r="F27" s="3">
-        <v>-257700</v>
+        <v>-246400</v>
       </c>
       <c r="G27" s="3">
-        <v>-196100</v>
+        <v>-187400</v>
       </c>
       <c r="H27" s="3">
-        <v>166500</v>
+        <v>159200</v>
       </c>
       <c r="I27" s="3">
-        <v>114600</v>
+        <v>109500</v>
       </c>
       <c r="J27" s="3">
-        <v>47300</v>
+        <v>45200</v>
       </c>
       <c r="K27" s="3">
         <v>59800</v>
@@ -1479,10 +1479,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="3">
-        <v>-87400</v>
+        <v>-83500</v>
       </c>
       <c r="G29" s="3">
-        <v>65100</v>
+        <v>62300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-71600</v>
+        <v>-68500</v>
       </c>
       <c r="E32" s="3">
-        <v>100800</v>
+        <v>96300</v>
       </c>
       <c r="F32" s="3">
-        <v>-71200</v>
+        <v>-68000</v>
       </c>
       <c r="G32" s="3">
-        <v>-28900</v>
+        <v>-27600</v>
       </c>
       <c r="H32" s="3">
-        <v>-113900</v>
+        <v>-108900</v>
       </c>
       <c r="I32" s="3">
-        <v>-93200</v>
+        <v>-89100</v>
       </c>
       <c r="J32" s="3">
-        <v>-109800</v>
+        <v>-104900</v>
       </c>
       <c r="K32" s="3">
         <v>-16700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-53800</v>
+        <v>-51400</v>
       </c>
       <c r="E33" s="3">
-        <v>-707700</v>
+        <v>-676500</v>
       </c>
       <c r="F33" s="3">
-        <v>-345100</v>
+        <v>-329900</v>
       </c>
       <c r="G33" s="3">
-        <v>-130900</v>
+        <v>-125200</v>
       </c>
       <c r="H33" s="3">
-        <v>166500</v>
+        <v>159200</v>
       </c>
       <c r="I33" s="3">
-        <v>114600</v>
+        <v>109500</v>
       </c>
       <c r="J33" s="3">
-        <v>47300</v>
+        <v>45200</v>
       </c>
       <c r="K33" s="3">
         <v>59800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-53800</v>
+        <v>-51400</v>
       </c>
       <c r="E35" s="3">
-        <v>-707700</v>
+        <v>-676500</v>
       </c>
       <c r="F35" s="3">
-        <v>-345100</v>
+        <v>-329900</v>
       </c>
       <c r="G35" s="3">
-        <v>-130900</v>
+        <v>-125200</v>
       </c>
       <c r="H35" s="3">
-        <v>166500</v>
+        <v>159200</v>
       </c>
       <c r="I35" s="3">
-        <v>114600</v>
+        <v>109500</v>
       </c>
       <c r="J35" s="3">
-        <v>47300</v>
+        <v>45200</v>
       </c>
       <c r="K35" s="3">
         <v>59800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1985800</v>
+        <v>1898400</v>
       </c>
       <c r="E41" s="3">
-        <v>1915100</v>
+        <v>1830900</v>
       </c>
       <c r="F41" s="3">
-        <v>674600</v>
+        <v>644900</v>
       </c>
       <c r="G41" s="3">
-        <v>971300</v>
+        <v>928500</v>
       </c>
       <c r="H41" s="3">
-        <v>822700</v>
+        <v>786500</v>
       </c>
       <c r="I41" s="3">
-        <v>791800</v>
+        <v>757000</v>
       </c>
       <c r="J41" s="3">
-        <v>1654800</v>
+        <v>1582000</v>
       </c>
       <c r="K41" s="3">
         <v>305800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>820000</v>
+        <v>783900</v>
       </c>
       <c r="E42" s="3">
-        <v>831400</v>
+        <v>794800</v>
       </c>
       <c r="F42" s="3">
-        <v>323300</v>
+        <v>309000</v>
       </c>
       <c r="G42" s="3">
-        <v>1322000</v>
+        <v>1263800</v>
       </c>
       <c r="H42" s="3">
-        <v>1591700</v>
+        <v>1521700</v>
       </c>
       <c r="I42" s="3">
-        <v>1132400</v>
+        <v>1082600</v>
       </c>
       <c r="J42" s="3">
-        <v>475800</v>
+        <v>454900</v>
       </c>
       <c r="K42" s="3">
         <v>129300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1018800</v>
+        <v>974000</v>
       </c>
       <c r="E43" s="3">
-        <v>856200</v>
+        <v>818500</v>
       </c>
       <c r="F43" s="3">
-        <v>607800</v>
+        <v>581000</v>
       </c>
       <c r="G43" s="3">
-        <v>822500</v>
+        <v>786300</v>
       </c>
       <c r="H43" s="3">
-        <v>731300</v>
+        <v>699100</v>
       </c>
       <c r="I43" s="3">
-        <v>619800</v>
+        <v>592600</v>
       </c>
       <c r="J43" s="3">
-        <v>826700</v>
+        <v>790300</v>
       </c>
       <c r="K43" s="3">
         <v>141900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2168900</v>
+        <v>2073500</v>
       </c>
       <c r="E44" s="3">
-        <v>2486600</v>
+        <v>2377200</v>
       </c>
       <c r="F44" s="3">
-        <v>1028900</v>
+        <v>983700</v>
       </c>
       <c r="G44" s="3">
-        <v>1901100</v>
+        <v>1817400</v>
       </c>
       <c r="H44" s="3">
-        <v>1391000</v>
+        <v>1329800</v>
       </c>
       <c r="I44" s="3">
-        <v>1592200</v>
+        <v>1522200</v>
       </c>
       <c r="J44" s="3">
-        <v>1768700</v>
+        <v>1690900</v>
       </c>
       <c r="K44" s="3">
         <v>429400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>423600</v>
+        <v>404900</v>
       </c>
       <c r="E45" s="3">
-        <v>137600</v>
+        <v>131600</v>
       </c>
       <c r="F45" s="3">
-        <v>4126600</v>
+        <v>3945100</v>
       </c>
       <c r="G45" s="3">
-        <v>345000</v>
+        <v>329800</v>
       </c>
       <c r="H45" s="3">
-        <v>106400</v>
+        <v>101700</v>
       </c>
       <c r="I45" s="3">
-        <v>189000</v>
+        <v>180700</v>
       </c>
       <c r="J45" s="3">
-        <v>173500</v>
+        <v>165900</v>
       </c>
       <c r="K45" s="3">
         <v>30900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6417000</v>
+        <v>6134700</v>
       </c>
       <c r="E46" s="3">
-        <v>6227000</v>
+        <v>5953000</v>
       </c>
       <c r="F46" s="3">
-        <v>6761200</v>
+        <v>6463700</v>
       </c>
       <c r="G46" s="3">
-        <v>5361900</v>
+        <v>5126000</v>
       </c>
       <c r="H46" s="3">
-        <v>4583100</v>
+        <v>4381500</v>
       </c>
       <c r="I46" s="3">
-        <v>4325400</v>
+        <v>4135100</v>
       </c>
       <c r="J46" s="3">
-        <v>4899500</v>
+        <v>4684000</v>
       </c>
       <c r="K46" s="3">
         <v>1037300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>168600</v>
+        <v>161200</v>
       </c>
       <c r="E47" s="3">
-        <v>138400</v>
+        <v>132300</v>
       </c>
       <c r="F47" s="3">
-        <v>46500</v>
+        <v>44400</v>
       </c>
       <c r="G47" s="3">
-        <v>188500</v>
+        <v>180200</v>
       </c>
       <c r="H47" s="3">
-        <v>432000</v>
+        <v>413000</v>
       </c>
       <c r="I47" s="3">
-        <v>290500</v>
+        <v>277700</v>
       </c>
       <c r="J47" s="3">
-        <v>888200</v>
+        <v>849100</v>
       </c>
       <c r="K47" s="3">
         <v>93700</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1908800</v>
+        <v>1824800</v>
       </c>
       <c r="E48" s="3">
-        <v>2052500</v>
+        <v>1962200</v>
       </c>
       <c r="F48" s="3">
-        <v>794100</v>
+        <v>759200</v>
       </c>
       <c r="G48" s="3">
-        <v>1489800</v>
+        <v>1424300</v>
       </c>
       <c r="H48" s="3">
-        <v>1362600</v>
+        <v>1302700</v>
       </c>
       <c r="I48" s="3">
-        <v>1374000</v>
+        <v>1313500</v>
       </c>
       <c r="J48" s="3">
-        <v>1549300</v>
+        <v>1481100</v>
       </c>
       <c r="K48" s="3">
         <v>361600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2417300</v>
+        <v>2310900</v>
       </c>
       <c r="E49" s="3">
-        <v>2110900</v>
+        <v>2018000</v>
       </c>
       <c r="F49" s="3">
-        <v>705300</v>
+        <v>674300</v>
       </c>
       <c r="G49" s="3">
-        <v>1439900</v>
+        <v>1376500</v>
       </c>
       <c r="H49" s="3">
-        <v>1218700</v>
+        <v>1165000</v>
       </c>
       <c r="I49" s="3">
-        <v>1061700</v>
+        <v>1015000</v>
       </c>
       <c r="J49" s="3">
-        <v>1073900</v>
+        <v>1026700</v>
       </c>
       <c r="K49" s="3">
         <v>225100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>178600</v>
+        <v>170800</v>
       </c>
       <c r="E52" s="3">
-        <v>173200</v>
+        <v>165600</v>
       </c>
       <c r="F52" s="3">
-        <v>32600</v>
+        <v>31200</v>
       </c>
       <c r="G52" s="3">
-        <v>83600</v>
+        <v>79900</v>
       </c>
       <c r="H52" s="3">
-        <v>318300</v>
+        <v>304300</v>
       </c>
       <c r="I52" s="3">
-        <v>388300</v>
+        <v>371200</v>
       </c>
       <c r="J52" s="3">
-        <v>506600</v>
+        <v>484300</v>
       </c>
       <c r="K52" s="3">
         <v>140800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11090400</v>
+        <v>10602400</v>
       </c>
       <c r="E54" s="3">
-        <v>10702000</v>
+        <v>10231100</v>
       </c>
       <c r="F54" s="3">
-        <v>8339700</v>
+        <v>7972800</v>
       </c>
       <c r="G54" s="3">
-        <v>8563600</v>
+        <v>8186800</v>
       </c>
       <c r="H54" s="3">
-        <v>7752000</v>
+        <v>7411000</v>
       </c>
       <c r="I54" s="3">
-        <v>7439900</v>
+        <v>7112500</v>
       </c>
       <c r="J54" s="3">
-        <v>8917400</v>
+        <v>8525100</v>
       </c>
       <c r="K54" s="3">
         <v>1858600</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>557000</v>
+        <v>532500</v>
       </c>
       <c r="E57" s="3">
-        <v>510800</v>
+        <v>488300</v>
       </c>
       <c r="F57" s="3">
-        <v>282400</v>
+        <v>270000</v>
       </c>
       <c r="G57" s="3">
-        <v>676500</v>
+        <v>646700</v>
       </c>
       <c r="H57" s="3">
-        <v>533900</v>
+        <v>510400</v>
       </c>
       <c r="I57" s="3">
-        <v>607300</v>
+        <v>580500</v>
       </c>
       <c r="J57" s="3">
-        <v>790900</v>
+        <v>756100</v>
       </c>
       <c r="K57" s="3">
         <v>175100</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>639700</v>
+        <v>611500</v>
       </c>
       <c r="E58" s="3">
-        <v>393500</v>
+        <v>376200</v>
       </c>
       <c r="F58" s="3">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="G58" s="3">
-        <v>136000</v>
+        <v>130000</v>
       </c>
       <c r="H58" s="3">
-        <v>251800</v>
+        <v>240700</v>
       </c>
       <c r="I58" s="3">
-        <v>325500</v>
+        <v>311200</v>
       </c>
       <c r="J58" s="3">
-        <v>167600</v>
+        <v>160200</v>
       </c>
       <c r="K58" s="3">
         <v>17900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1892800</v>
+        <v>1809500</v>
       </c>
       <c r="E59" s="3">
-        <v>1565700</v>
+        <v>1496900</v>
       </c>
       <c r="F59" s="3">
-        <v>4739300</v>
+        <v>4530800</v>
       </c>
       <c r="G59" s="3">
-        <v>1484100</v>
+        <v>1418800</v>
       </c>
       <c r="H59" s="3">
-        <v>1574300</v>
+        <v>1505000</v>
       </c>
       <c r="I59" s="3">
-        <v>1096100</v>
+        <v>1047900</v>
       </c>
       <c r="J59" s="3">
-        <v>1395600</v>
+        <v>1334200</v>
       </c>
       <c r="K59" s="3">
         <v>262800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3089500</v>
+        <v>2953500</v>
       </c>
       <c r="E60" s="3">
-        <v>2470000</v>
+        <v>2361300</v>
       </c>
       <c r="F60" s="3">
-        <v>5037300</v>
+        <v>4815700</v>
       </c>
       <c r="G60" s="3">
-        <v>2296500</v>
+        <v>2195500</v>
       </c>
       <c r="H60" s="3">
-        <v>1814700</v>
+        <v>1734900</v>
       </c>
       <c r="I60" s="3">
-        <v>2028900</v>
+        <v>1939600</v>
       </c>
       <c r="J60" s="3">
-        <v>2354100</v>
+        <v>2250500</v>
       </c>
       <c r="K60" s="3">
         <v>455700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3827800</v>
+        <v>3659400</v>
       </c>
       <c r="E61" s="3">
-        <v>4195900</v>
+        <v>4011300</v>
       </c>
       <c r="F61" s="3">
-        <v>86500</v>
+        <v>82700</v>
       </c>
       <c r="G61" s="3">
-        <v>2630100</v>
+        <v>2514400</v>
       </c>
       <c r="H61" s="3">
-        <v>2466300</v>
+        <v>2357700</v>
       </c>
       <c r="I61" s="3">
-        <v>2072600</v>
+        <v>1981400</v>
       </c>
       <c r="J61" s="3">
-        <v>2530300</v>
+        <v>2418900</v>
       </c>
       <c r="K61" s="3">
         <v>501300</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1142700</v>
+        <v>1092500</v>
       </c>
       <c r="E62" s="3">
-        <v>1072100</v>
+        <v>1024900</v>
       </c>
       <c r="F62" s="3">
-        <v>364600</v>
+        <v>348600</v>
       </c>
       <c r="G62" s="3">
-        <v>649300</v>
+        <v>620700</v>
       </c>
       <c r="H62" s="3">
-        <v>834000</v>
+        <v>797300</v>
       </c>
       <c r="I62" s="3">
-        <v>824600</v>
+        <v>788300</v>
       </c>
       <c r="J62" s="3">
-        <v>1095900</v>
+        <v>1047700</v>
       </c>
       <c r="K62" s="3">
         <v>211600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8176900</v>
+        <v>7817200</v>
       </c>
       <c r="E66" s="3">
-        <v>7852500</v>
+        <v>7507000</v>
       </c>
       <c r="F66" s="3">
-        <v>5564900</v>
+        <v>5320000</v>
       </c>
       <c r="G66" s="3">
-        <v>5647400</v>
+        <v>5399000</v>
       </c>
       <c r="H66" s="3">
-        <v>5121000</v>
+        <v>4895700</v>
       </c>
       <c r="I66" s="3">
-        <v>4985100</v>
+        <v>4765800</v>
       </c>
       <c r="J66" s="3">
-        <v>6058100</v>
+        <v>5791500</v>
       </c>
       <c r="K66" s="3">
         <v>1186500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-278500</v>
+        <v>-266200</v>
       </c>
       <c r="E72" s="3">
-        <v>-224700</v>
+        <v>-214800</v>
       </c>
       <c r="F72" s="3">
-        <v>487600</v>
+        <v>466200</v>
       </c>
       <c r="G72" s="3">
-        <v>746500</v>
+        <v>713700</v>
       </c>
       <c r="H72" s="3">
-        <v>961100</v>
+        <v>918800</v>
       </c>
       <c r="I72" s="3">
-        <v>849900</v>
+        <v>812500</v>
       </c>
       <c r="J72" s="3">
-        <v>770900</v>
+        <v>737000</v>
       </c>
       <c r="K72" s="3">
         <v>433700</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2913400</v>
+        <v>2785200</v>
       </c>
       <c r="E76" s="3">
-        <v>2849500</v>
+        <v>2724100</v>
       </c>
       <c r="F76" s="3">
-        <v>2774800</v>
+        <v>2652700</v>
       </c>
       <c r="G76" s="3">
-        <v>2916200</v>
+        <v>2787900</v>
       </c>
       <c r="H76" s="3">
-        <v>2631000</v>
+        <v>2515300</v>
       </c>
       <c r="I76" s="3">
-        <v>2454800</v>
+        <v>2346800</v>
       </c>
       <c r="J76" s="3">
-        <v>2859400</v>
+        <v>2733600</v>
       </c>
       <c r="K76" s="3">
         <v>672100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-53800</v>
+        <v>-51400</v>
       </c>
       <c r="E81" s="3">
-        <v>-707700</v>
+        <v>-676500</v>
       </c>
       <c r="F81" s="3">
-        <v>-345100</v>
+        <v>-329900</v>
       </c>
       <c r="G81" s="3">
-        <v>-130900</v>
+        <v>-125200</v>
       </c>
       <c r="H81" s="3">
-        <v>166500</v>
+        <v>159200</v>
       </c>
       <c r="I81" s="3">
-        <v>114600</v>
+        <v>109500</v>
       </c>
       <c r="J81" s="3">
-        <v>47300</v>
+        <v>45200</v>
       </c>
       <c r="K81" s="3">
         <v>59800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>220400</v>
+        <v>210700</v>
       </c>
       <c r="E83" s="3">
-        <v>303000</v>
+        <v>289600</v>
       </c>
       <c r="F83" s="3">
-        <v>162600</v>
+        <v>155500</v>
       </c>
       <c r="G83" s="3">
-        <v>194700</v>
+        <v>186100</v>
       </c>
       <c r="H83" s="3">
-        <v>214500</v>
+        <v>205100</v>
       </c>
       <c r="I83" s="3">
-        <v>249700</v>
+        <v>238700</v>
       </c>
       <c r="J83" s="3">
-        <v>210000</v>
+        <v>200800</v>
       </c>
       <c r="K83" s="3">
         <v>51100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>558400</v>
+        <v>533800</v>
       </c>
       <c r="E89" s="3">
-        <v>-1274500</v>
+        <v>-1218400</v>
       </c>
       <c r="F89" s="3">
-        <v>733800</v>
+        <v>701500</v>
       </c>
       <c r="G89" s="3">
-        <v>785300</v>
+        <v>750700</v>
       </c>
       <c r="H89" s="3">
-        <v>488700</v>
+        <v>467200</v>
       </c>
       <c r="I89" s="3">
-        <v>-60500</v>
+        <v>-57800</v>
       </c>
       <c r="J89" s="3">
-        <v>710900</v>
+        <v>679700</v>
       </c>
       <c r="K89" s="3">
         <v>86100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-107600</v>
+        <v>-102900</v>
       </c>
       <c r="E91" s="3">
-        <v>-102400</v>
+        <v>-97900</v>
       </c>
       <c r="F91" s="3">
-        <v>-221100</v>
+        <v>-211400</v>
       </c>
       <c r="G91" s="3">
-        <v>-110600</v>
+        <v>-105700</v>
       </c>
       <c r="H91" s="3">
-        <v>-149300</v>
+        <v>-142700</v>
       </c>
       <c r="I91" s="3">
-        <v>-264600</v>
+        <v>-253000</v>
       </c>
       <c r="J91" s="3">
-        <v>-223300</v>
+        <v>-213500</v>
       </c>
       <c r="K91" s="3">
         <v>-50600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-154600</v>
+        <v>-147800</v>
       </c>
       <c r="E94" s="3">
-        <v>-184600</v>
+        <v>-176500</v>
       </c>
       <c r="F94" s="3">
-        <v>310900</v>
+        <v>297200</v>
       </c>
       <c r="G94" s="3">
-        <v>-374800</v>
+        <v>-358300</v>
       </c>
       <c r="H94" s="3">
-        <v>-677800</v>
+        <v>-648000</v>
       </c>
       <c r="I94" s="3">
-        <v>-661900</v>
+        <v>-632800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1009300</v>
+        <v>-964800</v>
       </c>
       <c r="K94" s="3">
         <v>-119900</v>
@@ -3773,16 +3773,16 @@
         <v>-1400</v>
       </c>
       <c r="G96" s="3">
-        <v>-27300</v>
+        <v>-26100</v>
       </c>
       <c r="H96" s="3">
-        <v>-33900</v>
+        <v>-32400</v>
       </c>
       <c r="I96" s="3">
-        <v>-19500</v>
+        <v>-18700</v>
       </c>
       <c r="J96" s="3">
-        <v>-35700</v>
+        <v>-34100</v>
       </c>
       <c r="K96" s="3">
         <v>-17700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-465800</v>
+        <v>-445300</v>
       </c>
       <c r="E100" s="3">
-        <v>1025800</v>
+        <v>980700</v>
       </c>
       <c r="F100" s="3">
-        <v>-200900</v>
+        <v>-192000</v>
       </c>
       <c r="G100" s="3">
-        <v>-369100</v>
+        <v>-352800</v>
       </c>
       <c r="H100" s="3">
-        <v>216000</v>
+        <v>206500</v>
       </c>
       <c r="I100" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="J100" s="3">
-        <v>760700</v>
+        <v>727200</v>
       </c>
       <c r="K100" s="3">
         <v>59500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>154800</v>
+        <v>148000</v>
       </c>
       <c r="E101" s="3">
-        <v>528100</v>
+        <v>504800</v>
       </c>
       <c r="F101" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="G101" s="3">
-        <v>107200</v>
+        <v>102500</v>
       </c>
       <c r="H101" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="I101" s="3">
-        <v>-143500</v>
+        <v>-137100</v>
       </c>
       <c r="J101" s="3">
-        <v>301900</v>
+        <v>288600</v>
       </c>
       <c r="K101" s="3">
         <v>-20500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>92800</v>
+        <v>88700</v>
       </c>
       <c r="E102" s="3">
-        <v>94800</v>
+        <v>90600</v>
       </c>
       <c r="F102" s="3">
-        <v>849100</v>
+        <v>811700</v>
       </c>
       <c r="G102" s="3">
-        <v>148600</v>
+        <v>142100</v>
       </c>
       <c r="H102" s="3">
-        <v>30800</v>
+        <v>29500</v>
       </c>
       <c r="I102" s="3">
-        <v>-863000</v>
+        <v>-825000</v>
       </c>
       <c r="J102" s="3">
-        <v>764300</v>
+        <v>730700</v>
       </c>
       <c r="K102" s="3">
         <v>5200</v>

--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>ERJ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4241300</v>
+        <v>4540400</v>
       </c>
       <c r="E8" s="3">
-        <v>3674800</v>
+        <v>4389500</v>
       </c>
       <c r="F8" s="3">
-        <v>4079000</v>
+        <v>3803200</v>
       </c>
       <c r="G8" s="3">
-        <v>1475800</v>
+        <v>4221500</v>
       </c>
       <c r="H8" s="3">
-        <v>3512800</v>
+        <v>1527400</v>
       </c>
       <c r="I8" s="3">
-        <v>4010400</v>
+        <v>3635600</v>
       </c>
       <c r="J8" s="3">
+        <v>4150600</v>
+      </c>
+      <c r="K8" s="3">
         <v>3798300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1122700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1104000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1440100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1436600</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3586800</v>
+        <v>3628400</v>
       </c>
       <c r="E9" s="3">
-        <v>3228000</v>
+        <v>3712200</v>
       </c>
       <c r="F9" s="3">
-        <v>3488300</v>
+        <v>3340900</v>
       </c>
       <c r="G9" s="3">
-        <v>1342600</v>
+        <v>3610200</v>
       </c>
       <c r="H9" s="3">
-        <v>2855500</v>
+        <v>1389500</v>
       </c>
       <c r="I9" s="3">
-        <v>3211600</v>
+        <v>2955300</v>
       </c>
       <c r="J9" s="3">
+        <v>3323900</v>
+      </c>
+      <c r="K9" s="3">
         <v>3095500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1707300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2185300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2228700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>654400</v>
+        <v>912000</v>
       </c>
       <c r="E10" s="3">
-        <v>446700</v>
+        <v>677300</v>
       </c>
       <c r="F10" s="3">
-        <v>590700</v>
+        <v>462400</v>
       </c>
       <c r="G10" s="3">
-        <v>133200</v>
+        <v>611300</v>
       </c>
       <c r="H10" s="3">
-        <v>657400</v>
+        <v>137900</v>
       </c>
       <c r="I10" s="3">
-        <v>798800</v>
+        <v>680300</v>
       </c>
       <c r="J10" s="3">
+        <v>826700</v>
+      </c>
+      <c r="K10" s="3">
         <v>702800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>222400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-603200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-745100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-792100</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>43700</v>
+        <v>109700</v>
       </c>
       <c r="E12" s="3">
-        <v>29000</v>
+        <v>45200</v>
       </c>
       <c r="F12" s="3">
-        <v>36700</v>
+        <v>30000</v>
       </c>
       <c r="G12" s="3">
-        <v>13300</v>
+        <v>38000</v>
       </c>
       <c r="H12" s="3">
-        <v>29500</v>
+        <v>13700</v>
       </c>
       <c r="I12" s="3">
-        <v>30300</v>
+        <v>30500</v>
       </c>
       <c r="J12" s="3">
+        <v>31400</v>
+      </c>
+      <c r="K12" s="3">
         <v>26600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21200</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,59 +944,65 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>2900</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
-        <v>47200</v>
+        <v>3000</v>
       </c>
       <c r="F14" s="3">
-        <v>9500</v>
+        <v>48900</v>
       </c>
       <c r="G14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>-700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-4100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-4700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>101500</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>105100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -997,18 +1019,21 @@
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3">
         <v>2600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>7900</v>
       </c>
       <c r="N15" s="3">
         <v>7900</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>4043900</v>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="3">
-        <v>3989300</v>
+        <v>4185300</v>
       </c>
       <c r="F17" s="3">
-        <v>4136900</v>
+        <v>4128700</v>
       </c>
       <c r="G17" s="3">
-        <v>1675900</v>
+        <v>4281500</v>
       </c>
       <c r="H17" s="3">
-        <v>3308200</v>
+        <v>1734500</v>
       </c>
       <c r="I17" s="3">
-        <v>3876100</v>
+        <v>3423800</v>
       </c>
       <c r="J17" s="3">
+        <v>4011600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3591900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1025700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>977700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1297200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1357700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>197300</v>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="3">
-        <v>-314500</v>
+        <v>204200</v>
       </c>
       <c r="F18" s="3">
-        <v>-58000</v>
+        <v>-325500</v>
       </c>
       <c r="G18" s="3">
-        <v>-200100</v>
+        <v>-60000</v>
       </c>
       <c r="H18" s="3">
-        <v>204700</v>
+        <v>-207100</v>
       </c>
       <c r="I18" s="3">
-        <v>134300</v>
+        <v>211800</v>
       </c>
       <c r="J18" s="3">
+        <v>139000</v>
+      </c>
+      <c r="K18" s="3">
         <v>206400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>97000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>126300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>142900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>78900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>68500</v>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3">
-        <v>-96300</v>
+        <v>70900</v>
       </c>
       <c r="F20" s="3">
-        <v>68000</v>
+        <v>-99700</v>
       </c>
       <c r="G20" s="3">
-        <v>27600</v>
+        <v>70400</v>
       </c>
       <c r="H20" s="3">
-        <v>108900</v>
+        <v>28600</v>
       </c>
       <c r="I20" s="3">
-        <v>89100</v>
+        <v>112700</v>
       </c>
       <c r="J20" s="3">
+        <v>92200</v>
+      </c>
+      <c r="K20" s="3">
         <v>104900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>26900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>483000</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>-112400</v>
+        <v>576000</v>
       </c>
       <c r="F21" s="3">
-        <v>170300</v>
+        <v>-263700</v>
       </c>
       <c r="G21" s="3">
-        <v>19300</v>
+        <v>203800</v>
       </c>
       <c r="H21" s="3">
-        <v>525000</v>
+        <v>34500</v>
       </c>
       <c r="I21" s="3">
-        <v>469400</v>
+        <v>572500</v>
       </c>
       <c r="J21" s="3">
+        <v>439800</v>
+      </c>
+      <c r="K21" s="3">
         <v>518300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>164700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>181100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>235600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>144800</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>243100</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
-        <v>208800</v>
+        <v>251600</v>
       </c>
       <c r="F22" s="3">
-        <v>148700</v>
+        <v>216100</v>
       </c>
       <c r="G22" s="3">
-        <v>26600</v>
+        <v>153900</v>
       </c>
       <c r="H22" s="3">
-        <v>128600</v>
+        <v>27600</v>
       </c>
       <c r="I22" s="3">
-        <v>119400</v>
+        <v>133100</v>
       </c>
       <c r="J22" s="3">
+        <v>123500</v>
+      </c>
+      <c r="K22" s="3">
         <v>105200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>22700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>22700</v>
+        <v>-205800</v>
       </c>
       <c r="E23" s="3">
-        <v>-619700</v>
+        <v>23500</v>
       </c>
       <c r="F23" s="3">
-        <v>-138600</v>
+        <v>-641300</v>
       </c>
       <c r="G23" s="3">
-        <v>-199100</v>
+        <v>-143400</v>
       </c>
       <c r="H23" s="3">
-        <v>185000</v>
+        <v>-206100</v>
       </c>
       <c r="I23" s="3">
-        <v>104000</v>
+        <v>191400</v>
       </c>
       <c r="J23" s="3">
+        <v>107600</v>
+      </c>
+      <c r="K23" s="3">
         <v>206200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>90000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>106700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>143300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>61500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>72800</v>
+        <v>-3000</v>
       </c>
       <c r="E24" s="3">
-        <v>53100</v>
+        <v>75300</v>
       </c>
       <c r="F24" s="3">
-        <v>103500</v>
+        <v>55000</v>
       </c>
       <c r="G24" s="3">
-        <v>-16500</v>
+        <v>107100</v>
       </c>
       <c r="H24" s="3">
-        <v>16100</v>
+        <v>-17000</v>
       </c>
       <c r="I24" s="3">
-        <v>-6700</v>
+        <v>16700</v>
       </c>
       <c r="J24" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K24" s="3">
         <v>153500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>61900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>31600</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-50100</v>
+        <v>-202800</v>
       </c>
       <c r="E26" s="3">
-        <v>-672800</v>
+        <v>-51800</v>
       </c>
       <c r="F26" s="3">
-        <v>-242100</v>
+        <v>-696300</v>
       </c>
       <c r="G26" s="3">
-        <v>-182700</v>
+        <v>-250600</v>
       </c>
       <c r="H26" s="3">
-        <v>168800</v>
+        <v>-189100</v>
       </c>
       <c r="I26" s="3">
-        <v>110700</v>
+        <v>174700</v>
       </c>
       <c r="J26" s="3">
+        <v>114600</v>
+      </c>
+      <c r="K26" s="3">
         <v>52700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>62100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>61300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>81400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>29900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-51400</v>
+        <v>-184700</v>
       </c>
       <c r="E27" s="3">
-        <v>-676500</v>
+        <v>-53200</v>
       </c>
       <c r="F27" s="3">
-        <v>-246400</v>
+        <v>-700200</v>
       </c>
       <c r="G27" s="3">
-        <v>-187400</v>
+        <v>-255000</v>
       </c>
       <c r="H27" s="3">
-        <v>159200</v>
+        <v>-194000</v>
       </c>
       <c r="I27" s="3">
-        <v>109500</v>
+        <v>164700</v>
       </c>
       <c r="J27" s="3">
+        <v>113400</v>
+      </c>
+      <c r="K27" s="3">
         <v>45200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>59800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>81200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>27700</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,14 +1538,14 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>-83500</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="3">
-        <v>62300</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
+        <v>-86400</v>
+      </c>
+      <c r="H29" s="3">
+        <v>64500</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1499,15 +1559,18 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-68500</v>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E32" s="3">
-        <v>96300</v>
+        <v>-70900</v>
       </c>
       <c r="F32" s="3">
-        <v>-68000</v>
+        <v>99700</v>
       </c>
       <c r="G32" s="3">
-        <v>-27600</v>
+        <v>-70400</v>
       </c>
       <c r="H32" s="3">
-        <v>-108900</v>
+        <v>-28600</v>
       </c>
       <c r="I32" s="3">
-        <v>-89100</v>
+        <v>-112700</v>
       </c>
       <c r="J32" s="3">
+        <v>-92200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-104900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-26900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-51400</v>
+        <v>-184700</v>
       </c>
       <c r="E33" s="3">
-        <v>-676500</v>
+        <v>-53200</v>
       </c>
       <c r="F33" s="3">
-        <v>-329900</v>
+        <v>-700200</v>
       </c>
       <c r="G33" s="3">
-        <v>-125200</v>
+        <v>-341400</v>
       </c>
       <c r="H33" s="3">
-        <v>159200</v>
+        <v>-129500</v>
       </c>
       <c r="I33" s="3">
-        <v>109500</v>
+        <v>164700</v>
       </c>
       <c r="J33" s="3">
+        <v>113400</v>
+      </c>
+      <c r="K33" s="3">
         <v>45200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>59800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>81200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27700</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-51400</v>
+        <v>-184700</v>
       </c>
       <c r="E35" s="3">
-        <v>-676500</v>
+        <v>-53200</v>
       </c>
       <c r="F35" s="3">
-        <v>-329900</v>
+        <v>-700200</v>
       </c>
       <c r="G35" s="3">
-        <v>-125200</v>
+        <v>-341400</v>
       </c>
       <c r="H35" s="3">
-        <v>159200</v>
+        <v>-129500</v>
       </c>
       <c r="I35" s="3">
-        <v>109500</v>
+        <v>164700</v>
       </c>
       <c r="J35" s="3">
+        <v>113400</v>
+      </c>
+      <c r="K35" s="3">
         <v>45200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>59800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>81200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27700</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1898400</v>
+        <v>1835600</v>
       </c>
       <c r="E41" s="3">
-        <v>1830900</v>
+        <v>1964800</v>
       </c>
       <c r="F41" s="3">
-        <v>644900</v>
+        <v>1894900</v>
       </c>
       <c r="G41" s="3">
-        <v>928500</v>
+        <v>667400</v>
       </c>
       <c r="H41" s="3">
-        <v>786500</v>
+        <v>961000</v>
       </c>
       <c r="I41" s="3">
-        <v>757000</v>
+        <v>814000</v>
       </c>
       <c r="J41" s="3">
+        <v>783500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1582000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>305800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>298100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>840300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>669300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>783900</v>
+        <v>499500</v>
       </c>
       <c r="E42" s="3">
-        <v>794800</v>
+        <v>811300</v>
       </c>
       <c r="F42" s="3">
-        <v>309000</v>
+        <v>822600</v>
       </c>
       <c r="G42" s="3">
-        <v>1263800</v>
+        <v>319800</v>
       </c>
       <c r="H42" s="3">
-        <v>1521700</v>
+        <v>1308000</v>
       </c>
       <c r="I42" s="3">
-        <v>1082600</v>
+        <v>1574900</v>
       </c>
       <c r="J42" s="3">
+        <v>1120500</v>
+      </c>
+      <c r="K42" s="3">
         <v>454900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>129300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>168100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>275300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>376900</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>974000</v>
+        <v>951000</v>
       </c>
       <c r="E43" s="3">
-        <v>818500</v>
+        <v>1008000</v>
       </c>
       <c r="F43" s="3">
-        <v>581000</v>
+        <v>847100</v>
       </c>
       <c r="G43" s="3">
-        <v>786300</v>
+        <v>601300</v>
       </c>
       <c r="H43" s="3">
-        <v>699100</v>
+        <v>813800</v>
       </c>
       <c r="I43" s="3">
-        <v>592600</v>
+        <v>723600</v>
       </c>
       <c r="J43" s="3">
+        <v>613300</v>
+      </c>
+      <c r="K43" s="3">
         <v>790300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>141900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>228500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>257700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>260700</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2073500</v>
+        <v>2353000</v>
       </c>
       <c r="E44" s="3">
-        <v>2377200</v>
+        <v>2145900</v>
       </c>
       <c r="F44" s="3">
-        <v>983700</v>
+        <v>2460300</v>
       </c>
       <c r="G44" s="3">
-        <v>1817400</v>
+        <v>1018100</v>
       </c>
       <c r="H44" s="3">
-        <v>1329800</v>
+        <v>1881000</v>
       </c>
       <c r="I44" s="3">
-        <v>1522200</v>
+        <v>1376300</v>
       </c>
       <c r="J44" s="3">
+        <v>1575400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1690900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>429400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>405000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>604900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1132900</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>404900</v>
+        <v>176900</v>
       </c>
       <c r="E45" s="3">
-        <v>131600</v>
+        <v>419100</v>
       </c>
       <c r="F45" s="3">
-        <v>3945100</v>
+        <v>136200</v>
       </c>
       <c r="G45" s="3">
-        <v>329800</v>
+        <v>4083000</v>
       </c>
       <c r="H45" s="3">
-        <v>101700</v>
+        <v>341400</v>
       </c>
       <c r="I45" s="3">
-        <v>180700</v>
+        <v>105200</v>
       </c>
       <c r="J45" s="3">
+        <v>187000</v>
+      </c>
+      <c r="K45" s="3">
         <v>165900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>75500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>124100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>123600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6134700</v>
+        <v>5816000</v>
       </c>
       <c r="E46" s="3">
-        <v>5953000</v>
+        <v>6349200</v>
       </c>
       <c r="F46" s="3">
-        <v>6463700</v>
+        <v>6161100</v>
       </c>
       <c r="G46" s="3">
-        <v>5126000</v>
+        <v>6689700</v>
       </c>
       <c r="H46" s="3">
-        <v>4381500</v>
+        <v>5305200</v>
       </c>
       <c r="I46" s="3">
-        <v>4135100</v>
+        <v>4534700</v>
       </c>
       <c r="J46" s="3">
+        <v>4279600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4684000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1037300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1021300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1251400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1281100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>161200</v>
+        <v>297300</v>
       </c>
       <c r="E47" s="3">
-        <v>132300</v>
+        <v>166800</v>
       </c>
       <c r="F47" s="3">
-        <v>44400</v>
+        <v>136900</v>
       </c>
       <c r="G47" s="3">
-        <v>180200</v>
+        <v>46000</v>
       </c>
       <c r="H47" s="3">
-        <v>413000</v>
+        <v>186500</v>
       </c>
       <c r="I47" s="3">
-        <v>277700</v>
+        <v>427500</v>
       </c>
       <c r="J47" s="3">
+        <v>287400</v>
+      </c>
+      <c r="K47" s="3">
         <v>849100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>93700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>94100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>262900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>308400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1824800</v>
+        <v>1732000</v>
       </c>
       <c r="E48" s="3">
-        <v>1962200</v>
+        <v>1888600</v>
       </c>
       <c r="F48" s="3">
-        <v>759200</v>
+        <v>2030800</v>
       </c>
       <c r="G48" s="3">
-        <v>1424300</v>
+        <v>785700</v>
       </c>
       <c r="H48" s="3">
-        <v>1302700</v>
+        <v>1474000</v>
       </c>
       <c r="I48" s="3">
-        <v>1313500</v>
+        <v>1348200</v>
       </c>
       <c r="J48" s="3">
+        <v>1359400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1481100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>361600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>353000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>325200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>271600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2310900</v>
+        <v>2269600</v>
       </c>
       <c r="E49" s="3">
-        <v>2018000</v>
+        <v>2391700</v>
       </c>
       <c r="F49" s="3">
-        <v>674300</v>
+        <v>2088500</v>
       </c>
       <c r="G49" s="3">
-        <v>1376500</v>
+        <v>697800</v>
       </c>
       <c r="H49" s="3">
-        <v>1165000</v>
+        <v>1424600</v>
       </c>
       <c r="I49" s="3">
-        <v>1015000</v>
+        <v>1205800</v>
       </c>
       <c r="J49" s="3">
+        <v>1050500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1026700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>225100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>196400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>447800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>401000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>170800</v>
+        <v>132300</v>
       </c>
       <c r="E52" s="3">
-        <v>165600</v>
+        <v>176700</v>
       </c>
       <c r="F52" s="3">
-        <v>31200</v>
+        <v>171400</v>
       </c>
       <c r="G52" s="3">
-        <v>79900</v>
+        <v>32300</v>
       </c>
       <c r="H52" s="3">
-        <v>304300</v>
+        <v>82700</v>
       </c>
       <c r="I52" s="3">
-        <v>371200</v>
+        <v>314900</v>
       </c>
       <c r="J52" s="3">
+        <v>384200</v>
+      </c>
+      <c r="K52" s="3">
         <v>484300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>140800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>131200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>382800</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10602400</v>
+        <v>10246600</v>
       </c>
       <c r="E54" s="3">
-        <v>10231100</v>
+        <v>10973100</v>
       </c>
       <c r="F54" s="3">
-        <v>7972800</v>
+        <v>10588800</v>
       </c>
       <c r="G54" s="3">
-        <v>8186800</v>
+        <v>8251500</v>
       </c>
       <c r="H54" s="3">
-        <v>7411000</v>
+        <v>8473000</v>
       </c>
       <c r="I54" s="3">
-        <v>7112500</v>
+        <v>7670000</v>
       </c>
       <c r="J54" s="3">
+        <v>7361200</v>
+      </c>
+      <c r="K54" s="3">
         <v>8525100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1858600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1795900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2214000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2195200</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>532500</v>
+        <v>774800</v>
       </c>
       <c r="E57" s="3">
-        <v>488300</v>
+        <v>551100</v>
       </c>
       <c r="F57" s="3">
-        <v>270000</v>
+        <v>505400</v>
       </c>
       <c r="G57" s="3">
-        <v>646700</v>
+        <v>279400</v>
       </c>
       <c r="H57" s="3">
-        <v>510400</v>
+        <v>669300</v>
       </c>
       <c r="I57" s="3">
-        <v>580500</v>
+        <v>528200</v>
       </c>
       <c r="J57" s="3">
+        <v>600800</v>
+      </c>
+      <c r="K57" s="3">
         <v>756100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>175100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>179500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>354400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>411600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>611500</v>
+        <v>323800</v>
       </c>
       <c r="E58" s="3">
-        <v>376200</v>
+        <v>632900</v>
       </c>
       <c r="F58" s="3">
-        <v>15000</v>
+        <v>389300</v>
       </c>
       <c r="G58" s="3">
-        <v>130000</v>
+        <v>15500</v>
       </c>
       <c r="H58" s="3">
-        <v>240700</v>
+        <v>134500</v>
       </c>
       <c r="I58" s="3">
-        <v>311200</v>
+        <v>249100</v>
       </c>
       <c r="J58" s="3">
+        <v>322000</v>
+      </c>
+      <c r="K58" s="3">
         <v>160200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>16200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>162600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>280100</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1809500</v>
+        <v>2151800</v>
       </c>
       <c r="E59" s="3">
-        <v>1496900</v>
+        <v>1872800</v>
       </c>
       <c r="F59" s="3">
-        <v>4530800</v>
+        <v>1549200</v>
       </c>
       <c r="G59" s="3">
-        <v>1418800</v>
+        <v>4689200</v>
       </c>
       <c r="H59" s="3">
-        <v>1505000</v>
+        <v>1468400</v>
       </c>
       <c r="I59" s="3">
-        <v>1047900</v>
+        <v>1557700</v>
       </c>
       <c r="J59" s="3">
+        <v>1084500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1334200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>262800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>316500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>786300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>717400</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2953500</v>
+        <v>3250400</v>
       </c>
       <c r="E60" s="3">
-        <v>2361300</v>
+        <v>3056800</v>
       </c>
       <c r="F60" s="3">
-        <v>4815700</v>
+        <v>2443900</v>
       </c>
       <c r="G60" s="3">
-        <v>2195500</v>
+        <v>4984000</v>
       </c>
       <c r="H60" s="3">
-        <v>1734900</v>
+        <v>2272200</v>
       </c>
       <c r="I60" s="3">
-        <v>1939600</v>
+        <v>1795500</v>
       </c>
       <c r="J60" s="3">
+        <v>2007400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2250500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>455700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>512200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>651200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>704200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3659400</v>
+        <v>2984100</v>
       </c>
       <c r="E61" s="3">
-        <v>4011300</v>
+        <v>3787300</v>
       </c>
       <c r="F61" s="3">
-        <v>82700</v>
+        <v>4151500</v>
       </c>
       <c r="G61" s="3">
-        <v>2514400</v>
+        <v>85600</v>
       </c>
       <c r="H61" s="3">
-        <v>2357700</v>
+        <v>2602300</v>
       </c>
       <c r="I61" s="3">
-        <v>1981400</v>
+        <v>2440200</v>
       </c>
       <c r="J61" s="3">
+        <v>2050700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2418900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>501300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>443200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>494700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>386000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1092500</v>
+        <v>1158600</v>
       </c>
       <c r="E62" s="3">
-        <v>1024900</v>
+        <v>1130600</v>
       </c>
       <c r="F62" s="3">
-        <v>348600</v>
+        <v>1060800</v>
       </c>
       <c r="G62" s="3">
-        <v>620700</v>
+        <v>360800</v>
       </c>
       <c r="H62" s="3">
-        <v>797300</v>
+        <v>642400</v>
       </c>
       <c r="I62" s="3">
-        <v>788300</v>
+        <v>825100</v>
       </c>
       <c r="J62" s="3">
+        <v>815900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1047700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>211600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>197300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>572700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>678900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7817200</v>
+        <v>7652600</v>
       </c>
       <c r="E66" s="3">
-        <v>7507000</v>
+        <v>8090500</v>
       </c>
       <c r="F66" s="3">
-        <v>5320000</v>
+        <v>7769500</v>
       </c>
       <c r="G66" s="3">
-        <v>5399000</v>
+        <v>5506000</v>
       </c>
       <c r="H66" s="3">
-        <v>4895700</v>
+        <v>5587700</v>
       </c>
       <c r="I66" s="3">
-        <v>4765800</v>
+        <v>5066800</v>
       </c>
       <c r="J66" s="3">
+        <v>4932400</v>
+      </c>
+      <c r="K66" s="3">
         <v>5791500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1186500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1170200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1453100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1449100</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-266200</v>
+        <v>-386900</v>
       </c>
       <c r="E72" s="3">
-        <v>-214800</v>
+        <v>-275500</v>
       </c>
       <c r="F72" s="3">
-        <v>466200</v>
+        <v>-222300</v>
       </c>
       <c r="G72" s="3">
-        <v>713700</v>
+        <v>482500</v>
       </c>
       <c r="H72" s="3">
-        <v>918800</v>
+        <v>738600</v>
       </c>
       <c r="I72" s="3">
-        <v>812500</v>
+        <v>950900</v>
       </c>
       <c r="J72" s="3">
+        <v>840900</v>
+      </c>
+      <c r="K72" s="3">
         <v>737000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>433700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>390500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>924900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>862000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2785200</v>
+        <v>2594000</v>
       </c>
       <c r="E76" s="3">
-        <v>2724100</v>
+        <v>2882600</v>
       </c>
       <c r="F76" s="3">
-        <v>2652700</v>
+        <v>2819300</v>
       </c>
       <c r="G76" s="3">
-        <v>2787900</v>
+        <v>2745500</v>
       </c>
       <c r="H76" s="3">
-        <v>2515300</v>
+        <v>2885300</v>
       </c>
       <c r="I76" s="3">
-        <v>2346800</v>
+        <v>2603200</v>
       </c>
       <c r="J76" s="3">
+        <v>2428800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2733600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>672100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>625700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>760900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>746100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-51400</v>
+        <v>-184700</v>
       </c>
       <c r="E81" s="3">
-        <v>-676500</v>
+        <v>-53200</v>
       </c>
       <c r="F81" s="3">
-        <v>-329900</v>
+        <v>-700200</v>
       </c>
       <c r="G81" s="3">
-        <v>-125200</v>
+        <v>-341400</v>
       </c>
       <c r="H81" s="3">
-        <v>159200</v>
+        <v>-129500</v>
       </c>
       <c r="I81" s="3">
-        <v>109500</v>
+        <v>164700</v>
       </c>
       <c r="J81" s="3">
+        <v>113400</v>
+      </c>
+      <c r="K81" s="3">
         <v>45200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>59800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>81200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27700</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>210700</v>
+        <v>210200</v>
       </c>
       <c r="E83" s="3">
-        <v>289600</v>
+        <v>218100</v>
       </c>
       <c r="F83" s="3">
-        <v>155500</v>
+        <v>299800</v>
       </c>
       <c r="G83" s="3">
-        <v>186100</v>
+        <v>160900</v>
       </c>
       <c r="H83" s="3">
-        <v>205100</v>
+        <v>192600</v>
       </c>
       <c r="I83" s="3">
-        <v>238700</v>
+        <v>212300</v>
       </c>
       <c r="J83" s="3">
+        <v>247100</v>
+      </c>
+      <c r="K83" s="3">
         <v>200800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>51100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>51500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>65100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>59200</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>533800</v>
+        <v>743700</v>
       </c>
       <c r="E89" s="3">
-        <v>-1218400</v>
+        <v>552500</v>
       </c>
       <c r="F89" s="3">
-        <v>701500</v>
+        <v>-1261000</v>
       </c>
       <c r="G89" s="3">
-        <v>750700</v>
+        <v>726000</v>
       </c>
       <c r="H89" s="3">
-        <v>467200</v>
+        <v>777000</v>
       </c>
       <c r="I89" s="3">
-        <v>-57800</v>
+        <v>483500</v>
       </c>
       <c r="J89" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="K89" s="3">
         <v>679700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>86100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>161800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>119100</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-102900</v>
+        <v>-135900</v>
       </c>
       <c r="E91" s="3">
-        <v>-97900</v>
+        <v>-106500</v>
       </c>
       <c r="F91" s="3">
-        <v>-211400</v>
+        <v>-101400</v>
       </c>
       <c r="G91" s="3">
-        <v>-105700</v>
+        <v>-218800</v>
       </c>
       <c r="H91" s="3">
-        <v>-142700</v>
+        <v>-109400</v>
       </c>
       <c r="I91" s="3">
-        <v>-253000</v>
+        <v>-147700</v>
       </c>
       <c r="J91" s="3">
+        <v>-261800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-213500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-50600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-77500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-76600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-136900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-147800</v>
+        <v>-115100</v>
       </c>
       <c r="E94" s="3">
-        <v>-176500</v>
+        <v>-153000</v>
       </c>
       <c r="F94" s="3">
-        <v>297200</v>
+        <v>-182700</v>
       </c>
       <c r="G94" s="3">
-        <v>-358300</v>
+        <v>307600</v>
       </c>
       <c r="H94" s="3">
-        <v>-648000</v>
+        <v>-370900</v>
       </c>
       <c r="I94" s="3">
-        <v>-632800</v>
+        <v>-670600</v>
       </c>
       <c r="J94" s="3">
+        <v>-654900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-964800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-119900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-135300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-144200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-149300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3770,35 +4003,38 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1400</v>
       </c>
-      <c r="G96" s="3">
-        <v>-26100</v>
-      </c>
       <c r="H96" s="3">
-        <v>-32400</v>
+        <v>-27000</v>
       </c>
       <c r="I96" s="3">
-        <v>-18700</v>
+        <v>-33500</v>
       </c>
       <c r="J96" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-34100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-17700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-12600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-13900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-45500</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-445300</v>
+        <v>-653300</v>
       </c>
       <c r="E100" s="3">
-        <v>980700</v>
+        <v>-460800</v>
       </c>
       <c r="F100" s="3">
-        <v>-192000</v>
+        <v>1015000</v>
       </c>
       <c r="G100" s="3">
-        <v>-352800</v>
+        <v>-198700</v>
       </c>
       <c r="H100" s="3">
-        <v>206500</v>
+        <v>-365200</v>
       </c>
       <c r="I100" s="3">
-        <v>2700</v>
+        <v>213800</v>
       </c>
       <c r="J100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K100" s="3">
         <v>727200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>59500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>34100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>98600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>23900</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>148000</v>
+        <v>-127600</v>
       </c>
       <c r="E101" s="3">
-        <v>504800</v>
+        <v>153200</v>
       </c>
       <c r="F101" s="3">
-        <v>5000</v>
+        <v>522500</v>
       </c>
       <c r="G101" s="3">
-        <v>102500</v>
+        <v>5200</v>
       </c>
       <c r="H101" s="3">
-        <v>3700</v>
+        <v>106100</v>
       </c>
       <c r="I101" s="3">
-        <v>-137100</v>
+        <v>3900</v>
       </c>
       <c r="J101" s="3">
+        <v>-141900</v>
+      </c>
+      <c r="K101" s="3">
         <v>288600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-20500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-18800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4900</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>88700</v>
+        <v>-152400</v>
       </c>
       <c r="E102" s="3">
-        <v>90600</v>
+        <v>91800</v>
       </c>
       <c r="F102" s="3">
-        <v>811700</v>
+        <v>93800</v>
       </c>
       <c r="G102" s="3">
-        <v>142100</v>
+        <v>840100</v>
       </c>
       <c r="H102" s="3">
-        <v>29500</v>
+        <v>147000</v>
       </c>
       <c r="I102" s="3">
-        <v>-825000</v>
+        <v>30500</v>
       </c>
       <c r="J102" s="3">
+        <v>-853800</v>
+      </c>
+      <c r="K102" s="3">
         <v>730700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>104900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11200</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>ERJ</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4540400</v>
+        <v>4722600</v>
       </c>
       <c r="E8" s="3">
-        <v>4389500</v>
+        <v>4565700</v>
       </c>
       <c r="F8" s="3">
-        <v>3803200</v>
+        <v>3955900</v>
       </c>
       <c r="G8" s="3">
-        <v>4221500</v>
+        <v>4390900</v>
       </c>
       <c r="H8" s="3">
-        <v>1527400</v>
+        <v>1588600</v>
       </c>
       <c r="I8" s="3">
-        <v>3635600</v>
+        <v>3781500</v>
       </c>
       <c r="J8" s="3">
-        <v>4150600</v>
+        <v>4317100</v>
       </c>
       <c r="K8" s="3">
         <v>3798300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3628400</v>
+        <v>3779800</v>
       </c>
       <c r="E9" s="3">
-        <v>3712200</v>
+        <v>3861200</v>
       </c>
       <c r="F9" s="3">
-        <v>3340900</v>
+        <v>3474900</v>
       </c>
       <c r="G9" s="3">
-        <v>3610200</v>
+        <v>3755100</v>
       </c>
       <c r="H9" s="3">
-        <v>1389500</v>
+        <v>1445300</v>
       </c>
       <c r="I9" s="3">
-        <v>2955300</v>
+        <v>3073900</v>
       </c>
       <c r="J9" s="3">
-        <v>3323900</v>
+        <v>3457300</v>
       </c>
       <c r="K9" s="3">
         <v>3095500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>912000</v>
+        <v>942700</v>
       </c>
       <c r="E10" s="3">
-        <v>677300</v>
+        <v>704500</v>
       </c>
       <c r="F10" s="3">
-        <v>462400</v>
+        <v>480900</v>
       </c>
       <c r="G10" s="3">
-        <v>611300</v>
+        <v>635800</v>
       </c>
       <c r="H10" s="3">
-        <v>137900</v>
+        <v>143400</v>
       </c>
       <c r="I10" s="3">
-        <v>680300</v>
+        <v>707600</v>
       </c>
       <c r="J10" s="3">
-        <v>826700</v>
+        <v>859900</v>
       </c>
       <c r="K10" s="3">
         <v>702800</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>109700</v>
+        <v>114100</v>
       </c>
       <c r="E12" s="3">
-        <v>45200</v>
+        <v>47000</v>
       </c>
       <c r="F12" s="3">
-        <v>30000</v>
+        <v>31200</v>
       </c>
       <c r="G12" s="3">
-        <v>38000</v>
+        <v>39600</v>
       </c>
       <c r="H12" s="3">
-        <v>13700</v>
+        <v>14300</v>
       </c>
       <c r="I12" s="3">
-        <v>30500</v>
+        <v>31700</v>
       </c>
       <c r="J12" s="3">
-        <v>31400</v>
+        <v>32600</v>
       </c>
       <c r="K12" s="3">
         <v>26600</v>
@@ -953,17 +953,17 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>179100</v>
       </c>
       <c r="E14" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F14" s="3">
-        <v>48900</v>
+        <v>50800</v>
       </c>
       <c r="G14" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="H14" s="3">
         <v>600</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>105100</v>
+        <v>109300</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -1052,26 +1052,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
+      <c r="D17" s="3">
+        <v>4834500</v>
       </c>
       <c r="E17" s="3">
-        <v>4185300</v>
+        <v>4353300</v>
       </c>
       <c r="F17" s="3">
-        <v>4128700</v>
+        <v>4294400</v>
       </c>
       <c r="G17" s="3">
-        <v>4281500</v>
+        <v>4453300</v>
       </c>
       <c r="H17" s="3">
-        <v>1734500</v>
+        <v>1804100</v>
       </c>
       <c r="I17" s="3">
-        <v>3423800</v>
+        <v>3561200</v>
       </c>
       <c r="J17" s="3">
-        <v>4011600</v>
+        <v>4172600</v>
       </c>
       <c r="K17" s="3">
         <v>3591900</v>
@@ -1094,26 +1094,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
+      <c r="D18" s="3">
+        <v>-111900</v>
       </c>
       <c r="E18" s="3">
-        <v>204200</v>
+        <v>212400</v>
       </c>
       <c r="F18" s="3">
-        <v>-325500</v>
+        <v>-338600</v>
       </c>
       <c r="G18" s="3">
-        <v>-60000</v>
+        <v>-62400</v>
       </c>
       <c r="H18" s="3">
-        <v>-207100</v>
+        <v>-215400</v>
       </c>
       <c r="I18" s="3">
-        <v>211800</v>
+        <v>220300</v>
       </c>
       <c r="J18" s="3">
-        <v>139000</v>
+        <v>144600</v>
       </c>
       <c r="K18" s="3">
         <v>206400</v>
@@ -1154,26 +1154,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
+      <c r="D20" s="3">
+        <v>110500</v>
       </c>
       <c r="E20" s="3">
-        <v>70900</v>
+        <v>73700</v>
       </c>
       <c r="F20" s="3">
-        <v>-99700</v>
+        <v>-103700</v>
       </c>
       <c r="G20" s="3">
-        <v>70400</v>
+        <v>73200</v>
       </c>
       <c r="H20" s="3">
-        <v>28600</v>
+        <v>29700</v>
       </c>
       <c r="I20" s="3">
-        <v>112700</v>
+        <v>117300</v>
       </c>
       <c r="J20" s="3">
-        <v>92200</v>
+        <v>95900</v>
       </c>
       <c r="K20" s="3">
         <v>104900</v>
@@ -1196,26 +1196,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
+      <c r="D21" s="3">
+        <v>218400</v>
       </c>
       <c r="E21" s="3">
-        <v>576000</v>
+        <v>514200</v>
       </c>
       <c r="F21" s="3">
-        <v>-263700</v>
+        <v>-128900</v>
       </c>
       <c r="G21" s="3">
-        <v>203800</v>
+        <v>179100</v>
       </c>
       <c r="H21" s="3">
-        <v>34500</v>
+        <v>15700</v>
       </c>
       <c r="I21" s="3">
-        <v>572500</v>
+        <v>559500</v>
       </c>
       <c r="J21" s="3">
-        <v>439800</v>
+        <v>498800</v>
       </c>
       <c r="K21" s="3">
         <v>518300</v>
@@ -1238,26 +1238,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
+      <c r="D22" s="3">
+        <v>212600</v>
       </c>
       <c r="E22" s="3">
-        <v>251600</v>
+        <v>261700</v>
       </c>
       <c r="F22" s="3">
-        <v>216100</v>
+        <v>224800</v>
       </c>
       <c r="G22" s="3">
-        <v>153900</v>
+        <v>160000</v>
       </c>
       <c r="H22" s="3">
-        <v>27600</v>
+        <v>28700</v>
       </c>
       <c r="I22" s="3">
-        <v>133100</v>
+        <v>138500</v>
       </c>
       <c r="J22" s="3">
-        <v>123500</v>
+        <v>128500</v>
       </c>
       <c r="K22" s="3">
         <v>105200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-205800</v>
+        <v>-214000</v>
       </c>
       <c r="E23" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="F23" s="3">
-        <v>-641300</v>
+        <v>-667100</v>
       </c>
       <c r="G23" s="3">
-        <v>-143400</v>
+        <v>-149200</v>
       </c>
       <c r="H23" s="3">
-        <v>-206100</v>
+        <v>-214400</v>
       </c>
       <c r="I23" s="3">
-        <v>191400</v>
+        <v>199100</v>
       </c>
       <c r="J23" s="3">
-        <v>107600</v>
+        <v>111900</v>
       </c>
       <c r="K23" s="3">
         <v>206200</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E24" s="3">
-        <v>75300</v>
+        <v>78400</v>
       </c>
       <c r="F24" s="3">
-        <v>55000</v>
+        <v>57200</v>
       </c>
       <c r="G24" s="3">
-        <v>107100</v>
+        <v>111400</v>
       </c>
       <c r="H24" s="3">
-        <v>-17000</v>
+        <v>-17700</v>
       </c>
       <c r="I24" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="J24" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="K24" s="3">
         <v>153500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-202800</v>
+        <v>-210900</v>
       </c>
       <c r="E26" s="3">
-        <v>-51800</v>
+        <v>-53900</v>
       </c>
       <c r="F26" s="3">
-        <v>-696300</v>
+        <v>-724300</v>
       </c>
       <c r="G26" s="3">
-        <v>-250600</v>
+        <v>-260600</v>
       </c>
       <c r="H26" s="3">
-        <v>-189100</v>
+        <v>-196700</v>
       </c>
       <c r="I26" s="3">
-        <v>174700</v>
+        <v>181700</v>
       </c>
       <c r="J26" s="3">
-        <v>114600</v>
+        <v>119200</v>
       </c>
       <c r="K26" s="3">
         <v>52700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-184700</v>
+        <v>-192100</v>
       </c>
       <c r="E27" s="3">
-        <v>-53200</v>
+        <v>-55300</v>
       </c>
       <c r="F27" s="3">
-        <v>-700200</v>
+        <v>-728300</v>
       </c>
       <c r="G27" s="3">
-        <v>-255000</v>
+        <v>-265200</v>
       </c>
       <c r="H27" s="3">
-        <v>-194000</v>
+        <v>-201800</v>
       </c>
       <c r="I27" s="3">
-        <v>164700</v>
+        <v>171300</v>
       </c>
       <c r="J27" s="3">
-        <v>113400</v>
+        <v>117900</v>
       </c>
       <c r="K27" s="3">
         <v>45200</v>
@@ -1542,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="G29" s="3">
-        <v>-86400</v>
+        <v>-89900</v>
       </c>
       <c r="H29" s="3">
-        <v>64500</v>
+        <v>67000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1658,26 +1658,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
+      <c r="D32" s="3">
+        <v>-110500</v>
       </c>
       <c r="E32" s="3">
-        <v>-70900</v>
+        <v>-73700</v>
       </c>
       <c r="F32" s="3">
-        <v>99700</v>
+        <v>103700</v>
       </c>
       <c r="G32" s="3">
-        <v>-70400</v>
+        <v>-73200</v>
       </c>
       <c r="H32" s="3">
-        <v>-28600</v>
+        <v>-29700</v>
       </c>
       <c r="I32" s="3">
-        <v>-112700</v>
+        <v>-117300</v>
       </c>
       <c r="J32" s="3">
-        <v>-92200</v>
+        <v>-95900</v>
       </c>
       <c r="K32" s="3">
         <v>-104900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-184700</v>
+        <v>-192100</v>
       </c>
       <c r="E33" s="3">
-        <v>-53200</v>
+        <v>-55300</v>
       </c>
       <c r="F33" s="3">
-        <v>-700200</v>
+        <v>-728300</v>
       </c>
       <c r="G33" s="3">
-        <v>-341400</v>
+        <v>-355100</v>
       </c>
       <c r="H33" s="3">
-        <v>-129500</v>
+        <v>-134700</v>
       </c>
       <c r="I33" s="3">
-        <v>164700</v>
+        <v>171300</v>
       </c>
       <c r="J33" s="3">
-        <v>113400</v>
+        <v>117900</v>
       </c>
       <c r="K33" s="3">
         <v>45200</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-184700</v>
+        <v>-192100</v>
       </c>
       <c r="E35" s="3">
-        <v>-53200</v>
+        <v>-55300</v>
       </c>
       <c r="F35" s="3">
-        <v>-700200</v>
+        <v>-728300</v>
       </c>
       <c r="G35" s="3">
-        <v>-341400</v>
+        <v>-355100</v>
       </c>
       <c r="H35" s="3">
-        <v>-129500</v>
+        <v>-134700</v>
       </c>
       <c r="I35" s="3">
-        <v>164700</v>
+        <v>171300</v>
       </c>
       <c r="J35" s="3">
-        <v>113400</v>
+        <v>117900</v>
       </c>
       <c r="K35" s="3">
         <v>45200</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1835600</v>
+        <v>1909300</v>
       </c>
       <c r="E41" s="3">
-        <v>1964800</v>
+        <v>2043600</v>
       </c>
       <c r="F41" s="3">
-        <v>1894900</v>
+        <v>1970900</v>
       </c>
       <c r="G41" s="3">
-        <v>667400</v>
+        <v>694200</v>
       </c>
       <c r="H41" s="3">
-        <v>961000</v>
+        <v>999600</v>
       </c>
       <c r="I41" s="3">
-        <v>814000</v>
+        <v>846600</v>
       </c>
       <c r="J41" s="3">
-        <v>783500</v>
+        <v>814900</v>
       </c>
       <c r="K41" s="3">
         <v>1582000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>499500</v>
+        <v>519500</v>
       </c>
       <c r="E42" s="3">
-        <v>811300</v>
+        <v>843900</v>
       </c>
       <c r="F42" s="3">
-        <v>822600</v>
+        <v>855600</v>
       </c>
       <c r="G42" s="3">
-        <v>319800</v>
+        <v>332700</v>
       </c>
       <c r="H42" s="3">
-        <v>1308000</v>
+        <v>1360500</v>
       </c>
       <c r="I42" s="3">
-        <v>1574900</v>
+        <v>1638100</v>
       </c>
       <c r="J42" s="3">
-        <v>1120500</v>
+        <v>1165400</v>
       </c>
       <c r="K42" s="3">
         <v>454900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>951000</v>
+        <v>989200</v>
       </c>
       <c r="E43" s="3">
-        <v>1008000</v>
+        <v>1048500</v>
       </c>
       <c r="F43" s="3">
-        <v>847100</v>
+        <v>881100</v>
       </c>
       <c r="G43" s="3">
-        <v>601300</v>
+        <v>625500</v>
       </c>
       <c r="H43" s="3">
-        <v>813800</v>
+        <v>846500</v>
       </c>
       <c r="I43" s="3">
-        <v>723600</v>
+        <v>752600</v>
       </c>
       <c r="J43" s="3">
-        <v>613300</v>
+        <v>637900</v>
       </c>
       <c r="K43" s="3">
         <v>790300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2353000</v>
+        <v>2447400</v>
       </c>
       <c r="E44" s="3">
-        <v>2145900</v>
+        <v>2232100</v>
       </c>
       <c r="F44" s="3">
-        <v>2460300</v>
+        <v>2559000</v>
       </c>
       <c r="G44" s="3">
-        <v>1018100</v>
+        <v>1058900</v>
       </c>
       <c r="H44" s="3">
-        <v>1881000</v>
+        <v>1956500</v>
       </c>
       <c r="I44" s="3">
-        <v>1376300</v>
+        <v>1431600</v>
       </c>
       <c r="J44" s="3">
-        <v>1575400</v>
+        <v>1638600</v>
       </c>
       <c r="K44" s="3">
         <v>1690900</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>176900</v>
+        <v>184000</v>
       </c>
       <c r="E45" s="3">
-        <v>419100</v>
+        <v>435900</v>
       </c>
       <c r="F45" s="3">
-        <v>136200</v>
+        <v>141600</v>
       </c>
       <c r="G45" s="3">
-        <v>4083000</v>
+        <v>4246800</v>
       </c>
       <c r="H45" s="3">
-        <v>341400</v>
+        <v>355100</v>
       </c>
       <c r="I45" s="3">
-        <v>105200</v>
+        <v>109400</v>
       </c>
       <c r="J45" s="3">
-        <v>187000</v>
+        <v>194500</v>
       </c>
       <c r="K45" s="3">
         <v>165900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5816000</v>
+        <v>6049400</v>
       </c>
       <c r="E46" s="3">
-        <v>6349200</v>
+        <v>6603900</v>
       </c>
       <c r="F46" s="3">
-        <v>6161100</v>
+        <v>6408300</v>
       </c>
       <c r="G46" s="3">
-        <v>6689700</v>
+        <v>6958100</v>
       </c>
       <c r="H46" s="3">
-        <v>5305200</v>
+        <v>5518000</v>
       </c>
       <c r="I46" s="3">
-        <v>4534700</v>
+        <v>4716600</v>
       </c>
       <c r="J46" s="3">
-        <v>4279600</v>
+        <v>4451400</v>
       </c>
       <c r="K46" s="3">
         <v>4684000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>297300</v>
+        <v>309300</v>
       </c>
       <c r="E47" s="3">
-        <v>166800</v>
+        <v>173500</v>
       </c>
       <c r="F47" s="3">
-        <v>136900</v>
+        <v>142400</v>
       </c>
       <c r="G47" s="3">
-        <v>46000</v>
+        <v>47800</v>
       </c>
       <c r="H47" s="3">
-        <v>186500</v>
+        <v>193900</v>
       </c>
       <c r="I47" s="3">
-        <v>427500</v>
+        <v>444600</v>
       </c>
       <c r="J47" s="3">
-        <v>287400</v>
+        <v>299000</v>
       </c>
       <c r="K47" s="3">
         <v>849100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1732000</v>
+        <v>1801500</v>
       </c>
       <c r="E48" s="3">
-        <v>1888600</v>
+        <v>1964400</v>
       </c>
       <c r="F48" s="3">
-        <v>2030800</v>
+        <v>2112300</v>
       </c>
       <c r="G48" s="3">
-        <v>785700</v>
+        <v>817300</v>
       </c>
       <c r="H48" s="3">
-        <v>1474000</v>
+        <v>1533200</v>
       </c>
       <c r="I48" s="3">
-        <v>1348200</v>
+        <v>1402300</v>
       </c>
       <c r="J48" s="3">
-        <v>1359400</v>
+        <v>1414000</v>
       </c>
       <c r="K48" s="3">
         <v>1481100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2269600</v>
+        <v>2360700</v>
       </c>
       <c r="E49" s="3">
-        <v>2391700</v>
+        <v>2487700</v>
       </c>
       <c r="F49" s="3">
-        <v>2088500</v>
+        <v>2172300</v>
       </c>
       <c r="G49" s="3">
-        <v>697800</v>
+        <v>725800</v>
       </c>
       <c r="H49" s="3">
-        <v>1424600</v>
+        <v>1481800</v>
       </c>
       <c r="I49" s="3">
-        <v>1205800</v>
+        <v>1254100</v>
       </c>
       <c r="J49" s="3">
-        <v>1050500</v>
+        <v>1092600</v>
       </c>
       <c r="K49" s="3">
         <v>1026700</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>132300</v>
+        <v>136900</v>
       </c>
       <c r="E52" s="3">
-        <v>176700</v>
+        <v>183800</v>
       </c>
       <c r="F52" s="3">
-        <v>171400</v>
+        <v>178300</v>
       </c>
       <c r="G52" s="3">
-        <v>32300</v>
+        <v>33600</v>
       </c>
       <c r="H52" s="3">
-        <v>82700</v>
+        <v>86100</v>
       </c>
       <c r="I52" s="3">
-        <v>314900</v>
+        <v>327500</v>
       </c>
       <c r="J52" s="3">
-        <v>384200</v>
+        <v>399600</v>
       </c>
       <c r="K52" s="3">
         <v>484300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10246600</v>
+        <v>10657800</v>
       </c>
       <c r="E54" s="3">
-        <v>10973100</v>
+        <v>11413400</v>
       </c>
       <c r="F54" s="3">
-        <v>10588800</v>
+        <v>11013700</v>
       </c>
       <c r="G54" s="3">
-        <v>8251500</v>
+        <v>8582600</v>
       </c>
       <c r="H54" s="3">
-        <v>8473000</v>
+        <v>8813000</v>
       </c>
       <c r="I54" s="3">
-        <v>7670000</v>
+        <v>7977800</v>
       </c>
       <c r="J54" s="3">
-        <v>7361200</v>
+        <v>7656600</v>
       </c>
       <c r="K54" s="3">
         <v>8525100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>774800</v>
+        <v>805900</v>
       </c>
       <c r="E57" s="3">
-        <v>551100</v>
+        <v>573200</v>
       </c>
       <c r="F57" s="3">
-        <v>505400</v>
+        <v>525700</v>
       </c>
       <c r="G57" s="3">
-        <v>279400</v>
+        <v>290600</v>
       </c>
       <c r="H57" s="3">
-        <v>669300</v>
+        <v>696200</v>
       </c>
       <c r="I57" s="3">
-        <v>528200</v>
+        <v>549400</v>
       </c>
       <c r="J57" s="3">
-        <v>600800</v>
+        <v>624900</v>
       </c>
       <c r="K57" s="3">
         <v>756100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>323800</v>
+        <v>336800</v>
       </c>
       <c r="E58" s="3">
-        <v>632900</v>
+        <v>658300</v>
       </c>
       <c r="F58" s="3">
-        <v>389300</v>
+        <v>404900</v>
       </c>
       <c r="G58" s="3">
-        <v>15500</v>
+        <v>16100</v>
       </c>
       <c r="H58" s="3">
-        <v>134500</v>
+        <v>139900</v>
       </c>
       <c r="I58" s="3">
-        <v>249100</v>
+        <v>259100</v>
       </c>
       <c r="J58" s="3">
-        <v>322000</v>
+        <v>335000</v>
       </c>
       <c r="K58" s="3">
         <v>160200</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2151800</v>
+        <v>2238100</v>
       </c>
       <c r="E59" s="3">
-        <v>1872800</v>
+        <v>1947900</v>
       </c>
       <c r="F59" s="3">
-        <v>1549200</v>
+        <v>1611300</v>
       </c>
       <c r="G59" s="3">
-        <v>4689200</v>
+        <v>4877300</v>
       </c>
       <c r="H59" s="3">
-        <v>1468400</v>
+        <v>1527300</v>
       </c>
       <c r="I59" s="3">
-        <v>1557700</v>
+        <v>1620200</v>
       </c>
       <c r="J59" s="3">
-        <v>1084500</v>
+        <v>1128100</v>
       </c>
       <c r="K59" s="3">
         <v>1334200</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3250400</v>
+        <v>3380900</v>
       </c>
       <c r="E60" s="3">
-        <v>3056800</v>
+        <v>3179500</v>
       </c>
       <c r="F60" s="3">
-        <v>2443900</v>
+        <v>2541900</v>
       </c>
       <c r="G60" s="3">
-        <v>4984000</v>
+        <v>5184000</v>
       </c>
       <c r="H60" s="3">
-        <v>2272200</v>
+        <v>2363400</v>
       </c>
       <c r="I60" s="3">
-        <v>1795500</v>
+        <v>1867600</v>
       </c>
       <c r="J60" s="3">
-        <v>2007400</v>
+        <v>2088000</v>
       </c>
       <c r="K60" s="3">
         <v>2250500</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2984100</v>
+        <v>3103800</v>
       </c>
       <c r="E61" s="3">
-        <v>3787300</v>
+        <v>3939300</v>
       </c>
       <c r="F61" s="3">
-        <v>4151500</v>
+        <v>4318100</v>
       </c>
       <c r="G61" s="3">
-        <v>85600</v>
+        <v>89000</v>
       </c>
       <c r="H61" s="3">
-        <v>2602300</v>
+        <v>2706700</v>
       </c>
       <c r="I61" s="3">
-        <v>2440200</v>
+        <v>2538100</v>
       </c>
       <c r="J61" s="3">
-        <v>2050700</v>
+        <v>2133000</v>
       </c>
       <c r="K61" s="3">
         <v>2418900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1158600</v>
+        <v>1205100</v>
       </c>
       <c r="E62" s="3">
-        <v>1130600</v>
+        <v>1176000</v>
       </c>
       <c r="F62" s="3">
-        <v>1060800</v>
+        <v>1103300</v>
       </c>
       <c r="G62" s="3">
-        <v>360800</v>
+        <v>375200</v>
       </c>
       <c r="H62" s="3">
-        <v>642400</v>
+        <v>668200</v>
       </c>
       <c r="I62" s="3">
-        <v>825100</v>
+        <v>858200</v>
       </c>
       <c r="J62" s="3">
-        <v>815900</v>
+        <v>848600</v>
       </c>
       <c r="K62" s="3">
         <v>1047700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7652600</v>
+        <v>7959700</v>
       </c>
       <c r="E66" s="3">
-        <v>8090500</v>
+        <v>8415100</v>
       </c>
       <c r="F66" s="3">
-        <v>7769500</v>
+        <v>8081200</v>
       </c>
       <c r="G66" s="3">
-        <v>5506000</v>
+        <v>5726900</v>
       </c>
       <c r="H66" s="3">
-        <v>5587700</v>
+        <v>5811900</v>
       </c>
       <c r="I66" s="3">
-        <v>5066800</v>
+        <v>5270200</v>
       </c>
       <c r="J66" s="3">
-        <v>4932400</v>
+        <v>5130300</v>
       </c>
       <c r="K66" s="3">
         <v>5791500</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-386900</v>
+        <v>-478700</v>
       </c>
       <c r="E72" s="3">
-        <v>-275500</v>
+        <v>-286600</v>
       </c>
       <c r="F72" s="3">
-        <v>-222300</v>
+        <v>-231200</v>
       </c>
       <c r="G72" s="3">
-        <v>482500</v>
+        <v>501800</v>
       </c>
       <c r="H72" s="3">
-        <v>738600</v>
+        <v>768200</v>
       </c>
       <c r="I72" s="3">
-        <v>950900</v>
+        <v>989100</v>
       </c>
       <c r="J72" s="3">
-        <v>840900</v>
+        <v>874700</v>
       </c>
       <c r="K72" s="3">
         <v>737000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2594000</v>
+        <v>2698100</v>
       </c>
       <c r="E76" s="3">
-        <v>2882600</v>
+        <v>2998300</v>
       </c>
       <c r="F76" s="3">
-        <v>2819300</v>
+        <v>2932400</v>
       </c>
       <c r="G76" s="3">
-        <v>2745500</v>
+        <v>2855600</v>
       </c>
       <c r="H76" s="3">
-        <v>2885300</v>
+        <v>3001100</v>
       </c>
       <c r="I76" s="3">
-        <v>2603200</v>
+        <v>2707700</v>
       </c>
       <c r="J76" s="3">
-        <v>2428800</v>
+        <v>2526300</v>
       </c>
       <c r="K76" s="3">
         <v>2733600</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-184700</v>
+        <v>-192100</v>
       </c>
       <c r="E81" s="3">
-        <v>-53200</v>
+        <v>-55300</v>
       </c>
       <c r="F81" s="3">
-        <v>-700200</v>
+        <v>-728300</v>
       </c>
       <c r="G81" s="3">
-        <v>-341400</v>
+        <v>-355100</v>
       </c>
       <c r="H81" s="3">
-        <v>-129500</v>
+        <v>-134700</v>
       </c>
       <c r="I81" s="3">
-        <v>164700</v>
+        <v>171300</v>
       </c>
       <c r="J81" s="3">
-        <v>113400</v>
+        <v>117900</v>
       </c>
       <c r="K81" s="3">
         <v>45200</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>210200</v>
+        <v>218700</v>
       </c>
       <c r="E83" s="3">
-        <v>218100</v>
+        <v>226800</v>
       </c>
       <c r="F83" s="3">
-        <v>299800</v>
+        <v>311800</v>
       </c>
       <c r="G83" s="3">
-        <v>160900</v>
+        <v>167400</v>
       </c>
       <c r="H83" s="3">
-        <v>192600</v>
+        <v>200400</v>
       </c>
       <c r="I83" s="3">
-        <v>212300</v>
+        <v>220800</v>
       </c>
       <c r="J83" s="3">
-        <v>247100</v>
+        <v>257000</v>
       </c>
       <c r="K83" s="3">
         <v>200800</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>743700</v>
+        <v>773600</v>
       </c>
       <c r="E89" s="3">
-        <v>552500</v>
+        <v>574600</v>
       </c>
       <c r="F89" s="3">
-        <v>-1261000</v>
+        <v>-1311600</v>
       </c>
       <c r="G89" s="3">
-        <v>726000</v>
+        <v>755100</v>
       </c>
       <c r="H89" s="3">
-        <v>777000</v>
+        <v>808200</v>
       </c>
       <c r="I89" s="3">
-        <v>483500</v>
+        <v>502900</v>
       </c>
       <c r="J89" s="3">
-        <v>-59800</v>
+        <v>-62200</v>
       </c>
       <c r="K89" s="3">
         <v>679700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-135900</v>
+        <v>-141400</v>
       </c>
       <c r="E91" s="3">
-        <v>-106500</v>
+        <v>-110700</v>
       </c>
       <c r="F91" s="3">
-        <v>-101400</v>
+        <v>-105400</v>
       </c>
       <c r="G91" s="3">
-        <v>-218800</v>
+        <v>-227500</v>
       </c>
       <c r="H91" s="3">
-        <v>-109400</v>
+        <v>-113800</v>
       </c>
       <c r="I91" s="3">
-        <v>-147700</v>
+        <v>-153600</v>
       </c>
       <c r="J91" s="3">
-        <v>-261800</v>
+        <v>-272300</v>
       </c>
       <c r="K91" s="3">
         <v>-213500</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-115100</v>
+        <v>-119800</v>
       </c>
       <c r="E94" s="3">
-        <v>-153000</v>
+        <v>-159100</v>
       </c>
       <c r="F94" s="3">
-        <v>-182700</v>
+        <v>-190000</v>
       </c>
       <c r="G94" s="3">
-        <v>307600</v>
+        <v>320000</v>
       </c>
       <c r="H94" s="3">
-        <v>-370900</v>
+        <v>-385800</v>
       </c>
       <c r="I94" s="3">
-        <v>-670600</v>
+        <v>-697600</v>
       </c>
       <c r="J94" s="3">
-        <v>-654900</v>
+        <v>-681200</v>
       </c>
       <c r="K94" s="3">
         <v>-964800</v>
@@ -4006,16 +4006,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H96" s="3">
-        <v>-27000</v>
+        <v>-28100</v>
       </c>
       <c r="I96" s="3">
-        <v>-33500</v>
+        <v>-34900</v>
       </c>
       <c r="J96" s="3">
-        <v>-19300</v>
+        <v>-20100</v>
       </c>
       <c r="K96" s="3">
         <v>-34100</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-653300</v>
+        <v>-679600</v>
       </c>
       <c r="E100" s="3">
-        <v>-460800</v>
+        <v>-479300</v>
       </c>
       <c r="F100" s="3">
-        <v>1015000</v>
+        <v>1055700</v>
       </c>
       <c r="G100" s="3">
-        <v>-198700</v>
+        <v>-206700</v>
       </c>
       <c r="H100" s="3">
-        <v>-365200</v>
+        <v>-379800</v>
       </c>
       <c r="I100" s="3">
-        <v>213800</v>
+        <v>222300</v>
       </c>
       <c r="J100" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K100" s="3">
         <v>727200</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-127600</v>
+        <v>-132800</v>
       </c>
       <c r="E101" s="3">
-        <v>153200</v>
+        <v>159300</v>
       </c>
       <c r="F101" s="3">
-        <v>522500</v>
+        <v>543400</v>
       </c>
       <c r="G101" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="H101" s="3">
-        <v>106100</v>
+        <v>110300</v>
       </c>
       <c r="I101" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J101" s="3">
-        <v>-141900</v>
+        <v>-147600</v>
       </c>
       <c r="K101" s="3">
         <v>288600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-152400</v>
+        <v>-158500</v>
       </c>
       <c r="E102" s="3">
-        <v>91800</v>
+        <v>95500</v>
       </c>
       <c r="F102" s="3">
-        <v>93800</v>
+        <v>97600</v>
       </c>
       <c r="G102" s="3">
-        <v>840100</v>
+        <v>873800</v>
       </c>
       <c r="H102" s="3">
-        <v>147000</v>
+        <v>152900</v>
       </c>
       <c r="I102" s="3">
-        <v>30500</v>
+        <v>31700</v>
       </c>
       <c r="J102" s="3">
-        <v>-853800</v>
+        <v>-888100</v>
       </c>
       <c r="K102" s="3">
         <v>730700</v>

--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4722600</v>
+        <v>4732900</v>
       </c>
       <c r="E8" s="3">
-        <v>4565700</v>
+        <v>4575700</v>
       </c>
       <c r="F8" s="3">
-        <v>3955900</v>
+        <v>3964500</v>
       </c>
       <c r="G8" s="3">
-        <v>4390900</v>
+        <v>4400500</v>
       </c>
       <c r="H8" s="3">
-        <v>1588600</v>
+        <v>1592100</v>
       </c>
       <c r="I8" s="3">
-        <v>3781500</v>
+        <v>3789800</v>
       </c>
       <c r="J8" s="3">
-        <v>4317100</v>
+        <v>4326600</v>
       </c>
       <c r="K8" s="3">
         <v>3798300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3779800</v>
+        <v>3788100</v>
       </c>
       <c r="E9" s="3">
-        <v>3861200</v>
+        <v>3869600</v>
       </c>
       <c r="F9" s="3">
-        <v>3474900</v>
+        <v>3482500</v>
       </c>
       <c r="G9" s="3">
-        <v>3755100</v>
+        <v>3763300</v>
       </c>
       <c r="H9" s="3">
-        <v>1445300</v>
+        <v>1448400</v>
       </c>
       <c r="I9" s="3">
-        <v>3073900</v>
+        <v>3080600</v>
       </c>
       <c r="J9" s="3">
-        <v>3457300</v>
+        <v>3464800</v>
       </c>
       <c r="K9" s="3">
         <v>3095500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>942700</v>
+        <v>944800</v>
       </c>
       <c r="E10" s="3">
-        <v>704500</v>
+        <v>706000</v>
       </c>
       <c r="F10" s="3">
-        <v>480900</v>
+        <v>482000</v>
       </c>
       <c r="G10" s="3">
-        <v>635800</v>
+        <v>637200</v>
       </c>
       <c r="H10" s="3">
-        <v>143400</v>
+        <v>143700</v>
       </c>
       <c r="I10" s="3">
-        <v>707600</v>
+        <v>709200</v>
       </c>
       <c r="J10" s="3">
-        <v>859900</v>
+        <v>861800</v>
       </c>
       <c r="K10" s="3">
         <v>702800</v>
@@ -870,13 +870,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>114100</v>
+        <v>114400</v>
       </c>
       <c r="E12" s="3">
-        <v>47000</v>
+        <v>47100</v>
       </c>
       <c r="F12" s="3">
-        <v>31200</v>
+        <v>31300</v>
       </c>
       <c r="G12" s="3">
         <v>39600</v>
@@ -885,10 +885,10 @@
         <v>14300</v>
       </c>
       <c r="I12" s="3">
-        <v>31700</v>
+        <v>31800</v>
       </c>
       <c r="J12" s="3">
-        <v>32600</v>
+        <v>32700</v>
       </c>
       <c r="K12" s="3">
         <v>26600</v>
@@ -954,16 +954,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>179100</v>
+        <v>179500</v>
       </c>
       <c r="E14" s="3">
         <v>3100</v>
       </c>
       <c r="F14" s="3">
-        <v>50800</v>
+        <v>50900</v>
       </c>
       <c r="G14" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="H14" s="3">
         <v>600</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>109300</v>
+        <v>109500</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4834500</v>
+        <v>4845000</v>
       </c>
       <c r="E17" s="3">
-        <v>4353300</v>
+        <v>4362800</v>
       </c>
       <c r="F17" s="3">
-        <v>4294400</v>
+        <v>4303800</v>
       </c>
       <c r="G17" s="3">
-        <v>4453300</v>
+        <v>4463100</v>
       </c>
       <c r="H17" s="3">
-        <v>1804100</v>
+        <v>1808000</v>
       </c>
       <c r="I17" s="3">
-        <v>3561200</v>
+        <v>3569000</v>
       </c>
       <c r="J17" s="3">
-        <v>4172600</v>
+        <v>4181700</v>
       </c>
       <c r="K17" s="3">
         <v>3591900</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-111900</v>
+        <v>-112100</v>
       </c>
       <c r="E18" s="3">
-        <v>212400</v>
+        <v>212900</v>
       </c>
       <c r="F18" s="3">
-        <v>-338600</v>
+        <v>-339300</v>
       </c>
       <c r="G18" s="3">
-        <v>-62400</v>
+        <v>-62500</v>
       </c>
       <c r="H18" s="3">
-        <v>-215400</v>
+        <v>-215900</v>
       </c>
       <c r="I18" s="3">
-        <v>220300</v>
+        <v>220800</v>
       </c>
       <c r="J18" s="3">
-        <v>144600</v>
+        <v>144900</v>
       </c>
       <c r="K18" s="3">
         <v>206400</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>110500</v>
+        <v>110800</v>
       </c>
       <c r="E20" s="3">
-        <v>73700</v>
+        <v>73900</v>
       </c>
       <c r="F20" s="3">
-        <v>-103700</v>
+        <v>-103900</v>
       </c>
       <c r="G20" s="3">
-        <v>73200</v>
+        <v>73400</v>
       </c>
       <c r="H20" s="3">
-        <v>29700</v>
+        <v>29800</v>
       </c>
       <c r="I20" s="3">
-        <v>117300</v>
+        <v>117500</v>
       </c>
       <c r="J20" s="3">
-        <v>95900</v>
+        <v>96100</v>
       </c>
       <c r="K20" s="3">
         <v>104900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>218400</v>
+        <v>217800</v>
       </c>
       <c r="E21" s="3">
-        <v>514200</v>
+        <v>514100</v>
       </c>
       <c r="F21" s="3">
-        <v>-128900</v>
+        <v>-130800</v>
       </c>
       <c r="G21" s="3">
-        <v>179100</v>
+        <v>178600</v>
       </c>
       <c r="H21" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="I21" s="3">
-        <v>559500</v>
+        <v>559600</v>
       </c>
       <c r="J21" s="3">
-        <v>498800</v>
+        <v>498500</v>
       </c>
       <c r="K21" s="3">
         <v>518300</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>212600</v>
+        <v>213100</v>
       </c>
       <c r="E22" s="3">
-        <v>261700</v>
+        <v>262200</v>
       </c>
       <c r="F22" s="3">
-        <v>224800</v>
+        <v>225300</v>
       </c>
       <c r="G22" s="3">
-        <v>160000</v>
+        <v>160400</v>
       </c>
       <c r="H22" s="3">
         <v>28700</v>
       </c>
       <c r="I22" s="3">
-        <v>138500</v>
+        <v>138800</v>
       </c>
       <c r="J22" s="3">
-        <v>128500</v>
+        <v>128800</v>
       </c>
       <c r="K22" s="3">
         <v>105200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-214000</v>
+        <v>-214500</v>
       </c>
       <c r="E23" s="3">
         <v>24500</v>
       </c>
       <c r="F23" s="3">
-        <v>-667100</v>
+        <v>-668500</v>
       </c>
       <c r="G23" s="3">
-        <v>-149200</v>
+        <v>-149500</v>
       </c>
       <c r="H23" s="3">
-        <v>-214400</v>
+        <v>-214800</v>
       </c>
       <c r="I23" s="3">
-        <v>199100</v>
+        <v>199500</v>
       </c>
       <c r="J23" s="3">
-        <v>111900</v>
+        <v>112200</v>
       </c>
       <c r="K23" s="3">
         <v>206200</v>
@@ -1326,22 +1326,22 @@
         <v>-3100</v>
       </c>
       <c r="E24" s="3">
-        <v>78400</v>
+        <v>78500</v>
       </c>
       <c r="F24" s="3">
-        <v>57200</v>
+        <v>57300</v>
       </c>
       <c r="G24" s="3">
-        <v>111400</v>
+        <v>111700</v>
       </c>
       <c r="H24" s="3">
-        <v>-17700</v>
+        <v>-17800</v>
       </c>
       <c r="I24" s="3">
         <v>17400</v>
       </c>
       <c r="J24" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="K24" s="3">
         <v>153500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-210900</v>
+        <v>-211400</v>
       </c>
       <c r="E26" s="3">
-        <v>-53900</v>
+        <v>-54000</v>
       </c>
       <c r="F26" s="3">
-        <v>-724300</v>
+        <v>-725900</v>
       </c>
       <c r="G26" s="3">
-        <v>-260600</v>
+        <v>-261200</v>
       </c>
       <c r="H26" s="3">
-        <v>-196700</v>
+        <v>-197100</v>
       </c>
       <c r="I26" s="3">
-        <v>181700</v>
+        <v>182100</v>
       </c>
       <c r="J26" s="3">
-        <v>119200</v>
+        <v>119500</v>
       </c>
       <c r="K26" s="3">
         <v>52700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-192100</v>
+        <v>-192500</v>
       </c>
       <c r="E27" s="3">
-        <v>-55300</v>
+        <v>-55500</v>
       </c>
       <c r="F27" s="3">
-        <v>-728300</v>
+        <v>-729900</v>
       </c>
       <c r="G27" s="3">
-        <v>-265200</v>
+        <v>-265800</v>
       </c>
       <c r="H27" s="3">
-        <v>-201800</v>
+        <v>-202200</v>
       </c>
       <c r="I27" s="3">
-        <v>171300</v>
+        <v>171700</v>
       </c>
       <c r="J27" s="3">
-        <v>117900</v>
+        <v>118200</v>
       </c>
       <c r="K27" s="3">
         <v>45200</v>
@@ -1542,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="G29" s="3">
-        <v>-89900</v>
+        <v>-90100</v>
       </c>
       <c r="H29" s="3">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-110500</v>
+        <v>-110800</v>
       </c>
       <c r="E32" s="3">
-        <v>-73700</v>
+        <v>-73900</v>
       </c>
       <c r="F32" s="3">
-        <v>103700</v>
+        <v>103900</v>
       </c>
       <c r="G32" s="3">
-        <v>-73200</v>
+        <v>-73400</v>
       </c>
       <c r="H32" s="3">
-        <v>-29700</v>
+        <v>-29800</v>
       </c>
       <c r="I32" s="3">
-        <v>-117300</v>
+        <v>-117500</v>
       </c>
       <c r="J32" s="3">
-        <v>-95900</v>
+        <v>-96100</v>
       </c>
       <c r="K32" s="3">
         <v>-104900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-192100</v>
+        <v>-192500</v>
       </c>
       <c r="E33" s="3">
-        <v>-55300</v>
+        <v>-55500</v>
       </c>
       <c r="F33" s="3">
-        <v>-728300</v>
+        <v>-729900</v>
       </c>
       <c r="G33" s="3">
-        <v>-355100</v>
+        <v>-355900</v>
       </c>
       <c r="H33" s="3">
-        <v>-134700</v>
+        <v>-135000</v>
       </c>
       <c r="I33" s="3">
-        <v>171300</v>
+        <v>171700</v>
       </c>
       <c r="J33" s="3">
-        <v>117900</v>
+        <v>118200</v>
       </c>
       <c r="K33" s="3">
         <v>45200</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-192100</v>
+        <v>-192500</v>
       </c>
       <c r="E35" s="3">
-        <v>-55300</v>
+        <v>-55500</v>
       </c>
       <c r="F35" s="3">
-        <v>-728300</v>
+        <v>-729900</v>
       </c>
       <c r="G35" s="3">
-        <v>-355100</v>
+        <v>-355900</v>
       </c>
       <c r="H35" s="3">
-        <v>-134700</v>
+        <v>-135000</v>
       </c>
       <c r="I35" s="3">
-        <v>171300</v>
+        <v>171700</v>
       </c>
       <c r="J35" s="3">
-        <v>117900</v>
+        <v>118200</v>
       </c>
       <c r="K35" s="3">
         <v>45200</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1909300</v>
+        <v>1913400</v>
       </c>
       <c r="E41" s="3">
-        <v>2043600</v>
+        <v>2048100</v>
       </c>
       <c r="F41" s="3">
-        <v>1970900</v>
+        <v>1975200</v>
       </c>
       <c r="G41" s="3">
-        <v>694200</v>
+        <v>695700</v>
       </c>
       <c r="H41" s="3">
-        <v>999600</v>
+        <v>1001700</v>
       </c>
       <c r="I41" s="3">
-        <v>846600</v>
+        <v>848500</v>
       </c>
       <c r="J41" s="3">
-        <v>814900</v>
+        <v>816700</v>
       </c>
       <c r="K41" s="3">
         <v>1582000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>519500</v>
+        <v>520600</v>
       </c>
       <c r="E42" s="3">
-        <v>843900</v>
+        <v>845700</v>
       </c>
       <c r="F42" s="3">
-        <v>855600</v>
+        <v>857500</v>
       </c>
       <c r="G42" s="3">
-        <v>332700</v>
+        <v>333400</v>
       </c>
       <c r="H42" s="3">
-        <v>1360500</v>
+        <v>1363500</v>
       </c>
       <c r="I42" s="3">
-        <v>1638100</v>
+        <v>1641700</v>
       </c>
       <c r="J42" s="3">
-        <v>1165400</v>
+        <v>1168000</v>
       </c>
       <c r="K42" s="3">
         <v>454900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>989200</v>
+        <v>991400</v>
       </c>
       <c r="E43" s="3">
-        <v>1048500</v>
+        <v>1050700</v>
       </c>
       <c r="F43" s="3">
-        <v>881100</v>
+        <v>883100</v>
       </c>
       <c r="G43" s="3">
-        <v>625500</v>
+        <v>626800</v>
       </c>
       <c r="H43" s="3">
-        <v>846500</v>
+        <v>848300</v>
       </c>
       <c r="I43" s="3">
-        <v>752600</v>
+        <v>754300</v>
       </c>
       <c r="J43" s="3">
-        <v>637900</v>
+        <v>639300</v>
       </c>
       <c r="K43" s="3">
         <v>790300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2447400</v>
+        <v>2452800</v>
       </c>
       <c r="E44" s="3">
-        <v>2232100</v>
+        <v>2236900</v>
       </c>
       <c r="F44" s="3">
-        <v>2559000</v>
+        <v>2564600</v>
       </c>
       <c r="G44" s="3">
-        <v>1058900</v>
+        <v>1061200</v>
       </c>
       <c r="H44" s="3">
-        <v>1956500</v>
+        <v>1960700</v>
       </c>
       <c r="I44" s="3">
-        <v>1431600</v>
+        <v>1434700</v>
       </c>
       <c r="J44" s="3">
-        <v>1638600</v>
+        <v>1642200</v>
       </c>
       <c r="K44" s="3">
         <v>1690900</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>184000</v>
+        <v>184400</v>
       </c>
       <c r="E45" s="3">
-        <v>435900</v>
+        <v>436900</v>
       </c>
       <c r="F45" s="3">
-        <v>141600</v>
+        <v>141900</v>
       </c>
       <c r="G45" s="3">
-        <v>4246800</v>
+        <v>4256100</v>
       </c>
       <c r="H45" s="3">
-        <v>355100</v>
+        <v>355800</v>
       </c>
       <c r="I45" s="3">
-        <v>109400</v>
+        <v>109700</v>
       </c>
       <c r="J45" s="3">
-        <v>194500</v>
+        <v>195000</v>
       </c>
       <c r="K45" s="3">
         <v>165900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6049400</v>
+        <v>6062600</v>
       </c>
       <c r="E46" s="3">
-        <v>6603900</v>
+        <v>6618400</v>
       </c>
       <c r="F46" s="3">
-        <v>6408300</v>
+        <v>6422300</v>
       </c>
       <c r="G46" s="3">
-        <v>6958100</v>
+        <v>6973300</v>
       </c>
       <c r="H46" s="3">
-        <v>5518000</v>
+        <v>5530100</v>
       </c>
       <c r="I46" s="3">
-        <v>4716600</v>
+        <v>4726900</v>
       </c>
       <c r="J46" s="3">
-        <v>4451400</v>
+        <v>4461100</v>
       </c>
       <c r="K46" s="3">
         <v>4684000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>309300</v>
+        <v>309900</v>
       </c>
       <c r="E47" s="3">
-        <v>173500</v>
+        <v>173900</v>
       </c>
       <c r="F47" s="3">
-        <v>142400</v>
+        <v>142700</v>
       </c>
       <c r="G47" s="3">
-        <v>47800</v>
+        <v>47900</v>
       </c>
       <c r="H47" s="3">
-        <v>193900</v>
+        <v>194400</v>
       </c>
       <c r="I47" s="3">
-        <v>444600</v>
+        <v>445600</v>
       </c>
       <c r="J47" s="3">
-        <v>299000</v>
+        <v>299600</v>
       </c>
       <c r="K47" s="3">
         <v>849100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1801500</v>
+        <v>1805400</v>
       </c>
       <c r="E48" s="3">
-        <v>1964400</v>
+        <v>1968700</v>
       </c>
       <c r="F48" s="3">
-        <v>2112300</v>
+        <v>2116900</v>
       </c>
       <c r="G48" s="3">
-        <v>817300</v>
+        <v>819000</v>
       </c>
       <c r="H48" s="3">
-        <v>1533200</v>
+        <v>1536500</v>
       </c>
       <c r="I48" s="3">
-        <v>1402300</v>
+        <v>1405400</v>
       </c>
       <c r="J48" s="3">
-        <v>1414000</v>
+        <v>1417100</v>
       </c>
       <c r="K48" s="3">
         <v>1481100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2360700</v>
+        <v>2365900</v>
       </c>
       <c r="E49" s="3">
-        <v>2487700</v>
+        <v>2493100</v>
       </c>
       <c r="F49" s="3">
-        <v>2172300</v>
+        <v>2177100</v>
       </c>
       <c r="G49" s="3">
-        <v>725800</v>
+        <v>727400</v>
       </c>
       <c r="H49" s="3">
-        <v>1481800</v>
+        <v>1485000</v>
       </c>
       <c r="I49" s="3">
-        <v>1254100</v>
+        <v>1256900</v>
       </c>
       <c r="J49" s="3">
-        <v>1092600</v>
+        <v>1095000</v>
       </c>
       <c r="K49" s="3">
         <v>1026700</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>136900</v>
+        <v>137200</v>
       </c>
       <c r="E52" s="3">
-        <v>183800</v>
+        <v>184200</v>
       </c>
       <c r="F52" s="3">
-        <v>178300</v>
+        <v>178700</v>
       </c>
       <c r="G52" s="3">
         <v>33600</v>
       </c>
       <c r="H52" s="3">
-        <v>86100</v>
+        <v>86200</v>
       </c>
       <c r="I52" s="3">
-        <v>327500</v>
+        <v>328200</v>
       </c>
       <c r="J52" s="3">
-        <v>399600</v>
+        <v>400500</v>
       </c>
       <c r="K52" s="3">
         <v>484300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10657800</v>
+        <v>10681000</v>
       </c>
       <c r="E54" s="3">
-        <v>11413400</v>
+        <v>11438300</v>
       </c>
       <c r="F54" s="3">
-        <v>11013700</v>
+        <v>11037800</v>
       </c>
       <c r="G54" s="3">
-        <v>8582600</v>
+        <v>8601300</v>
       </c>
       <c r="H54" s="3">
-        <v>8813000</v>
+        <v>8832300</v>
       </c>
       <c r="I54" s="3">
-        <v>7977800</v>
+        <v>7995200</v>
       </c>
       <c r="J54" s="3">
-        <v>7656600</v>
+        <v>7673300</v>
       </c>
       <c r="K54" s="3">
         <v>8525100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>805900</v>
+        <v>807700</v>
       </c>
       <c r="E57" s="3">
-        <v>573200</v>
+        <v>574500</v>
       </c>
       <c r="F57" s="3">
-        <v>525700</v>
+        <v>526800</v>
       </c>
       <c r="G57" s="3">
-        <v>290600</v>
+        <v>291200</v>
       </c>
       <c r="H57" s="3">
-        <v>696200</v>
+        <v>697700</v>
       </c>
       <c r="I57" s="3">
-        <v>549400</v>
+        <v>550600</v>
       </c>
       <c r="J57" s="3">
-        <v>624900</v>
+        <v>626300</v>
       </c>
       <c r="K57" s="3">
         <v>756100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>336800</v>
+        <v>337500</v>
       </c>
       <c r="E58" s="3">
-        <v>658300</v>
+        <v>659700</v>
       </c>
       <c r="F58" s="3">
-        <v>404900</v>
+        <v>405800</v>
       </c>
       <c r="G58" s="3">
         <v>16100</v>
       </c>
       <c r="H58" s="3">
-        <v>139900</v>
+        <v>140200</v>
       </c>
       <c r="I58" s="3">
-        <v>259100</v>
+        <v>259700</v>
       </c>
       <c r="J58" s="3">
-        <v>335000</v>
+        <v>335700</v>
       </c>
       <c r="K58" s="3">
         <v>160200</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2238100</v>
+        <v>2243000</v>
       </c>
       <c r="E59" s="3">
-        <v>1947900</v>
+        <v>1952200</v>
       </c>
       <c r="F59" s="3">
-        <v>1611300</v>
+        <v>1614900</v>
       </c>
       <c r="G59" s="3">
-        <v>4877300</v>
+        <v>4888000</v>
       </c>
       <c r="H59" s="3">
-        <v>1527300</v>
+        <v>1530600</v>
       </c>
       <c r="I59" s="3">
-        <v>1620200</v>
+        <v>1623700</v>
       </c>
       <c r="J59" s="3">
-        <v>1128100</v>
+        <v>1130500</v>
       </c>
       <c r="K59" s="3">
         <v>1334200</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3380900</v>
+        <v>3388200</v>
       </c>
       <c r="E60" s="3">
-        <v>3179500</v>
+        <v>3186400</v>
       </c>
       <c r="F60" s="3">
-        <v>2541900</v>
+        <v>2547500</v>
       </c>
       <c r="G60" s="3">
-        <v>5184000</v>
+        <v>5195400</v>
       </c>
       <c r="H60" s="3">
-        <v>2363400</v>
+        <v>2368600</v>
       </c>
       <c r="I60" s="3">
-        <v>1867600</v>
+        <v>1871600</v>
       </c>
       <c r="J60" s="3">
-        <v>2088000</v>
+        <v>2092500</v>
       </c>
       <c r="K60" s="3">
         <v>2250500</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3103800</v>
+        <v>3110600</v>
       </c>
       <c r="E61" s="3">
-        <v>3939300</v>
+        <v>3947900</v>
       </c>
       <c r="F61" s="3">
-        <v>4318100</v>
+        <v>4327600</v>
       </c>
       <c r="G61" s="3">
-        <v>89000</v>
+        <v>89200</v>
       </c>
       <c r="H61" s="3">
-        <v>2706700</v>
+        <v>2712600</v>
       </c>
       <c r="I61" s="3">
-        <v>2538100</v>
+        <v>2543600</v>
       </c>
       <c r="J61" s="3">
-        <v>2133000</v>
+        <v>2137700</v>
       </c>
       <c r="K61" s="3">
         <v>2418900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1205100</v>
+        <v>1207700</v>
       </c>
       <c r="E62" s="3">
-        <v>1176000</v>
+        <v>1178600</v>
       </c>
       <c r="F62" s="3">
-        <v>1103300</v>
+        <v>1105700</v>
       </c>
       <c r="G62" s="3">
-        <v>375200</v>
+        <v>376100</v>
       </c>
       <c r="H62" s="3">
-        <v>668200</v>
+        <v>669600</v>
       </c>
       <c r="I62" s="3">
-        <v>858200</v>
+        <v>860100</v>
       </c>
       <c r="J62" s="3">
-        <v>848600</v>
+        <v>850500</v>
       </c>
       <c r="K62" s="3">
         <v>1047700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7959700</v>
+        <v>7977000</v>
       </c>
       <c r="E66" s="3">
-        <v>8415100</v>
+        <v>8433500</v>
       </c>
       <c r="F66" s="3">
-        <v>8081200</v>
+        <v>8098900</v>
       </c>
       <c r="G66" s="3">
-        <v>5726900</v>
+        <v>5739500</v>
       </c>
       <c r="H66" s="3">
-        <v>5811900</v>
+        <v>5824600</v>
       </c>
       <c r="I66" s="3">
-        <v>5270200</v>
+        <v>5281700</v>
       </c>
       <c r="J66" s="3">
-        <v>5130300</v>
+        <v>5141500</v>
       </c>
       <c r="K66" s="3">
         <v>5791500</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-478700</v>
+        <v>-479700</v>
       </c>
       <c r="E72" s="3">
-        <v>-286600</v>
+        <v>-287200</v>
       </c>
       <c r="F72" s="3">
-        <v>-231200</v>
+        <v>-231700</v>
       </c>
       <c r="G72" s="3">
-        <v>501800</v>
+        <v>502900</v>
       </c>
       <c r="H72" s="3">
-        <v>768200</v>
+        <v>769900</v>
       </c>
       <c r="I72" s="3">
-        <v>989100</v>
+        <v>991300</v>
       </c>
       <c r="J72" s="3">
-        <v>874700</v>
+        <v>876600</v>
       </c>
       <c r="K72" s="3">
         <v>737000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2698100</v>
+        <v>2704000</v>
       </c>
       <c r="E76" s="3">
-        <v>2998300</v>
+        <v>3004800</v>
       </c>
       <c r="F76" s="3">
-        <v>2932400</v>
+        <v>2938900</v>
       </c>
       <c r="G76" s="3">
-        <v>2855600</v>
+        <v>2861900</v>
       </c>
       <c r="H76" s="3">
-        <v>3001100</v>
+        <v>3007700</v>
       </c>
       <c r="I76" s="3">
-        <v>2707700</v>
+        <v>2713600</v>
       </c>
       <c r="J76" s="3">
-        <v>2526300</v>
+        <v>2531800</v>
       </c>
       <c r="K76" s="3">
         <v>2733600</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-192100</v>
+        <v>-192500</v>
       </c>
       <c r="E81" s="3">
-        <v>-55300</v>
+        <v>-55500</v>
       </c>
       <c r="F81" s="3">
-        <v>-728300</v>
+        <v>-729900</v>
       </c>
       <c r="G81" s="3">
-        <v>-355100</v>
+        <v>-355900</v>
       </c>
       <c r="H81" s="3">
-        <v>-134700</v>
+        <v>-135000</v>
       </c>
       <c r="I81" s="3">
-        <v>171300</v>
+        <v>171700</v>
       </c>
       <c r="J81" s="3">
-        <v>117900</v>
+        <v>118200</v>
       </c>
       <c r="K81" s="3">
         <v>45200</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>218700</v>
+        <v>219200</v>
       </c>
       <c r="E83" s="3">
-        <v>226800</v>
+        <v>227300</v>
       </c>
       <c r="F83" s="3">
-        <v>311800</v>
+        <v>312500</v>
       </c>
       <c r="G83" s="3">
-        <v>167400</v>
+        <v>167700</v>
       </c>
       <c r="H83" s="3">
-        <v>200400</v>
+        <v>200800</v>
       </c>
       <c r="I83" s="3">
-        <v>220800</v>
+        <v>221300</v>
       </c>
       <c r="J83" s="3">
-        <v>257000</v>
+        <v>257500</v>
       </c>
       <c r="K83" s="3">
         <v>200800</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>773600</v>
+        <v>775200</v>
       </c>
       <c r="E89" s="3">
-        <v>574600</v>
+        <v>575900</v>
       </c>
       <c r="F89" s="3">
-        <v>-1311600</v>
+        <v>-1314500</v>
       </c>
       <c r="G89" s="3">
-        <v>755100</v>
+        <v>756800</v>
       </c>
       <c r="H89" s="3">
-        <v>808200</v>
+        <v>809900</v>
       </c>
       <c r="I89" s="3">
-        <v>502900</v>
+        <v>504000</v>
       </c>
       <c r="J89" s="3">
-        <v>-62200</v>
+        <v>-62400</v>
       </c>
       <c r="K89" s="3">
         <v>679700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-141400</v>
+        <v>-141700</v>
       </c>
       <c r="E91" s="3">
-        <v>-110700</v>
+        <v>-111000</v>
       </c>
       <c r="F91" s="3">
-        <v>-105400</v>
+        <v>-105700</v>
       </c>
       <c r="G91" s="3">
-        <v>-227500</v>
+        <v>-228000</v>
       </c>
       <c r="H91" s="3">
-        <v>-113800</v>
+        <v>-114100</v>
       </c>
       <c r="I91" s="3">
-        <v>-153600</v>
+        <v>-154000</v>
       </c>
       <c r="J91" s="3">
-        <v>-272300</v>
+        <v>-272900</v>
       </c>
       <c r="K91" s="3">
         <v>-213500</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-119800</v>
+        <v>-120000</v>
       </c>
       <c r="E94" s="3">
-        <v>-159100</v>
+        <v>-159500</v>
       </c>
       <c r="F94" s="3">
-        <v>-190000</v>
+        <v>-190400</v>
       </c>
       <c r="G94" s="3">
-        <v>320000</v>
+        <v>320700</v>
       </c>
       <c r="H94" s="3">
-        <v>-385800</v>
+        <v>-386600</v>
       </c>
       <c r="I94" s="3">
-        <v>-697600</v>
+        <v>-699100</v>
       </c>
       <c r="J94" s="3">
-        <v>-681200</v>
+        <v>-682700</v>
       </c>
       <c r="K94" s="3">
         <v>-964800</v>
@@ -4009,7 +4009,7 @@
         <v>-1500</v>
       </c>
       <c r="H96" s="3">
-        <v>-28100</v>
+        <v>-28200</v>
       </c>
       <c r="I96" s="3">
         <v>-34900</v>
@@ -4165,22 +4165,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-679600</v>
+        <v>-681000</v>
       </c>
       <c r="E100" s="3">
-        <v>-479300</v>
+        <v>-480400</v>
       </c>
       <c r="F100" s="3">
-        <v>1055700</v>
+        <v>1058000</v>
       </c>
       <c r="G100" s="3">
-        <v>-206700</v>
+        <v>-207200</v>
       </c>
       <c r="H100" s="3">
-        <v>-379800</v>
+        <v>-380600</v>
       </c>
       <c r="I100" s="3">
-        <v>222300</v>
+        <v>222800</v>
       </c>
       <c r="J100" s="3">
         <v>3000</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-132800</v>
+        <v>-133100</v>
       </c>
       <c r="E101" s="3">
-        <v>159300</v>
+        <v>159700</v>
       </c>
       <c r="F101" s="3">
-        <v>543400</v>
+        <v>544600</v>
       </c>
       <c r="G101" s="3">
         <v>5400</v>
       </c>
       <c r="H101" s="3">
-        <v>110300</v>
+        <v>110600</v>
       </c>
       <c r="I101" s="3">
         <v>4000</v>
       </c>
       <c r="J101" s="3">
-        <v>-147600</v>
+        <v>-148000</v>
       </c>
       <c r="K101" s="3">
         <v>288600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-158500</v>
+        <v>-158900</v>
       </c>
       <c r="E102" s="3">
-        <v>95500</v>
+        <v>95700</v>
       </c>
       <c r="F102" s="3">
-        <v>97600</v>
+        <v>97800</v>
       </c>
       <c r="G102" s="3">
-        <v>873800</v>
+        <v>875700</v>
       </c>
       <c r="H102" s="3">
-        <v>152900</v>
+        <v>153300</v>
       </c>
       <c r="I102" s="3">
-        <v>31700</v>
+        <v>31800</v>
       </c>
       <c r="J102" s="3">
-        <v>-888100</v>
+        <v>-890000</v>
       </c>
       <c r="K102" s="3">
         <v>730700</v>

--- a/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ERJ_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4732900</v>
+        <v>4821800</v>
       </c>
       <c r="E8" s="3">
-        <v>4575700</v>
+        <v>4661600</v>
       </c>
       <c r="F8" s="3">
-        <v>3964500</v>
+        <v>4038900</v>
       </c>
       <c r="G8" s="3">
-        <v>4400500</v>
+        <v>4483200</v>
       </c>
       <c r="H8" s="3">
-        <v>1592100</v>
+        <v>1622000</v>
       </c>
       <c r="I8" s="3">
-        <v>3789800</v>
+        <v>3860900</v>
       </c>
       <c r="J8" s="3">
-        <v>4326600</v>
+        <v>4407800</v>
       </c>
       <c r="K8" s="3">
         <v>3798300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3788100</v>
+        <v>3859200</v>
       </c>
       <c r="E9" s="3">
-        <v>3869600</v>
+        <v>3942300</v>
       </c>
       <c r="F9" s="3">
-        <v>3482500</v>
+        <v>3547900</v>
       </c>
       <c r="G9" s="3">
-        <v>3763300</v>
+        <v>3834000</v>
       </c>
       <c r="H9" s="3">
-        <v>1448400</v>
+        <v>1475600</v>
       </c>
       <c r="I9" s="3">
-        <v>3080600</v>
+        <v>3138400</v>
       </c>
       <c r="J9" s="3">
-        <v>3464800</v>
+        <v>3529900</v>
       </c>
       <c r="K9" s="3">
         <v>3095500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>944800</v>
+        <v>962500</v>
       </c>
       <c r="E10" s="3">
-        <v>706000</v>
+        <v>719300</v>
       </c>
       <c r="F10" s="3">
-        <v>482000</v>
+        <v>491000</v>
       </c>
       <c r="G10" s="3">
-        <v>637200</v>
+        <v>649200</v>
       </c>
       <c r="H10" s="3">
-        <v>143700</v>
+        <v>146400</v>
       </c>
       <c r="I10" s="3">
-        <v>709200</v>
+        <v>722500</v>
       </c>
       <c r="J10" s="3">
-        <v>861800</v>
+        <v>878000</v>
       </c>
       <c r="K10" s="3">
         <v>702800</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>114400</v>
+        <v>116500</v>
       </c>
       <c r="E12" s="3">
-        <v>47100</v>
+        <v>48000</v>
       </c>
       <c r="F12" s="3">
-        <v>31300</v>
+        <v>31900</v>
       </c>
       <c r="G12" s="3">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="H12" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="I12" s="3">
-        <v>31800</v>
+        <v>32400</v>
       </c>
       <c r="J12" s="3">
-        <v>32700</v>
+        <v>33300</v>
       </c>
       <c r="K12" s="3">
         <v>26600</v>
@@ -954,16 +954,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>179500</v>
+        <v>182900</v>
       </c>
       <c r="E14" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F14" s="3">
-        <v>50900</v>
+        <v>51900</v>
       </c>
       <c r="G14" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="H14" s="3">
         <v>600</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>109500</v>
+        <v>111600</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4845000</v>
+        <v>4936000</v>
       </c>
       <c r="E17" s="3">
-        <v>4362800</v>
+        <v>4444700</v>
       </c>
       <c r="F17" s="3">
-        <v>4303800</v>
+        <v>4384600</v>
       </c>
       <c r="G17" s="3">
-        <v>4463100</v>
+        <v>4546900</v>
       </c>
       <c r="H17" s="3">
-        <v>1808000</v>
+        <v>1841900</v>
       </c>
       <c r="I17" s="3">
-        <v>3569000</v>
+        <v>3636000</v>
       </c>
       <c r="J17" s="3">
-        <v>4181700</v>
+        <v>4260200</v>
       </c>
       <c r="K17" s="3">
         <v>3591900</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-112100</v>
+        <v>-114200</v>
       </c>
       <c r="E18" s="3">
-        <v>212900</v>
+        <v>216900</v>
       </c>
       <c r="F18" s="3">
-        <v>-339300</v>
+        <v>-345700</v>
       </c>
       <c r="G18" s="3">
-        <v>-62500</v>
+        <v>-63700</v>
       </c>
       <c r="H18" s="3">
-        <v>-215900</v>
+        <v>-219900</v>
       </c>
       <c r="I18" s="3">
-        <v>220800</v>
+        <v>224900</v>
       </c>
       <c r="J18" s="3">
-        <v>144900</v>
+        <v>147600</v>
       </c>
       <c r="K18" s="3">
         <v>206400</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>110800</v>
+        <v>112800</v>
       </c>
       <c r="E20" s="3">
-        <v>73900</v>
+        <v>75300</v>
       </c>
       <c r="F20" s="3">
-        <v>-103900</v>
+        <v>-105900</v>
       </c>
       <c r="G20" s="3">
-        <v>73400</v>
+        <v>74800</v>
       </c>
       <c r="H20" s="3">
-        <v>29800</v>
+        <v>30300</v>
       </c>
       <c r="I20" s="3">
-        <v>117500</v>
+        <v>119700</v>
       </c>
       <c r="J20" s="3">
-        <v>96100</v>
+        <v>97900</v>
       </c>
       <c r="K20" s="3">
         <v>104900</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>217800</v>
+        <v>221900</v>
       </c>
       <c r="E21" s="3">
-        <v>514100</v>
+        <v>523800</v>
       </c>
       <c r="F21" s="3">
-        <v>-130800</v>
+        <v>-133200</v>
       </c>
       <c r="G21" s="3">
-        <v>178600</v>
+        <v>182000</v>
       </c>
       <c r="H21" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="I21" s="3">
-        <v>559600</v>
+        <v>570100</v>
       </c>
       <c r="J21" s="3">
-        <v>498500</v>
+        <v>507900</v>
       </c>
       <c r="K21" s="3">
         <v>518300</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>213100</v>
+        <v>217100</v>
       </c>
       <c r="E22" s="3">
-        <v>262200</v>
+        <v>267200</v>
       </c>
       <c r="F22" s="3">
-        <v>225300</v>
+        <v>229500</v>
       </c>
       <c r="G22" s="3">
-        <v>160400</v>
+        <v>163400</v>
       </c>
       <c r="H22" s="3">
-        <v>28700</v>
+        <v>29300</v>
       </c>
       <c r="I22" s="3">
-        <v>138800</v>
+        <v>141400</v>
       </c>
       <c r="J22" s="3">
-        <v>128800</v>
+        <v>131200</v>
       </c>
       <c r="K22" s="3">
         <v>105200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-214500</v>
+        <v>-218500</v>
       </c>
       <c r="E23" s="3">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="F23" s="3">
-        <v>-668500</v>
+        <v>-681100</v>
       </c>
       <c r="G23" s="3">
-        <v>-149500</v>
+        <v>-152300</v>
       </c>
       <c r="H23" s="3">
-        <v>-214800</v>
+        <v>-218900</v>
       </c>
       <c r="I23" s="3">
-        <v>199500</v>
+        <v>203300</v>
       </c>
       <c r="J23" s="3">
-        <v>112200</v>
+        <v>114300</v>
       </c>
       <c r="K23" s="3">
         <v>206200</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="E24" s="3">
-        <v>78500</v>
+        <v>80000</v>
       </c>
       <c r="F24" s="3">
-        <v>57300</v>
+        <v>58400</v>
       </c>
       <c r="G24" s="3">
-        <v>111700</v>
+        <v>113800</v>
       </c>
       <c r="H24" s="3">
-        <v>-17800</v>
+        <v>-18100</v>
       </c>
       <c r="I24" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="J24" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="K24" s="3">
         <v>153500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-211400</v>
+        <v>-215300</v>
       </c>
       <c r="E26" s="3">
-        <v>-54000</v>
+        <v>-55000</v>
       </c>
       <c r="F26" s="3">
-        <v>-725900</v>
+        <v>-739500</v>
       </c>
       <c r="G26" s="3">
-        <v>-261200</v>
+        <v>-266100</v>
       </c>
       <c r="H26" s="3">
-        <v>-197100</v>
+        <v>-200800</v>
       </c>
       <c r="I26" s="3">
-        <v>182100</v>
+        <v>185500</v>
       </c>
       <c r="J26" s="3">
-        <v>119500</v>
+        <v>121700</v>
       </c>
       <c r="K26" s="3">
         <v>52700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-192500</v>
+        <v>-196100</v>
       </c>
       <c r="E27" s="3">
-        <v>-55500</v>
+        <v>-56500</v>
       </c>
       <c r="F27" s="3">
-        <v>-729900</v>
+        <v>-743600</v>
       </c>
       <c r="G27" s="3">
-        <v>-265800</v>
+        <v>-270800</v>
       </c>
       <c r="H27" s="3">
-        <v>-202200</v>
+        <v>-206000</v>
       </c>
       <c r="I27" s="3">
-        <v>171700</v>
+        <v>174900</v>
       </c>
       <c r="J27" s="3">
-        <v>118200</v>
+        <v>120400</v>
       </c>
       <c r="K27" s="3">
         <v>45200</v>
@@ -1542,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="G29" s="3">
-        <v>-90100</v>
+        <v>-91800</v>
       </c>
       <c r="H29" s="3">
-        <v>67200</v>
+        <v>68400</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-110800</v>
+        <v>-112800</v>
       </c>
       <c r="E32" s="3">
-        <v>-73900</v>
+        <v>-75300</v>
       </c>
       <c r="F32" s="3">
-        <v>103900</v>
+        <v>105900</v>
       </c>
       <c r="G32" s="3">
-        <v>-73400</v>
+        <v>-74800</v>
       </c>
       <c r="H32" s="3">
-        <v>-29800</v>
+        <v>-30300</v>
       </c>
       <c r="I32" s="3">
-        <v>-117500</v>
+        <v>-119700</v>
       </c>
       <c r="J32" s="3">
-        <v>-96100</v>
+        <v>-97900</v>
       </c>
       <c r="K32" s="3">
         <v>-104900</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-192500</v>
+        <v>-196100</v>
       </c>
       <c r="E33" s="3">
-        <v>-55500</v>
+        <v>-56500</v>
       </c>
       <c r="F33" s="3">
-        <v>-729900</v>
+        <v>-743600</v>
       </c>
       <c r="G33" s="3">
-        <v>-355900</v>
+        <v>-362600</v>
       </c>
       <c r="H33" s="3">
-        <v>-135000</v>
+        <v>-137600</v>
       </c>
       <c r="I33" s="3">
-        <v>171700</v>
+        <v>174900</v>
       </c>
       <c r="J33" s="3">
-        <v>118200</v>
+        <v>120400</v>
       </c>
       <c r="K33" s="3">
         <v>45200</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-192500</v>
+        <v>-196100</v>
       </c>
       <c r="E35" s="3">
-        <v>-55500</v>
+        <v>-56500</v>
       </c>
       <c r="F35" s="3">
-        <v>-729900</v>
+        <v>-743600</v>
       </c>
       <c r="G35" s="3">
-        <v>-355900</v>
+        <v>-362600</v>
       </c>
       <c r="H35" s="3">
-        <v>-135000</v>
+        <v>-137600</v>
       </c>
       <c r="I35" s="3">
-        <v>171700</v>
+        <v>174900</v>
       </c>
       <c r="J35" s="3">
-        <v>118200</v>
+        <v>120400</v>
       </c>
       <c r="K35" s="3">
         <v>45200</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1913400</v>
+        <v>1949400</v>
       </c>
       <c r="E41" s="3">
-        <v>2048100</v>
+        <v>2086600</v>
       </c>
       <c r="F41" s="3">
-        <v>1975200</v>
+        <v>2012300</v>
       </c>
       <c r="G41" s="3">
-        <v>695700</v>
+        <v>708800</v>
       </c>
       <c r="H41" s="3">
-        <v>1001700</v>
+        <v>1020600</v>
       </c>
       <c r="I41" s="3">
-        <v>848500</v>
+        <v>864400</v>
       </c>
       <c r="J41" s="3">
-        <v>816700</v>
+        <v>832000</v>
       </c>
       <c r="K41" s="3">
         <v>1582000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>520600</v>
+        <v>530400</v>
       </c>
       <c r="E42" s="3">
-        <v>845700</v>
+        <v>861600</v>
       </c>
       <c r="F42" s="3">
-        <v>857500</v>
+        <v>873600</v>
       </c>
       <c r="G42" s="3">
-        <v>333400</v>
+        <v>339700</v>
       </c>
       <c r="H42" s="3">
-        <v>1363500</v>
+        <v>1389100</v>
       </c>
       <c r="I42" s="3">
-        <v>1641700</v>
+        <v>1672500</v>
       </c>
       <c r="J42" s="3">
-        <v>1168000</v>
+        <v>1189900</v>
       </c>
       <c r="K42" s="3">
         <v>454900</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>991400</v>
+        <v>1010000</v>
       </c>
       <c r="E43" s="3">
-        <v>1050700</v>
+        <v>1070500</v>
       </c>
       <c r="F43" s="3">
-        <v>883100</v>
+        <v>899600</v>
       </c>
       <c r="G43" s="3">
-        <v>626800</v>
+        <v>638600</v>
       </c>
       <c r="H43" s="3">
-        <v>848300</v>
+        <v>864200</v>
       </c>
       <c r="I43" s="3">
-        <v>754300</v>
+        <v>768400</v>
       </c>
       <c r="J43" s="3">
-        <v>639300</v>
+        <v>651300</v>
       </c>
       <c r="K43" s="3">
         <v>790300</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2452800</v>
+        <v>2498800</v>
       </c>
       <c r="E44" s="3">
-        <v>2236900</v>
+        <v>2278900</v>
       </c>
       <c r="F44" s="3">
-        <v>2564600</v>
+        <v>2612800</v>
       </c>
       <c r="G44" s="3">
-        <v>1061200</v>
+        <v>1081200</v>
       </c>
       <c r="H44" s="3">
-        <v>1960700</v>
+        <v>1997500</v>
       </c>
       <c r="I44" s="3">
-        <v>1434700</v>
+        <v>1461600</v>
       </c>
       <c r="J44" s="3">
-        <v>1642200</v>
+        <v>1673000</v>
       </c>
       <c r="K44" s="3">
         <v>1690900</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>184400</v>
+        <v>187800</v>
       </c>
       <c r="E45" s="3">
-        <v>436900</v>
+        <v>445100</v>
       </c>
       <c r="F45" s="3">
-        <v>141900</v>
+        <v>144600</v>
       </c>
       <c r="G45" s="3">
-        <v>4256100</v>
+        <v>4336000</v>
       </c>
       <c r="H45" s="3">
-        <v>355800</v>
+        <v>362500</v>
       </c>
       <c r="I45" s="3">
-        <v>109700</v>
+        <v>111700</v>
       </c>
       <c r="J45" s="3">
-        <v>195000</v>
+        <v>198600</v>
       </c>
       <c r="K45" s="3">
         <v>165900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6062600</v>
+        <v>6176400</v>
       </c>
       <c r="E46" s="3">
-        <v>6618400</v>
+        <v>6742600</v>
       </c>
       <c r="F46" s="3">
-        <v>6422300</v>
+        <v>6542900</v>
       </c>
       <c r="G46" s="3">
-        <v>6973300</v>
+        <v>7104200</v>
       </c>
       <c r="H46" s="3">
-        <v>5530100</v>
+        <v>5633900</v>
       </c>
       <c r="I46" s="3">
-        <v>4726900</v>
+        <v>4815700</v>
       </c>
       <c r="J46" s="3">
-        <v>4461100</v>
+        <v>4544900</v>
       </c>
       <c r="K46" s="3">
         <v>4684000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>309900</v>
+        <v>315800</v>
       </c>
       <c r="E47" s="3">
-        <v>173900</v>
+        <v>177200</v>
       </c>
       <c r="F47" s="3">
-        <v>142700</v>
+        <v>145400</v>
       </c>
       <c r="G47" s="3">
-        <v>47900</v>
+        <v>48800</v>
       </c>
       <c r="H47" s="3">
-        <v>194400</v>
+        <v>198000</v>
       </c>
       <c r="I47" s="3">
-        <v>445600</v>
+        <v>454000</v>
       </c>
       <c r="J47" s="3">
-        <v>299600</v>
+        <v>305200</v>
       </c>
       <c r="K47" s="3">
         <v>849100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1805400</v>
+        <v>1839300</v>
       </c>
       <c r="E48" s="3">
-        <v>1968700</v>
+        <v>2005600</v>
       </c>
       <c r="F48" s="3">
-        <v>2116900</v>
+        <v>2156700</v>
       </c>
       <c r="G48" s="3">
-        <v>819000</v>
+        <v>834400</v>
       </c>
       <c r="H48" s="3">
-        <v>1536500</v>
+        <v>1565400</v>
       </c>
       <c r="I48" s="3">
-        <v>1405400</v>
+        <v>1431800</v>
       </c>
       <c r="J48" s="3">
-        <v>1417100</v>
+        <v>1443700</v>
       </c>
       <c r="K48" s="3">
         <v>1481100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2365900</v>
+        <v>2410300</v>
       </c>
       <c r="E49" s="3">
-        <v>2493100</v>
+        <v>2539900</v>
       </c>
       <c r="F49" s="3">
-        <v>2177100</v>
+        <v>2218000</v>
       </c>
       <c r="G49" s="3">
-        <v>727400</v>
+        <v>741100</v>
       </c>
       <c r="H49" s="3">
-        <v>1485000</v>
+        <v>1512900</v>
       </c>
       <c r="I49" s="3">
-        <v>1256900</v>
+        <v>1280500</v>
       </c>
       <c r="J49" s="3">
-        <v>1095000</v>
+        <v>1115600</v>
       </c>
       <c r="K49" s="3">
         <v>1026700</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>137200</v>
+        <v>139800</v>
       </c>
       <c r="E52" s="3">
-        <v>184200</v>
+        <v>187700</v>
       </c>
       <c r="F52" s="3">
-        <v>178700</v>
+        <v>182000</v>
       </c>
       <c r="G52" s="3">
-        <v>33600</v>
+        <v>34300</v>
       </c>
       <c r="H52" s="3">
-        <v>86200</v>
+        <v>87900</v>
       </c>
       <c r="I52" s="3">
-        <v>328200</v>
+        <v>334400</v>
       </c>
       <c r="J52" s="3">
-        <v>400500</v>
+        <v>408000</v>
       </c>
       <c r="K52" s="3">
         <v>484300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10681000</v>
+        <v>10881600</v>
       </c>
       <c r="E54" s="3">
-        <v>11438300</v>
+        <v>11653100</v>
       </c>
       <c r="F54" s="3">
-        <v>11037800</v>
+        <v>11245000</v>
       </c>
       <c r="G54" s="3">
-        <v>8601300</v>
+        <v>8762900</v>
       </c>
       <c r="H54" s="3">
-        <v>8832300</v>
+        <v>8998100</v>
       </c>
       <c r="I54" s="3">
-        <v>7995200</v>
+        <v>8145400</v>
       </c>
       <c r="J54" s="3">
-        <v>7673300</v>
+        <v>7817400</v>
       </c>
       <c r="K54" s="3">
         <v>8525100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>807700</v>
+        <v>822900</v>
       </c>
       <c r="E57" s="3">
-        <v>574500</v>
+        <v>585300</v>
       </c>
       <c r="F57" s="3">
-        <v>526800</v>
+        <v>536700</v>
       </c>
       <c r="G57" s="3">
-        <v>291200</v>
+        <v>296700</v>
       </c>
       <c r="H57" s="3">
-        <v>697700</v>
+        <v>710800</v>
       </c>
       <c r="I57" s="3">
-        <v>550600</v>
+        <v>561000</v>
       </c>
       <c r="J57" s="3">
-        <v>626300</v>
+        <v>638100</v>
       </c>
       <c r="K57" s="3">
         <v>756100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>337500</v>
+        <v>343900</v>
       </c>
       <c r="E58" s="3">
-        <v>659700</v>
+        <v>672100</v>
       </c>
       <c r="F58" s="3">
-        <v>405800</v>
+        <v>413400</v>
       </c>
       <c r="G58" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="H58" s="3">
-        <v>140200</v>
+        <v>142900</v>
       </c>
       <c r="I58" s="3">
-        <v>259700</v>
+        <v>264600</v>
       </c>
       <c r="J58" s="3">
-        <v>335700</v>
+        <v>342000</v>
       </c>
       <c r="K58" s="3">
         <v>160200</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2243000</v>
+        <v>2285100</v>
       </c>
       <c r="E59" s="3">
-        <v>1952200</v>
+        <v>1988800</v>
       </c>
       <c r="F59" s="3">
-        <v>1614900</v>
+        <v>1645200</v>
       </c>
       <c r="G59" s="3">
-        <v>4888000</v>
+        <v>4979800</v>
       </c>
       <c r="H59" s="3">
-        <v>1530600</v>
+        <v>1559400</v>
       </c>
       <c r="I59" s="3">
-        <v>1623700</v>
+        <v>1654200</v>
       </c>
       <c r="J59" s="3">
-        <v>1130500</v>
+        <v>1151700</v>
       </c>
       <c r="K59" s="3">
         <v>1334200</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3388200</v>
+        <v>3451900</v>
       </c>
       <c r="E60" s="3">
-        <v>3186400</v>
+        <v>3246200</v>
       </c>
       <c r="F60" s="3">
-        <v>2547500</v>
+        <v>2595300</v>
       </c>
       <c r="G60" s="3">
-        <v>5195400</v>
+        <v>5292900</v>
       </c>
       <c r="H60" s="3">
-        <v>2368600</v>
+        <v>2413000</v>
       </c>
       <c r="I60" s="3">
-        <v>1871600</v>
+        <v>1906800</v>
       </c>
       <c r="J60" s="3">
-        <v>2092500</v>
+        <v>2131800</v>
       </c>
       <c r="K60" s="3">
         <v>2250500</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3110600</v>
+        <v>3169000</v>
       </c>
       <c r="E61" s="3">
-        <v>3947900</v>
+        <v>4022100</v>
       </c>
       <c r="F61" s="3">
-        <v>4327600</v>
+        <v>4408800</v>
       </c>
       <c r="G61" s="3">
-        <v>89200</v>
+        <v>90900</v>
       </c>
       <c r="H61" s="3">
-        <v>2712600</v>
+        <v>2763500</v>
       </c>
       <c r="I61" s="3">
-        <v>2543600</v>
+        <v>2591400</v>
       </c>
       <c r="J61" s="3">
-        <v>2137700</v>
+        <v>2177800</v>
       </c>
       <c r="K61" s="3">
         <v>2418900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1207700</v>
+        <v>1230400</v>
       </c>
       <c r="E62" s="3">
-        <v>1178600</v>
+        <v>1200700</v>
       </c>
       <c r="F62" s="3">
-        <v>1105700</v>
+        <v>1126500</v>
       </c>
       <c r="G62" s="3">
-        <v>376100</v>
+        <v>383100</v>
       </c>
       <c r="H62" s="3">
-        <v>669600</v>
+        <v>682200</v>
       </c>
       <c r="I62" s="3">
-        <v>860100</v>
+        <v>876300</v>
       </c>
       <c r="J62" s="3">
-        <v>850500</v>
+        <v>866500</v>
       </c>
       <c r="K62" s="3">
         <v>1047700</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7977000</v>
+        <v>8126800</v>
       </c>
       <c r="E66" s="3">
-        <v>8433500</v>
+        <v>8591900</v>
       </c>
       <c r="F66" s="3">
-        <v>8098900</v>
+        <v>8251000</v>
       </c>
       <c r="G66" s="3">
-        <v>5739500</v>
+        <v>5847200</v>
       </c>
       <c r="H66" s="3">
-        <v>5824600</v>
+        <v>5934000</v>
       </c>
       <c r="I66" s="3">
-        <v>5281700</v>
+        <v>5380800</v>
       </c>
       <c r="J66" s="3">
-        <v>5141500</v>
+        <v>5238000</v>
       </c>
       <c r="K66" s="3">
         <v>5791500</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-479700</v>
+        <v>-488700</v>
       </c>
       <c r="E72" s="3">
-        <v>-287200</v>
+        <v>-292600</v>
       </c>
       <c r="F72" s="3">
-        <v>-231700</v>
+        <v>-236100</v>
       </c>
       <c r="G72" s="3">
-        <v>502900</v>
+        <v>512400</v>
       </c>
       <c r="H72" s="3">
-        <v>769900</v>
+        <v>784400</v>
       </c>
       <c r="I72" s="3">
-        <v>991300</v>
+        <v>1009900</v>
       </c>
       <c r="J72" s="3">
-        <v>876600</v>
+        <v>893000</v>
       </c>
       <c r="K72" s="3">
         <v>737000</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2704000</v>
+        <v>2754800</v>
       </c>
       <c r="E76" s="3">
-        <v>3004800</v>
+        <v>3061200</v>
       </c>
       <c r="F76" s="3">
-        <v>2938900</v>
+        <v>2994000</v>
       </c>
       <c r="G76" s="3">
-        <v>2861900</v>
+        <v>2915600</v>
       </c>
       <c r="H76" s="3">
-        <v>3007700</v>
+        <v>3064100</v>
       </c>
       <c r="I76" s="3">
-        <v>2713600</v>
+        <v>2764500</v>
       </c>
       <c r="J76" s="3">
-        <v>2531800</v>
+        <v>2579300</v>
       </c>
       <c r="K76" s="3">
         <v>2733600</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-192500</v>
+        <v>-196100</v>
       </c>
       <c r="E81" s="3">
-        <v>-55500</v>
+        <v>-56500</v>
       </c>
       <c r="F81" s="3">
-        <v>-729900</v>
+        <v>-743600</v>
       </c>
       <c r="G81" s="3">
-        <v>-355900</v>
+        <v>-362600</v>
       </c>
       <c r="H81" s="3">
-        <v>-135000</v>
+        <v>-137600</v>
       </c>
       <c r="I81" s="3">
-        <v>171700</v>
+        <v>174900</v>
       </c>
       <c r="J81" s="3">
-        <v>118200</v>
+        <v>120400</v>
       </c>
       <c r="K81" s="3">
         <v>45200</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>219200</v>
+        <v>223300</v>
       </c>
       <c r="E83" s="3">
-        <v>227300</v>
+        <v>231600</v>
       </c>
       <c r="F83" s="3">
-        <v>312500</v>
+        <v>318300</v>
       </c>
       <c r="G83" s="3">
-        <v>167700</v>
+        <v>170900</v>
       </c>
       <c r="H83" s="3">
-        <v>200800</v>
+        <v>204600</v>
       </c>
       <c r="I83" s="3">
-        <v>221300</v>
+        <v>225400</v>
       </c>
       <c r="J83" s="3">
-        <v>257500</v>
+        <v>262400</v>
       </c>
       <c r="K83" s="3">
         <v>200800</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>775200</v>
+        <v>789800</v>
       </c>
       <c r="E89" s="3">
-        <v>575900</v>
+        <v>586700</v>
       </c>
       <c r="F89" s="3">
-        <v>-1314500</v>
+        <v>-1339100</v>
       </c>
       <c r="G89" s="3">
-        <v>756800</v>
+        <v>771000</v>
       </c>
       <c r="H89" s="3">
-        <v>809900</v>
+        <v>825100</v>
       </c>
       <c r="I89" s="3">
-        <v>504000</v>
+        <v>513500</v>
       </c>
       <c r="J89" s="3">
-        <v>-62400</v>
+        <v>-63500</v>
       </c>
       <c r="K89" s="3">
         <v>679700</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-141700</v>
+        <v>-144300</v>
       </c>
       <c r="E91" s="3">
-        <v>-111000</v>
+        <v>-113100</v>
       </c>
       <c r="F91" s="3">
-        <v>-105700</v>
+        <v>-107600</v>
       </c>
       <c r="G91" s="3">
-        <v>-228000</v>
+        <v>-232300</v>
       </c>
       <c r="H91" s="3">
-        <v>-114100</v>
+        <v>-116200</v>
       </c>
       <c r="I91" s="3">
-        <v>-154000</v>
+        <v>-156900</v>
       </c>
       <c r="J91" s="3">
-        <v>-272900</v>
+        <v>-278100</v>
       </c>
       <c r="K91" s="3">
         <v>-213500</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-120000</v>
+        <v>-122300</v>
       </c>
       <c r="E94" s="3">
-        <v>-159500</v>
+        <v>-162500</v>
       </c>
       <c r="F94" s="3">
-        <v>-190400</v>
+        <v>-194000</v>
       </c>
       <c r="G94" s="3">
-        <v>320700</v>
+        <v>326700</v>
       </c>
       <c r="H94" s="3">
-        <v>-386600</v>
+        <v>-393900</v>
       </c>
       <c r="I94" s="3">
-        <v>-699100</v>
+        <v>-712200</v>
       </c>
       <c r="J94" s="3">
-        <v>-682700</v>
+        <v>-695500</v>
       </c>
       <c r="K94" s="3">
         <v>-964800</v>
@@ -4009,13 +4009,13 @@
         <v>-1500</v>
       </c>
       <c r="H96" s="3">
-        <v>-28200</v>
+        <v>-28700</v>
       </c>
       <c r="I96" s="3">
-        <v>-34900</v>
+        <v>-35600</v>
       </c>
       <c r="J96" s="3">
-        <v>-20100</v>
+        <v>-20500</v>
       </c>
       <c r="K96" s="3">
         <v>-34100</v>
@@ -4165,22 +4165,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-681000</v>
+        <v>-693800</v>
       </c>
       <c r="E100" s="3">
-        <v>-480400</v>
+        <v>-489400</v>
       </c>
       <c r="F100" s="3">
-        <v>1058000</v>
+        <v>1077900</v>
       </c>
       <c r="G100" s="3">
-        <v>-207200</v>
+        <v>-211100</v>
       </c>
       <c r="H100" s="3">
-        <v>-380600</v>
+        <v>-387800</v>
       </c>
       <c r="I100" s="3">
-        <v>222800</v>
+        <v>227000</v>
       </c>
       <c r="J100" s="3">
         <v>3000</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-133100</v>
+        <v>-135600</v>
       </c>
       <c r="E101" s="3">
-        <v>159700</v>
+        <v>162700</v>
       </c>
       <c r="F101" s="3">
-        <v>544600</v>
+        <v>554900</v>
       </c>
       <c r="G101" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H101" s="3">
-        <v>110600</v>
+        <v>112600</v>
       </c>
       <c r="I101" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J101" s="3">
-        <v>-148000</v>
+        <v>-150700</v>
       </c>
       <c r="K101" s="3">
         <v>288600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-158900</v>
+        <v>-161900</v>
       </c>
       <c r="E102" s="3">
-        <v>95700</v>
+        <v>97500</v>
       </c>
       <c r="F102" s="3">
-        <v>97800</v>
+        <v>99600</v>
       </c>
       <c r="G102" s="3">
-        <v>875700</v>
+        <v>892100</v>
       </c>
       <c r="H102" s="3">
-        <v>153300</v>
+        <v>156100</v>
       </c>
       <c r="I102" s="3">
-        <v>31800</v>
+        <v>32400</v>
       </c>
       <c r="J102" s="3">
-        <v>-890000</v>
+        <v>-906700</v>
       </c>
       <c r="K102" s="3">
         <v>730700</v>
